--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{649C5C71-29A4-4342-8FCA-26FD323E74BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02890DDC-40F3-7647-A223-C98F3938A77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000"/>
+    <workbookView xWindow="440" yWindow="2820" windowWidth="25140" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="196">
   <si>
     <t>name</t>
   </si>
@@ -94,9 +94,6 @@
     <t>NMR data acquisition &amp; processing (Varian instruments)</t>
   </si>
   <si>
-    <t>nD NMR</t>
-  </si>
-  <si>
     <t>nmrGlue</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>1D NMR processing for metabolomics using [NMRProcFlow](https://nmrprocflow.org/)</t>
   </si>
   <si>
-    <t>1D NMR only (native R &amp; VM)</t>
-  </si>
-  <si>
     <t>TIMP</t>
   </si>
   <si>
@@ -362,6 +356,258 @@
   </si>
   <si>
     <t>repository</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrstarlib/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrsim/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pybmrb/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bionmr-utils/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/blochsimu/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/icoshift/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/paramagpy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/chemex/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/famn-opt/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pynmrstar/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/spike-py/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/drawnmr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/biceps/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/peakipy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bfit/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pySpecData/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mwtab/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrml2isa/</t>
+  </si>
+  <si>
+    <t>nmrstarlib</t>
+  </si>
+  <si>
+    <t>https://github.com/MoseleyBioinformaticsLab/nmrstarlib</t>
+  </si>
+  <si>
+    <t>https://bmcbioinformatics.biomedcentral.com/articles/10.1186/s12859-017-1580-5</t>
+  </si>
+  <si>
+    <t>I/O NMR-STAR files to JSON used by BMRB</t>
+  </si>
+  <si>
+    <t>Solution NMR simulation</t>
+  </si>
+  <si>
+    <t>https://github.com/sametz/nmrsim</t>
+  </si>
+  <si>
+    <t>nmrsim</t>
+  </si>
+  <si>
+    <t>PyBMRB</t>
+  </si>
+  <si>
+    <t>https://github.com/uwbmrb/PyBMRB</t>
+  </si>
+  <si>
+    <t>Visualizations based on BMRB data</t>
+  </si>
+  <si>
+    <t>https://github.com/ahmohamed/nmrpro</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrpro/</t>
+  </si>
+  <si>
+    <t>NMRpro</t>
+  </si>
+  <si>
+    <t>https://github.com/sizmailov/bionmr-utils</t>
+  </si>
+  <si>
+    <t>bionmr-utils</t>
+  </si>
+  <si>
+    <t>blochsimu</t>
+  </si>
+  <si>
+    <t>Simulation of Bloch equations</t>
+  </si>
+  <si>
+    <t>Biological NMR utilities</t>
+  </si>
+  <si>
+    <t>https://github.com/mfitzp/icoshift</t>
+  </si>
+  <si>
+    <t>icoshift</t>
+  </si>
+  <si>
+    <t>https://github.com/k7hoven/blochsimu</t>
+  </si>
+  <si>
+    <t>paramagpy</t>
+  </si>
+  <si>
+    <t>Calculation of protein NMR paramagnetic effects</t>
+  </si>
+  <si>
+    <t>https://github.com/henryorton/paramagpy</t>
+  </si>
+  <si>
+    <t>https://chemrxiv.org/articles/Paramagpy_Software_for_Fitting_Magnetic_Susceptibility_Tensors_Using_Paramagnetic_Effects_Measured_in_NMR_Spectra/9643154/1</t>
+  </si>
+  <si>
+    <t>Analysis of chemical exchange by NMR</t>
+  </si>
+  <si>
+    <t>ChemEx</t>
+  </si>
+  <si>
+    <t>https://github.com/gbouvignies/chemex</t>
+  </si>
+  <si>
+    <t>https://github.com/hcolaux/famn_opt</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/jp505752c</t>
+  </si>
+  <si>
+    <t>FAM-N</t>
+  </si>
+  <si>
+    <t>PyNMR-STAR</t>
+  </si>
+  <si>
+    <t>I/O NMR-STAR files from BMRB</t>
+  </si>
+  <si>
+    <t>https://github.com/uwbmrb/PyNMRSTAR</t>
+  </si>
+  <si>
+    <t>SPIKE</t>
+  </si>
+  <si>
+    <t>Processing 1D/2D spectroscopic data</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/delsuc/spike/src/default/</t>
+  </si>
+  <si>
+    <t>drawnmr</t>
+  </si>
+  <si>
+    <t>Visualize NMR data</t>
+  </si>
+  <si>
+    <t>https://github.com/tlinnet/drawnmr</t>
+  </si>
+  <si>
+    <t>BICePs</t>
+  </si>
+  <si>
+    <t>Bayesian inference of conformational populations from NMR data</t>
+  </si>
+  <si>
+    <t>https://github.com/vvoelz/biceps/</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.jpcb.7b11871</t>
+  </si>
+  <si>
+    <t>Peakipy</t>
+  </si>
+  <si>
+    <t>Deconvolution of 2D NMR peaks</t>
+  </si>
+  <si>
+    <t>https://github.com/j-brady/peakipy</t>
+  </si>
+  <si>
+    <t>bfit</t>
+  </si>
+  <si>
+    <t>https://github.com/dfujim/bfit</t>
+  </si>
+  <si>
+    <t>https://github.com/jmfrancklab/pyspecdata</t>
+  </si>
+  <si>
+    <t>Process multidimensional data</t>
+  </si>
+  <si>
+    <t>NMR, ESR</t>
+  </si>
+  <si>
+    <t>pySpecData</t>
+  </si>
+  <si>
+    <t>mwTab</t>
+  </si>
+  <si>
+    <t>I/O mwTab files</t>
+  </si>
+  <si>
+    <t>https://github.com/MoseleyBioinformaticsLab/mwtab</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007%2Fs11306-018-1356-6</t>
+  </si>
+  <si>
+    <t>nmrml2isa</t>
+  </si>
+  <si>
+    <t>https://github.com/ISA-tools/nmrml2isa</t>
+  </si>
+  <si>
+    <t>Convert nmrML files to ISA-TAB [Qt interface](https://pypi.org/project/nmrml2isa-qt/)</t>
+  </si>
+  <si>
+    <t>nD NMR only</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nD NMR only</t>
+  </si>
+  <si>
+    <t>Process &amp; visualize NMR data (Django app available; uses nmrGlue)</t>
+  </si>
+  <si>
+    <t>1D NMR alignment via ICOSHIFT algorithm</t>
+  </si>
+  <si>
+    <t>Optimize composite pulses for MQMAS</t>
+  </si>
+  <si>
+    <t>Visualize NMR data (uses nmrGlue)</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,16 +1474,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1320,141 +1566,141 @@
         <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
-        <v>45</v>
-      </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -1462,90 +1708,90 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
         <v>57</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>59</v>
-      </c>
-      <c r="D13" t="s">
-        <v>60</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>75</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E17" t="s">
         <v>6</v>
@@ -1556,16 +1802,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" t="s">
         <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
         <v>18</v>
@@ -1573,124 +1819,504 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s">
         <v>82</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>83</v>
-      </c>
-      <c r="C19" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" t="s">
-        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
         <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s">
-        <v>93</v>
       </c>
       <c r="E21" t="s">
         <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
         <v>98</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>100</v>
-      </c>
-      <c r="D23" t="s">
-        <v>101</v>
       </c>
       <c r="E23" t="s">
         <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
         <v>106</v>
-      </c>
-      <c r="B25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" t="s">
-        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" t="s">
+        <v>132</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>192</v>
+      </c>
+      <c r="G29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" t="s">
+        <v>146</v>
+      </c>
+      <c r="G31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="E32" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" t="s">
+        <v>193</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" t="s">
+        <v>155</v>
+      </c>
+      <c r="G34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>158</v>
+      </c>
+      <c r="D35" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" t="s">
+        <v>28</v>
+      </c>
+      <c r="F35" t="s">
+        <v>194</v>
+      </c>
+      <c r="G35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" t="s">
+        <v>28</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F37" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>167</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" t="s">
+        <v>195</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" t="s">
+        <v>172</v>
+      </c>
+      <c r="D39" t="s">
+        <v>173</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
+        <v>176</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" t="s">
+        <v>175</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>177</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B42" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" t="s">
+        <v>179</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" t="s">
+        <v>180</v>
+      </c>
+      <c r="G42" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>183</v>
+      </c>
+      <c r="B43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D43" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>187</v>
+      </c>
+      <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
+        <v>188</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{02890DDC-40F3-7647-A223-C98F3938A77B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF664F-4BBA-AC48-B0AD-6A39356425C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="2820" windowWidth="25140" windowHeight="13120"/>
+    <workbookView xWindow="440" yWindow="2820" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="198">
   <si>
     <t>name</t>
   </si>
@@ -608,12 +608,18 @@
   </si>
   <si>
     <t>Visualize NMR data (uses nmrGlue)</t>
+  </si>
+  <si>
+    <t>jcamp</t>
+  </si>
+  <si>
+    <t>Read JCAMP-DX files</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1448,11 +1454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2319,6 +2325,17 @@
         <v>51</v>
       </c>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AF664F-4BBA-AC48-B0AD-6A39356425C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27861F42-6AD7-AE4C-B441-F3EB44E4206A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="440" yWindow="2820" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="201">
   <si>
     <t>name</t>
   </si>
@@ -614,6 +614,15 @@
   </si>
   <si>
     <t>Read JCAMP-DX files</t>
+  </si>
+  <si>
+    <t>https://bryanhanson.github.io/bad_page.html</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test entry</t>
   </si>
 </sst>
 </file>
@@ -1097,9 +1106,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1455,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2329,11 +2341,31 @@
       <c r="A45" t="s">
         <v>196</v>
       </c>
+      <c r="B45" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="E45" t="s">
         <v>28</v>
       </c>
       <c r="F45" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27861F42-6AD7-AE4C-B441-F3EB44E4206A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F49793-280E-F54E-834E-349B859937B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="2820" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2520" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="205">
   <si>
     <t>name</t>
   </si>
@@ -623,6 +623,18 @@
   </si>
   <si>
     <t>test entry</t>
+  </si>
+  <si>
+    <t>simplerspec</t>
+  </si>
+  <si>
+    <t>https://github.com/philipp-baumann/simplerspec</t>
+  </si>
+  <si>
+    <t>https://github.com/philipp-baumann/simplerspec-pedometron-article</t>
+  </si>
+  <si>
+    <t>https://github.com/nzhagen/jcamp</t>
   </si>
 </sst>
 </file>
@@ -1467,16 +1479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="71.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
@@ -2341,8 +2353,9 @@
       <c r="A45" t="s">
         <v>196</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>198</v>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s">
+        <v>204</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
@@ -2353,19 +2366,39 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="C46" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>199</v>
       </c>
       <c r="F46" t="s">
         <v>200</v>
       </c>
       <c r="G46" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F49793-280E-F54E-834E-349B859937B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC65CD-EF9F-3942-B89D-2DE2C67D70A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2520" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="460" yWindow="2520" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="204">
   <si>
     <t>name</t>
   </si>
@@ -598,9 +598,6 @@
     <t xml:space="preserve"> nD NMR only</t>
   </si>
   <si>
-    <t>Process &amp; visualize NMR data (Django app available; uses nmrGlue)</t>
-  </si>
-  <si>
     <t>1D NMR alignment via ICOSHIFT algorithm</t>
   </si>
   <si>
@@ -616,15 +613,6 @@
     <t>Read JCAMP-DX files</t>
   </si>
   <si>
-    <t>https://bryanhanson.github.io/bad_page.html</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test entry</t>
-  </si>
-  <si>
     <t>simplerspec</t>
   </si>
   <si>
@@ -635,6 +623,15 @@
   </si>
   <si>
     <t>https://github.com/nzhagen/jcamp</t>
+  </si>
+  <si>
+    <t>Spectral processing &amp; modeling [Uses prospectr in part](https://cran.r-project.org/package=prospectr)</t>
+  </si>
+  <si>
+    <t>Process &amp; visualize NMR data (Django app available; uses [nmrGlue](http://www.nmrglue.com/))</t>
+  </si>
+  <si>
+    <t>mid-IR and near-IR</t>
   </si>
 </sst>
 </file>
@@ -1479,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1492,7 +1489,7 @@
     <col min="3" max="3" width="52" customWidth="1"/>
     <col min="4" max="4" width="71.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="78.5" customWidth="1"/>
+    <col min="6" max="6" width="93.1640625" customWidth="1"/>
     <col min="7" max="7" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2040,7 +2037,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
         <v>51</v>
@@ -2097,7 +2094,7 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -2163,7 +2160,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35" t="s">
         <v>51</v>
@@ -2220,7 +2217,7 @@
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
         <v>51</v>
@@ -2351,54 +2348,37 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
         <v>198</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="E46" t="s">
-        <v>199</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G46" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" t="s">
         <v>203</v>
-      </c>
-      <c r="C47" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DC65CD-EF9F-3942-B89D-2DE2C67D70A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC642CE7-BE7F-0E40-8C40-72782FA8B4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="2520" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27120" yWindow="1000" windowWidth="31620" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -632,13 +632,130 @@
   </si>
   <si>
     <t>mid-IR and near-IR</t>
+  </si>
+  <si>
+    <t>pavo</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=pavo</t>
+  </si>
+  <si>
+    <t>https://github.com/rmaia/pavo/</t>
+  </si>
+  <si>
+    <t>Perceptual analysis, visualization and organization of spectral color data</t>
+  </si>
+  <si>
+    <t>visual pigments; input is spectra or images</t>
+  </si>
+  <si>
+    <t>BATMAN</t>
+  </si>
+  <si>
+    <t>http://batman.r-forge.r-project.org/</t>
+  </si>
+  <si>
+    <t>https://r-forge.r-project.org/scm/viewvc.php/pkg/batman/?root=batman</t>
+  </si>
+  <si>
+    <t>Estimation of metabolite concentrations from 1H NMR</t>
+  </si>
+  <si>
+    <t>https://github.com/PGB-LIV/tameNMR</t>
+  </si>
+  <si>
+    <t>tameNMR</t>
+  </si>
+  <si>
+    <t>Command line or runs in [Galaxy](https://galaxyproject.org/)</t>
+  </si>
+  <si>
+    <t>1H NMR metabolomics; uses [nmrglue]() and [speaq]()</t>
+  </si>
+  <si>
+    <t>ssNAKE</t>
+  </si>
+  <si>
+    <t>https://github.com/smeerten/ssnake/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmr.2019.02.006</t>
+  </si>
+  <si>
+    <t>SS NMR processing and fitting</t>
+  </si>
+  <si>
+    <t>PINT</t>
+  </si>
+  <si>
+    <t>https://pint-nmr.github.io/PINT/</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10858-017-0141-6</t>
+  </si>
+  <si>
+    <t>https://github.com/PINT-NMR/PINT/releases</t>
+  </si>
+  <si>
+    <t>NMR line shape fitting &amp; analysis</t>
+  </si>
+  <si>
+    <t>Qt</t>
+  </si>
+  <si>
+    <t>NMRFx</t>
+  </si>
+  <si>
+    <t>https://nmrfx.org/</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>https://github.com/onemoonsci/nmrfxprocessorgui</t>
+  </si>
+  <si>
+    <t>Processing, visualization &amp; analsys of NMR data</t>
+  </si>
+  <si>
+    <t>https://github.com/dcheshkov/ANATOLIA</t>
+  </si>
+  <si>
+    <t>ANATOLIA</t>
+  </si>
+  <si>
+    <t>http://anatolia.nmrclub.ru/</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Bruker NMR data only, standalone or from with TopSpin</t>
+  </si>
+  <si>
+    <t>NMR lineshhape analysis</t>
+  </si>
+  <si>
+    <t>CARA</t>
+  </si>
+  <si>
+    <t>https://github.com/rochus-keller/CARA</t>
+  </si>
+  <si>
+    <t>http://cara.nmr.ch/doku.php</t>
+  </si>
+  <si>
+    <t>C++, Qt</t>
+  </si>
+  <si>
+    <t>Biomolecular NMR peak assignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -773,6 +890,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1071,7 +1202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1114,15 +1245,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1156,6 +1288,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1476,21 +1609,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="61.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
     <col min="4" max="4" width="71.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="93.1640625" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2350,7 +2485,9 @@
       <c r="A45" t="s">
         <v>195</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" t="s">
+        <v>200</v>
+      </c>
       <c r="C45" t="s">
         <v>200</v>
       </c>
@@ -2381,7 +2518,176 @@
         <v>203</v>
       </c>
     </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27861F42-6AD7-AE4C-B441-F3EB44E4206A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC642CE7-BE7F-0E40-8C40-72782FA8B4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="2820" windowWidth="25140" windowHeight="13120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27120" yWindow="1000" windowWidth="31620" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -598,9 +598,6 @@
     <t xml:space="preserve"> nD NMR only</t>
   </si>
   <si>
-    <t>Process &amp; visualize NMR data (Django app available; uses nmrGlue)</t>
-  </si>
-  <si>
     <t>1D NMR alignment via ICOSHIFT algorithm</t>
   </si>
   <si>
@@ -616,20 +613,149 @@
     <t>Read JCAMP-DX files</t>
   </si>
   <si>
-    <t>https://bryanhanson.github.io/bad_page.html</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test entry</t>
+    <t>simplerspec</t>
+  </si>
+  <si>
+    <t>https://github.com/philipp-baumann/simplerspec</t>
+  </si>
+  <si>
+    <t>https://github.com/philipp-baumann/simplerspec-pedometron-article</t>
+  </si>
+  <si>
+    <t>https://github.com/nzhagen/jcamp</t>
+  </si>
+  <si>
+    <t>Spectral processing &amp; modeling [Uses prospectr in part](https://cran.r-project.org/package=prospectr)</t>
+  </si>
+  <si>
+    <t>Process &amp; visualize NMR data (Django app available; uses [nmrGlue](http://www.nmrglue.com/))</t>
+  </si>
+  <si>
+    <t>mid-IR and near-IR</t>
+  </si>
+  <si>
+    <t>pavo</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=pavo</t>
+  </si>
+  <si>
+    <t>https://github.com/rmaia/pavo/</t>
+  </si>
+  <si>
+    <t>Perceptual analysis, visualization and organization of spectral color data</t>
+  </si>
+  <si>
+    <t>visual pigments; input is spectra or images</t>
+  </si>
+  <si>
+    <t>BATMAN</t>
+  </si>
+  <si>
+    <t>http://batman.r-forge.r-project.org/</t>
+  </si>
+  <si>
+    <t>https://r-forge.r-project.org/scm/viewvc.php/pkg/batman/?root=batman</t>
+  </si>
+  <si>
+    <t>Estimation of metabolite concentrations from 1H NMR</t>
+  </si>
+  <si>
+    <t>https://github.com/PGB-LIV/tameNMR</t>
+  </si>
+  <si>
+    <t>tameNMR</t>
+  </si>
+  <si>
+    <t>Command line or runs in [Galaxy](https://galaxyproject.org/)</t>
+  </si>
+  <si>
+    <t>1H NMR metabolomics; uses [nmrglue]() and [speaq]()</t>
+  </si>
+  <si>
+    <t>ssNAKE</t>
+  </si>
+  <si>
+    <t>https://github.com/smeerten/ssnake/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jmr.2019.02.006</t>
+  </si>
+  <si>
+    <t>SS NMR processing and fitting</t>
+  </si>
+  <si>
+    <t>PINT</t>
+  </si>
+  <si>
+    <t>https://pint-nmr.github.io/PINT/</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10858-017-0141-6</t>
+  </si>
+  <si>
+    <t>https://github.com/PINT-NMR/PINT/releases</t>
+  </si>
+  <si>
+    <t>NMR line shape fitting &amp; analysis</t>
+  </si>
+  <si>
+    <t>Qt</t>
+  </si>
+  <si>
+    <t>NMRFx</t>
+  </si>
+  <si>
+    <t>https://nmrfx.org/</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>https://github.com/onemoonsci/nmrfxprocessorgui</t>
+  </si>
+  <si>
+    <t>Processing, visualization &amp; analsys of NMR data</t>
+  </si>
+  <si>
+    <t>https://github.com/dcheshkov/ANATOLIA</t>
+  </si>
+  <si>
+    <t>ANATOLIA</t>
+  </si>
+  <si>
+    <t>http://anatolia.nmrclub.ru/</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>Bruker NMR data only, standalone or from with TopSpin</t>
+  </si>
+  <si>
+    <t>NMR lineshhape analysis</t>
+  </si>
+  <si>
+    <t>CARA</t>
+  </si>
+  <si>
+    <t>https://github.com/rochus-keller/CARA</t>
+  </si>
+  <si>
+    <t>http://cara.nmr.ch/doku.php</t>
+  </si>
+  <si>
+    <t>C++, Qt</t>
+  </si>
+  <si>
+    <t>Biomolecular NMR peak assignment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -764,6 +890,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1062,7 +1202,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1105,15 +1245,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1147,6 +1288,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1467,21 +1609,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="46.33203125" customWidth="1"/>
-    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" customWidth="1"/>
+    <col min="3" max="3" width="62.5" customWidth="1"/>
     <col min="4" max="4" width="71.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="78.5" customWidth="1"/>
-    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="93.1640625" customWidth="1"/>
+    <col min="7" max="7" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2028,7 +2172,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
         <v>51</v>
@@ -2085,7 +2229,7 @@
         <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G32" t="s">
         <v>18</v>
@@ -2151,7 +2295,7 @@
         <v>28</v>
       </c>
       <c r="F35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G35" t="s">
         <v>51</v>
@@ -2208,7 +2352,7 @@
         <v>28</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
         <v>51</v>
@@ -2339,36 +2483,211 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>196</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="B45" t="s">
+        <v>200</v>
+      </c>
+      <c r="C45" t="s">
+        <v>200</v>
       </c>
       <c r="E45" t="s">
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" t="s">
         <v>198</v>
       </c>
       <c r="E46" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>206</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+      <c r="F47" t="s">
+        <v>207</v>
+      </c>
+      <c r="G47" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C48" t="s">
+        <v>211</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>213</v>
+      </c>
+      <c r="C49" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" t="s">
+        <v>216</v>
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E50" t="s">
         <v>28</v>
       </c>
-      <c r="F46" t="s">
-        <v>200</v>
-      </c>
-      <c r="G46" t="s">
-        <v>200</v>
+      <c r="F50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B51" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" t="s">
+        <v>224</v>
+      </c>
+      <c r="D51" t="s">
+        <v>223</v>
+      </c>
+      <c r="E51" t="s">
+        <v>226</v>
+      </c>
+      <c r="F51" t="s">
+        <v>225</v>
+      </c>
+      <c r="G51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C52" t="s">
+        <v>230</v>
+      </c>
+      <c r="E52" t="s">
+        <v>229</v>
+      </c>
+      <c r="F52" t="s">
+        <v>231</v>
+      </c>
+      <c r="G52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>233</v>
+      </c>
+      <c r="B53" t="s">
+        <v>234</v>
+      </c>
+      <c r="C53" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" t="s">
+        <v>237</v>
+      </c>
+      <c r="G53" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B47" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC642CE7-BE7F-0E40-8C40-72782FA8B4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD7F6B9-9EE5-544E-A0CB-4135190A5847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27120" yWindow="1000" windowWidth="31620" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="250">
   <si>
     <t>name</t>
   </si>
@@ -28,9 +28,6 @@
     <t>website</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
     <t>ChemoSpec</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>EDA of 2D NMR</t>
   </si>
   <si>
-    <t>2D NMR only</t>
-  </si>
-  <si>
     <t>speaq</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>NMR data processing</t>
   </si>
   <si>
-    <t>1D NMR only</t>
-  </si>
-  <si>
     <t>OpenVnmrJ</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
     <t>https://link.springer.com/article/10.1007%2Fs10858-013-9718-x</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>NMR data processing, analysis, visualization &amp; conversion</t>
   </si>
   <si>
@@ -175,9 +163,6 @@
     <t>Markup language for sharing NMR data</t>
   </si>
   <si>
-    <t>NMR only</t>
-  </si>
-  <si>
     <t>rDolphin</t>
   </si>
   <si>
@@ -232,9 +217,6 @@
     <t>Vis and NIR</t>
   </si>
   <si>
-    <t>Vis-NIR only?</t>
-  </si>
-  <si>
     <t>resemble</t>
   </si>
   <si>
@@ -307,9 +289,6 @@
     <t>EDA of 1D NMR</t>
   </si>
   <si>
-    <t>1D NMR only?</t>
-  </si>
-  <si>
     <t>serrsBayes</t>
   </si>
   <si>
@@ -592,12 +571,6 @@
     <t>Convert nmrML files to ISA-TAB [Qt interface](https://pypi.org/project/nmrml2isa-qt/)</t>
   </si>
   <si>
-    <t>nD NMR only</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nD NMR only</t>
-  </si>
-  <si>
     <t>1D NMR alignment via ICOSHIFT algorithm</t>
   </si>
   <si>
@@ -631,9 +604,6 @@
     <t>Process &amp; visualize NMR data (Django app available; uses [nmrGlue](http://www.nmrglue.com/))</t>
   </si>
   <si>
-    <t>mid-IR and near-IR</t>
-  </si>
-  <si>
     <t>pavo</t>
   </si>
   <si>
@@ -643,12 +613,6 @@
     <t>https://github.com/rmaia/pavo/</t>
   </si>
   <si>
-    <t>Perceptual analysis, visualization and organization of spectral color data</t>
-  </si>
-  <si>
-    <t>visual pigments; input is spectra or images</t>
-  </si>
-  <si>
     <t>BATMAN</t>
   </si>
   <si>
@@ -667,12 +631,6 @@
     <t>tameNMR</t>
   </si>
   <si>
-    <t>Command line or runs in [Galaxy](https://galaxyproject.org/)</t>
-  </si>
-  <si>
-    <t>1H NMR metabolomics; uses [nmrglue]() and [speaq]()</t>
-  </si>
-  <si>
     <t>ssNAKE</t>
   </si>
   <si>
@@ -715,9 +673,6 @@
     <t>https://github.com/onemoonsci/nmrfxprocessorgui</t>
   </si>
   <si>
-    <t>Processing, visualization &amp; analsys of NMR data</t>
-  </si>
-  <si>
     <t>https://github.com/dcheshkov/ANATOLIA</t>
   </si>
   <si>
@@ -730,12 +685,6 @@
     <t>C++</t>
   </si>
   <si>
-    <t>Bruker NMR data only, standalone or from with TopSpin</t>
-  </si>
-  <si>
-    <t>NMR lineshhape analysis</t>
-  </si>
-  <si>
     <t>CARA</t>
   </si>
   <si>
@@ -749,6 +698,78 @@
   </si>
   <si>
     <t>Biomolecular NMR peak assignment</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>Py</t>
+  </si>
+  <si>
+    <t>NMR (1D)</t>
+  </si>
+  <si>
+    <t>NMR (1D)?</t>
+  </si>
+  <si>
+    <t>NMR</t>
+  </si>
+  <si>
+    <t>NMR (2D)</t>
+  </si>
+  <si>
+    <t>NMR (nD)</t>
+  </si>
+  <si>
+    <t>NMR (SS)</t>
+  </si>
+  <si>
+    <t>NMR lineshape analysis</t>
+  </si>
+  <si>
+    <t>Processing, visualization &amp; analysis of NMR data</t>
+  </si>
+  <si>
+    <t>Data sharing</t>
+  </si>
+  <si>
+    <t>Data sharing (NMR)</t>
+  </si>
+  <si>
+    <t>NMR (13C)</t>
+  </si>
+  <si>
+    <t>Raman</t>
+  </si>
+  <si>
+    <t>Data Sharing</t>
+  </si>
+  <si>
+    <t>Vis-NIR</t>
+  </si>
+  <si>
+    <t>Vis-IR</t>
+  </si>
+  <si>
+    <t>NMR (Bruker)</t>
+  </si>
+  <si>
+    <t>Perceptual analysis, visualization and organization of spectral color data (incl images)</t>
+  </si>
+  <si>
+    <t>UV-Vis</t>
+  </si>
+  <si>
+    <t>Time series</t>
+  </si>
+  <si>
+    <t>Time series (NIR)</t>
+  </si>
+  <si>
+    <t>NIR-MIR</t>
+  </si>
+  <si>
+    <t>1H NMR metabolomics; uses [nmrglue]() and [speaq]() Command line or runs in [Galaxy](https://galaxyproject.org)</t>
   </si>
 </sst>
 </file>
@@ -1611,10 +1632,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1636,1052 +1657,1091 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" t="s">
-        <v>50</v>
-      </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>60</v>
+      </c>
+      <c r="G14" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>68</v>
+      </c>
+      <c r="G16" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
         <v>6</v>
-      </c>
-      <c r="F17" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G20" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>82</v>
+      </c>
+      <c r="G21" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>100</v>
+      </c>
+      <c r="G25" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C26" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F26" t="s">
-        <v>133</v>
+        <v>126</v>
+      </c>
+      <c r="G26" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="G27" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F29" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F30" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F32" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F33" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="E34" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G34" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D35" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>51</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E36" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E37" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F37" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F38" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F39" t="s">
-        <v>171</v>
+        <v>164</v>
+      </c>
+      <c r="G39" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F40" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B41" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F41" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B42" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C43" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D43" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E43" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F43" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E44" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C45" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>187</v>
+      </c>
+      <c r="G45" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>203</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C47" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="G47" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B48" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C48" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="G49" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B50" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="C50" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F50" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B51" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C51" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D51" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E51" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="G51" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C52" t="s">
+        <v>216</v>
+      </c>
+      <c r="E52" t="s">
+        <v>215</v>
+      </c>
+      <c r="F52" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" t="s">
         <v>230</v>
-      </c>
-      <c r="E52" t="s">
-        <v>229</v>
-      </c>
-      <c r="F52" t="s">
-        <v>231</v>
-      </c>
-      <c r="G52" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
+        <v>219</v>
+      </c>
+      <c r="C53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E53" t="s">
+        <v>220</v>
+      </c>
+      <c r="F53" t="s">
         <v>234</v>
       </c>
-      <c r="C53" t="s">
-        <v>232</v>
-      </c>
-      <c r="E53" t="s">
-        <v>235</v>
-      </c>
-      <c r="F53" t="s">
-        <v>237</v>
-      </c>
       <c r="G53" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="C54" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="E54" t="s">
-        <v>241</v>
+        <v>224</v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD7F6B9-9EE5-544E-A0CB-4135190A5847}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED6DFA-0AE2-F34D-8BCB-D95CFC3DC261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="249">
   <si>
     <t>name</t>
   </si>
@@ -709,9 +709,6 @@
     <t>NMR (1D)</t>
   </si>
   <si>
-    <t>NMR (1D)?</t>
-  </si>
-  <si>
     <t>NMR</t>
   </si>
   <si>
@@ -742,9 +739,6 @@
     <t>Raman</t>
   </si>
   <si>
-    <t>Data Sharing</t>
-  </si>
-  <si>
     <t>Vis-NIR</t>
   </si>
   <si>
@@ -770,6 +764,9 @@
   </si>
   <si>
     <t>1H NMR metabolomics; uses [nmrglue]() and [speaq]() Command line or runs in [Galaxy](https://galaxyproject.org)</t>
+  </si>
+  <si>
+    <t>Data Sharing (NMR)</t>
   </si>
 </sst>
 </file>
@@ -1633,9 +1630,9 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1703,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1717,16 +1714,19 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1737,16 +1737,13 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>228</v>
@@ -1772,7 +1769,7 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1809,7 +1806,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1829,7 +1826,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1849,7 +1846,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1872,7 +1869,7 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1938,7 +1935,7 @@
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1958,7 +1955,7 @@
         <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1978,7 +1975,7 @@
         <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2032,7 +2029,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2052,7 +2049,7 @@
         <v>82</v>
       </c>
       <c r="G20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -2072,7 +2069,7 @@
         <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2089,7 +2086,7 @@
         <v>88</v>
       </c>
       <c r="G22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -2112,7 +2109,7 @@
         <v>93</v>
       </c>
       <c r="G23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -2129,7 +2126,7 @@
         <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -2149,7 +2146,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2172,7 +2169,7 @@
         <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2229,7 +2226,7 @@
         <v>193</v>
       </c>
       <c r="G29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2266,7 +2263,7 @@
         <v>139</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -2309,7 +2306,7 @@
         <v>145</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2329,7 +2326,7 @@
         <v>148</v>
       </c>
       <c r="G34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2352,7 +2349,7 @@
         <v>184</v>
       </c>
       <c r="G35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -2372,7 +2369,7 @@
         <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2409,7 +2406,7 @@
         <v>185</v>
       </c>
       <c r="G38" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -2432,7 +2429,7 @@
         <v>164</v>
       </c>
       <c r="G39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2452,7 +2449,7 @@
         <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2515,7 +2512,7 @@
         <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -2535,7 +2532,7 @@
         <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -2555,7 +2552,7 @@
         <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2575,7 +2572,7 @@
         <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2592,10 +2589,10 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G47" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2615,7 +2612,7 @@
         <v>200</v>
       </c>
       <c r="G48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2632,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G49" t="s">
         <v>228</v>
@@ -2658,7 +2655,7 @@
         <v>206</v>
       </c>
       <c r="G50" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2681,7 +2678,7 @@
         <v>211</v>
       </c>
       <c r="G51" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2698,10 +2695,10 @@
         <v>215</v>
       </c>
       <c r="F52" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2718,10 +2715,10 @@
         <v>220</v>
       </c>
       <c r="F53" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2741,7 +2738,7 @@
         <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED6DFA-0AE2-F34D-8BCB-D95CFC3DC261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FDE27-DDE0-2A49-B7C5-964E18E37827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="259">
   <si>
     <t>name</t>
   </si>
@@ -739,9 +739,6 @@
     <t>Raman</t>
   </si>
   <si>
-    <t>Vis-NIR</t>
-  </si>
-  <si>
     <t>Vis-IR</t>
   </si>
   <si>
@@ -757,16 +754,49 @@
     <t>Time series</t>
   </si>
   <si>
-    <t>Time series (NIR)</t>
-  </si>
-  <si>
-    <t>NIR-MIR</t>
-  </si>
-  <si>
     <t>1H NMR metabolomics; uses [nmrglue]() and [speaq]() Command line or runs in [Galaxy](https://galaxyproject.org)</t>
   </si>
   <si>
     <t>Data Sharing (NMR)</t>
+  </si>
+  <si>
+    <t>spectacles</t>
+  </si>
+  <si>
+    <t>https://github.com/pierreroudier/spectacles/</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=spectacles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storing, manipulation and analysis </t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=baseline</t>
+  </si>
+  <si>
+    <t>baseline</t>
+  </si>
+  <si>
+    <t>Baseline correction</t>
+  </si>
+  <si>
+    <t>geoSpectral</t>
+  </si>
+  <si>
+    <t>Workflow for data sets with space/time/spectral dimensions</t>
+  </si>
+  <si>
+    <t>Mid-Ir</t>
+  </si>
+  <si>
+    <t>Near-IR, Mid-IR</t>
+  </si>
+  <si>
+    <t>Vis-Near-IR</t>
+  </si>
+  <si>
+    <t>Time series (Near-IR)</t>
   </si>
 </sst>
 </file>
@@ -1627,12 +1657,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G51" sqref="G51"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1935,7 +1965,7 @@
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1955,7 +1985,7 @@
         <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1975,7 +2005,7 @@
         <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -2146,7 +2176,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2169,7 +2199,7 @@
         <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,7 +2399,7 @@
         <v>155</v>
       </c>
       <c r="G36" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -2572,7 +2602,7 @@
         <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2589,10 +2619,10 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
+        <v>241</v>
+      </c>
+      <c r="G47" t="s">
         <v>242</v>
-      </c>
-      <c r="G47" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2629,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G49" t="s">
         <v>228</v>
@@ -2718,7 +2748,7 @@
         <v>233</v>
       </c>
       <c r="G53" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2739,6 +2769,54 @@
       </c>
       <c r="G54" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>251</v>
+      </c>
+      <c r="B56" t="s">
+        <v>250</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>253</v>
+      </c>
+      <c r="B57" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3FDE27-DDE0-2A49-B7C5-964E18E37827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0E16E-0DA8-CB48-97F5-E93E040B4F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="264">
   <si>
     <t>name</t>
   </si>
@@ -787,9 +787,6 @@
     <t>Workflow for data sets with space/time/spectral dimensions</t>
   </si>
   <si>
-    <t>Mid-Ir</t>
-  </si>
-  <si>
     <t>Near-IR, Mid-IR</t>
   </si>
   <si>
@@ -797,6 +794,24 @@
   </si>
   <si>
     <t>Time series (Near-IR)</t>
+  </si>
+  <si>
+    <t>photbiology</t>
+  </si>
+  <si>
+    <t>https://www.r4photobiology.info/</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/aphalo/photobiology/src/master/</t>
+  </si>
+  <si>
+    <t>https://bulletin.uv4plants.org/index.php/uv4pbulletin/article/view/16</t>
+  </si>
+  <si>
+    <t>Photobiology workflow tools</t>
+  </si>
+  <si>
+    <t>Mid-IR</t>
   </si>
 </sst>
 </file>
@@ -1657,12 +1672,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1985,7 +2000,7 @@
         <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2176,7 +2191,7 @@
         <v>100</v>
       </c>
       <c r="G25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -2602,7 +2617,7 @@
         <v>192</v>
       </c>
       <c r="G46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2816,7 +2831,30 @@
         <v>254</v>
       </c>
       <c r="G57" t="s">
-        <v>255</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>258</v>
+      </c>
+      <c r="B58" t="s">
+        <v>259</v>
+      </c>
+      <c r="C58" t="s">
+        <v>260</v>
+      </c>
+      <c r="D58" t="s">
+        <v>261</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+      <c r="F58" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFE0E16E-0DA8-CB48-97F5-E93E040B4F82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD4AEF-CF94-E34E-987E-21485415EDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="265">
   <si>
     <t>name</t>
   </si>
@@ -796,9 +796,6 @@
     <t>Time series (Near-IR)</t>
   </si>
   <si>
-    <t>photbiology</t>
-  </si>
-  <si>
     <t>https://www.r4photobiology.info/</t>
   </si>
   <si>
@@ -812,6 +809,12 @@
   </si>
   <si>
     <t>Mid-IR</t>
+  </si>
+  <si>
+    <t>photobiology</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/mrc.4689</t>
   </si>
 </sst>
 </file>
@@ -1674,10 +1677,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2736,6 +2739,9 @@
       <c r="C52" t="s">
         <v>216</v>
       </c>
+      <c r="D52" t="s">
+        <v>264</v>
+      </c>
       <c r="E52" t="s">
         <v>215</v>
       </c>
@@ -2831,27 +2837,27 @@
         <v>254</v>
       </c>
       <c r="G57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>263</v>
+      </c>
+      <c r="B58" t="s">
         <v>258</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
         <v>259</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>260</v>
-      </c>
-      <c r="D58" t="s">
-        <v>261</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G58" t="s">
         <v>242</v>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06DD4AEF-CF94-E34E-987E-21485415EDDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D089581-D20D-DB47-8193-E7EBE8EE1A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1680,7 +1680,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2739,9 +2739,6 @@
       <c r="C52" t="s">
         <v>216</v>
       </c>
-      <c r="D52" t="s">
-        <v>264</v>
-      </c>
       <c r="E52" t="s">
         <v>215</v>
       </c>
@@ -2761,6 +2758,9 @@
       </c>
       <c r="C53" t="s">
         <v>217</v>
+      </c>
+      <c r="D53" t="s">
+        <v>264</v>
       </c>
       <c r="E53" t="s">
         <v>220</v>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D089581-D20D-DB47-8193-E7EBE8EE1A14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B6355-B211-5F4A-BAEA-73B242C09004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24740" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
   <si>
     <t>name</t>
   </si>
@@ -187,9 +187,6 @@
     <t>https://link.springer.com/article/10.1007/s11306-017-1178-y</t>
   </si>
   <si>
-    <t>1D NMR processing for metabolomics using [NMRProcFlow](https://nmrprocflow.org/)</t>
-  </si>
-  <si>
     <t>TIMP</t>
   </si>
   <si>
@@ -568,18 +565,12 @@
     <t>https://github.com/ISA-tools/nmrml2isa</t>
   </si>
   <si>
-    <t>Convert nmrML files to ISA-TAB [Qt interface](https://pypi.org/project/nmrml2isa-qt/)</t>
-  </si>
-  <si>
     <t>1D NMR alignment via ICOSHIFT algorithm</t>
   </si>
   <si>
     <t>Optimize composite pulses for MQMAS</t>
   </si>
   <si>
-    <t>Visualize NMR data (uses nmrGlue)</t>
-  </si>
-  <si>
     <t>jcamp</t>
   </si>
   <si>
@@ -598,12 +589,6 @@
     <t>https://github.com/nzhagen/jcamp</t>
   </si>
   <si>
-    <t>Spectral processing &amp; modeling [Uses prospectr in part](https://cran.r-project.org/package=prospectr)</t>
-  </si>
-  <si>
-    <t>Process &amp; visualize NMR data (Django app available; uses [nmrGlue](http://www.nmrglue.com/))</t>
-  </si>
-  <si>
     <t>pavo</t>
   </si>
   <si>
@@ -754,9 +739,6 @@
     <t>Time series</t>
   </si>
   <si>
-    <t>1H NMR metabolomics; uses [nmrglue]() and [speaq]() Command line or runs in [Galaxy](https://galaxyproject.org)</t>
-  </si>
-  <si>
     <t>Data Sharing (NMR)</t>
   </si>
   <si>
@@ -769,9 +751,6 @@
     <t>https://cran.r-project.org/package=spectacles</t>
   </si>
   <si>
-    <t xml:space="preserve">Storing, manipulation and analysis </t>
-  </si>
-  <si>
     <t>https://cran.r-project.org/package=baseline</t>
   </si>
   <si>
@@ -815,6 +794,51 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/doi/abs/10.1002/mrc.4689</t>
+  </si>
+  <si>
+    <t>InSituAnalyze</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.analchem.9b03374?goto=supporting-info</t>
+  </si>
+  <si>
+    <t>https://github.com/JiaqiMEI/InSituAnalyze-Python</t>
+  </si>
+  <si>
+    <t>maintainer</t>
+  </si>
+  <si>
+    <t>yangzengling@cau.edu.cn</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>1H NMR metabolomics</t>
+  </si>
+  <si>
+    <t>Spectral processing &amp; modeling</t>
+  </si>
+  <si>
+    <t>Convert nmrML files to ISA-TAB</t>
+  </si>
+  <si>
+    <t>Process &amp; visualize NMR data</t>
+  </si>
+  <si>
+    <t>1D NMR processing for metabolomics</t>
+  </si>
+  <si>
+    <t>Spectral imaging</t>
+  </si>
+  <si>
+    <t>https://github.com/PranaGeo/geoSpectral</t>
+  </si>
+  <si>
+    <t>Storing, manipulation and analysis of spectroscopic data sets</t>
   </si>
 </sst>
 </file>
@@ -1675,12 +1699,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1691,10 +1715,11 @@
     <col min="4" max="4" width="71.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
     <col min="6" max="6" width="93.1640625" customWidth="1"/>
-    <col min="7" max="7" width="53.5" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1702,22 +1727,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>221</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1733,8 +1761,11 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1751,10 +1782,10 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1774,10 +1805,10 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1794,10 +1825,10 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1811,16 +1842,16 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1836,8 +1867,11 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1854,10 +1888,10 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1874,10 +1908,10 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1894,10 +1928,10 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -1917,10 +1951,10 @@
         <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1937,10 +1971,10 @@
         <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1957,81 +1991,81 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
+        <v>269</v>
+      </c>
+      <c r="G13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-      <c r="G13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>57</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>59</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>60</v>
       </c>
-      <c r="G14" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>62</v>
-      </c>
-      <c r="C15" t="s">
-        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>64</v>
       </c>
-      <c r="G15" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>66</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -2039,828 +2073,872 @@
       <c r="F17" t="s">
         <v>6</v>
       </c>
+      <c r="G17" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" t="s">
-        <v>72</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G18" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>75</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" t="s">
-        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
         <v>79</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>80</v>
-      </c>
-      <c r="C20" t="s">
-        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
         <v>86</v>
-      </c>
-      <c r="B22" t="s">
-        <v>87</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
         <v>89</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>90</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>91</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
         <v>94</v>
-      </c>
-      <c r="B24" t="s">
-        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
         <v>97</v>
       </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>98</v>
-      </c>
-      <c r="D25" t="s">
-        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
         <v>123</v>
       </c>
-      <c r="B26" t="s">
-        <v>105</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>124</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>222</v>
+      </c>
+      <c r="F26" t="s">
         <v>125</v>
       </c>
-      <c r="E26" t="s">
-        <v>227</v>
-      </c>
-      <c r="F26" t="s">
-        <v>126</v>
-      </c>
       <c r="G26" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" t="s">
         <v>130</v>
       </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="E28" t="s">
+        <v>222</v>
+      </c>
+      <c r="F28" t="s">
         <v>131</v>
       </c>
-      <c r="E28" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" t="s">
-        <v>132</v>
+      <c r="G28" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F29" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" t="s">
         <v>138</v>
       </c>
-      <c r="B31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>143</v>
-      </c>
-      <c r="E31" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" t="s">
-        <v>139</v>
-      </c>
       <c r="G31" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F32" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>222</v>
+      </c>
+      <c r="F33" t="s">
         <v>144</v>
       </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>146</v>
-      </c>
-      <c r="D33" t="s">
-        <v>147</v>
-      </c>
-      <c r="E33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F33" t="s">
-        <v>145</v>
-      </c>
       <c r="G33" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
         <v>149</v>
       </c>
-      <c r="B34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C34" t="s">
-        <v>150</v>
-      </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" t="s">
         <v>151</v>
       </c>
-      <c r="D35" t="s">
-        <v>152</v>
-      </c>
       <c r="E35" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" t="s">
+        <v>182</v>
+      </c>
+      <c r="G35" t="s">
         <v>227</v>
-      </c>
-      <c r="F35" t="s">
-        <v>184</v>
-      </c>
-      <c r="G35" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>153</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" t="s">
         <v>154</v>
       </c>
-      <c r="B36" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" t="s">
-        <v>156</v>
-      </c>
-      <c r="E36" t="s">
-        <v>227</v>
-      </c>
-      <c r="F36" t="s">
-        <v>155</v>
-      </c>
       <c r="G36" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>158</v>
+      </c>
+      <c r="E37" t="s">
+        <v>222</v>
+      </c>
+      <c r="F37" t="s">
         <v>157</v>
       </c>
-      <c r="B37" t="s">
-        <v>115</v>
-      </c>
-      <c r="C37" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" t="s">
-        <v>158</v>
+      <c r="G37" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>159</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
+      </c>
+      <c r="C38" t="s">
+        <v>161</v>
+      </c>
+      <c r="E38" t="s">
+        <v>222</v>
+      </c>
+      <c r="F38" t="s">
         <v>160</v>
       </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" t="s">
-        <v>162</v>
-      </c>
-      <c r="E38" t="s">
-        <v>227</v>
-      </c>
-      <c r="F38" t="s">
-        <v>185</v>
-      </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
+        <v>164</v>
+      </c>
+      <c r="D39" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" t="s">
+        <v>222</v>
+      </c>
+      <c r="F39" t="s">
         <v>163</v>
       </c>
-      <c r="B39" t="s">
-        <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>165</v>
-      </c>
-      <c r="D39" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" t="s">
-        <v>227</v>
-      </c>
-      <c r="F39" t="s">
-        <v>164</v>
-      </c>
       <c r="G39" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E40" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" t="s">
         <v>167</v>
       </c>
-      <c r="B40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" t="s">
-        <v>169</v>
-      </c>
-      <c r="E40" t="s">
-        <v>227</v>
-      </c>
-      <c r="F40" t="s">
-        <v>168</v>
-      </c>
       <c r="G40" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
         <v>170</v>
       </c>
-      <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>171</v>
-      </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" t="s">
         <v>172</v>
       </c>
-      <c r="E42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>173</v>
-      </c>
-      <c r="G42" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>222</v>
+      </c>
+      <c r="F43" t="s">
         <v>176</v>
       </c>
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" t="s">
-        <v>227</v>
-      </c>
-      <c r="F43" t="s">
-        <v>177</v>
-      </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
         <v>180</v>
       </c>
-      <c r="B44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" t="s">
-        <v>181</v>
-      </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G45" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="G46" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="G47" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B48" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G48" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B49" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="G49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" t="s">
+        <v>199</v>
+      </c>
+      <c r="C50" t="s">
+        <v>199</v>
+      </c>
+      <c r="D50" t="s">
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>222</v>
+      </c>
+      <c r="F50" t="s">
+        <v>201</v>
+      </c>
+      <c r="G50" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>202</v>
+      </c>
+      <c r="B51" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D51" t="s">
+        <v>204</v>
+      </c>
+      <c r="E51" t="s">
+        <v>207</v>
+      </c>
+      <c r="F51" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" t="s">
+        <v>210</v>
+      </c>
+      <c r="F52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G52" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>213</v>
+      </c>
+      <c r="B53" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" t="s">
+        <v>212</v>
+      </c>
+      <c r="D53" t="s">
+        <v>257</v>
+      </c>
+      <c r="E53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F53" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>203</v>
-      </c>
-      <c r="B50" t="s">
-        <v>204</v>
-      </c>
-      <c r="C50" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" t="s">
-        <v>205</v>
-      </c>
-      <c r="E50" t="s">
-        <v>227</v>
-      </c>
-      <c r="F50" t="s">
-        <v>206</v>
-      </c>
-      <c r="G50" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>207</v>
-      </c>
-      <c r="B51" t="s">
-        <v>208</v>
-      </c>
-      <c r="C51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" t="s">
-        <v>209</v>
-      </c>
-      <c r="E51" t="s">
-        <v>212</v>
-      </c>
-      <c r="F51" t="s">
-        <v>211</v>
-      </c>
-      <c r="G51" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>213</v>
-      </c>
-      <c r="B52" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="G53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>216</v>
       </c>
-      <c r="E52" t="s">
-        <v>215</v>
-      </c>
-      <c r="F52" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
         <v>218</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C54" t="s">
+        <v>217</v>
+      </c>
+      <c r="E54" t="s">
         <v>219</v>
       </c>
-      <c r="C53" t="s">
-        <v>217</v>
-      </c>
-      <c r="D53" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="F54" t="s">
         <v>220</v>
       </c>
-      <c r="F53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="G54" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54" t="s">
-        <v>223</v>
-      </c>
-      <c r="C54" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" t="s">
-        <v>224</v>
-      </c>
-      <c r="F54" t="s">
-        <v>225</v>
-      </c>
-      <c r="G54" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>246</v>
-      </c>
       <c r="B55" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C55" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+      <c r="G55" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B56" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+      <c r="G56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B57" t="s">
-        <v>250</v>
+        <v>271</v>
+      </c>
+      <c r="C57" t="s">
+        <v>271</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G57" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="G58" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>258</v>
+      </c>
+      <c r="B59" t="s">
+        <v>260</v>
+      </c>
+      <c r="C59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D59" t="s">
+        <v>259</v>
+      </c>
+      <c r="E59" t="s">
+        <v>222</v>
+      </c>
+      <c r="F59" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" t="s">
+        <v>263</v>
+      </c>
+      <c r="H59" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665B6355-B211-5F4A-BAEA-73B242C09004}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C347AF-E6F3-B94F-87F0-A2ED527EA9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24740" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="369">
   <si>
     <t>name</t>
   </si>
@@ -839,6 +839,294 @@
   </si>
   <si>
     <t>Storing, manipulation and analysis of spectroscopic data sets</t>
+  </si>
+  <si>
+    <t>https://github.com/jobovy/apogee</t>
+  </si>
+  <si>
+    <t>https://github.com/qedsoftware/brukeropusreader</t>
+  </si>
+  <si>
+    <t>https://github.com/BIOS-IMASL/cheshift</t>
+  </si>
+  <si>
+    <t>https://github.com/chianti-atomic/ChiantiPy</t>
+  </si>
+  <si>
+    <t>https://github.com/PINT-NMR/COMPASS</t>
+  </si>
+  <si>
+    <t>https://github.com/CCampJr/CRIkit2</t>
+  </si>
+  <si>
+    <t>https://github.com/mretegan/crispy</t>
+  </si>
+  <si>
+    <t>https://github.com/prajwel/curvit</t>
+  </si>
+  <si>
+    <t>https://github.com/Kongsea/DeepSpectroscopy</t>
+  </si>
+  <si>
+    <t>https://github.com/rcthomas/es</t>
+  </si>
+  <si>
+    <t>https://github.com/Farseer-NMR/FarSeer-NMR</t>
+  </si>
+  <si>
+    <t>https://github.com/nasa-jpl/LiveViewOpenSource</t>
+  </si>
+  <si>
+    <t>https://github.com/CMET-UGent/MicroRaman</t>
+  </si>
+  <si>
+    <t>https://github.com/DeepanshS/mrsimulator</t>
+  </si>
+  <si>
+    <t>https://github.com/pnnl/nmrfit</t>
+  </si>
+  <si>
+    <t>https://github.com/nsherry4/Peakaboo</t>
+  </si>
+  <si>
+    <t>https://github.com/TheAstroFactory/pydis</t>
+  </si>
+  <si>
+    <t>https://github.com/sametz/pydnmr</t>
+  </si>
+  <si>
+    <t>https://github.com/L-Siemons/PyRoShift</t>
+  </si>
+  <si>
+    <t>https://github.com/ibcp/pyspectra</t>
+  </si>
+  <si>
+    <t>https://github.com/pycroscopy/pyUSID</t>
+  </si>
+  <si>
+    <t>https://github.com/radis/radis</t>
+  </si>
+  <si>
+    <t>https://github.com/DerekKaknes/raman</t>
+  </si>
+  <si>
+    <t>https://github.com/raman-noodles/Raman-noodles</t>
+  </si>
+  <si>
+    <t>https://github.com/charlesll/rampy</t>
+  </si>
+  <si>
+    <t>https://github.com/LlucSF/rCRSI</t>
+  </si>
+  <si>
+    <t>https://github.com/paris-saclay-cds/specio</t>
+  </si>
+  <si>
+    <t>https://github.com/astropy/specreduce</t>
+  </si>
+  <si>
+    <t>https://github.com/cheminfo-js/spectra-data</t>
+  </si>
+  <si>
+    <t>https://github.com/clerk67/spectra-formatter</t>
+  </si>
+  <si>
+    <t>https://github.com/charlesll/Spectra.jl</t>
+  </si>
+  <si>
+    <t>https://github.com/PlasmaPy/SpectroscoPyx</t>
+  </si>
+  <si>
+    <t>https://github.com/spacetelescope/specviz</t>
+  </si>
+  <si>
+    <t>https://github.com/workflow4metabolomics/tools-metabolomics</t>
+  </si>
+  <si>
+    <t>https://github.com/VespucciProject/Vespucci</t>
+  </si>
+  <si>
+    <t>https://github.com/archaeological-research-facility/web_geochemistry</t>
+  </si>
+  <si>
+    <t>https://github.com/megbedell/wobble</t>
+  </si>
+  <si>
+    <t>https://github.com/workflow4metabolomics/workflow4metabolomics</t>
+  </si>
+  <si>
+    <t>https://github.com/wcchu/XL-e</t>
+  </si>
+  <si>
+    <t>https://github.com/brianlevay/xrf_filetools</t>
+  </si>
+  <si>
+    <t>https://github.com/dylarm/xrf_parser</t>
+  </si>
+  <si>
+    <t>https://github.com/wojdyr/xylib</t>
+  </si>
+  <si>
+    <t>https://github.com/yokochi47/xyza2pipe</t>
+  </si>
+  <si>
+    <t>Tools for working with APOGEE data</t>
+  </si>
+  <si>
+    <t>bovy at astro dot utoronto dot ca</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1510.06745</t>
+  </si>
+  <si>
+    <t>apogee</t>
+  </si>
+  <si>
+    <t>brukeropusreader</t>
+  </si>
+  <si>
+    <t>Read Bruker OPUS files</t>
+  </si>
+  <si>
+    <t>Data Sharing</t>
+  </si>
+  <si>
+    <t>brukeropusreader-dev@qed.ai</t>
+  </si>
+  <si>
+    <t>CheShift</t>
+  </si>
+  <si>
+    <t>Prediction 13C shifts in proteins</t>
+  </si>
+  <si>
+    <t>https://www.pnas.org/content/110/42/16826</t>
+  </si>
+  <si>
+    <t>Calculate radiative properties of astrophysical plasmas</t>
+  </si>
+  <si>
+    <t>ChiantiPy</t>
+  </si>
+  <si>
+    <t>Protein backbone assignments from triple-resonance peak lists</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/ploscompbiol/article?id=10.1371/journal.pcbi.1004022</t>
+  </si>
+  <si>
+    <t>COMPASS</t>
+  </si>
+  <si>
+    <t>charles.camp@nist.gov</t>
+  </si>
+  <si>
+    <t>Hyperspectral imaging toolkit</t>
+  </si>
+  <si>
+    <t>CRIkit2</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/28819335</t>
+  </si>
+  <si>
+    <t>Calculate &amp; plot core-level spectra</t>
+  </si>
+  <si>
+    <t>http://www.esrf.eu/computing/scientific/crispy/</t>
+  </si>
+  <si>
+    <t>crispy</t>
+  </si>
+  <si>
+    <t>Create light curves from UV imaging telescope data</t>
+  </si>
+  <si>
+    <t>UV</t>
+  </si>
+  <si>
+    <t>curvit</t>
+  </si>
+  <si>
+    <t>DeepSpectroscopy</t>
+  </si>
+  <si>
+    <t>Spectroscopy with deep learning</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>Elementary supernova spectrum synthesis</t>
+  </si>
+  <si>
+    <t>https://c3.lbl.gov/es/</t>
+  </si>
+  <si>
+    <t>Analysis &amp; plotting of biological NMR peak lists</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007/s10858-018-0182-5</t>
+  </si>
+  <si>
+    <t>Farseer-NMR</t>
+  </si>
+  <si>
+    <t>https://farseer-nmr.github.io/FarSeer-NMR/</t>
+  </si>
+  <si>
+    <t>Tools for imaging spectrometer development</t>
+  </si>
+  <si>
+    <t>Jacqueline.Ryan@jpl.nasa.gov</t>
+  </si>
+  <si>
+    <t>UV-VIS-IR</t>
+  </si>
+  <si>
+    <t>UV-Vis-IR</t>
+  </si>
+  <si>
+    <t>LiveView</t>
+  </si>
+  <si>
+    <t>MicroRaman</t>
+  </si>
+  <si>
+    <t>Process microbial Raman spectra</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/29909167</t>
+  </si>
+  <si>
+    <t>mrsimulator</t>
+  </si>
+  <si>
+    <t>Toolbox for simulating NMR spectra</t>
+  </si>
+  <si>
+    <t>https://deepanshs.github.io/mrsimulator/</t>
+  </si>
+  <si>
+    <t>frederiekmaarten.kerckhof@ugent.be</t>
+  </si>
+  <si>
+    <t>nmrfit</t>
+  </si>
+  <si>
+    <t>qNMR through least-squares fitting</t>
+  </si>
+  <si>
+    <t>XRF analysis</t>
+  </si>
+  <si>
+    <t>XRF</t>
+  </si>
+  <si>
+    <t>https://peakaboo.org/</t>
+  </si>
+  <si>
+    <t>Peakaboo</t>
   </si>
 </sst>
 </file>
@@ -1699,12 +1987,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,7 +2002,7 @@
     <col min="3" max="3" width="62.5" customWidth="1"/>
     <col min="4" max="4" width="71.5" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" customWidth="1"/>
-    <col min="6" max="6" width="93.1640625" customWidth="1"/>
+    <col min="6" max="6" width="78.83203125" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
     <col min="8" max="8" width="26.1640625" customWidth="1"/>
   </cols>
@@ -2941,6 +3229,488 @@
         <v>262</v>
       </c>
     </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>319</v>
+      </c>
+      <c r="B60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C60" t="s">
+        <v>273</v>
+      </c>
+      <c r="D60" t="s">
+        <v>318</v>
+      </c>
+      <c r="E60" t="s">
+        <v>222</v>
+      </c>
+      <c r="F60" t="s">
+        <v>316</v>
+      </c>
+      <c r="G60" t="s">
+        <v>263</v>
+      </c>
+      <c r="H60" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>320</v>
+      </c>
+      <c r="B61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" t="s">
+        <v>274</v>
+      </c>
+      <c r="E61" t="s">
+        <v>222</v>
+      </c>
+      <c r="F61" t="s">
+        <v>321</v>
+      </c>
+      <c r="G61" t="s">
+        <v>322</v>
+      </c>
+      <c r="H61" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>324</v>
+      </c>
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>275</v>
+      </c>
+      <c r="D62" t="s">
+        <v>326</v>
+      </c>
+      <c r="E62" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" t="s">
+        <v>325</v>
+      </c>
+      <c r="G62" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>328</v>
+      </c>
+      <c r="B63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" t="s">
+        <v>276</v>
+      </c>
+      <c r="E63" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" t="s">
+        <v>327</v>
+      </c>
+      <c r="G63" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" t="s">
+        <v>277</v>
+      </c>
+      <c r="C64" t="s">
+        <v>277</v>
+      </c>
+      <c r="D64" t="s">
+        <v>330</v>
+      </c>
+      <c r="E64" t="s">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>329</v>
+      </c>
+      <c r="G64" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>334</v>
+      </c>
+      <c r="B65" t="s">
+        <v>278</v>
+      </c>
+      <c r="C65" t="s">
+        <v>278</v>
+      </c>
+      <c r="D65" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" t="s">
+        <v>222</v>
+      </c>
+      <c r="F65" t="s">
+        <v>333</v>
+      </c>
+      <c r="G65" t="s">
+        <v>233</v>
+      </c>
+      <c r="H65" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>338</v>
+      </c>
+      <c r="B66" t="s">
+        <v>337</v>
+      </c>
+      <c r="C66" t="s">
+        <v>279</v>
+      </c>
+      <c r="E66" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>341</v>
+      </c>
+      <c r="B67" t="s">
+        <v>280</v>
+      </c>
+      <c r="C67" t="s">
+        <v>280</v>
+      </c>
+      <c r="E67" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" t="s">
+        <v>339</v>
+      </c>
+      <c r="G67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>342</v>
+      </c>
+      <c r="B68" t="s">
+        <v>281</v>
+      </c>
+      <c r="C68" t="s">
+        <v>281</v>
+      </c>
+      <c r="E68" t="s">
+        <v>222</v>
+      </c>
+      <c r="F68" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>344</v>
+      </c>
+      <c r="B69" t="s">
+        <v>346</v>
+      </c>
+      <c r="C69" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" t="s">
+        <v>222</v>
+      </c>
+      <c r="F69" t="s">
+        <v>345</v>
+      </c>
+      <c r="G69" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>349</v>
+      </c>
+      <c r="B70" t="s">
+        <v>350</v>
+      </c>
+      <c r="C70" t="s">
+        <v>283</v>
+      </c>
+      <c r="D70" t="s">
+        <v>348</v>
+      </c>
+      <c r="E70" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" t="s">
+        <v>347</v>
+      </c>
+      <c r="G70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>355</v>
+      </c>
+      <c r="B71" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" t="s">
+        <v>215</v>
+      </c>
+      <c r="F71" t="s">
+        <v>351</v>
+      </c>
+      <c r="G71" t="s">
+        <v>353</v>
+      </c>
+      <c r="H71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" t="s">
+        <v>358</v>
+      </c>
+      <c r="C72" t="s">
+        <v>285</v>
+      </c>
+      <c r="D72" t="s">
+        <v>358</v>
+      </c>
+      <c r="E72" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>357</v>
+      </c>
+      <c r="G72" t="s">
+        <v>233</v>
+      </c>
+      <c r="H72" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>359</v>
+      </c>
+      <c r="B73" t="s">
+        <v>361</v>
+      </c>
+      <c r="C73" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73" t="s">
+        <v>222</v>
+      </c>
+      <c r="F73" t="s">
+        <v>360</v>
+      </c>
+      <c r="G73" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>363</v>
+      </c>
+      <c r="B74" t="s">
+        <v>287</v>
+      </c>
+      <c r="C74" t="s">
+        <v>287</v>
+      </c>
+      <c r="E74" t="s">
+        <v>222</v>
+      </c>
+      <c r="F74" t="s">
+        <v>364</v>
+      </c>
+      <c r="G74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>368</v>
+      </c>
+      <c r="B75" t="s">
+        <v>367</v>
+      </c>
+      <c r="C75" t="s">
+        <v>288</v>
+      </c>
+      <c r="E75" t="s">
+        <v>210</v>
+      </c>
+      <c r="F75" t="s">
+        <v>365</v>
+      </c>
+      <c r="G75" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>315</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B47" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C347AF-E6F3-B94F-87F0-A2ED527EA9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5367018F-94C7-CB45-8768-D1DA715787E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="24740" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="437">
   <si>
     <t>name</t>
   </si>
@@ -130,9 +130,6 @@
     <t>https://github.com/Chathurga/HyperChemoBridge</t>
   </si>
   <si>
-    <t>Interconversion of hyperSpec and ChemoSpec formats</t>
-  </si>
-  <si>
     <t>nmrPipe</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>https://github.com/antoinestevens/prospectr</t>
   </si>
   <si>
-    <t>Vis and NIR</t>
-  </si>
-  <si>
     <t>resemble</t>
   </si>
   <si>
@@ -625,9 +619,6 @@
     <t>https://doi.org/10.1016/j.jmr.2019.02.006</t>
   </si>
   <si>
-    <t>SS NMR processing and fitting</t>
-  </si>
-  <si>
     <t>PINT</t>
   </si>
   <si>
@@ -688,9 +679,6 @@
     <t>focus</t>
   </si>
   <si>
-    <t>Py</t>
-  </si>
-  <si>
     <t>NMR (1D)</t>
   </si>
   <si>
@@ -730,9 +718,6 @@
     <t>NMR (Bruker)</t>
   </si>
   <si>
-    <t>Perceptual analysis, visualization and organization of spectral color data (incl images)</t>
-  </si>
-  <si>
     <t>UV-Vis</t>
   </si>
   <si>
@@ -838,9 +823,6 @@
     <t>https://github.com/PranaGeo/geoSpectral</t>
   </si>
   <si>
-    <t>Storing, manipulation and analysis of spectroscopic data sets</t>
-  </si>
-  <si>
     <t>https://github.com/jobovy/apogee</t>
   </si>
   <si>
@@ -889,9 +871,6 @@
     <t>https://github.com/nsherry4/Peakaboo</t>
   </si>
   <si>
-    <t>https://github.com/TheAstroFactory/pydis</t>
-  </si>
-  <si>
     <t>https://github.com/sametz/pydnmr</t>
   </si>
   <si>
@@ -907,27 +886,15 @@
     <t>https://github.com/radis/radis</t>
   </si>
   <si>
-    <t>https://github.com/DerekKaknes/raman</t>
-  </si>
-  <si>
-    <t>https://github.com/raman-noodles/Raman-noodles</t>
-  </si>
-  <si>
     <t>https://github.com/charlesll/rampy</t>
   </si>
   <si>
     <t>https://github.com/LlucSF/rCRSI</t>
   </si>
   <si>
-    <t>https://github.com/paris-saclay-cds/specio</t>
-  </si>
-  <si>
     <t>https://github.com/astropy/specreduce</t>
   </si>
   <si>
-    <t>https://github.com/cheminfo-js/spectra-data</t>
-  </si>
-  <si>
     <t>https://github.com/clerk67/spectra-formatter</t>
   </si>
   <si>
@@ -940,9 +907,6 @@
     <t>https://github.com/spacetelescope/specviz</t>
   </si>
   <si>
-    <t>https://github.com/workflow4metabolomics/tools-metabolomics</t>
-  </si>
-  <si>
     <t>https://github.com/VespucciProject/Vespucci</t>
   </si>
   <si>
@@ -952,9 +916,6 @@
     <t>https://github.com/megbedell/wobble</t>
   </si>
   <si>
-    <t>https://github.com/workflow4metabolomics/workflow4metabolomics</t>
-  </si>
-  <si>
     <t>https://github.com/wcchu/XL-e</t>
   </si>
   <si>
@@ -964,9 +925,6 @@
     <t>https://github.com/dylarm/xrf_parser</t>
   </si>
   <si>
-    <t>https://github.com/wojdyr/xylib</t>
-  </si>
-  <si>
     <t>https://github.com/yokochi47/xyza2pipe</t>
   </si>
   <si>
@@ -1075,9 +1033,6 @@
     <t>https://farseer-nmr.github.io/FarSeer-NMR/</t>
   </si>
   <si>
-    <t>Tools for imaging spectrometer development</t>
-  </si>
-  <si>
     <t>Jacqueline.Ryan@jpl.nasa.gov</t>
   </si>
   <si>
@@ -1127,6 +1082,255 @@
   </si>
   <si>
     <t>Peakaboo</t>
+  </si>
+  <si>
+    <t>pydnmr</t>
+  </si>
+  <si>
+    <t>Simulation dynamic NMR</t>
+  </si>
+  <si>
+    <t>PyRoShift</t>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/Content/ArticleLanding/2019/CC/C9CC06496F#!divAbstract</t>
+  </si>
+  <si>
+    <t>Compute rotamer populations from 13C NMR shifts</t>
+  </si>
+  <si>
+    <t>lucas.siemons@googlemail.com</t>
+  </si>
+  <si>
+    <t>glvrst@gmail.com</t>
+  </si>
+  <si>
+    <t>General purpose?</t>
+  </si>
+  <si>
+    <t>pyspectra</t>
+  </si>
+  <si>
+    <t>https://pycroscopy.github.io/pyUSID/about.html</t>
+  </si>
+  <si>
+    <t>pyUSID</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1903.09515</t>
+  </si>
+  <si>
+    <t>Universal spectroscopy &amp; imaging data format</t>
+  </si>
+  <si>
+    <t>https://pycroscopy.github.io/pycroscopy/about.html</t>
+  </si>
+  <si>
+    <t>pycroscopy</t>
+  </si>
+  <si>
+    <t>https://github.com/pycroscopy/pycroscopy</t>
+  </si>
+  <si>
+    <t>Imaging microscopy</t>
+  </si>
+  <si>
+    <t>sjesse@ornl.gov</t>
+  </si>
+  <si>
+    <t>RADIS</t>
+  </si>
+  <si>
+    <t>Compute IR spectra</t>
+  </si>
+  <si>
+    <t>https://radis.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>RamPy</t>
+  </si>
+  <si>
+    <t>lelosq@ipgp.fr</t>
+  </si>
+  <si>
+    <t>Processing Raman, IR, XAS spectra</t>
+  </si>
+  <si>
+    <t>rCSRI</t>
+  </si>
+  <si>
+    <t>Tools for confocal Raman imaging spectroscopy</t>
+  </si>
+  <si>
+    <t>lluc.semente@urv.cat</t>
+  </si>
+  <si>
+    <t>Reduce &amp; calibrate spectroscopic data</t>
+  </si>
+  <si>
+    <t>specreduce</t>
+  </si>
+  <si>
+    <t>https://github.com/cheminfo-js/spectra</t>
+  </si>
+  <si>
+    <t>spectra</t>
+  </si>
+  <si>
+    <t>https://cheminfo-js.github.io/spectra/packages/spectra-data/docs/</t>
+  </si>
+  <si>
+    <t>Library for UV, IR, 1D &amp; 2D NMR</t>
+  </si>
+  <si>
+    <t>spectra-formatter</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>Tool to write out NMR data for publication summaries</t>
+  </si>
+  <si>
+    <t>https://clerk67.github.io/spectra-formatter/</t>
+  </si>
+  <si>
+    <t>Spectra</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Treatment of spectra (Raman, infrared, XAS, NMR) data</t>
+  </si>
+  <si>
+    <t>charles.lelosq@anu.edu.au</t>
+  </si>
+  <si>
+    <t>SpectroscoPyx</t>
+  </si>
+  <si>
+    <t>https://spectroscopyx.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>Atomic/Plasma spectroscopy</t>
+  </si>
+  <si>
+    <t>https://specviz.readthedocs.io/en/stable/</t>
+  </si>
+  <si>
+    <t>SpecViz</t>
+  </si>
+  <si>
+    <t>Interactive analysis of 1D astronomical spectra</t>
+  </si>
+  <si>
+    <t>https://specutils.readthedocs.io/en/stable/</t>
+  </si>
+  <si>
+    <t>specutils</t>
+  </si>
+  <si>
+    <t>Toolbox for astronomical spectroscopic data</t>
+  </si>
+  <si>
+    <t>https://github.com/astropy/specutils</t>
+  </si>
+  <si>
+    <t>contact@nicholasearl.me</t>
+  </si>
+  <si>
+    <t>Tools for spectroscopic data analysis &amp; imaging</t>
+  </si>
+  <si>
+    <t>https://openresearchsoftware.metajnl.com/articles/10.5334/jors.91/</t>
+  </si>
+  <si>
+    <t>Vespucci</t>
+  </si>
+  <si>
+    <t>Shiny app for visualizing XRF &amp; NAA geochemistry concentrations</t>
+  </si>
+  <si>
+    <t>https://arfberkeley.shinyapps.io/web_geochemistry/</t>
+  </si>
+  <si>
+    <t>web_geochemistry</t>
+  </si>
+  <si>
+    <t>wobble</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1901.00503</t>
+  </si>
+  <si>
+    <t>Analysis of stellar spectra time series</t>
+  </si>
+  <si>
+    <t>https://wobble.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>Fortran</t>
+  </si>
+  <si>
+    <t>https://journals.aps.org/pra/abstract/10.1103/PhysRevA.89.033427</t>
+  </si>
+  <si>
+    <t>Simulate photoelectron spectra driven by laser pulses</t>
+  </si>
+  <si>
+    <t>PES</t>
+  </si>
+  <si>
+    <t>XL-e</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>XRF file tools</t>
+  </si>
+  <si>
+    <t>xrf_filetools</t>
+  </si>
+  <si>
+    <t>xrf_parsers</t>
+  </si>
+  <si>
+    <t>Parse files from handheld XRF spectrometers</t>
+  </si>
+  <si>
+    <t>File conversion for NMR data formats</t>
+  </si>
+  <si>
+    <t>xyza2pipe</t>
+  </si>
+  <si>
+    <t>Interconversion of hyperSpec &amp; ChemoSpec formats</t>
+  </si>
+  <si>
+    <t>Vis &amp; NIR</t>
+  </si>
+  <si>
+    <t>Perceptual analysis, visualization &amp; organization of spectral color data (incl images)</t>
+  </si>
+  <si>
+    <t>SS NMR processing &amp; fitting</t>
+  </si>
+  <si>
+    <t>Storing, manipulation &amp; analysis of spectroscopic data sets</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Data Sharing (IR)</t>
+  </si>
+  <si>
+    <t>XAS</t>
+  </si>
+  <si>
+    <t>Data sharing (NMR nD)</t>
   </si>
 </sst>
 </file>
@@ -1987,12 +2191,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2015,22 +2219,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2050,7 +2254,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2070,7 +2274,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2093,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2113,7 +2317,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2130,13 +2334,13 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2156,7 +2360,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2176,7 +2380,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2193,167 +2397,167 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>428</v>
       </c>
       <c r="G9" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
       <c r="G11" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>53</v>
-      </c>
-      <c r="D13" t="s">
-        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
         <v>55</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>56</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>429</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" t="s">
         <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -2362,1353 +2566,1700 @@
         <v>6</v>
       </c>
       <c r="G17" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>74</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
         <v>78</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>80</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" t="s">
         <v>88</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>89</v>
-      </c>
-      <c r="C23" t="s">
-        <v>90</v>
-      </c>
-      <c r="D23" t="s">
-        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" t="s">
-        <v>98</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" t="s">
         <v>122</v>
       </c>
-      <c r="B26" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E26" t="s">
+        <v>433</v>
+      </c>
+      <c r="F26" t="s">
         <v>123</v>
       </c>
-      <c r="D26" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" t="s">
-        <v>222</v>
-      </c>
-      <c r="F26" t="s">
-        <v>125</v>
-      </c>
       <c r="G26" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G27" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" t="s">
+        <v>433</v>
+      </c>
+      <c r="F28" t="s">
         <v>129</v>
       </c>
-      <c r="B28" t="s">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" t="s">
-        <v>222</v>
-      </c>
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
       <c r="G28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F29" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>137</v>
+      </c>
+      <c r="G30" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G31" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E32" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
         <v>143</v>
       </c>
-      <c r="B33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" t="s">
-        <v>145</v>
-      </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E33" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G33" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E35" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" t="s">
         <v>153</v>
       </c>
-      <c r="B36" t="s">
-        <v>113</v>
-      </c>
-      <c r="C36" t="s">
-        <v>155</v>
-      </c>
       <c r="E36" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G36" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" t="s">
+        <v>112</v>
+      </c>
+      <c r="C37" t="s">
         <v>156</v>
       </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-      <c r="C37" t="s">
-        <v>158</v>
-      </c>
       <c r="E37" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G37" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" t="s">
         <v>159</v>
       </c>
-      <c r="B38" t="s">
-        <v>115</v>
-      </c>
-      <c r="C38" t="s">
-        <v>161</v>
-      </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G38" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
         <v>162</v>
       </c>
-      <c r="B39" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>164</v>
-      </c>
       <c r="D39" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E39" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F39" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G39" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>164</v>
+      </c>
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
         <v>166</v>
       </c>
-      <c r="B40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" t="s">
-        <v>168</v>
-      </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F40" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C41" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" t="s">
+        <v>433</v>
+      </c>
+      <c r="F42" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" t="s">
         <v>171</v>
-      </c>
-      <c r="E42" t="s">
-        <v>222</v>
-      </c>
-      <c r="F42" t="s">
-        <v>172</v>
-      </c>
-      <c r="G42" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
         <v>175</v>
       </c>
-      <c r="B43" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" t="s">
-        <v>177</v>
-      </c>
       <c r="D43" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F44" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G44" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G45" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" t="s">
         <v>185</v>
       </c>
-      <c r="B46" t="s">
-        <v>187</v>
-      </c>
       <c r="C46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" t="s">
         <v>189</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" t="s">
-        <v>191</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>430</v>
       </c>
       <c r="G47" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="C48" t="s">
         <v>192</v>
-      </c>
-      <c r="B48" t="s">
-        <v>193</v>
-      </c>
-      <c r="C48" t="s">
-        <v>194</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G48" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E49" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G49" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
         <v>198</v>
       </c>
-      <c r="B50" t="s">
-        <v>199</v>
-      </c>
-      <c r="C50" t="s">
-        <v>199</v>
-      </c>
-      <c r="D50" t="s">
-        <v>200</v>
-      </c>
       <c r="E50" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F50" t="s">
-        <v>201</v>
+        <v>431</v>
       </c>
       <c r="G50" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
         <v>202</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" t="s">
+        <v>204</v>
+      </c>
+      <c r="F51" t="s">
         <v>203</v>
       </c>
-      <c r="C51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" t="s">
-        <v>204</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" t="s">
-        <v>206</v>
-      </c>
       <c r="G51" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C52" t="s">
         <v>208</v>
       </c>
-      <c r="B52" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" t="s">
-        <v>211</v>
-      </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G52" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B53" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C53" t="s">
+        <v>209</v>
+      </c>
+      <c r="D53" t="s">
+        <v>252</v>
+      </c>
+      <c r="E53" t="s">
         <v>212</v>
       </c>
-      <c r="D53" t="s">
-        <v>257</v>
-      </c>
-      <c r="E53" t="s">
-        <v>215</v>
-      </c>
       <c r="F53" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G53" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" t="s">
+        <v>214</v>
+      </c>
+      <c r="E54" t="s">
         <v>216</v>
       </c>
-      <c r="B54" t="s">
-        <v>218</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="F54" t="s">
         <v>217</v>
       </c>
-      <c r="E54" t="s">
-        <v>219</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>220</v>
-      </c>
-      <c r="G54" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C55" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>272</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C57" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G57" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C58" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="D58" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="E58" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G58" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" t="s">
+        <v>255</v>
+      </c>
+      <c r="C59" t="s">
+        <v>255</v>
+      </c>
+      <c r="D59" t="s">
+        <v>254</v>
+      </c>
+      <c r="E59" t="s">
+        <v>433</v>
+      </c>
+      <c r="F59" t="s">
+        <v>265</v>
+      </c>
+      <c r="G59" t="s">
         <v>258</v>
       </c>
-      <c r="B59" t="s">
-        <v>260</v>
-      </c>
-      <c r="C59" t="s">
-        <v>260</v>
-      </c>
-      <c r="D59" t="s">
-        <v>259</v>
-      </c>
-      <c r="E59" t="s">
-        <v>222</v>
-      </c>
-      <c r="F59" t="s">
-        <v>270</v>
-      </c>
-      <c r="G59" t="s">
-        <v>263</v>
-      </c>
       <c r="H59" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B60" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="E60" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F60" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G60" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="H60" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F61" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="G61" t="s">
-        <v>322</v>
+        <v>434</v>
       </c>
       <c r="H61" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D62" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="E62" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F62" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F63" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="G63" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C64" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="D64" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="E64" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="G64" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="D65" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F65" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H65" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="B66" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C66" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F66" t="s">
-        <v>336</v>
+        <v>322</v>
+      </c>
+      <c r="G66" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F67" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="G67" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F68" t="s">
-        <v>343</v>
+        <v>329</v>
+      </c>
+      <c r="G68" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F69" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G69" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C70" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D70" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="E70" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="G70" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B71" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C71" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>215</v>
-      </c>
-      <c r="F71" t="s">
-        <v>351</v>
+        <v>212</v>
       </c>
       <c r="G71" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="H71" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D72" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E72" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="G72" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H72" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="B73" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C73" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F73" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="G73" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>433</v>
       </c>
       <c r="F74" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G74" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>353</v>
+      </c>
+      <c r="B75" t="s">
+        <v>352</v>
+      </c>
+      <c r="C75" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" t="s">
+        <v>350</v>
+      </c>
+      <c r="G75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" t="s">
+        <v>283</v>
+      </c>
+      <c r="C76" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" t="s">
+        <v>433</v>
+      </c>
+      <c r="F76" t="s">
+        <v>355</v>
+      </c>
+      <c r="G76" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>356</v>
+      </c>
+      <c r="B77" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" t="s">
+        <v>284</v>
+      </c>
+      <c r="D77" t="s">
+        <v>357</v>
+      </c>
+      <c r="E77" t="s">
+        <v>433</v>
+      </c>
+      <c r="F77" t="s">
+        <v>358</v>
+      </c>
+      <c r="G77" t="s">
+        <v>228</v>
+      </c>
+      <c r="H77" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>362</v>
+      </c>
+      <c r="B78" t="s">
+        <v>285</v>
+      </c>
+      <c r="C78" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" t="s">
+        <v>433</v>
+      </c>
+      <c r="F78" t="s">
+        <v>361</v>
+      </c>
+      <c r="G78" t="s">
+        <v>259</v>
+      </c>
+      <c r="H78" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" t="s">
+        <v>365</v>
+      </c>
+      <c r="E79" t="s">
+        <v>433</v>
+      </c>
+      <c r="F79" t="s">
+        <v>366</v>
+      </c>
+      <c r="G79" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>368</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B80" t="s">
         <v>367</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C80" t="s">
+        <v>369</v>
+      </c>
+      <c r="E80" t="s">
+        <v>433</v>
+      </c>
+      <c r="F80" t="s">
+        <v>370</v>
+      </c>
+      <c r="G80" t="s">
+        <v>229</v>
+      </c>
+      <c r="H80" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>372</v>
+      </c>
+      <c r="B81" t="s">
+        <v>374</v>
+      </c>
+      <c r="C81" t="s">
+        <v>287</v>
+      </c>
+      <c r="E81" t="s">
+        <v>433</v>
+      </c>
+      <c r="F81" t="s">
+        <v>373</v>
+      </c>
+      <c r="G81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>375</v>
+      </c>
+      <c r="B82" t="s">
         <v>288</v>
       </c>
-      <c r="E75" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" t="s">
-        <v>365</v>
-      </c>
-      <c r="G75" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C76" t="s">
+      <c r="C82" t="s">
+        <v>288</v>
+      </c>
+      <c r="E82" t="s">
+        <v>433</v>
+      </c>
+      <c r="F82" t="s">
+        <v>377</v>
+      </c>
+      <c r="G82" t="s">
+        <v>229</v>
+      </c>
+      <c r="H82" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C77" t="s">
+      <c r="C83" t="s">
+        <v>289</v>
+      </c>
+      <c r="E83" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>379</v>
+      </c>
+      <c r="G83" t="s">
+        <v>229</v>
+      </c>
+      <c r="H83" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>382</v>
+      </c>
+      <c r="B84" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C78" t="s">
+      <c r="C84" t="s">
+        <v>290</v>
+      </c>
+      <c r="E84" t="s">
+        <v>433</v>
+      </c>
+      <c r="F84" t="s">
+        <v>381</v>
+      </c>
+      <c r="G84" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" t="s">
+        <v>385</v>
+      </c>
+      <c r="C85" t="s">
+        <v>383</v>
+      </c>
+      <c r="E85" t="s">
+        <v>433</v>
+      </c>
+      <c r="F85" t="s">
+        <v>386</v>
+      </c>
+      <c r="G85" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>387</v>
+      </c>
+      <c r="B86" t="s">
+        <v>390</v>
+      </c>
+      <c r="C86" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C79" t="s">
+      <c r="E86" t="s">
+        <v>388</v>
+      </c>
+      <c r="F86" t="s">
+        <v>389</v>
+      </c>
+      <c r="G86" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>391</v>
+      </c>
+      <c r="B87" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C80" t="s">
+      <c r="C87" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" t="s">
+        <v>392</v>
+      </c>
+      <c r="F87" t="s">
+        <v>393</v>
+      </c>
+      <c r="G87" t="s">
+        <v>259</v>
+      </c>
+      <c r="H87" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>395</v>
+      </c>
+      <c r="B88" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" t="s">
+      <c r="E88" t="s">
+        <v>433</v>
+      </c>
+      <c r="F88" t="s">
+        <v>397</v>
+      </c>
+      <c r="G88" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>399</v>
+      </c>
+      <c r="B89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" t="s">
+      <c r="E89" t="s">
+        <v>433</v>
+      </c>
+      <c r="F89" t="s">
+        <v>400</v>
+      </c>
+      <c r="G89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C83" t="s">
+      <c r="C90" t="s">
+        <v>295</v>
+      </c>
+      <c r="D90" t="s">
+        <v>407</v>
+      </c>
+      <c r="E90" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" t="s">
+        <v>406</v>
+      </c>
+      <c r="G90" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>411</v>
+      </c>
+      <c r="B91" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C84" t="s">
+      <c r="E91" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>409</v>
+      </c>
+      <c r="G91" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>412</v>
+      </c>
+      <c r="B92" t="s">
+        <v>415</v>
+      </c>
+      <c r="C92" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C85" t="s">
+      <c r="D92" t="s">
+        <v>413</v>
+      </c>
+      <c r="E92" t="s">
+        <v>433</v>
+      </c>
+      <c r="F92" t="s">
+        <v>414</v>
+      </c>
+      <c r="G92" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>420</v>
+      </c>
+      <c r="B93" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C86" t="s">
+      <c r="C93" t="s">
+        <v>298</v>
+      </c>
+      <c r="D93" t="s">
+        <v>417</v>
+      </c>
+      <c r="E93" t="s">
+        <v>416</v>
+      </c>
+      <c r="F93" t="s">
+        <v>418</v>
+      </c>
+      <c r="G93" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C87" t="s">
+      <c r="C94" t="s">
+        <v>299</v>
+      </c>
+      <c r="E94" t="s">
+        <v>421</v>
+      </c>
+      <c r="F94" t="s">
+        <v>422</v>
+      </c>
+      <c r="G94" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>424</v>
+      </c>
+      <c r="B95" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C88" t="s">
+      <c r="C95" t="s">
+        <v>300</v>
+      </c>
+      <c r="E95" t="s">
+        <v>433</v>
+      </c>
+      <c r="F95" t="s">
+        <v>425</v>
+      </c>
+      <c r="G95" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>427</v>
+      </c>
+      <c r="B96" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C89" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C90" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C91" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C92" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C93" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C94" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C95" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="E96" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" t="s">
+        <v>426</v>
+      </c>
+      <c r="G96" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>402</v>
+      </c>
+      <c r="B97" t="s">
+        <v>401</v>
+      </c>
       <c r="C97" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C98" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C99" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C100" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C101" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C102" t="s">
-        <v>315</v>
+        <v>404</v>
+      </c>
+      <c r="E97" t="s">
+        <v>433</v>
+      </c>
+      <c r="F97" t="s">
+        <v>403</v>
+      </c>
+      <c r="G97" t="s">
+        <v>232</v>
+      </c>
+      <c r="H97" t="s">
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5367018F-94C7-CB45-8768-D1DA715787E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07741C-AA43-B145-92B1-2C675C3A875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24740" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="439">
   <si>
     <t>name</t>
   </si>
@@ -1331,6 +1331,12 @@
   </si>
   <si>
     <t>Data sharing (NMR nD)</t>
+  </si>
+  <si>
+    <t>Real-time visualization tools for imaging spectroscopy</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioinformatics/article/28/15/2088/236639</t>
   </si>
 </sst>
 </file>
@@ -2193,10 +2199,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G97" sqref="G97"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3191,6 +3197,9 @@
       <c r="C48" t="s">
         <v>192</v>
       </c>
+      <c r="D48" t="s">
+        <v>438</v>
+      </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
@@ -3692,6 +3701,9 @@
       </c>
       <c r="E71" t="s">
         <v>212</v>
+      </c>
+      <c r="F71" t="s">
+        <v>437</v>
       </c>
       <c r="G71" t="s">
         <v>338</v>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF07741C-AA43-B145-92B1-2C675C3A875C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D0291-1FED-7544-812E-1DDC2EB59B58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1336,7 +1336,7 @@
     <t>Real-time visualization tools for imaging spectroscopy</t>
   </si>
   <si>
-    <t>https://academic.oup.com/bioinformatics/article/28/15/2088/236639</t>
+    <t>https://arxiv.org/abs/1105.2204</t>
   </si>
 </sst>
 </file>
@@ -2199,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D0291-1FED-7544-812E-1DDC2EB59B58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C20D7-26D7-1B49-BBF9-9226364729F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="24740" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2680" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="451">
   <si>
     <t>name</t>
   </si>
@@ -181,9 +181,6 @@
     <t>https://github.com/INRA/Rnmr1D</t>
   </si>
   <si>
-    <t>https://link.springer.com/article/10.1007/s11306-017-1178-y</t>
-  </si>
-  <si>
     <t>TIMP</t>
   </si>
   <si>
@@ -1337,6 +1334,45 @@
   </si>
   <si>
     <t>https://arxiv.org/abs/1105.2204</t>
+  </si>
+  <si>
+    <t>Toolbox for coherent multidimensional spectroscopy</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.analchem.7b02917</t>
+  </si>
+  <si>
+    <t>https://github.com/wright-group/WrightTools</t>
+  </si>
+  <si>
+    <t>http://wright.tools/en/stable/</t>
+  </si>
+  <si>
+    <t>http://rnmr.nmrfam.wisc.edu/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/pubmed/19821464</t>
+  </si>
+  <si>
+    <t>NMRProcFlow</t>
+  </si>
+  <si>
+    <t>WrightTools</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007%2Fs11306-017-1178-y</t>
+  </si>
+  <si>
+    <t>Interactive processing of 1D NMR spectra for metabolomics</t>
+  </si>
+  <si>
+    <t>rNMR</t>
+  </si>
+  <si>
+    <t>Visualization of 1D and 2D NMR</t>
+  </si>
+  <si>
+    <t>daniel.jacob@inra.fr</t>
   </si>
 </sst>
 </file>
@@ -2197,12 +2233,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2225,22 +2261,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -2260,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -2280,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -2303,7 +2339,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2323,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2340,13 +2376,13 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2366,7 +2402,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2386,7 +2422,7 @@
         <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2403,10 +2439,10 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2426,7 +2462,7 @@
         <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2449,7 +2485,7 @@
         <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2469,290 +2505,287 @@
         <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>264</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>428</v>
       </c>
       <c r="G14" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>429</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G17" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" t="s">
+        <v>88</v>
       </c>
       <c r="E22" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G24" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B26" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F26" t="s">
         <v>123</v>
       </c>
       <c r="G26" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -2763,33 +2796,33 @@
         <v>103</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F27" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="C28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="G28" t="s">
         <v>219</v>
@@ -2797,22 +2830,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
         <v>132</v>
       </c>
-      <c r="B29" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
       <c r="E29" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F29" t="s">
-        <v>263</v>
+        <v>136</v>
       </c>
       <c r="G29" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -2823,53 +2856,56 @@
         <v>105</v>
       </c>
       <c r="C30" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
         <v>106</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F31" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="G31" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B32" t="s">
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>138</v>
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
         <v>219</v>
@@ -2877,30 +2913,27 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
         <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D33" t="s">
+        <v>146</v>
+      </c>
+      <c r="E33" t="s">
+        <v>432</v>
+      </c>
+      <c r="F33" t="s">
         <v>144</v>
       </c>
-      <c r="E33" t="s">
-        <v>433</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
       <c r="G33" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B34" t="s">
         <v>109</v>
@@ -2908,14 +2941,17 @@
       <c r="C34" t="s">
         <v>147</v>
       </c>
+      <c r="D34" t="s">
+        <v>148</v>
+      </c>
       <c r="E34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F34" t="s">
-        <v>145</v>
+        <v>179</v>
       </c>
       <c r="G34" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -2926,99 +2962,96 @@
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D35" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F35" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="G35" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
         <v>111</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F36" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G36" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
         <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F37" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>161</v>
+      </c>
+      <c r="D38" t="s">
+        <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F38" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
         <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G39" t="s">
         <v>220</v>
@@ -3026,27 +3059,27 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
         <v>115</v>
       </c>
       <c r="C40" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F40" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G40" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
         <v>116</v>
@@ -3055,13 +3088,13 @@
         <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F41" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="G41" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -3072,142 +3105,142 @@
         <v>117</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>174</v>
+      </c>
+      <c r="D42" t="s">
+        <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F42" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="G42" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B43" t="s">
         <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
-      </c>
-      <c r="D43" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F43" t="s">
-        <v>174</v>
+        <v>261</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="C44" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F44" t="s">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c r="G44" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C45" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E45" t="s">
-        <v>433</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>183</v>
-      </c>
-      <c r="B46" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>261</v>
+        <v>429</v>
       </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>187</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
+      </c>
+      <c r="B47" t="s">
+        <v>190</v>
       </c>
       <c r="C47" t="s">
-        <v>189</v>
+        <v>191</v>
+      </c>
+      <c r="D47" t="s">
+        <v>437</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>430</v>
+        <v>192</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
-      </c>
-      <c r="D48" t="s">
-        <v>438</v>
+        <v>193</v>
       </c>
       <c r="E48" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>193</v>
+        <v>259</v>
       </c>
       <c r="G48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3215,234 +3248,240 @@
         <v>195</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>196</v>
+      </c>
+      <c r="D49" t="s">
+        <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="F49" t="s">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E50" t="s">
-        <v>433</v>
+        <v>203</v>
       </c>
       <c r="F50" t="s">
-        <v>431</v>
+        <v>202</v>
       </c>
       <c r="G50" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B51" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
-      </c>
-      <c r="D51" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="E51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F51" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="G51" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C52" t="s">
         <v>208</v>
       </c>
+      <c r="D52" t="s">
+        <v>251</v>
+      </c>
       <c r="E52" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G52" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C53" t="s">
-        <v>209</v>
-      </c>
-      <c r="D53" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G53" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="B54" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="E54" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="G54" t="s">
-        <v>220</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B55" t="s">
         <v>237</v>
       </c>
-      <c r="C55" t="s">
-        <v>236</v>
-      </c>
       <c r="E55" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>432</v>
+        <v>239</v>
       </c>
       <c r="G55" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B56" t="s">
-        <v>238</v>
+        <v>265</v>
+      </c>
+      <c r="C56" t="s">
+        <v>265</v>
       </c>
       <c r="E56" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G56" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="C57" t="s">
-        <v>266</v>
+        <v>246</v>
+      </c>
+      <c r="D57" t="s">
+        <v>247</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G57" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C58" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="D58" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="F58" t="s">
-        <v>249</v>
+        <v>264</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>257</v>
+      </c>
+      <c r="H58" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="B59" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="D59" t="s">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F59" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="G59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H59" t="s">
-        <v>257</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3455,25 +3494,22 @@
       <c r="C60" t="s">
         <v>267</v>
       </c>
-      <c r="D60" t="s">
-        <v>304</v>
-      </c>
       <c r="E60" t="s">
+        <v>432</v>
+      </c>
+      <c r="F60" t="s">
+        <v>306</v>
+      </c>
+      <c r="G60" t="s">
         <v>433</v>
       </c>
-      <c r="F60" t="s">
-        <v>302</v>
-      </c>
-      <c r="G60" t="s">
-        <v>258</v>
-      </c>
       <c r="H60" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B61" t="s">
         <v>268</v>
@@ -3481,22 +3517,22 @@
       <c r="C61" t="s">
         <v>268</v>
       </c>
+      <c r="D61" t="s">
+        <v>311</v>
+      </c>
       <c r="E61" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F61" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G61" t="s">
-        <v>434</v>
-      </c>
-      <c r="H61" t="s">
-        <v>309</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B62" t="s">
         <v>269</v>
@@ -3504,22 +3540,19 @@
       <c r="C62" t="s">
         <v>269</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
+        <v>432</v>
+      </c>
+      <c r="F62" t="s">
         <v>312</v>
       </c>
-      <c r="E62" t="s">
-        <v>433</v>
-      </c>
-      <c r="F62" t="s">
-        <v>311</v>
-      </c>
       <c r="G62" t="s">
-        <v>228</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B63" t="s">
         <v>270</v>
@@ -3527,19 +3560,22 @@
       <c r="C63" t="s">
         <v>270</v>
       </c>
+      <c r="D63" t="s">
+        <v>315</v>
+      </c>
       <c r="E63" t="s">
-        <v>433</v>
+        <v>203</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G63" t="s">
-        <v>339</v>
+        <v>219</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s">
         <v>271</v>
@@ -3548,62 +3584,59 @@
         <v>271</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="E64" t="s">
-        <v>204</v>
+        <v>432</v>
       </c>
       <c r="F64" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G64" t="s">
-        <v>220</v>
+        <v>228</v>
+      </c>
+      <c r="H64" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
         <v>272</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>432</v>
+      </c>
+      <c r="F65" t="s">
         <v>321</v>
       </c>
-      <c r="E65" t="s">
-        <v>433</v>
-      </c>
-      <c r="F65" t="s">
-        <v>319</v>
-      </c>
       <c r="G65" t="s">
-        <v>229</v>
-      </c>
-      <c r="H65" t="s">
-        <v>318</v>
+        <v>434</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
         <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F66" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G66" t="s">
-        <v>435</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
@@ -3617,76 +3650,79 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F67" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="G67" t="s">
-        <v>326</v>
+        <v>258</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C68" t="s">
         <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F68" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G68" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B69" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C69" t="s">
         <v>276</v>
       </c>
+      <c r="D69" t="s">
+        <v>333</v>
+      </c>
       <c r="E69" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F69" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G69" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s">
-        <v>336</v>
+        <v>277</v>
       </c>
       <c r="C70" t="s">
         <v>277</v>
       </c>
-      <c r="D70" t="s">
-        <v>334</v>
-      </c>
       <c r="E70" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="G70" t="s">
-        <v>221</v>
+        <v>337</v>
+      </c>
+      <c r="H70" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3694,88 +3730,85 @@
         <v>340</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>342</v>
       </c>
       <c r="C71" t="s">
         <v>278</v>
       </c>
+      <c r="D71" t="s">
+        <v>342</v>
+      </c>
       <c r="E71" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="G71" t="s">
-        <v>338</v>
+        <v>228</v>
       </c>
       <c r="H71" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C72" t="s">
         <v>279</v>
       </c>
-      <c r="D72" t="s">
-        <v>343</v>
-      </c>
       <c r="E72" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="F72" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G72" t="s">
-        <v>229</v>
-      </c>
-      <c r="H72" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>280</v>
       </c>
       <c r="C73" t="s">
         <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F73" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>351</v>
       </c>
       <c r="C74" t="s">
         <v>281</v>
       </c>
       <c r="E74" t="s">
-        <v>433</v>
+        <v>206</v>
       </c>
       <c r="F74" t="s">
         <v>349</v>
       </c>
       <c r="G74" t="s">
-        <v>220</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3783,24 +3816,24 @@
         <v>353</v>
       </c>
       <c r="B75" t="s">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
         <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>432</v>
       </c>
       <c r="F75" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G75" t="s">
-        <v>351</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B76" t="s">
         <v>283</v>
@@ -3808,19 +3841,25 @@
       <c r="C76" t="s">
         <v>283</v>
       </c>
+      <c r="D76" t="s">
+        <v>356</v>
+      </c>
       <c r="E76" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F76" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G76" t="s">
-        <v>219</v>
+        <v>227</v>
+      </c>
+      <c r="H76" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B77" t="s">
         <v>284</v>
@@ -3828,17 +3867,14 @@
       <c r="C77" t="s">
         <v>284</v>
       </c>
-      <c r="D77" t="s">
-        <v>357</v>
-      </c>
       <c r="E77" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F77" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G77" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="H77" t="s">
         <v>359</v>
@@ -3846,96 +3882,96 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" t="s">
         <v>362</v>
-      </c>
-      <c r="B78" t="s">
-        <v>285</v>
       </c>
       <c r="C78" t="s">
         <v>285</v>
       </c>
+      <c r="D78" t="s">
+        <v>364</v>
+      </c>
       <c r="E78" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F78" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G78" t="s">
-        <v>259</v>
-      </c>
-      <c r="H78" t="s">
-        <v>360</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B79" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C79" t="s">
-        <v>286</v>
-      </c>
-      <c r="D79" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="E79" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F79" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="G79" t="s">
-        <v>308</v>
+        <v>228</v>
+      </c>
+      <c r="H79" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B80" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="C80" t="s">
-        <v>369</v>
+        <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F80" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G80" t="s">
-        <v>229</v>
-      </c>
-      <c r="H80" t="s">
-        <v>371</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B81" t="s">
-        <v>374</v>
+        <v>287</v>
       </c>
       <c r="C81" t="s">
         <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F81" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G81" t="s">
-        <v>258</v>
+        <v>228</v>
+      </c>
+      <c r="H81" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B82" t="s">
         <v>288</v>
@@ -3944,21 +3980,21 @@
         <v>288</v>
       </c>
       <c r="E82" t="s">
-        <v>433</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H82" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B83" t="s">
         <v>289</v>
@@ -3967,162 +4003,159 @@
         <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="F83" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G83" t="s">
-        <v>229</v>
-      </c>
-      <c r="H83" t="s">
-        <v>380</v>
+        <v>338</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>383</v>
+      </c>
+      <c r="B84" t="s">
+        <v>384</v>
+      </c>
+      <c r="C84" t="s">
         <v>382</v>
       </c>
-      <c r="B84" t="s">
-        <v>290</v>
-      </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="E84" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F84" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G84" t="s">
-        <v>339</v>
+        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B85" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C85" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
       <c r="E85" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="F85" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="G85" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B86" t="s">
-        <v>390</v>
+        <v>291</v>
       </c>
       <c r="C86" t="s">
         <v>291</v>
       </c>
       <c r="E86" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F86" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G86" t="s">
-        <v>219</v>
+        <v>258</v>
+      </c>
+      <c r="H86" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B87" t="s">
-        <v>292</v>
+        <v>395</v>
       </c>
       <c r="C87" t="s">
         <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>392</v>
+        <v>432</v>
       </c>
       <c r="F87" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G87" t="s">
-        <v>259</v>
-      </c>
-      <c r="H87" t="s">
-        <v>394</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B88" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C88" t="s">
         <v>293</v>
       </c>
       <c r="E88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F88" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="G88" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B89" t="s">
-        <v>398</v>
+        <v>294</v>
       </c>
       <c r="C89" t="s">
         <v>294</v>
       </c>
+      <c r="D89" t="s">
+        <v>406</v>
+      </c>
       <c r="E89" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G89" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B90" t="s">
-        <v>295</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s">
         <v>295</v>
       </c>
-      <c r="D90" t="s">
-        <v>407</v>
-      </c>
       <c r="E90" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="G90" t="s">
-        <v>229</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -4130,47 +4163,50 @@
         <v>411</v>
       </c>
       <c r="B91" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C91" t="s">
         <v>296</v>
       </c>
+      <c r="D91" t="s">
+        <v>412</v>
+      </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="F91" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G91" t="s">
-        <v>351</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B92" t="s">
-        <v>415</v>
+        <v>297</v>
       </c>
       <c r="C92" t="s">
         <v>297</v>
       </c>
       <c r="D92" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E92" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="F92" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="G92" t="s">
-        <v>233</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B93" t="s">
         <v>298</v>
@@ -4178,17 +4214,14 @@
       <c r="C93" t="s">
         <v>298</v>
       </c>
-      <c r="D93" t="s">
-        <v>417</v>
-      </c>
       <c r="E93" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F93" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G93" t="s">
-        <v>419</v>
+        <v>350</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
@@ -4202,18 +4235,18 @@
         <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="F94" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="G94" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B95" t="s">
         <v>300</v>
@@ -4222,61 +4255,130 @@
         <v>300</v>
       </c>
       <c r="E95" t="s">
-        <v>433</v>
+        <v>19</v>
       </c>
       <c r="F95" t="s">
         <v>425</v>
       </c>
       <c r="G95" t="s">
-        <v>351</v>
+        <v>435</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="B96" t="s">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>403</v>
       </c>
       <c r="E96" t="s">
-        <v>19</v>
+        <v>432</v>
       </c>
       <c r="F96" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="G96" t="s">
-        <v>436</v>
+        <v>231</v>
+      </c>
+      <c r="H96" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="B97" t="s">
-        <v>401</v>
+        <v>441</v>
       </c>
       <c r="C97" t="s">
-        <v>404</v>
+        <v>440</v>
+      </c>
+      <c r="D97" t="s">
+        <v>439</v>
       </c>
       <c r="E97" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F97" t="s">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="G97" t="s">
-        <v>232</v>
-      </c>
-      <c r="H97" t="s">
-        <v>405</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>444</v>
+      </c>
+      <c r="B98" t="s">
+        <v>51</v>
+      </c>
+      <c r="D98" t="s">
+        <v>446</v>
+      </c>
+      <c r="E98" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>447</v>
+      </c>
+      <c r="G98" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" t="s">
+        <v>51</v>
+      </c>
+      <c r="C99" t="s">
+        <v>52</v>
+      </c>
+      <c r="D99" t="s">
+        <v>446</v>
+      </c>
+      <c r="E99" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>263</v>
+      </c>
+      <c r="G99" t="s">
+        <v>218</v>
+      </c>
+      <c r="H99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>448</v>
+      </c>
+      <c r="B100" t="s">
+        <v>442</v>
+      </c>
+      <c r="D100" t="s">
+        <v>443</v>
+      </c>
+      <c r="E100" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>449</v>
+      </c>
+      <c r="G100" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B47" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>
+    <hyperlink ref="B46" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246C20D7-26D7-1B49-BBF9-9226364729F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059ED5F-8EAE-7F4D-8102-F628483FDBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2680" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="461">
   <si>
     <t>name</t>
   </si>
@@ -1291,9 +1291,6 @@
     <t>xrf_filetools</t>
   </si>
   <si>
-    <t>xrf_parsers</t>
-  </si>
-  <si>
     <t>Parse files from handheld XRF spectrometers</t>
   </si>
   <si>
@@ -1373,13 +1370,46 @@
   </si>
   <si>
     <t>daniel.jacob@inra.fr</t>
+  </si>
+  <si>
+    <t>PRFFECT</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0169743917305257</t>
+  </si>
+  <si>
+    <t>https://github.com/zhangfy1993/PRFFECT</t>
+  </si>
+  <si>
+    <t>benjamin.r.smith@strath.ac.uk</t>
+  </si>
+  <si>
+    <t>Pre-processing &amp; random forest feature extraction</t>
+  </si>
+  <si>
+    <t>https://bmcchem.biomedcentral.com/articles/10.1186/1752-153X-1-31</t>
+  </si>
+  <si>
+    <t>JSpecView</t>
+  </si>
+  <si>
+    <t>http://jspecview.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>Read &amp; view spectra in JCAMP-DX format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">robert.lancashire@uwimona.edu.jm </t>
+  </si>
+  <si>
+    <t>xrf_parser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1527,6 +1557,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="HgqjsrGiovanni"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1871,12 +1912,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2233,15 +2276,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="61.33203125" customWidth="1"/>
@@ -2253,7 +2296,7 @@
     <col min="8" max="8" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2279,7 +2322,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2342,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2319,7 +2362,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -2342,7 +2385,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2362,7 +2405,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2376,7 +2419,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -2385,7 +2428,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2405,7 +2448,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2425,7 +2468,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2439,13 +2482,13 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G9" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2465,7 +2508,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2488,7 +2531,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -2508,7 +2551,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -2531,7 +2574,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>58</v>
       </c>
@@ -2545,13 +2588,13 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2571,7 +2614,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2588,7 +2631,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -2605,7 +2648,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>70</v>
       </c>
@@ -2628,7 +2671,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>75</v>
       </c>
@@ -2648,7 +2691,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -2668,7 +2711,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -2685,7 +2728,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2708,7 +2751,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>90</v>
       </c>
@@ -2725,7 +2768,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2745,7 +2788,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -2759,7 +2802,7 @@
         <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F25" t="s">
         <v>122</v>
@@ -2768,7 +2811,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>125</v>
       </c>
@@ -2779,7 +2822,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F26" t="s">
         <v>123</v>
@@ -2788,7 +2831,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>126</v>
       </c>
@@ -2799,7 +2842,7 @@
         <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F27" t="s">
         <v>128</v>
@@ -2808,7 +2851,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>131</v>
       </c>
@@ -2819,7 +2862,7 @@
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F28" t="s">
         <v>262</v>
@@ -2828,7 +2871,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -2839,7 +2882,7 @@
         <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F29" t="s">
         <v>136</v>
@@ -2848,7 +2891,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -2859,7 +2902,7 @@
         <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F30" t="s">
         <v>135</v>
@@ -2868,7 +2911,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>138</v>
       </c>
@@ -2879,7 +2922,7 @@
         <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F31" t="s">
         <v>178</v>
@@ -2888,7 +2931,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>140</v>
       </c>
@@ -2902,7 +2945,7 @@
         <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F32" t="s">
         <v>141</v>
@@ -2911,7 +2954,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>145</v>
       </c>
@@ -2922,7 +2965,7 @@
         <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F33" t="s">
         <v>144</v>
@@ -2931,7 +2974,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>149</v>
       </c>
@@ -2945,7 +2988,7 @@
         <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -2954,7 +2997,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -2965,7 +3008,7 @@
         <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F35" t="s">
         <v>151</v>
@@ -2974,7 +3017,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>153</v>
       </c>
@@ -2985,7 +3028,7 @@
         <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F36" t="s">
         <v>154</v>
@@ -2994,7 +3037,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -3005,7 +3048,7 @@
         <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F37" t="s">
         <v>157</v>
@@ -3014,7 +3057,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -3028,7 +3071,7 @@
         <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F38" t="s">
         <v>160</v>
@@ -3037,7 +3080,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>163</v>
       </c>
@@ -3048,7 +3091,7 @@
         <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F39" t="s">
         <v>164</v>
@@ -3057,7 +3100,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -3068,7 +3111,7 @@
         <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F40" t="s">
         <v>157</v>
@@ -3077,7 +3120,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -3088,7 +3131,7 @@
         <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F41" t="s">
         <v>169</v>
@@ -3097,7 +3140,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -3111,7 +3154,7 @@
         <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F42" t="s">
         <v>173</v>
@@ -3120,7 +3163,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>176</v>
       </c>
@@ -3131,7 +3174,7 @@
         <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F43" t="s">
         <v>261</v>
@@ -3140,7 +3183,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>180</v>
       </c>
@@ -3151,7 +3194,7 @@
         <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F44" t="s">
         <v>181</v>
@@ -3160,7 +3203,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>182</v>
       </c>
@@ -3180,7 +3223,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>186</v>
       </c>
@@ -3194,13 +3237,13 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G46" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -3211,7 +3254,7 @@
         <v>191</v>
       </c>
       <c r="D47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -3223,7 +3266,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>194</v>
       </c>
@@ -3243,7 +3286,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -3257,16 +3300,16 @@
         <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F49" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G49" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -3289,7 +3332,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>204</v>
       </c>
@@ -3309,7 +3352,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>209</v>
       </c>
@@ -3332,7 +3375,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -3352,7 +3395,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>234</v>
       </c>
@@ -3366,13 +3409,13 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G54" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>238</v>
       </c>
@@ -3389,7 +3432,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>240</v>
       </c>
@@ -3409,7 +3452,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>250</v>
       </c>
@@ -3432,7 +3475,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>252</v>
       </c>
@@ -3446,7 +3489,7 @@
         <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F58" t="s">
         <v>264</v>
@@ -3458,7 +3501,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>304</v>
       </c>
@@ -3472,7 +3515,7 @@
         <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F59" t="s">
         <v>301</v>
@@ -3484,7 +3527,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>305</v>
       </c>
@@ -3495,19 +3538,19 @@
         <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F60" t="s">
         <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H60" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>309</v>
       </c>
@@ -3521,7 +3564,7 @@
         <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F61" t="s">
         <v>310</v>
@@ -3530,7 +3573,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>313</v>
       </c>
@@ -3541,7 +3584,7 @@
         <v>269</v>
       </c>
       <c r="E62" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F62" t="s">
         <v>312</v>
@@ -3550,7 +3593,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>316</v>
       </c>
@@ -3573,7 +3616,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>319</v>
       </c>
@@ -3587,7 +3630,7 @@
         <v>320</v>
       </c>
       <c r="E64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F64" t="s">
         <v>318</v>
@@ -3599,7 +3642,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>323</v>
       </c>
@@ -3610,16 +3653,16 @@
         <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F65" t="s">
         <v>321</v>
       </c>
       <c r="G65" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>326</v>
       </c>
@@ -3630,7 +3673,7 @@
         <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F66" t="s">
         <v>324</v>
@@ -3639,7 +3682,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>327</v>
       </c>
@@ -3650,7 +3693,7 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F67" t="s">
         <v>328</v>
@@ -3659,7 +3702,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>329</v>
       </c>
@@ -3670,7 +3713,7 @@
         <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F68" t="s">
         <v>330</v>
@@ -3679,7 +3722,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>334</v>
       </c>
@@ -3693,7 +3736,7 @@
         <v>333</v>
       </c>
       <c r="E69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F69" t="s">
         <v>332</v>
@@ -3702,7 +3745,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>339</v>
       </c>
@@ -3716,7 +3759,7 @@
         <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G70" t="s">
         <v>337</v>
@@ -3725,12 +3768,12 @@
         <v>336</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>340</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="C71" t="s">
         <v>278</v>
@@ -3751,7 +3794,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>343</v>
       </c>
@@ -3762,7 +3805,7 @@
         <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F72" t="s">
         <v>344</v>
@@ -3771,7 +3814,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>347</v>
       </c>
@@ -3782,7 +3825,7 @@
         <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F73" t="s">
         <v>348</v>
@@ -3791,7 +3834,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>352</v>
       </c>
@@ -3811,7 +3854,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -3822,7 +3865,7 @@
         <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F75" t="s">
         <v>354</v>
@@ -3831,7 +3874,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>355</v>
       </c>
@@ -3845,7 +3888,7 @@
         <v>356</v>
       </c>
       <c r="E76" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F76" t="s">
         <v>357</v>
@@ -3857,7 +3900,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8">
       <c r="A77" t="s">
         <v>361</v>
       </c>
@@ -3868,7 +3911,7 @@
         <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F77" t="s">
         <v>360</v>
@@ -3880,7 +3923,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8">
       <c r="A78" t="s">
         <v>363</v>
       </c>
@@ -3894,7 +3937,7 @@
         <v>364</v>
       </c>
       <c r="E78" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F78" t="s">
         <v>365</v>
@@ -3903,7 +3946,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>367</v>
       </c>
@@ -3914,7 +3957,7 @@
         <v>368</v>
       </c>
       <c r="E79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F79" t="s">
         <v>369</v>
@@ -3926,7 +3969,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>371</v>
       </c>
@@ -3937,7 +3980,7 @@
         <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F80" t="s">
         <v>372</v>
@@ -3946,7 +3989,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
         <v>374</v>
       </c>
@@ -3957,7 +4000,7 @@
         <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F81" t="s">
         <v>376</v>
@@ -3969,7 +4012,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
         <v>377</v>
       </c>
@@ -3992,7 +4035,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
         <v>381</v>
       </c>
@@ -4003,7 +4046,7 @@
         <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F83" t="s">
         <v>380</v>
@@ -4012,7 +4055,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -4023,7 +4066,7 @@
         <v>382</v>
       </c>
       <c r="E84" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F84" t="s">
         <v>385</v>
@@ -4032,7 +4075,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8">
       <c r="A85" t="s">
         <v>386</v>
       </c>
@@ -4052,7 +4095,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>390</v>
       </c>
@@ -4075,7 +4118,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>394</v>
       </c>
@@ -4086,7 +4129,7 @@
         <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F87" t="s">
         <v>396</v>
@@ -4095,7 +4138,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>398</v>
       </c>
@@ -4106,7 +4149,7 @@
         <v>293</v>
       </c>
       <c r="E88" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F88" t="s">
         <v>399</v>
@@ -4115,7 +4158,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>407</v>
       </c>
@@ -4138,7 +4181,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>410</v>
       </c>
@@ -4158,7 +4201,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>411</v>
       </c>
@@ -4172,7 +4215,7 @@
         <v>412</v>
       </c>
       <c r="E91" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F91" t="s">
         <v>413</v>
@@ -4181,7 +4224,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>419</v>
       </c>
@@ -4204,7 +4247,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>422</v>
       </c>
@@ -4224,9 +4267,9 @@
         <v>350</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="B94" t="s">
         <v>299</v>
@@ -4235,18 +4278,18 @@
         <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F94" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G94" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B95" t="s">
         <v>300</v>
@@ -4258,13 +4301,13 @@
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G95" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>401</v>
       </c>
@@ -4275,7 +4318,7 @@
         <v>403</v>
       </c>
       <c r="E96" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F96" t="s">
         <v>402</v>
@@ -4287,50 +4330,50 @@
         <v>404</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B97" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E97" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G97" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
       </c>
       <c r="D98" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G98" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8">
       <c r="A99" t="s">
         <v>50</v>
       </c>
@@ -4341,7 +4384,7 @@
         <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -4353,27 +4396,76 @@
         <v>218</v>
       </c>
       <c r="H99" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B100" t="s">
+        <v>441</v>
+      </c>
+      <c r="D100" t="s">
         <v>442</v>
-      </c>
-      <c r="D100" t="s">
-        <v>443</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G100" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17">
+      <c r="A101" t="s">
+        <v>450</v>
+      </c>
+      <c r="B101" t="s">
+        <v>452</v>
+      </c>
+      <c r="C101" t="s">
+        <v>452</v>
+      </c>
+      <c r="D101" t="s">
+        <v>451</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>454</v>
+      </c>
+      <c r="G101" t="s">
+        <v>257</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" t="s">
+        <v>456</v>
+      </c>
+      <c r="B102" t="s">
+        <v>457</v>
+      </c>
+      <c r="D102" t="s">
+        <v>455</v>
+      </c>
+      <c r="E102" t="s">
+        <v>206</v>
+      </c>
+      <c r="F102" t="s">
+        <v>458</v>
+      </c>
+      <c r="G102" t="s">
+        <v>307</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4059ED5F-8EAE-7F4D-8102-F628483FDBD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C729282-1C39-2D47-9823-8B076930EC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2680" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="1940" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="468">
   <si>
     <t>name</t>
   </si>
@@ -1403,6 +1403,27 @@
   </si>
   <si>
     <t>xrf_parser</t>
+  </si>
+  <si>
+    <t>plantspec</t>
+  </si>
+  <si>
+    <t>https://github.com/griffithdan/plantspec</t>
+  </si>
+  <si>
+    <t>https://griffithdan.github.io/pages/code_and_data/plantspec.html</t>
+  </si>
+  <si>
+    <t>https://besjournals.onlinelibrary.wiley.com/doi/full/10.1111/2041-210X.13143</t>
+  </si>
+  <si>
+    <t>Spectral analysis of plant stoichiometry</t>
+  </si>
+  <si>
+    <t>NIR</t>
+  </si>
+  <si>
+    <t>Daniel M. Griffith &lt;griffith.dan@gmail.com&gt;</t>
   </si>
 </sst>
 </file>
@@ -2276,12 +2297,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B71" sqref="B71"/>
+      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4468,6 +4489,32 @@
         <v>459</v>
       </c>
     </row>
+    <row r="103" spans="1:8">
+      <c r="A103" t="s">
+        <v>461</v>
+      </c>
+      <c r="B103" t="s">
+        <v>463</v>
+      </c>
+      <c r="C103" t="s">
+        <v>462</v>
+      </c>
+      <c r="D103" t="s">
+        <v>464</v>
+      </c>
+      <c r="E103" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" t="s">
+        <v>465</v>
+      </c>
+      <c r="G103" t="s">
+        <v>466</v>
+      </c>
+      <c r="H103" t="s">
+        <v>467</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B46" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C729282-1C39-2D47-9823-8B076930EC3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3A362B-2BB8-6148-90C2-063CEA90808A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1940" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="474">
   <si>
     <t>name</t>
   </si>
@@ -1424,6 +1424,24 @@
   </si>
   <si>
     <t>Daniel M. Griffith &lt;griffith.dan@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>corr2D</t>
+  </si>
+  <si>
+    <t>https://www.jstatsoft.org/article/view/v090i03</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=corr2D</t>
+  </si>
+  <si>
+    <t>https://github.com/clacor/corr2D</t>
+  </si>
+  <si>
+    <t>2D correlation spectroscopy</t>
+  </si>
+  <si>
+    <t>Robert Geitner &lt;r.geitner at uu.nl&gt;</t>
   </si>
 </sst>
 </file>
@@ -1933,7 +1951,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyProtection="1">
@@ -1941,6 +1959,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2297,12 +2316,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H103" sqref="H103"/>
+      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4515,6 +4534,32 @@
         <v>467</v>
       </c>
     </row>
+    <row r="104" spans="1:8">
+      <c r="A104" t="s">
+        <v>468</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C104" t="s">
+        <v>471</v>
+      </c>
+      <c r="D104" t="s">
+        <v>469</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" t="s">
+        <v>472</v>
+      </c>
+      <c r="G104" t="s">
+        <v>257</v>
+      </c>
+      <c r="H104" t="s">
+        <v>473</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B46" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3A362B-2BB8-6148-90C2-063CEA90808A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AAAD6-DB19-7F41-8F30-ACCC83089C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1940" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="473">
   <si>
     <t>name</t>
   </si>
@@ -1073,9 +1073,6 @@
   </si>
   <si>
     <t>XRF</t>
-  </si>
-  <si>
-    <t>https://peakaboo.org/</t>
   </si>
   <si>
     <t>Peakaboo</t>
@@ -2318,10 +2315,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B105" sqref="B105"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2459,7 +2456,7 @@
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -2522,7 +2519,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G9" t="s">
         <v>225</v>
@@ -2628,7 +2625,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G14" t="s">
         <v>243</v>
@@ -2842,7 +2839,7 @@
         <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F25" t="s">
         <v>122</v>
@@ -2862,7 +2859,7 @@
         <v>124</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F26" t="s">
         <v>123</v>
@@ -2882,7 +2879,7 @@
         <v>127</v>
       </c>
       <c r="E27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F27" t="s">
         <v>128</v>
@@ -2902,7 +2899,7 @@
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F28" t="s">
         <v>262</v>
@@ -2922,7 +2919,7 @@
         <v>132</v>
       </c>
       <c r="E29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F29" t="s">
         <v>136</v>
@@ -2942,7 +2939,7 @@
         <v>139</v>
       </c>
       <c r="E30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F30" t="s">
         <v>135</v>
@@ -2962,7 +2959,7 @@
         <v>137</v>
       </c>
       <c r="E31" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F31" t="s">
         <v>178</v>
@@ -2985,7 +2982,7 @@
         <v>143</v>
       </c>
       <c r="E32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F32" t="s">
         <v>141</v>
@@ -3005,7 +3002,7 @@
         <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F33" t="s">
         <v>144</v>
@@ -3028,7 +3025,7 @@
         <v>148</v>
       </c>
       <c r="E34" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -3048,7 +3045,7 @@
         <v>152</v>
       </c>
       <c r="E35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F35" t="s">
         <v>151</v>
@@ -3068,7 +3065,7 @@
         <v>155</v>
       </c>
       <c r="E36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F36" t="s">
         <v>154</v>
@@ -3088,7 +3085,7 @@
         <v>158</v>
       </c>
       <c r="E37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F37" t="s">
         <v>157</v>
@@ -3111,7 +3108,7 @@
         <v>162</v>
       </c>
       <c r="E38" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F38" t="s">
         <v>160</v>
@@ -3131,7 +3128,7 @@
         <v>165</v>
       </c>
       <c r="E39" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F39" t="s">
         <v>164</v>
@@ -3151,7 +3148,7 @@
         <v>167</v>
       </c>
       <c r="E40" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F40" t="s">
         <v>157</v>
@@ -3171,7 +3168,7 @@
         <v>168</v>
       </c>
       <c r="E41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F41" t="s">
         <v>169</v>
@@ -3194,7 +3191,7 @@
         <v>175</v>
       </c>
       <c r="E42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F42" t="s">
         <v>173</v>
@@ -3214,7 +3211,7 @@
         <v>177</v>
       </c>
       <c r="E43" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F43" t="s">
         <v>261</v>
@@ -3234,7 +3231,7 @@
         <v>185</v>
       </c>
       <c r="E44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F44" t="s">
         <v>181</v>
@@ -3277,7 +3274,7 @@
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G46" t="s">
         <v>231</v>
@@ -3294,7 +3291,7 @@
         <v>191</v>
       </c>
       <c r="D47" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E47" t="s">
         <v>5</v>
@@ -3340,10 +3337,10 @@
         <v>197</v>
       </c>
       <c r="E49" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F49" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G49" t="s">
         <v>222</v>
@@ -3449,7 +3446,7 @@
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G54" t="s">
         <v>258</v>
@@ -3529,7 +3526,7 @@
         <v>253</v>
       </c>
       <c r="E58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F58" t="s">
         <v>264</v>
@@ -3555,7 +3552,7 @@
         <v>303</v>
       </c>
       <c r="E59" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F59" t="s">
         <v>301</v>
@@ -3578,13 +3575,13 @@
         <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F60" t="s">
         <v>306</v>
       </c>
       <c r="G60" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H60" t="s">
         <v>308</v>
@@ -3604,7 +3601,7 @@
         <v>311</v>
       </c>
       <c r="E61" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F61" t="s">
         <v>310</v>
@@ -3624,7 +3621,7 @@
         <v>269</v>
       </c>
       <c r="E62" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F62" t="s">
         <v>312</v>
@@ -3670,7 +3667,7 @@
         <v>320</v>
       </c>
       <c r="E64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F64" t="s">
         <v>318</v>
@@ -3693,13 +3690,13 @@
         <v>272</v>
       </c>
       <c r="E65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F65" t="s">
         <v>321</v>
       </c>
       <c r="G65" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3713,7 +3710,7 @@
         <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F66" t="s">
         <v>324</v>
@@ -3733,7 +3730,7 @@
         <v>274</v>
       </c>
       <c r="E67" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F67" t="s">
         <v>328</v>
@@ -3753,7 +3750,7 @@
         <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F68" t="s">
         <v>330</v>
@@ -3776,7 +3773,7 @@
         <v>333</v>
       </c>
       <c r="E69" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F69" t="s">
         <v>332</v>
@@ -3799,7 +3796,7 @@
         <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G70" t="s">
         <v>337</v>
@@ -3845,7 +3842,7 @@
         <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F72" t="s">
         <v>344</v>
@@ -3865,7 +3862,7 @@
         <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F73" t="s">
         <v>348</v>
@@ -3876,10 +3873,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B74" t="s">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
         <v>281</v>
@@ -3896,7 +3893,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B75" t="s">
         <v>282</v>
@@ -3905,10 +3902,10 @@
         <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F75" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G75" t="s">
         <v>218</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B76" t="s">
         <v>283</v>
@@ -3925,24 +3922,24 @@
         <v>283</v>
       </c>
       <c r="D76" t="s">
+        <v>355</v>
+      </c>
+      <c r="E76" t="s">
+        <v>430</v>
+      </c>
+      <c r="F76" t="s">
         <v>356</v>
-      </c>
-      <c r="E76" t="s">
-        <v>431</v>
-      </c>
-      <c r="F76" t="s">
-        <v>357</v>
       </c>
       <c r="G76" t="s">
         <v>227</v>
       </c>
       <c r="H76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B77" t="s">
         <v>284</v>
@@ -3951,36 +3948,36 @@
         <v>284</v>
       </c>
       <c r="E77" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F77" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G77" t="s">
         <v>258</v>
       </c>
       <c r="H77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B78" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C78" t="s">
         <v>285</v>
       </c>
       <c r="D78" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" t="s">
+        <v>430</v>
+      </c>
+      <c r="F78" t="s">
         <v>364</v>
-      </c>
-      <c r="E78" t="s">
-        <v>431</v>
-      </c>
-      <c r="F78" t="s">
-        <v>365</v>
       </c>
       <c r="G78" t="s">
         <v>307</v>
@@ -3988,42 +3985,42 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
+        <v>366</v>
+      </c>
+      <c r="B79" t="s">
+        <v>365</v>
+      </c>
+      <c r="C79" t="s">
         <v>367</v>
       </c>
-      <c r="B79" t="s">
-        <v>366</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
+        <v>430</v>
+      </c>
+      <c r="F79" t="s">
         <v>368</v>
-      </c>
-      <c r="E79" t="s">
-        <v>431</v>
-      </c>
-      <c r="F79" t="s">
-        <v>369</v>
       </c>
       <c r="G79" t="s">
         <v>228</v>
       </c>
       <c r="H79" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B80" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C80" t="s">
         <v>286</v>
       </c>
       <c r="E80" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F80" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G80" t="s">
         <v>257</v>
@@ -4031,7 +4028,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s">
         <v>287</v>
@@ -4040,21 +4037,21 @@
         <v>287</v>
       </c>
       <c r="E81" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F81" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G81" t="s">
         <v>228</v>
       </c>
       <c r="H81" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B82" t="s">
         <v>288</v>
@@ -4066,18 +4063,18 @@
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G82" t="s">
         <v>228</v>
       </c>
       <c r="H82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B83" t="s">
         <v>289</v>
@@ -4086,10 +4083,10 @@
         <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F83" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G83" t="s">
         <v>338</v>
@@ -4097,19 +4094,19 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
+        <v>382</v>
+      </c>
+      <c r="B84" t="s">
         <v>383</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" t="s">
+        <v>430</v>
+      </c>
+      <c r="F84" t="s">
         <v>384</v>
-      </c>
-      <c r="C84" t="s">
-        <v>382</v>
-      </c>
-      <c r="E84" t="s">
-        <v>431</v>
-      </c>
-      <c r="F84" t="s">
-        <v>385</v>
       </c>
       <c r="G84" t="s">
         <v>258</v>
@@ -4117,19 +4114,19 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B85" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C85" t="s">
         <v>290</v>
       </c>
       <c r="E85" t="s">
+        <v>386</v>
+      </c>
+      <c r="F85" t="s">
         <v>387</v>
-      </c>
-      <c r="F85" t="s">
-        <v>388</v>
       </c>
       <c r="G85" t="s">
         <v>218</v>
@@ -4137,7 +4134,7 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B86" t="s">
         <v>291</v>
@@ -4146,33 +4143,33 @@
         <v>291</v>
       </c>
       <c r="E86" t="s">
+        <v>390</v>
+      </c>
+      <c r="F86" t="s">
         <v>391</v>
-      </c>
-      <c r="F86" t="s">
-        <v>392</v>
       </c>
       <c r="G86" t="s">
         <v>258</v>
       </c>
       <c r="H86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
+        <v>393</v>
+      </c>
+      <c r="B87" t="s">
         <v>394</v>
-      </c>
-      <c r="B87" t="s">
-        <v>395</v>
       </c>
       <c r="C87" t="s">
         <v>292</v>
       </c>
       <c r="E87" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G87" t="s">
         <v>231</v>
@@ -4180,19 +4177,19 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C88" t="s">
         <v>293</v>
       </c>
       <c r="E88" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F88" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G88" t="s">
         <v>231</v>
@@ -4200,7 +4197,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B89" t="s">
         <v>294</v>
@@ -4209,13 +4206,13 @@
         <v>294</v>
       </c>
       <c r="D89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E89" t="s">
         <v>211</v>
       </c>
       <c r="F89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G89" t="s">
         <v>228</v>
@@ -4223,10 +4220,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C90" t="s">
         <v>295</v>
@@ -4235,7 +4232,7 @@
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G90" t="s">
         <v>350</v>
@@ -4243,22 +4240,22 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B91" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C91" t="s">
         <v>296</v>
       </c>
       <c r="D91" t="s">
+        <v>411</v>
+      </c>
+      <c r="E91" t="s">
+        <v>430</v>
+      </c>
+      <c r="F91" t="s">
         <v>412</v>
-      </c>
-      <c r="E91" t="s">
-        <v>431</v>
-      </c>
-      <c r="F91" t="s">
-        <v>413</v>
       </c>
       <c r="G91" t="s">
         <v>232</v>
@@ -4266,7 +4263,7 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B92" t="s">
         <v>297</v>
@@ -4275,21 +4272,21 @@
         <v>297</v>
       </c>
       <c r="D92" t="s">
+        <v>415</v>
+      </c>
+      <c r="E92" t="s">
+        <v>414</v>
+      </c>
+      <c r="F92" t="s">
         <v>416</v>
       </c>
-      <c r="E92" t="s">
-        <v>415</v>
-      </c>
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>417</v>
-      </c>
-      <c r="G92" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B93" t="s">
         <v>298</v>
@@ -4298,10 +4295,10 @@
         <v>298</v>
       </c>
       <c r="E93" t="s">
+        <v>419</v>
+      </c>
+      <c r="F93" t="s">
         <v>420</v>
-      </c>
-      <c r="F93" t="s">
-        <v>421</v>
       </c>
       <c r="G93" t="s">
         <v>350</v>
@@ -4309,7 +4306,7 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B94" t="s">
         <v>299</v>
@@ -4318,10 +4315,10 @@
         <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F94" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G94" t="s">
         <v>350</v>
@@ -4329,7 +4326,7 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B95" t="s">
         <v>300</v>
@@ -4341,53 +4338,53 @@
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G95" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
+        <v>400</v>
+      </c>
+      <c r="B96" t="s">
+        <v>399</v>
+      </c>
+      <c r="C96" t="s">
+        <v>402</v>
+      </c>
+      <c r="E96" t="s">
+        <v>430</v>
+      </c>
+      <c r="F96" t="s">
         <v>401</v>
-      </c>
-      <c r="B96" t="s">
-        <v>400</v>
-      </c>
-      <c r="C96" t="s">
-        <v>403</v>
-      </c>
-      <c r="E96" t="s">
-        <v>431</v>
-      </c>
-      <c r="F96" t="s">
-        <v>402</v>
       </c>
       <c r="G96" t="s">
         <v>231</v>
       </c>
       <c r="H96" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B97" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C97" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D97" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E97" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F97" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G97" t="s">
         <v>228</v>
@@ -4395,19 +4392,19 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B98" t="s">
         <v>51</v>
       </c>
       <c r="D98" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E98" t="s">
         <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G98" t="s">
         <v>218</v>
@@ -4424,7 +4421,7 @@
         <v>52</v>
       </c>
       <c r="D99" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E99" t="s">
         <v>5</v>
@@ -4436,24 +4433,24 @@
         <v>218</v>
       </c>
       <c r="H99" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B100" t="s">
+        <v>440</v>
+      </c>
+      <c r="D100" t="s">
         <v>441</v>
-      </c>
-      <c r="D100" t="s">
-        <v>442</v>
       </c>
       <c r="E100" t="s">
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G100" t="s">
         <v>221</v>
@@ -4461,103 +4458,103 @@
     </row>
     <row r="101" spans="1:8" ht="17">
       <c r="A101" t="s">
+        <v>449</v>
+      </c>
+      <c r="B101" t="s">
+        <v>451</v>
+      </c>
+      <c r="C101" t="s">
+        <v>451</v>
+      </c>
+      <c r="D101" t="s">
         <v>450</v>
-      </c>
-      <c r="B101" t="s">
-        <v>452</v>
-      </c>
-      <c r="C101" t="s">
-        <v>452</v>
-      </c>
-      <c r="D101" t="s">
-        <v>451</v>
       </c>
       <c r="E101" t="s">
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G101" t="s">
         <v>257</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
+        <v>455</v>
+      </c>
+      <c r="B102" t="s">
         <v>456</v>
       </c>
-      <c r="B102" t="s">
-        <v>457</v>
-      </c>
       <c r="D102" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E102" t="s">
         <v>206</v>
       </c>
       <c r="F102" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G102" t="s">
         <v>307</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
+        <v>460</v>
+      </c>
+      <c r="B103" t="s">
+        <v>462</v>
+      </c>
+      <c r="C103" t="s">
         <v>461</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>463</v>
-      </c>
-      <c r="C103" t="s">
-        <v>462</v>
-      </c>
-      <c r="D103" t="s">
-        <v>464</v>
       </c>
       <c r="E103" t="s">
         <v>5</v>
       </c>
       <c r="F103" t="s">
+        <v>464</v>
+      </c>
+      <c r="G103" t="s">
         <v>465</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>466</v>
-      </c>
-      <c r="H103" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
+        <v>467</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="C104" t="s">
+        <v>470</v>
+      </c>
+      <c r="D104" t="s">
         <v>468</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="C104" t="s">
-        <v>471</v>
-      </c>
-      <c r="D104" t="s">
-        <v>469</v>
       </c>
       <c r="E104" t="s">
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G104" t="s">
         <v>257</v>
       </c>
       <c r="H104" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AAAD6-DB19-7F41-8F30-ACCC83089C7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400DF65-2F3F-BE4A-BBC7-359736ED0AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="1940" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="474">
   <si>
     <t>name</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>Robert Geitner &lt;r.geitner at uu.nl&gt;</t>
+  </si>
+  <si>
+    <t>https://peakaboo.org</t>
   </si>
 </sst>
 </file>
@@ -2315,8 +2318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
@@ -3876,7 +3879,7 @@
         <v>351</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>473</v>
       </c>
       <c r="C74" t="s">
         <v>281</v>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8400DF65-2F3F-BE4A-BBC7-359736ED0AA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1414FF83-2777-534C-B21E-BAA60B96A90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="1940" windowWidth="24740" windowHeight="9800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26240" yWindow="1200" windowWidth="22640" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="480">
   <si>
     <t>name</t>
   </si>
@@ -1442,6 +1442,24 @@
   </si>
   <si>
     <t>https://peakaboo.org</t>
+  </si>
+  <si>
+    <t>OpenVibSpec</t>
+  </si>
+  <si>
+    <t>https://github.com/arnrau/OpenVibSpec</t>
+  </si>
+  <si>
+    <t>Vibrational spectroscopy</t>
+  </si>
+  <si>
+    <t>IR, Raman</t>
+  </si>
+  <si>
+    <t>octavvs</t>
+  </si>
+  <si>
+    <t>https://github.com/ctroein/octavvs</t>
   </si>
 </sst>
 </file>
@@ -2316,12 +2334,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4560,6 +4578,46 @@
         <v>472</v>
       </c>
     </row>
+    <row r="105" spans="1:8">
+      <c r="A105" t="s">
+        <v>474</v>
+      </c>
+      <c r="B105" t="s">
+        <v>475</v>
+      </c>
+      <c r="C105" t="s">
+        <v>475</v>
+      </c>
+      <c r="E105" t="s">
+        <v>430</v>
+      </c>
+      <c r="F105" t="s">
+        <v>476</v>
+      </c>
+      <c r="G105" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" t="s">
+        <v>478</v>
+      </c>
+      <c r="B106" t="s">
+        <v>479</v>
+      </c>
+      <c r="C106" t="s">
+        <v>479</v>
+      </c>
+      <c r="E106" t="s">
+        <v>430</v>
+      </c>
+      <c r="F106" t="s">
+        <v>476</v>
+      </c>
+      <c r="G106" t="s">
+        <v>477</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B46" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1414FF83-2777-534C-B21E-BAA60B96A90C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE0ED4-070E-FC45-B0E9-985468EF2184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="26240" yWindow="1200" windowWidth="22640" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="483">
   <si>
     <t>name</t>
   </si>
@@ -1460,6 +1460,15 @@
   </si>
   <si>
     <t>https://github.com/ctroein/octavvs</t>
+  </si>
+  <si>
+    <t>quasar</t>
+  </si>
+  <si>
+    <t>https://github.com/Quasars/orange-spectroscopy</t>
+  </si>
+  <si>
+    <t>General purpose running on Orange</t>
   </si>
 </sst>
 </file>
@@ -2334,12 +2343,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A107" sqref="A107"/>
+      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4618,6 +4627,26 @@
         <v>477</v>
       </c>
     </row>
+    <row r="107" spans="1:8">
+      <c r="A107" t="s">
+        <v>480</v>
+      </c>
+      <c r="B107" t="s">
+        <v>481</v>
+      </c>
+      <c r="C107" t="s">
+        <v>481</v>
+      </c>
+      <c r="E107" t="s">
+        <v>430</v>
+      </c>
+      <c r="F107" t="s">
+        <v>482</v>
+      </c>
+      <c r="G107" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B46" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AE0ED4-070E-FC45-B0E9-985468EF2184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9ABBCF-EABD-8E4F-8372-A1CCE0C8E6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26240" yWindow="1200" windowWidth="22640" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="486">
   <si>
     <t>name</t>
   </si>
@@ -1469,6 +1469,15 @@
   </si>
   <si>
     <t>General purpose running on Orange</t>
+  </si>
+  <si>
+    <t>https://github.com/chatcannon/pytnt</t>
+  </si>
+  <si>
+    <t>pytnt</t>
+  </si>
+  <si>
+    <t>Read files from TecMag NMR instruments</t>
   </si>
 </sst>
 </file>
@@ -2343,12 +2352,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4647,6 +4656,26 @@
         <v>258</v>
       </c>
     </row>
+    <row r="108" spans="1:8">
+      <c r="A108" t="s">
+        <v>484</v>
+      </c>
+      <c r="B108" t="s">
+        <v>483</v>
+      </c>
+      <c r="C108" t="s">
+        <v>483</v>
+      </c>
+      <c r="E108" t="s">
+        <v>430</v>
+      </c>
+      <c r="F108" t="s">
+        <v>485</v>
+      </c>
+      <c r="G108" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B46" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9ABBCF-EABD-8E4F-8372-A1CCE0C8E6B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6FF291-FEAC-4148-A2D0-EEFFCAAD0786}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23220" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FOSS4Spec" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="524">
   <si>
     <t>name</t>
   </si>
@@ -1478,6 +1478,120 @@
   </si>
   <si>
     <t>Read files from TecMag NMR instruments</t>
+  </si>
+  <si>
+    <t>specmine</t>
+  </si>
+  <si>
+    <t>https://github.com/BioSystemsUM/specmine</t>
+  </si>
+  <si>
+    <t>General purpose</t>
+  </si>
+  <si>
+    <t>waves</t>
+  </si>
+  <si>
+    <t>https://github.com/GoreLab/waves</t>
+  </si>
+  <si>
+    <t>mrbin</t>
+  </si>
+  <si>
+    <t>http://www.kleinomicslab.com/software</t>
+  </si>
+  <si>
+    <t>https://github.com/kleinomicslab/mrbin</t>
+  </si>
+  <si>
+    <t>NMR binning, normalization (1D and 2D)</t>
+  </si>
+  <si>
+    <t>albatross</t>
+  </si>
+  <si>
+    <t>PARAFAC of EEM</t>
+  </si>
+  <si>
+    <t>EEM</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=albatross</t>
+  </si>
+  <si>
+    <t>eemR</t>
+  </si>
+  <si>
+    <t>https://github.com/PMassicotte/eemR</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=eemR</t>
+  </si>
+  <si>
+    <t>Preprocessing EEM data</t>
+  </si>
+  <si>
+    <t>https://github.com/chengvt/EEM</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/package=EEM</t>
+  </si>
+  <si>
+    <t>Analysis of EEM data</t>
+  </si>
+  <si>
+    <t>MixONat</t>
+  </si>
+  <si>
+    <t>https://sourceforge.net/projects/mixonat/</t>
+  </si>
+  <si>
+    <t>Dereplication of 13C NMR data</t>
+  </si>
+  <si>
+    <t>nippy</t>
+  </si>
+  <si>
+    <t>https://github.com/uef-bbc/nippy</t>
+  </si>
+  <si>
+    <t>Process NIR data</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S000326702030204X</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.analchem.0c00193</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.jproteome.0c00684</t>
+  </si>
+  <si>
+    <t>nmrFilter</t>
+  </si>
+  <si>
+    <t>https://github.com/stefhk3/nmrfilter</t>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/content/articlelanding/2019/fd/c8fd00227d#!divAbstract</t>
+  </si>
+  <si>
+    <t>Integrated MS and NMR analysis</t>
+  </si>
+  <si>
+    <t>NMR, MS</t>
+  </si>
+  <si>
+    <t>hyperSpec.utils</t>
+  </si>
+  <si>
+    <t>https://konradmayer.github.io/hyperSpec.utils/</t>
+  </si>
+  <si>
+    <t>https://github.com/konradmayer/hyperSpec.utils/</t>
+  </si>
+  <si>
+    <t>Enhances hyperSpec</t>
   </si>
 </sst>
 </file>
@@ -2352,12 +2466,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H108"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="209" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomLeft" activeCell="G118" sqref="G118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4676,6 +4790,206 @@
         <v>219</v>
       </c>
     </row>
+    <row r="109" spans="1:8">
+      <c r="A109" t="s">
+        <v>486</v>
+      </c>
+      <c r="B109" t="s">
+        <v>487</v>
+      </c>
+      <c r="C109" t="s">
+        <v>487</v>
+      </c>
+      <c r="E109" t="s">
+        <v>5</v>
+      </c>
+      <c r="F109" t="s">
+        <v>488</v>
+      </c>
+      <c r="G109" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" t="s">
+        <v>489</v>
+      </c>
+      <c r="B110" t="s">
+        <v>490</v>
+      </c>
+      <c r="C110" t="s">
+        <v>490</v>
+      </c>
+      <c r="E110" t="s">
+        <v>5</v>
+      </c>
+      <c r="F110" t="s">
+        <v>488</v>
+      </c>
+      <c r="G110" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" t="s">
+        <v>492</v>
+      </c>
+      <c r="C111" t="s">
+        <v>493</v>
+      </c>
+      <c r="D111" t="s">
+        <v>514</v>
+      </c>
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+      <c r="F111" t="s">
+        <v>494</v>
+      </c>
+      <c r="G111" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" t="s">
+        <v>498</v>
+      </c>
+      <c r="E112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F112" t="s">
+        <v>496</v>
+      </c>
+      <c r="G112" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>499</v>
+      </c>
+      <c r="B113" t="s">
+        <v>501</v>
+      </c>
+      <c r="C113" t="s">
+        <v>500</v>
+      </c>
+      <c r="E113" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" t="s">
+        <v>502</v>
+      </c>
+      <c r="G113" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>497</v>
+      </c>
+      <c r="B114" t="s">
+        <v>504</v>
+      </c>
+      <c r="C114" t="s">
+        <v>503</v>
+      </c>
+      <c r="E114" t="s">
+        <v>5</v>
+      </c>
+      <c r="F114" t="s">
+        <v>505</v>
+      </c>
+      <c r="G114" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>506</v>
+      </c>
+      <c r="C115" t="s">
+        <v>507</v>
+      </c>
+      <c r="D115" t="s">
+        <v>513</v>
+      </c>
+      <c r="E115" t="s">
+        <v>430</v>
+      </c>
+      <c r="F115" t="s">
+        <v>508</v>
+      </c>
+      <c r="G115" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>509</v>
+      </c>
+      <c r="C116" t="s">
+        <v>510</v>
+      </c>
+      <c r="D116" t="s">
+        <v>512</v>
+      </c>
+      <c r="E116" t="s">
+        <v>430</v>
+      </c>
+      <c r="F116" t="s">
+        <v>511</v>
+      </c>
+      <c r="G116" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>515</v>
+      </c>
+      <c r="C117" t="s">
+        <v>516</v>
+      </c>
+      <c r="D117" t="s">
+        <v>517</v>
+      </c>
+      <c r="E117" t="s">
+        <v>430</v>
+      </c>
+      <c r="F117" t="s">
+        <v>518</v>
+      </c>
+      <c r="G117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>520</v>
+      </c>
+      <c r="B118" t="s">
+        <v>521</v>
+      </c>
+      <c r="C118" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" t="s">
+        <v>523</v>
+      </c>
+      <c r="G118" t="s">
+        <v>258</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B46" r:id="rId1" display="https://cran.r-project.org/package=pavo" xr:uid="{3E292708-18D0-1C48-B810-34D638D0D26E}"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05452825-0C7F-8B41-9482-C2B3DC00C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="23980" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="573">
   <si>
     <t>name</t>
   </si>
@@ -1661,13 +1667,85 @@
   </si>
   <si>
     <t>Enhances hyperSpec</t>
+  </si>
+  <si>
+    <t>https://github.com/spectrochempy/spectrochempy</t>
+  </si>
+  <si>
+    <t>https://www.spectrochempy.fr/latest/</t>
+  </si>
+  <si>
+    <t>SpectroChemPy</t>
+  </si>
+  <si>
+    <t>OpenSpecy</t>
+  </si>
+  <si>
+    <t>https://github.com/wincowgerDEV/OpenSpecy</t>
+  </si>
+  <si>
+    <t>Raman, IR</t>
+  </si>
+  <si>
+    <t>https://wincowger.shinyapps.io/OpenSpecy/</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.analchem.1c00123</t>
+  </si>
+  <si>
+    <t>Process Raman, IR data</t>
+  </si>
+  <si>
+    <t>IsoSolve</t>
+  </si>
+  <si>
+    <t>https://github.com/MetaSys-LISBP/IsoSolve</t>
+  </si>
+  <si>
+    <t>Isotopic labeling</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.analchem.1c01064</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/isosolve/</t>
+  </si>
+  <si>
+    <t>https://github.com/liningtonlab/MADByTE</t>
+  </si>
+  <si>
+    <t>MADByTE</t>
+  </si>
+  <si>
+    <t>Dereplication of natural product 2D NMR spectra</t>
+  </si>
+  <si>
+    <t>2DNMR</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.jnatprod.0c01076</t>
+  </si>
+  <si>
+    <t>https://www.madbyte.org/</t>
+  </si>
+  <si>
+    <t>FID-Net</t>
+  </si>
+  <si>
+    <t>https://github.com/gogulan-k/FID-Net</t>
+  </si>
+  <si>
+    <t>Neural network analysis of NUS FID data</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007%2Fs10858-021-00366-w</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1726,6 +1804,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1772,7 +1858,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1804,9 +1890,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1838,6 +1942,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2013,24 +2135,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="100.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="8" max="8" width="60.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="100.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2056,7 +2180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2108,7 +2232,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2134,7 +2258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2160,7 +2284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2186,7 +2310,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2212,7 +2336,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2238,7 +2362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2264,7 +2388,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2290,7 +2414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2316,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2342,7 +2466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2368,7 +2492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2394,7 +2518,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2420,7 +2544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -2446,7 +2570,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2472,7 +2596,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2498,7 +2622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2524,7 +2648,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -2550,7 +2674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -2576,7 +2700,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -2602,7 +2726,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -2628,7 +2752,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -2654,7 +2778,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -2680,7 +2804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2706,7 +2830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -2732,7 +2856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -2758,7 +2882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -2784,7 +2908,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -2810,7 +2934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -2836,7 +2960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -2862,7 +2986,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -2888,7 +3012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -2914,7 +3038,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -2940,7 +3064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -2966,7 +3090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -2992,7 +3116,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -3018,7 +3142,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -3044,7 +3168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -3070,7 +3194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -3096,7 +3220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3122,7 +3246,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -3148,7 +3272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -3174,7 +3298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -3200,7 +3324,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -3226,7 +3350,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -3252,7 +3376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3278,7 +3402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -3304,7 +3428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>239</v>
       </c>
@@ -3330,7 +3454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -3356,7 +3480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -3382,7 +3506,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>257</v>
       </c>
@@ -3408,7 +3532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -3434,7 +3558,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -3460,7 +3584,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -3486,7 +3610,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>276</v>
       </c>
@@ -3512,7 +3636,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -3538,7 +3662,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -3564,7 +3688,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -3590,7 +3714,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -3616,7 +3740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>302</v>
       </c>
@@ -3642,7 +3766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -3668,7 +3792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>310</v>
       </c>
@@ -3694,7 +3818,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -3720,7 +3844,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>320</v>
       </c>
@@ -3746,7 +3870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>324</v>
       </c>
@@ -3772,7 +3896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -3798,7 +3922,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>331</v>
       </c>
@@ -3824,7 +3948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>336</v>
       </c>
@@ -3850,7 +3974,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -3876,7 +4000,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>346</v>
       </c>
@@ -3902,7 +4026,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>350</v>
       </c>
@@ -3928,7 +4052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -3954,7 +4078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>358</v>
       </c>
@@ -3980,7 +4104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>361</v>
       </c>
@@ -4006,7 +4130,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>366</v>
       </c>
@@ -4032,7 +4156,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>370</v>
       </c>
@@ -4058,7 +4182,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>376</v>
       </c>
@@ -4084,7 +4208,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>381</v>
       </c>
@@ -4110,7 +4234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>385</v>
       </c>
@@ -4136,7 +4260,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>389</v>
       </c>
@@ -4162,7 +4286,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>393</v>
       </c>
@@ -4188,7 +4312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>396</v>
       </c>
@@ -4214,7 +4338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>400</v>
       </c>
@@ -4240,7 +4364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>405</v>
       </c>
@@ -4266,7 +4390,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -4292,7 +4416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>414</v>
       </c>
@@ -4318,7 +4442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>418</v>
       </c>
@@ -4344,7 +4468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>422</v>
       </c>
@@ -4370,7 +4494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>426</v>
       </c>
@@ -4396,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>431</v>
       </c>
@@ -4422,7 +4546,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>437</v>
       </c>
@@ -4448,7 +4572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>441</v>
       </c>
@@ -4474,7 +4598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>444</v>
       </c>
@@ -4500,7 +4624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>448</v>
       </c>
@@ -4526,7 +4650,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -4552,7 +4676,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>458</v>
       </c>
@@ -4578,7 +4702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>462</v>
       </c>
@@ -4604,7 +4728,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>466</v>
       </c>
@@ -4630,7 +4754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>470</v>
       </c>
@@ -4656,7 +4780,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>475</v>
       </c>
@@ -4682,7 +4806,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>480</v>
       </c>
@@ -4708,7 +4832,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>487</v>
       </c>
@@ -4734,7 +4858,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>493</v>
       </c>
@@ -4760,7 +4884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>497</v>
       </c>
@@ -4786,7 +4910,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>499</v>
       </c>
@@ -4812,7 +4936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>502</v>
       </c>
@@ -4838,7 +4962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>505</v>
       </c>
@@ -4864,7 +4988,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>509</v>
       </c>
@@ -4890,7 +5014,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>512</v>
       </c>
@@ -4916,7 +5040,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>518</v>
       </c>
@@ -4942,7 +5066,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>523</v>
       </c>
@@ -4968,7 +5092,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -4994,7 +5118,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>532</v>
       </c>
@@ -5020,7 +5144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>536</v>
       </c>
@@ -5046,7 +5170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>540</v>
       </c>
@@ -5072,7 +5196,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>545</v>
       </c>
@@ -5098,270 +5222,382 @@
         <v>11</v>
       </c>
     </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>551</v>
+      </c>
+      <c r="B119" t="s">
+        <v>550</v>
+      </c>
+      <c r="C119" t="s">
+        <v>549</v>
+      </c>
+      <c r="E119" t="s">
+        <v>38</v>
+      </c>
+      <c r="F119" t="s">
+        <v>507</v>
+      </c>
+      <c r="G119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>552</v>
+      </c>
+      <c r="B120" t="s">
+        <v>555</v>
+      </c>
+      <c r="C120" t="s">
+        <v>553</v>
+      </c>
+      <c r="D120" t="s">
+        <v>556</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>557</v>
+      </c>
+      <c r="G120" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>558</v>
+      </c>
+      <c r="B121" t="s">
+        <v>562</v>
+      </c>
+      <c r="C121" t="s">
+        <v>559</v>
+      </c>
+      <c r="D121" t="s">
+        <v>561</v>
+      </c>
+      <c r="E121" t="s">
+        <v>38</v>
+      </c>
+      <c r="F121" t="s">
+        <v>560</v>
+      </c>
+      <c r="G121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>564</v>
+      </c>
+      <c r="B122" t="s">
+        <v>568</v>
+      </c>
+      <c r="C122" t="s">
+        <v>563</v>
+      </c>
+      <c r="D122" t="s">
+        <v>567</v>
+      </c>
+      <c r="E122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" t="s">
+        <v>565</v>
+      </c>
+      <c r="G122" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>569</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
+        <v>570</v>
+      </c>
+      <c r="D123" t="s">
+        <v>572</v>
+      </c>
+      <c r="E123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" t="s">
+        <v>571</v>
+      </c>
+      <c r="G123" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="B3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="B4" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="B5" r:id="rId8"/>
-    <hyperlink ref="C5" r:id="rId9"/>
-    <hyperlink ref="B6" r:id="rId10"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="D6" r:id="rId12"/>
-    <hyperlink ref="B7" r:id="rId13"/>
-    <hyperlink ref="C7" r:id="rId14"/>
-    <hyperlink ref="B8" r:id="rId15"/>
-    <hyperlink ref="C8" r:id="rId16"/>
-    <hyperlink ref="B9" r:id="rId17"/>
-    <hyperlink ref="C9" r:id="rId18"/>
-    <hyperlink ref="B10" r:id="rId19"/>
-    <hyperlink ref="D10" r:id="rId20"/>
-    <hyperlink ref="B11" r:id="rId21"/>
-    <hyperlink ref="C11" r:id="rId22"/>
-    <hyperlink ref="D11" r:id="rId23"/>
-    <hyperlink ref="B12" r:id="rId24"/>
-    <hyperlink ref="C12" r:id="rId25"/>
-    <hyperlink ref="B13" r:id="rId26"/>
-    <hyperlink ref="C13" r:id="rId27"/>
-    <hyperlink ref="D13" r:id="rId28"/>
-    <hyperlink ref="B14" r:id="rId29"/>
-    <hyperlink ref="C14" r:id="rId30"/>
-    <hyperlink ref="B15" r:id="rId31"/>
-    <hyperlink ref="C15" r:id="rId32"/>
-    <hyperlink ref="B16" r:id="rId33"/>
-    <hyperlink ref="B17" r:id="rId34"/>
-    <hyperlink ref="B18" r:id="rId35"/>
-    <hyperlink ref="C18" r:id="rId36"/>
-    <hyperlink ref="D18" r:id="rId37"/>
-    <hyperlink ref="B19" r:id="rId38"/>
-    <hyperlink ref="C19" r:id="rId39"/>
-    <hyperlink ref="B20" r:id="rId40"/>
-    <hyperlink ref="C20" r:id="rId41"/>
-    <hyperlink ref="B21" r:id="rId42"/>
-    <hyperlink ref="B22" r:id="rId43"/>
-    <hyperlink ref="C22" r:id="rId44"/>
-    <hyperlink ref="D22" r:id="rId45"/>
-    <hyperlink ref="B23" r:id="rId46"/>
-    <hyperlink ref="B24" r:id="rId47"/>
-    <hyperlink ref="D24" r:id="rId48"/>
-    <hyperlink ref="B25" r:id="rId49"/>
-    <hyperlink ref="C25" r:id="rId50"/>
-    <hyperlink ref="D25" r:id="rId51"/>
-    <hyperlink ref="B26" r:id="rId52"/>
-    <hyperlink ref="C26" r:id="rId53"/>
-    <hyperlink ref="B27" r:id="rId54"/>
-    <hyperlink ref="C27" r:id="rId55"/>
-    <hyperlink ref="B28" r:id="rId56"/>
-    <hyperlink ref="C28" r:id="rId57"/>
-    <hyperlink ref="B29" r:id="rId58"/>
-    <hyperlink ref="C29" r:id="rId59"/>
-    <hyperlink ref="B30" r:id="rId60"/>
-    <hyperlink ref="C30" r:id="rId61"/>
-    <hyperlink ref="B31" r:id="rId62"/>
-    <hyperlink ref="C31" r:id="rId63"/>
-    <hyperlink ref="B32" r:id="rId64"/>
-    <hyperlink ref="C32" r:id="rId65"/>
-    <hyperlink ref="D32" r:id="rId66"/>
-    <hyperlink ref="B33" r:id="rId67"/>
-    <hyperlink ref="C33" r:id="rId68"/>
-    <hyperlink ref="B34" r:id="rId69"/>
-    <hyperlink ref="C34" r:id="rId70"/>
-    <hyperlink ref="D34" r:id="rId71"/>
-    <hyperlink ref="B35" r:id="rId72"/>
-    <hyperlink ref="C35" r:id="rId73"/>
-    <hyperlink ref="B36" r:id="rId74"/>
-    <hyperlink ref="C36" r:id="rId75"/>
-    <hyperlink ref="B37" r:id="rId76"/>
-    <hyperlink ref="C37" r:id="rId77"/>
-    <hyperlink ref="B38" r:id="rId78"/>
-    <hyperlink ref="C38" r:id="rId79"/>
-    <hyperlink ref="D38" r:id="rId80"/>
-    <hyperlink ref="B39" r:id="rId81"/>
-    <hyperlink ref="C39" r:id="rId82"/>
-    <hyperlink ref="B40" r:id="rId83"/>
-    <hyperlink ref="C40" r:id="rId84"/>
-    <hyperlink ref="B41" r:id="rId85"/>
-    <hyperlink ref="C41" r:id="rId86"/>
-    <hyperlink ref="B42" r:id="rId87"/>
-    <hyperlink ref="C42" r:id="rId88"/>
-    <hyperlink ref="D42" r:id="rId89"/>
-    <hyperlink ref="B43" r:id="rId90"/>
-    <hyperlink ref="C43" r:id="rId91"/>
-    <hyperlink ref="B44" r:id="rId92"/>
-    <hyperlink ref="C44" r:id="rId93"/>
-    <hyperlink ref="B45" r:id="rId94"/>
-    <hyperlink ref="C45" r:id="rId95"/>
-    <hyperlink ref="B46" r:id="rId96"/>
-    <hyperlink ref="C46" r:id="rId97"/>
-    <hyperlink ref="B47" r:id="rId98"/>
-    <hyperlink ref="C47" r:id="rId99"/>
-    <hyperlink ref="D47" r:id="rId100"/>
-    <hyperlink ref="B48" r:id="rId101"/>
-    <hyperlink ref="C48" r:id="rId102"/>
-    <hyperlink ref="B49" r:id="rId103"/>
-    <hyperlink ref="C49" r:id="rId104"/>
-    <hyperlink ref="D49" r:id="rId105"/>
-    <hyperlink ref="B50" r:id="rId106"/>
-    <hyperlink ref="C50" r:id="rId107"/>
-    <hyperlink ref="D50" r:id="rId108"/>
-    <hyperlink ref="B51" r:id="rId109"/>
-    <hyperlink ref="C51" r:id="rId110"/>
-    <hyperlink ref="B52" r:id="rId111"/>
-    <hyperlink ref="C52" r:id="rId112"/>
-    <hyperlink ref="D52" r:id="rId113"/>
-    <hyperlink ref="B53" r:id="rId114"/>
-    <hyperlink ref="C53" r:id="rId115"/>
-    <hyperlink ref="B54" r:id="rId116"/>
-    <hyperlink ref="C54" r:id="rId117"/>
-    <hyperlink ref="B55" r:id="rId118"/>
-    <hyperlink ref="B56" r:id="rId119"/>
-    <hyperlink ref="C56" r:id="rId120"/>
-    <hyperlink ref="B57" r:id="rId121"/>
-    <hyperlink ref="C57" r:id="rId122"/>
-    <hyperlink ref="D57" r:id="rId123"/>
-    <hyperlink ref="B58" r:id="rId124"/>
-    <hyperlink ref="C58" r:id="rId125"/>
-    <hyperlink ref="D58" r:id="rId126"/>
-    <hyperlink ref="B59" r:id="rId127"/>
-    <hyperlink ref="C59" r:id="rId128"/>
-    <hyperlink ref="D59" r:id="rId129"/>
-    <hyperlink ref="B60" r:id="rId130"/>
-    <hyperlink ref="C60" r:id="rId131"/>
-    <hyperlink ref="B61" r:id="rId132"/>
-    <hyperlink ref="C61" r:id="rId133"/>
-    <hyperlink ref="D61" r:id="rId134"/>
-    <hyperlink ref="B62" r:id="rId135"/>
-    <hyperlink ref="C62" r:id="rId136"/>
-    <hyperlink ref="B63" r:id="rId137"/>
-    <hyperlink ref="C63" r:id="rId138"/>
-    <hyperlink ref="D63" r:id="rId139"/>
-    <hyperlink ref="B64" r:id="rId140"/>
-    <hyperlink ref="C64" r:id="rId141"/>
-    <hyperlink ref="D64" r:id="rId142"/>
-    <hyperlink ref="B65" r:id="rId143"/>
-    <hyperlink ref="C65" r:id="rId144"/>
-    <hyperlink ref="B66" r:id="rId145"/>
-    <hyperlink ref="C66" r:id="rId146"/>
-    <hyperlink ref="B67" r:id="rId147"/>
-    <hyperlink ref="C67" r:id="rId148"/>
-    <hyperlink ref="B68" r:id="rId149"/>
-    <hyperlink ref="C68" r:id="rId150"/>
-    <hyperlink ref="B69" r:id="rId151"/>
-    <hyperlink ref="C69" r:id="rId152"/>
-    <hyperlink ref="D69" r:id="rId153"/>
-    <hyperlink ref="B70" r:id="rId154"/>
-    <hyperlink ref="C70" r:id="rId155"/>
-    <hyperlink ref="B71" r:id="rId156"/>
-    <hyperlink ref="C71" r:id="rId157"/>
-    <hyperlink ref="D71" r:id="rId158"/>
-    <hyperlink ref="B72" r:id="rId159"/>
-    <hyperlink ref="C72" r:id="rId160"/>
-    <hyperlink ref="B73" r:id="rId161"/>
-    <hyperlink ref="C73" r:id="rId162"/>
-    <hyperlink ref="B74" r:id="rId163"/>
-    <hyperlink ref="C74" r:id="rId164"/>
-    <hyperlink ref="B75" r:id="rId165"/>
-    <hyperlink ref="C75" r:id="rId166"/>
-    <hyperlink ref="B76" r:id="rId167"/>
-    <hyperlink ref="C76" r:id="rId168"/>
-    <hyperlink ref="D76" r:id="rId169" location="!divAbstract"/>
-    <hyperlink ref="B77" r:id="rId170"/>
-    <hyperlink ref="C77" r:id="rId171"/>
-    <hyperlink ref="B78" r:id="rId172"/>
-    <hyperlink ref="C78" r:id="rId173"/>
-    <hyperlink ref="D78" r:id="rId174"/>
-    <hyperlink ref="B79" r:id="rId175"/>
-    <hyperlink ref="C79" r:id="rId176"/>
-    <hyperlink ref="B80" r:id="rId177"/>
-    <hyperlink ref="C80" r:id="rId178"/>
-    <hyperlink ref="B81" r:id="rId179"/>
-    <hyperlink ref="C81" r:id="rId180"/>
-    <hyperlink ref="B82" r:id="rId181"/>
-    <hyperlink ref="C82" r:id="rId182"/>
-    <hyperlink ref="B83" r:id="rId183"/>
-    <hyperlink ref="C83" r:id="rId184"/>
-    <hyperlink ref="B84" r:id="rId185"/>
-    <hyperlink ref="C84" r:id="rId186"/>
-    <hyperlink ref="B85" r:id="rId187"/>
-    <hyperlink ref="C85" r:id="rId188"/>
-    <hyperlink ref="B86" r:id="rId189"/>
-    <hyperlink ref="C86" r:id="rId190"/>
-    <hyperlink ref="B87" r:id="rId191"/>
-    <hyperlink ref="C87" r:id="rId192"/>
-    <hyperlink ref="B88" r:id="rId193"/>
-    <hyperlink ref="C88" r:id="rId194"/>
-    <hyperlink ref="B89" r:id="rId195"/>
-    <hyperlink ref="C89" r:id="rId196"/>
-    <hyperlink ref="D89" r:id="rId197"/>
-    <hyperlink ref="B90" r:id="rId198"/>
-    <hyperlink ref="C90" r:id="rId199"/>
-    <hyperlink ref="B91" r:id="rId200"/>
-    <hyperlink ref="C91" r:id="rId201"/>
-    <hyperlink ref="D91" r:id="rId202"/>
-    <hyperlink ref="B92" r:id="rId203"/>
-    <hyperlink ref="C92" r:id="rId204"/>
-    <hyperlink ref="D92" r:id="rId205"/>
-    <hyperlink ref="B93" r:id="rId206"/>
-    <hyperlink ref="C93" r:id="rId207"/>
-    <hyperlink ref="B94" r:id="rId208"/>
-    <hyperlink ref="C94" r:id="rId209"/>
-    <hyperlink ref="B95" r:id="rId210"/>
-    <hyperlink ref="C95" r:id="rId211"/>
-    <hyperlink ref="B96" r:id="rId212"/>
-    <hyperlink ref="C96" r:id="rId213"/>
-    <hyperlink ref="B97" r:id="rId214"/>
-    <hyperlink ref="C97" r:id="rId215"/>
-    <hyperlink ref="D97" r:id="rId216"/>
-    <hyperlink ref="B98" r:id="rId217"/>
-    <hyperlink ref="D98" r:id="rId218"/>
-    <hyperlink ref="B99" r:id="rId219"/>
-    <hyperlink ref="C99" r:id="rId220"/>
-    <hyperlink ref="D99" r:id="rId221"/>
-    <hyperlink ref="B100" r:id="rId222"/>
-    <hyperlink ref="D100" r:id="rId223"/>
-    <hyperlink ref="B101" r:id="rId224"/>
-    <hyperlink ref="C101" r:id="rId225"/>
-    <hyperlink ref="D101" r:id="rId226"/>
-    <hyperlink ref="B102" r:id="rId227"/>
-    <hyperlink ref="D102" r:id="rId228"/>
-    <hyperlink ref="B103" r:id="rId229"/>
-    <hyperlink ref="C103" r:id="rId230"/>
-    <hyperlink ref="D103" r:id="rId231"/>
-    <hyperlink ref="B104" r:id="rId232"/>
-    <hyperlink ref="C104" r:id="rId233"/>
-    <hyperlink ref="D104" r:id="rId234"/>
-    <hyperlink ref="B105" r:id="rId235"/>
-    <hyperlink ref="C105" r:id="rId236"/>
-    <hyperlink ref="B106" r:id="rId237"/>
-    <hyperlink ref="C106" r:id="rId238"/>
-    <hyperlink ref="B107" r:id="rId239"/>
-    <hyperlink ref="C107" r:id="rId240"/>
-    <hyperlink ref="B108" r:id="rId241"/>
-    <hyperlink ref="C108" r:id="rId242"/>
-    <hyperlink ref="B109" r:id="rId243"/>
-    <hyperlink ref="C109" r:id="rId244"/>
-    <hyperlink ref="B110" r:id="rId245"/>
-    <hyperlink ref="C110" r:id="rId246"/>
-    <hyperlink ref="B111" r:id="rId247"/>
-    <hyperlink ref="C111" r:id="rId248"/>
-    <hyperlink ref="D111" r:id="rId249"/>
-    <hyperlink ref="B112" r:id="rId250"/>
-    <hyperlink ref="B113" r:id="rId251"/>
-    <hyperlink ref="C113" r:id="rId252"/>
-    <hyperlink ref="B114" r:id="rId253"/>
-    <hyperlink ref="C114" r:id="rId254"/>
-    <hyperlink ref="C115" r:id="rId255"/>
-    <hyperlink ref="D115" r:id="rId256"/>
-    <hyperlink ref="C116" r:id="rId257"/>
-    <hyperlink ref="D116" r:id="rId258"/>
-    <hyperlink ref="C117" r:id="rId259"/>
-    <hyperlink ref="D117" r:id="rId260" location="!divAbstract"/>
-    <hyperlink ref="B118" r:id="rId261"/>
-    <hyperlink ref="C118" r:id="rId262"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C6" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C7" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B11" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C11" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B13" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C13" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D13" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B14" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C14" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B15" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C15" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B16" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B17" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B18" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C18" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D18" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B19" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C19" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B20" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C20" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B21" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B22" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C22" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D22" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B23" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B24" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D24" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B25" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C25" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D25" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B26" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C26" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B27" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C27" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B28" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C28" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B29" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C29" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B30" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C30" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B31" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C31" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B32" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C32" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D32" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B33" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C33" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B34" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C34" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B35" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C35" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B36" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C36" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C37" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B38" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C38" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D38" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B39" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C39" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B40" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C40" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B41" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B42" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C42" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="D42" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B43" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C43" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B44" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C44" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B45" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B46" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C46" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B47" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C47" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B48" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C48" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B49" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C49" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D49" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B50" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C50" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D50" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B51" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C51" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B52" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C52" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D52" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B53" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B55" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B56" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C56" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B57" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C57" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D57" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B58" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C58" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D58" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B59" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C59" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D59" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B60" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B61" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C61" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D61" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B62" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C62" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B63" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C63" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D63" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B64" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C64" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D64" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B65" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C65" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B66" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C66" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B67" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C67" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B68" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C68" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B69" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C69" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D69" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B70" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C70" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B71" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C71" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D71" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B72" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C72" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B73" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C73" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B74" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C74" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B75" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C75" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B76" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C76" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D76" r:id="rId169" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B77" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C77" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B78" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C78" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D78" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B79" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C79" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B80" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C80" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B81" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C81" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B82" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C82" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B83" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C83" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B84" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C84" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B85" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C85" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B86" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C86" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B87" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C87" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B88" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C88" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B89" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C89" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D89" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B90" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C90" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B91" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C91" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D91" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B92" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C92" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D92" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B93" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C93" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B94" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C94" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B95" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C95" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B96" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C96" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B97" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C97" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="D97" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B98" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D98" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B99" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C99" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D99" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B100" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="D100" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B101" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C101" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="D101" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B102" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D102" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B103" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C103" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D103" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B104" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C104" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D104" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B105" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C105" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B106" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C106" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B107" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C107" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B108" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C108" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B109" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C109" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B110" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C110" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B111" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C111" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="D111" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B112" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B113" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C113" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B114" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C114" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C115" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="D115" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C116" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="D116" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C117" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="D117" r:id="rId260" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B118" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C118" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05452825-0C7F-8B41-9482-C2B3DC00C02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F985402-311E-104D-A697-D76E1918DF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23980" windowHeight="9600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22660" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="578">
   <si>
     <t>name</t>
   </si>
@@ -1739,6 +1739,21 @@
   </si>
   <si>
     <t>https://link.springer.com/article/10.1007%2Fs10858-021-00366-w</t>
+  </si>
+  <si>
+    <t>https://github.com/lidawei1975/deep</t>
+  </si>
+  <si>
+    <t>2D NMR peak picker using ANN</t>
+  </si>
+  <si>
+    <t>DEEP picker</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-021-25496-5</t>
+  </si>
+  <si>
+    <t>http://spin.ccic.osu.edu/index.php/deep_picker</t>
   </si>
 </sst>
 </file>
@@ -2136,10 +2151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5332,6 +5347,29 @@
       </c>
       <c r="G123" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>575</v>
+      </c>
+      <c r="B124" t="s">
+        <v>577</v>
+      </c>
+      <c r="C124" t="s">
+        <v>573</v>
+      </c>
+      <c r="D124" t="s">
+        <v>576</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>574</v>
+      </c>
+      <c r="G124" t="s">
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F985402-311E-104D-A697-D76E1918DF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D0242-3C13-D34E-82D4-636D561C52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22660" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="583">
   <si>
     <t>name</t>
   </si>
@@ -1754,6 +1754,21 @@
   </si>
   <si>
     <t>http://spin.ccic.osu.edu/index.php/deep_picker</t>
+  </si>
+  <si>
+    <t>AlpsNMR</t>
+  </si>
+  <si>
+    <t>Untargeted NMR Metabolomics</t>
+  </si>
+  <si>
+    <t>https://github.com/sipss/AlpsNMR</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bioinformatics/article/36/9/2943/5701646</t>
+  </si>
+  <si>
+    <t>https://sipss.github.io/AlpsNMR/articles/introduction-to-alpsnmr.html</t>
   </si>
 </sst>
 </file>
@@ -2151,10 +2166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H124"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5370,6 +5385,29 @@
       </c>
       <c r="G124" t="s">
         <v>566</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>578</v>
+      </c>
+      <c r="B125" t="s">
+        <v>582</v>
+      </c>
+      <c r="C125" t="s">
+        <v>580</v>
+      </c>
+      <c r="D125" t="s">
+        <v>581</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>579</v>
+      </c>
+      <c r="G125" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D0242-3C13-D34E-82D4-636D561C52EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D495344-A7EA-D74E-971D-8F2BF6F019BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22660" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D495344-A7EA-D74E-971D-8F2BF6F019BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB9C9A-E1AE-284A-B635-90B6E073DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22660" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="582">
   <si>
     <t>name</t>
   </si>
@@ -1718,9 +1718,6 @@
   </si>
   <si>
     <t>Dereplication of natural product 2D NMR spectra</t>
-  </si>
-  <si>
-    <t>2DNMR</t>
   </si>
   <si>
     <t>https://pubs.acs.org/doi/10.1021/acs.jnatprod.0c01076</t>
@@ -2168,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A126" sqref="A126"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5323,13 +5320,13 @@
         <v>564</v>
       </c>
       <c r="B122" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C122" t="s">
         <v>563</v>
       </c>
       <c r="D122" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
@@ -5338,27 +5335,27 @@
         <v>565</v>
       </c>
       <c r="G122" t="s">
-        <v>566</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>568</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" t="s">
         <v>569</v>
       </c>
-      <c r="B123" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
+        <v>571</v>
+      </c>
+      <c r="E123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" t="s">
         <v>570</v>
-      </c>
-      <c r="D123" t="s">
-        <v>572</v>
-      </c>
-      <c r="E123" t="s">
-        <v>38</v>
-      </c>
-      <c r="F123" t="s">
-        <v>571</v>
       </c>
       <c r="G123" t="s">
         <v>147</v>
@@ -5366,45 +5363,45 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>574</v>
+      </c>
+      <c r="B124" t="s">
+        <v>576</v>
+      </c>
+      <c r="C124" t="s">
+        <v>572</v>
+      </c>
+      <c r="D124" t="s">
         <v>575</v>
-      </c>
-      <c r="B124" t="s">
-        <v>577</v>
-      </c>
-      <c r="C124" t="s">
-        <v>573</v>
-      </c>
-      <c r="D124" t="s">
-        <v>576</v>
       </c>
       <c r="E124" t="s">
         <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G124" t="s">
-        <v>566</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B125" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C125" t="s">
+        <v>579</v>
+      </c>
+      <c r="D125" t="s">
         <v>580</v>
-      </c>
-      <c r="D125" t="s">
-        <v>581</v>
       </c>
       <c r="E125" t="s">
         <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G125" t="s">
         <v>147</v>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EB9C9A-E1AE-284A-B635-90B6E073DA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966A5B6-B8CF-3F4E-9C93-1B21114654E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22660" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="587">
   <si>
     <t>name</t>
   </si>
@@ -1766,6 +1766,21 @@
   </si>
   <si>
     <t>https://sipss.github.io/AlpsNMR/articles/introduction-to-alpsnmr.html</t>
+  </si>
+  <si>
+    <t>https://htmlpreview.github.io/?https://github.com/solarchemist/uvvistauc/blob/master/doc/intro.html</t>
+  </si>
+  <si>
+    <t>https://github.com/solarchemist/uvvistauc</t>
+  </si>
+  <si>
+    <t>uvvistauc</t>
+  </si>
+  <si>
+    <t>Optical band gap plots for semiconductors</t>
+  </si>
+  <si>
+    <t>Taha Ahmed &lt;taha@chepec.se&gt;</t>
   </si>
 </sst>
 </file>
@@ -2163,10 +2178,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G120" sqref="G120"/>
+    <sheetView tabSelected="1" topLeftCell="D116" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5405,6 +5420,29 @@
       </c>
       <c r="G125" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>584</v>
+      </c>
+      <c r="B126" t="s">
+        <v>582</v>
+      </c>
+      <c r="C126" t="s">
+        <v>583</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>585</v>
+      </c>
+      <c r="G126" t="s">
+        <v>225</v>
+      </c>
+      <c r="H126" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9966A5B6-B8CF-3F4E-9C93-1B21114654E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702AF0C-65FC-8545-8402-2E2847B46D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="22660" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="617">
   <si>
     <t>name</t>
   </si>
@@ -1781,6 +1781,96 @@
   </si>
   <si>
     <t>Taha Ahmed &lt;taha@chepec.se&gt;</t>
+  </si>
+  <si>
+    <t>ANSURR</t>
+  </si>
+  <si>
+    <t>https://github.com/nickjf/ANSURR2</t>
+  </si>
+  <si>
+    <t>Validate accuracy of protein NMR structures</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41467-020-20177-1</t>
+  </si>
+  <si>
+    <t>nmr-parser</t>
+  </si>
+  <si>
+    <t>https://github.com/cheminfo/nmr-parser</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Parse 1D &amp; 2D NMR files to JSON</t>
+  </si>
+  <si>
+    <t>nmrgnn</t>
+  </si>
+  <si>
+    <t>https://github.com/ur-whitelab/nmrgnn</t>
+  </si>
+  <si>
+    <t>Graph neural network prediction of NMR shifts</t>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/content/articlehtml/2021/sc/d1sc01895g</t>
+  </si>
+  <si>
+    <t>cwepr</t>
+  </si>
+  <si>
+    <t>https://docs.cwepr.de/v0.2/</t>
+  </si>
+  <si>
+    <t>https://github.com/tillbiskup/cwepr</t>
+  </si>
+  <si>
+    <t>Processing continuous wave EPR data</t>
+  </si>
+  <si>
+    <t>EPR</t>
+  </si>
+  <si>
+    <t>ASpecD</t>
+  </si>
+  <si>
+    <t>https://www.aspecd.de/public/index</t>
+  </si>
+  <si>
+    <t>https://github.com/tillbiskup/aspecd</t>
+  </si>
+  <si>
+    <t>General handling of spectroscopic data</t>
+  </si>
+  <si>
+    <t>trEPR</t>
+  </si>
+  <si>
+    <t>Time-resolved EPR spectroscopy</t>
+  </si>
+  <si>
+    <t>https://github.com/tillbiskup/trepr</t>
+  </si>
+  <si>
+    <t>https://docs.trepr.de/v0.2/index.html</t>
+  </si>
+  <si>
+    <t>NMR-EsPy</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1090780722000313</t>
+  </si>
+  <si>
+    <t>https://github.com/foroozandehgroup/NMR-EsPy</t>
+  </si>
+  <si>
+    <t>https://foroozandehgroup.github.io/NMR-EsPy/</t>
+  </si>
+  <si>
+    <t>Estimation of NMR parameters</t>
   </si>
 </sst>
 </file>
@@ -2178,10 +2268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D116" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H126" sqref="H126"/>
+    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5443,6 +5533,155 @@
       </c>
       <c r="H126" t="s">
         <v>586</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>587</v>
+      </c>
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>588</v>
+      </c>
+      <c r="D127" t="s">
+        <v>590</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>589</v>
+      </c>
+      <c r="G127" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>591</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>592</v>
+      </c>
+      <c r="E128" t="s">
+        <v>593</v>
+      </c>
+      <c r="F128" t="s">
+        <v>594</v>
+      </c>
+      <c r="G128" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>595</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>596</v>
+      </c>
+      <c r="D129" t="s">
+        <v>598</v>
+      </c>
+      <c r="E129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" t="s">
+        <v>597</v>
+      </c>
+      <c r="G129" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>599</v>
+      </c>
+      <c r="B130" t="s">
+        <v>600</v>
+      </c>
+      <c r="C130" t="s">
+        <v>601</v>
+      </c>
+      <c r="E130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" t="s">
+        <v>602</v>
+      </c>
+      <c r="G130" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>604</v>
+      </c>
+      <c r="B131" t="s">
+        <v>605</v>
+      </c>
+      <c r="C131" t="s">
+        <v>606</v>
+      </c>
+      <c r="E131" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>607</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>608</v>
+      </c>
+      <c r="B132" t="s">
+        <v>611</v>
+      </c>
+      <c r="C132" t="s">
+        <v>610</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>609</v>
+      </c>
+      <c r="G132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>612</v>
+      </c>
+      <c r="B133" t="s">
+        <v>615</v>
+      </c>
+      <c r="C133" t="s">
+        <v>614</v>
+      </c>
+      <c r="D133" t="s">
+        <v>613</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" t="s">
+        <v>616</v>
+      </c>
+      <c r="G133" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_teic01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D702AF0C-65FC-8545-8402-2E2847B46D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FDAC3B-3271-4830-91FD-E97389CBF17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="22660" windowHeight="9340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="621">
   <si>
     <t>name</t>
   </si>
@@ -1871,6 +1871,18 @@
   </si>
   <si>
     <t>Estimation of NMR parameters</t>
+  </si>
+  <si>
+    <t>https://henningte.github.io/ir/</t>
+  </si>
+  <si>
+    <t>https://github.com/henningte/ir</t>
+  </si>
+  <si>
+    <t>Preprocessing infrared spectra</t>
+  </si>
+  <si>
+    <t>ir</t>
   </si>
 </sst>
 </file>
@@ -1931,8 +1943,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1948,7 +1960,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2268,25 +2280,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B127" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="100.83203125" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" customWidth="1"/>
-    <col min="8" max="8" width="60.1640625" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.77734375" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" customWidth="1"/>
+    <col min="6" max="6" width="100.77734375" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
+    <col min="8" max="8" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2338,7 +2352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2364,7 +2378,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2390,7 +2404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2416,7 +2430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2442,7 +2456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2468,7 +2482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2494,7 +2508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2520,7 +2534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2546,7 +2560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2572,7 +2586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2598,7 +2612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2624,7 +2638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2650,7 +2664,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2676,7 +2690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -2702,7 +2716,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2728,7 +2742,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2754,7 +2768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2780,7 +2794,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -2806,7 +2820,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -2832,7 +2846,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -2858,7 +2872,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -2884,7 +2898,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -2910,7 +2924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -2936,7 +2950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2962,7 +2976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -2988,7 +3002,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -3014,7 +3028,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -3040,7 +3054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -3066,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -3092,7 +3106,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -3118,7 +3132,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -3144,7 +3158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -3170,7 +3184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -3196,7 +3210,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -3222,7 +3236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3248,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -3274,7 +3288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -3300,7 +3314,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -3326,7 +3340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -3352,7 +3366,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3378,7 +3392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -3404,7 +3418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -3430,7 +3444,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -3456,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -3482,7 +3496,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -3508,7 +3522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3534,7 +3548,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -3560,7 +3574,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>239</v>
       </c>
@@ -3586,7 +3600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -3612,7 +3626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -3638,7 +3652,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>257</v>
       </c>
@@ -3664,7 +3678,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -3690,7 +3704,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -3716,7 +3730,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -3742,7 +3756,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>276</v>
       </c>
@@ -3768,7 +3782,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -3794,7 +3808,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -3820,7 +3834,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -3846,7 +3860,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -3872,7 +3886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>302</v>
       </c>
@@ -3898,7 +3912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -3924,7 +3938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>310</v>
       </c>
@@ -3950,7 +3964,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -3976,7 +3990,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>320</v>
       </c>
@@ -4002,7 +4016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>324</v>
       </c>
@@ -4028,7 +4042,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -4054,7 +4068,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>331</v>
       </c>
@@ -4080,7 +4094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>336</v>
       </c>
@@ -4106,7 +4120,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -4132,7 +4146,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>346</v>
       </c>
@@ -4158,7 +4172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>350</v>
       </c>
@@ -4184,7 +4198,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -4210,7 +4224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>358</v>
       </c>
@@ -4236,7 +4250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>361</v>
       </c>
@@ -4262,7 +4276,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>366</v>
       </c>
@@ -4288,7 +4302,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>370</v>
       </c>
@@ -4314,7 +4328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>376</v>
       </c>
@@ -4340,7 +4354,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>381</v>
       </c>
@@ -4366,7 +4380,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>385</v>
       </c>
@@ -4392,7 +4406,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>389</v>
       </c>
@@ -4418,7 +4432,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>393</v>
       </c>
@@ -4444,7 +4458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>396</v>
       </c>
@@ -4470,7 +4484,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>400</v>
       </c>
@@ -4496,7 +4510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>405</v>
       </c>
@@ -4522,7 +4536,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -4548,7 +4562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>414</v>
       </c>
@@ -4574,7 +4588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>418</v>
       </c>
@@ -4600,7 +4614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>422</v>
       </c>
@@ -4626,7 +4640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>426</v>
       </c>
@@ -4652,7 +4666,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>431</v>
       </c>
@@ -4678,7 +4692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>437</v>
       </c>
@@ -4704,7 +4718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>441</v>
       </c>
@@ -4730,7 +4744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>444</v>
       </c>
@@ -4756,7 +4770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>448</v>
       </c>
@@ -4782,7 +4796,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -4808,7 +4822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>458</v>
       </c>
@@ -4834,7 +4848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>462</v>
       </c>
@@ -4860,7 +4874,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>466</v>
       </c>
@@ -4886,7 +4900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>470</v>
       </c>
@@ -4912,7 +4926,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>475</v>
       </c>
@@ -4938,7 +4952,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>480</v>
       </c>
@@ -4964,7 +4978,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>487</v>
       </c>
@@ -4990,7 +5004,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>493</v>
       </c>
@@ -5016,7 +5030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>497</v>
       </c>
@@ -5042,7 +5056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>499</v>
       </c>
@@ -5068,7 +5082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>502</v>
       </c>
@@ -5094,7 +5108,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>505</v>
       </c>
@@ -5120,7 +5134,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>509</v>
       </c>
@@ -5146,7 +5160,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>512</v>
       </c>
@@ -5172,7 +5186,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>518</v>
       </c>
@@ -5198,7 +5212,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>523</v>
       </c>
@@ -5224,7 +5238,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -5250,7 +5264,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>532</v>
       </c>
@@ -5276,7 +5290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>536</v>
       </c>
@@ -5302,7 +5316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>540</v>
       </c>
@@ -5328,7 +5342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>545</v>
       </c>
@@ -5354,7 +5368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>551</v>
       </c>
@@ -5374,7 +5388,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>552</v>
       </c>
@@ -5397,7 +5411,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>558</v>
       </c>
@@ -5420,7 +5434,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>564</v>
       </c>
@@ -5443,7 +5457,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>568</v>
       </c>
@@ -5466,7 +5480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -5489,7 +5503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>577</v>
       </c>
@@ -5512,7 +5526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>584</v>
       </c>
@@ -5535,7 +5549,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>587</v>
       </c>
@@ -5558,7 +5572,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>591</v>
       </c>
@@ -5578,7 +5592,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>595</v>
       </c>
@@ -5601,7 +5615,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>599</v>
       </c>
@@ -5621,7 +5635,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>604</v>
       </c>
@@ -5641,7 +5655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>608</v>
       </c>
@@ -5661,7 +5675,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -5682,6 +5696,32 @@
       </c>
       <c r="G133" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>620</v>
+      </c>
+      <c r="B134" t="s">
+        <v>617</v>
+      </c>
+      <c r="C134" t="s">
+        <v>618</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>619</v>
+      </c>
+      <c r="G134" t="s">
+        <v>286</v>
+      </c>
+      <c r="H134" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h_teic01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FDAC3B-3271-4830-91FD-E97389CBF17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17106717-E54E-1F41-8D75-1C5035889185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="706">
   <si>
     <t>name</t>
   </si>
@@ -1883,6 +1883,261 @@
   </si>
   <si>
     <t>ir</t>
+  </si>
+  <si>
+    <t>PALMA</t>
+  </si>
+  <si>
+    <t>rampy</t>
+  </si>
+  <si>
+    <t>raman</t>
+  </si>
+  <si>
+    <t>Spectra.jl</t>
+  </si>
+  <si>
+    <t>BaselineRemoval</t>
+  </si>
+  <si>
+    <t>py-wdf-reader</t>
+  </si>
+  <si>
+    <t>specio</t>
+  </si>
+  <si>
+    <t>Raman-and-SERS-Processing</t>
+  </si>
+  <si>
+    <t>raman-fitting</t>
+  </si>
+  <si>
+    <t>raman-cnn</t>
+  </si>
+  <si>
+    <t>rCRSI</t>
+  </si>
+  <si>
+    <t>ramkit</t>
+  </si>
+  <si>
+    <t>spectroscopy</t>
+  </si>
+  <si>
+    <t>ASPIRED</t>
+  </si>
+  <si>
+    <t>spectrophotometry</t>
+  </si>
+  <si>
+    <t>AutomatedLIBS</t>
+  </si>
+  <si>
+    <t>LIBS</t>
+  </si>
+  <si>
+    <t>pyDichroX</t>
+  </si>
+  <si>
+    <t>https://github.com/delsuc/PALMA</t>
+  </si>
+  <si>
+    <t>https://github.com/DerekKaknes/raman</t>
+  </si>
+  <si>
+    <t>https://github.com/StatguyUser/BaselineRemoval</t>
+  </si>
+  <si>
+    <t>https://github.com/alchem0x2A/py-wdf-reader</t>
+  </si>
+  <si>
+    <t>https://github.com/paris-saclay-cds/specio</t>
+  </si>
+  <si>
+    <t>https://github.com/MarjorieRWillner/Raman-and-SERS-Processing</t>
+  </si>
+  <si>
+    <t>https://github.com/MyPyDavid/raman-fitting</t>
+  </si>
+  <si>
+    <t>https://github.com/rjkilpatrick/raman-cnn</t>
+  </si>
+  <si>
+    <t>https://github.com/niemingzhao/ramkit</t>
+  </si>
+  <si>
+    <t>https://github.com/Cambridge-PAM/spectroscopy</t>
+  </si>
+  <si>
+    <t>https://github.com/cylammarco/ASPIRED</t>
+  </si>
+  <si>
+    <t>https://github.com/lhosszu/spectrophotometry</t>
+  </si>
+  <si>
+    <t>https://github.com/mrDIMAS/AutomatedLIBS</t>
+  </si>
+  <si>
+    <t>https://github.com/jason-r-becker/LIBS</t>
+  </si>
+  <si>
+    <t>https://github.com/BeppeC/pyDichroX</t>
+  </si>
+  <si>
+    <t>DNPLab</t>
+  </si>
+  <si>
+    <t>jcamp-dx</t>
+  </si>
+  <si>
+    <t>spectrochempy</t>
+  </si>
+  <si>
+    <t>DeerLab</t>
+  </si>
+  <si>
+    <t>customxepr</t>
+  </si>
+  <si>
+    <t>hanlab</t>
+  </si>
+  <si>
+    <t>spa-on-python</t>
+  </si>
+  <si>
+    <t>nira</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>nmrium</t>
+  </si>
+  <si>
+    <t>FarSeer-NMR</t>
+  </si>
+  <si>
+    <t>spike</t>
+  </si>
+  <si>
+    <t>https://github.com/DNPLab/DNPLab</t>
+  </si>
+  <si>
+    <t>https://github.com/fracpete/jcamp-dx</t>
+  </si>
+  <si>
+    <t>https://github.com/JeschkeLab/DeerLab</t>
+  </si>
+  <si>
+    <t>https://github.com/OE-FET/customxepr</t>
+  </si>
+  <si>
+    <t>https://github.com/thcasey3/hanlab</t>
+  </si>
+  <si>
+    <t>https://github.com/lerkoah/spa-on-python</t>
+  </si>
+  <si>
+    <t>https://github.com/admedeiros/nira</t>
+  </si>
+  <si>
+    <t>https://github.com/jwist/coffee</t>
+  </si>
+  <si>
+    <t>https://github.com/cheminfo/nmrium</t>
+  </si>
+  <si>
+    <t>https://github.com/spike-project/spike</t>
+  </si>
+  <si>
+    <t>DNPLab - Bringing the power of Python to DNP-NMR Spectroscopy</t>
+  </si>
+  <si>
+    <t>Reference implemention of the IUPAC JCAMP-DX spectroscopy data standard. Fork of https://sourceforge.net/projects/jcamp-dx/</t>
+  </si>
+  <si>
+    <t>SpectroChemPy is a framework for processing, analyzing and modeling spectroscopic data for chemistry with Python</t>
+  </si>
+  <si>
+    <t>Python package for data analysis for dipolar EPR spectroscopy</t>
+  </si>
+  <si>
+    <t>Instrument control suite for Bruker E500, MercuryiTC and Keithley 2600.</t>
+  </si>
+  <si>
+    <t>code used to process, fit, and analyze various types of DNP, NMR, and EPR data generated in the lab of Songi Han at UCSB</t>
+  </si>
+  <si>
+    <t>Read Nicolet/Thermo Omnic files on python (.spa).</t>
+  </si>
+  <si>
+    <t>Near-Infrared Analysis</t>
+  </si>
+  <si>
+    <t>Datasets of metabolic profiles of coffees from different species and origin</t>
+  </si>
+  <si>
+    <t>React component to display and process nuclear magnetic resonance (NMR) spectra.</t>
+  </si>
+  <si>
+    <t>A software suite for automatic treatment, analysis and plotting of large and multivariable datasets of bioNMR peaklists.</t>
+  </si>
+  <si>
+    <t>SPIKE a collaborative development for a FT-spectroscopy processing program.</t>
+  </si>
+  <si>
+    <t>repository associated with manuscript "PALMA, an improved algorithm for DOSY signal processing"</t>
+  </si>
+  <si>
+    <t>Python software for spectral data processing (IR, Raman, XAS...)</t>
+  </si>
+  <si>
+    <t>Deep CNN for Raman Applications</t>
+  </si>
+  <si>
+    <t>Spectra.jl aims at helping treatment of spectral (Raman, Infrared, XAS, NMR) data under the Julia language</t>
+  </si>
+  <si>
+    <t>Perform baseline removal, baseline correction and baseline substraction for raman spectra using Modpoly, ImodPoly and Zhang fit. Returns baseline-subtracted spectrum</t>
+  </si>
+  <si>
+    <t>Python package for read-only accessing the wdf Raman spectroscopy from Ranishaw WiRE software</t>
+  </si>
+  <si>
+    <t>specio: Python input/output for spectroscopic files</t>
+  </si>
+  <si>
+    <t>Code for processing either Raman or SERS maps. Includes baseline correction, peak comparison, and post processing anaylsis.</t>
+  </si>
+  <si>
+    <t>A Python framework for the batch processing and deconvolution of Raman spectra of carbonaceous materials.</t>
+  </si>
+  <si>
+    <t>Neural network classifier for Raman spectral data using TensorFlow</t>
+  </si>
+  <si>
+    <t>Visualitzation and processing toolbox for Confocal Raman Spectroscopy Imaging</t>
+  </si>
+  <si>
+    <t>An analysis kernel for raman spectrum.</t>
+  </si>
+  <si>
+    <t>Jupyter Notebooks for spectroscopic data processing</t>
+  </si>
+  <si>
+    <t>Automated SpectroPhotometric Image REDuction (ASPIRED)</t>
+  </si>
+  <si>
+    <t>An Android application for controlling a Bluetooth spectrophotometer (ESP32 &amp; C12880MA)</t>
+  </si>
+  <si>
+    <t>Laser-Induced Break Down Spectroscopy spectra analysis software</t>
+  </si>
+  <si>
+    <t>Analysis codes for Laser-Induced Breakdown Spectroscopy data</t>
+  </si>
+  <si>
+    <t>Program to analyse XAS data</t>
   </si>
 </sst>
 </file>
@@ -1943,8 +2198,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1960,7 +2215,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2280,27 +2535,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="31.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" customWidth="1"/>
-    <col min="6" max="6" width="100.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="8" max="8" width="60.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.5" customWidth="1"/>
+    <col min="2" max="2" width="31.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="100.83203125" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" customWidth="1"/>
+    <col min="8" max="8" width="60.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2326,7 +2581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2352,7 +2607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2378,7 +2633,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2404,7 +2659,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2430,7 +2685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -2456,7 +2711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -2482,7 +2737,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -2508,7 +2763,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2534,7 +2789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -2560,7 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -2586,7 +2841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>64</v>
       </c>
@@ -2612,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>68</v>
       </c>
@@ -2638,7 +2893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -2664,7 +2919,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>81</v>
       </c>
@@ -2690,7 +2945,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>86</v>
       </c>
@@ -2716,7 +2971,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2742,7 +2997,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>93</v>
       </c>
@@ -2768,7 +3023,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -2794,7 +3049,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>104</v>
       </c>
@@ -2820,7 +3075,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>108</v>
       </c>
@@ -2846,7 +3101,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -2872,7 +3127,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>119</v>
       </c>
@@ -2898,7 +3153,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>123</v>
       </c>
@@ -2924,7 +3179,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -2950,7 +3205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2976,7 +3231,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -3002,7 +3257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>143</v>
       </c>
@@ -3028,7 +3283,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>148</v>
       </c>
@@ -3054,7 +3309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>152</v>
       </c>
@@ -3080,7 +3335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>156</v>
       </c>
@@ -3106,7 +3361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>160</v>
       </c>
@@ -3132,7 +3387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>165</v>
       </c>
@@ -3158,7 +3413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>169</v>
       </c>
@@ -3184,7 +3439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>175</v>
       </c>
@@ -3210,7 +3465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>179</v>
       </c>
@@ -3236,7 +3491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>183</v>
       </c>
@@ -3262,7 +3517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>187</v>
       </c>
@@ -3288,7 +3543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>192</v>
       </c>
@@ -3314,7 +3569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>196</v>
       </c>
@@ -3340,7 +3595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>199</v>
       </c>
@@ -3366,7 +3621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -3392,7 +3647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>209</v>
       </c>
@@ -3418,7 +3673,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>213</v>
       </c>
@@ -3444,7 +3699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>216</v>
       </c>
@@ -3470,7 +3725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -3496,7 +3751,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>227</v>
       </c>
@@ -3522,7 +3777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -3548,7 +3803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>235</v>
       </c>
@@ -3574,7 +3829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>239</v>
       </c>
@@ -3600,7 +3855,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>245</v>
       </c>
@@ -3626,7 +3881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -3652,7 +3907,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>257</v>
       </c>
@@ -3678,7 +3933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>262</v>
       </c>
@@ -3704,7 +3959,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>267</v>
       </c>
@@ -3730,7 +3985,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -3756,7 +4011,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>276</v>
       </c>
@@ -3782,7 +4037,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -3808,7 +4063,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>288</v>
       </c>
@@ -3834,7 +4089,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>293</v>
       </c>
@@ -3860,7 +4115,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>298</v>
       </c>
@@ -3886,7 +4141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>302</v>
       </c>
@@ -3912,7 +4167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>306</v>
       </c>
@@ -3938,7 +4193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>310</v>
       </c>
@@ -3964,7 +4219,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -3990,7 +4245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>320</v>
       </c>
@@ -4016,7 +4271,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>324</v>
       </c>
@@ -4042,7 +4297,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>327</v>
       </c>
@@ -4068,7 +4323,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>331</v>
       </c>
@@ -4094,7 +4349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>336</v>
       </c>
@@ -4120,7 +4375,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>341</v>
       </c>
@@ -4146,7 +4401,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>346</v>
       </c>
@@ -4172,7 +4427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>350</v>
       </c>
@@ -4198,7 +4453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -4224,7 +4479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>358</v>
       </c>
@@ -4250,7 +4505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>361</v>
       </c>
@@ -4276,7 +4531,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>366</v>
       </c>
@@ -4302,7 +4557,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>370</v>
       </c>
@@ -4328,7 +4583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>376</v>
       </c>
@@ -4354,7 +4609,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>381</v>
       </c>
@@ -4380,7 +4635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>385</v>
       </c>
@@ -4406,7 +4661,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>389</v>
       </c>
@@ -4432,7 +4687,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>393</v>
       </c>
@@ -4458,7 +4713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>396</v>
       </c>
@@ -4484,7 +4739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>400</v>
       </c>
@@ -4510,7 +4765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>405</v>
       </c>
@@ -4536,7 +4791,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>410</v>
       </c>
@@ -4562,7 +4817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>414</v>
       </c>
@@ -4588,7 +4843,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>418</v>
       </c>
@@ -4614,7 +4869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>422</v>
       </c>
@@ -4640,7 +4895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>426</v>
       </c>
@@ -4666,7 +4921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>431</v>
       </c>
@@ -4692,7 +4947,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>437</v>
       </c>
@@ -4718,7 +4973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>441</v>
       </c>
@@ -4744,7 +4999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>444</v>
       </c>
@@ -4770,7 +5025,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>448</v>
       </c>
@@ -4796,7 +5051,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>453</v>
       </c>
@@ -4822,7 +5077,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>458</v>
       </c>
@@ -4848,7 +5103,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>462</v>
       </c>
@@ -4874,7 +5129,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>466</v>
       </c>
@@ -4900,7 +5155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>470</v>
       </c>
@@ -4926,7 +5181,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>475</v>
       </c>
@@ -4952,7 +5207,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>480</v>
       </c>
@@ -4978,7 +5233,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>487</v>
       </c>
@@ -5004,7 +5259,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>493</v>
       </c>
@@ -5030,7 +5285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>497</v>
       </c>
@@ -5056,7 +5311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>499</v>
       </c>
@@ -5082,7 +5337,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>502</v>
       </c>
@@ -5108,7 +5363,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>505</v>
       </c>
@@ -5134,7 +5389,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>509</v>
       </c>
@@ -5160,7 +5415,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>512</v>
       </c>
@@ -5186,7 +5441,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>518</v>
       </c>
@@ -5212,7 +5467,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>523</v>
       </c>
@@ -5238,7 +5493,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>521</v>
       </c>
@@ -5264,7 +5519,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>532</v>
       </c>
@@ -5290,7 +5545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>536</v>
       </c>
@@ -5316,7 +5571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>540</v>
       </c>
@@ -5342,7 +5597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>545</v>
       </c>
@@ -5368,7 +5623,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>551</v>
       </c>
@@ -5388,7 +5643,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>552</v>
       </c>
@@ -5411,7 +5666,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>558</v>
       </c>
@@ -5434,7 +5689,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>564</v>
       </c>
@@ -5457,7 +5712,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>568</v>
       </c>
@@ -5480,7 +5735,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>574</v>
       </c>
@@ -5503,7 +5758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>577</v>
       </c>
@@ -5526,7 +5781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>584</v>
       </c>
@@ -5549,7 +5804,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>587</v>
       </c>
@@ -5572,7 +5827,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>591</v>
       </c>
@@ -5592,7 +5847,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>595</v>
       </c>
@@ -5615,7 +5870,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>599</v>
       </c>
@@ -5635,7 +5890,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>604</v>
       </c>
@@ -5655,7 +5910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>608</v>
       </c>
@@ -5675,7 +5930,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -5698,7 +5953,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>620</v>
       </c>
@@ -5722,6 +5977,336 @@
       </c>
       <c r="H134" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>654</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="F135" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>655</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F136" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>656</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="F137" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>657</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="F138" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>658</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="F139" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>659</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="F140" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>660</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="F141" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>661</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F142" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>662</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="F143" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>663</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="F144" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>664</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F145" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>665</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F146" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>621</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F147" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>622</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F148" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>623</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="F149" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>624</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F150" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>625</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F151" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>626</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="F152" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>627</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="F153" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>628</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F154" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>629</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F155" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>630</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F156" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>631</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F157" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>632</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="F158" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>633</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F159" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>634</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="F160" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>635</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="F161" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>636</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="F162" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>637</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F163" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>638</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="F164" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>
@@ -5988,6 +6573,36 @@
     <hyperlink ref="D117" r:id="rId260" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
     <hyperlink ref="B118" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
     <hyperlink ref="C118" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C135" r:id="rId263" xr:uid="{185FB0CC-1BFF-5145-BEB3-72BDF47C8947}"/>
+    <hyperlink ref="C136" r:id="rId264" xr:uid="{97A80B27-831C-6549-8311-FA687785EA30}"/>
+    <hyperlink ref="C137" r:id="rId265" xr:uid="{C6C180D4-D87A-4D48-8817-ABD91B6243AD}"/>
+    <hyperlink ref="C138" r:id="rId266" xr:uid="{F4F61C2C-C1F7-7147-8DAC-F04A10994944}"/>
+    <hyperlink ref="C139" r:id="rId267" xr:uid="{1E329ECB-8E96-9C44-BFA1-914822245AD5}"/>
+    <hyperlink ref="C141" r:id="rId268" xr:uid="{6D6FADB7-CFCB-EF42-B4C8-5A772019679B}"/>
+    <hyperlink ref="C142" r:id="rId269" xr:uid="{2A87F5BC-C340-6149-B12F-3F9425A0527B}"/>
+    <hyperlink ref="C143" r:id="rId270" xr:uid="{D0E7A090-9133-1442-A80D-229E6F82D51F}"/>
+    <hyperlink ref="C144" r:id="rId271" xr:uid="{2407433B-D83D-2742-B1C3-CF65FF93283D}"/>
+    <hyperlink ref="C145" r:id="rId272" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
+    <hyperlink ref="C146" r:id="rId273" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
+    <hyperlink ref="C147" r:id="rId274" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
+    <hyperlink ref="C148" r:id="rId275" xr:uid="{CADE7398-4579-394B-8CCD-E2C7CC0E02E7}"/>
+    <hyperlink ref="C149" r:id="rId276" xr:uid="{17D20192-38F2-2344-AC9A-F1DF646DA898}"/>
+    <hyperlink ref="C150" r:id="rId277" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
+    <hyperlink ref="C151" r:id="rId278" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
+    <hyperlink ref="C152" r:id="rId279" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
+    <hyperlink ref="C153" r:id="rId280" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
+    <hyperlink ref="C154" r:id="rId281" xr:uid="{64547E34-44D9-1848-AAA7-1C3BBB7DB2D9}"/>
+    <hyperlink ref="C155" r:id="rId282" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
+    <hyperlink ref="C156" r:id="rId283" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
+    <hyperlink ref="C157" r:id="rId284" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
+    <hyperlink ref="C158" r:id="rId285" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
+    <hyperlink ref="C159" r:id="rId286" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
+    <hyperlink ref="C160" r:id="rId287" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
+    <hyperlink ref="C161" r:id="rId288" xr:uid="{0BC4DD0E-7FEB-0D4D-A81D-6609730F3270}"/>
+    <hyperlink ref="C162" r:id="rId289" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
+    <hyperlink ref="C163" r:id="rId290" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
+    <hyperlink ref="C164" r:id="rId291" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
+    <hyperlink ref="C140" r:id="rId292" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17106717-E54E-1F41-8D75-1C5035889185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07AE748-4C2F-2F4D-9980-3FD345B1899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="705">
   <si>
     <t>name</t>
   </si>
@@ -1891,9 +1891,6 @@
     <t>rampy</t>
   </si>
   <si>
-    <t>raman</t>
-  </si>
-  <si>
     <t>Spectra.jl</t>
   </si>
   <si>
@@ -1906,9 +1903,6 @@
     <t>specio</t>
   </si>
   <si>
-    <t>Raman-and-SERS-Processing</t>
-  </si>
-  <si>
     <t>raman-fitting</t>
   </si>
   <si>
@@ -1927,9 +1921,6 @@
     <t>ASPIRED</t>
   </si>
   <si>
-    <t>spectrophotometry</t>
-  </si>
-  <si>
     <t>AutomatedLIBS</t>
   </si>
   <si>
@@ -1942,9 +1933,6 @@
     <t>https://github.com/delsuc/PALMA</t>
   </si>
   <si>
-    <t>https://github.com/DerekKaknes/raman</t>
-  </si>
-  <si>
     <t>https://github.com/StatguyUser/BaselineRemoval</t>
   </si>
   <si>
@@ -1954,9 +1942,6 @@
     <t>https://github.com/paris-saclay-cds/specio</t>
   </si>
   <si>
-    <t>https://github.com/MarjorieRWillner/Raman-and-SERS-Processing</t>
-  </si>
-  <si>
     <t>https://github.com/MyPyDavid/raman-fitting</t>
   </si>
   <si>
@@ -1972,9 +1957,6 @@
     <t>https://github.com/cylammarco/ASPIRED</t>
   </si>
   <si>
-    <t>https://github.com/lhosszu/spectrophotometry</t>
-  </si>
-  <si>
     <t>https://github.com/mrDIMAS/AutomatedLIBS</t>
   </si>
   <si>
@@ -2002,15 +1984,9 @@
     <t>hanlab</t>
   </si>
   <si>
-    <t>spa-on-python</t>
-  </si>
-  <si>
     <t>nira</t>
   </si>
   <si>
-    <t>coffee</t>
-  </si>
-  <si>
     <t>nmrium</t>
   </si>
   <si>
@@ -2035,109 +2011,130 @@
     <t>https://github.com/thcasey3/hanlab</t>
   </si>
   <si>
-    <t>https://github.com/lerkoah/spa-on-python</t>
-  </si>
-  <si>
     <t>https://github.com/admedeiros/nira</t>
   </si>
   <si>
-    <t>https://github.com/jwist/coffee</t>
-  </si>
-  <si>
     <t>https://github.com/cheminfo/nmrium</t>
   </si>
   <si>
     <t>https://github.com/spike-project/spike</t>
   </si>
   <si>
-    <t>DNPLab - Bringing the power of Python to DNP-NMR Spectroscopy</t>
-  </si>
-  <si>
-    <t>Reference implemention of the IUPAC JCAMP-DX spectroscopy data standard. Fork of https://sourceforge.net/projects/jcamp-dx/</t>
-  </si>
-  <si>
-    <t>SpectroChemPy is a framework for processing, analyzing and modeling spectroscopic data for chemistry with Python</t>
-  </si>
-  <si>
-    <t>Python package for data analysis for dipolar EPR spectroscopy</t>
-  </si>
-  <si>
     <t>Instrument control suite for Bruker E500, MercuryiTC and Keithley 2600.</t>
   </si>
   <si>
-    <t>code used to process, fit, and analyze various types of DNP, NMR, and EPR data generated in the lab of Songi Han at UCSB</t>
-  </si>
-  <si>
-    <t>Read Nicolet/Thermo Omnic files on python (.spa).</t>
-  </si>
-  <si>
     <t>Near-Infrared Analysis</t>
   </si>
   <si>
-    <t>Datasets of metabolic profiles of coffees from different species and origin</t>
-  </si>
-  <si>
     <t>React component to display and process nuclear magnetic resonance (NMR) spectra.</t>
   </si>
   <si>
     <t>A software suite for automatic treatment, analysis and plotting of large and multivariable datasets of bioNMR peaklists.</t>
   </si>
   <si>
-    <t>SPIKE a collaborative development for a FT-spectroscopy processing program.</t>
-  </si>
-  <si>
-    <t>repository associated with manuscript "PALMA, an improved algorithm for DOSY signal processing"</t>
-  </si>
-  <si>
-    <t>Python software for spectral data processing (IR, Raman, XAS...)</t>
-  </si>
-  <si>
-    <t>Deep CNN for Raman Applications</t>
-  </si>
-  <si>
-    <t>Spectra.jl aims at helping treatment of spectral (Raman, Infrared, XAS, NMR) data under the Julia language</t>
-  </si>
-  <si>
-    <t>Perform baseline removal, baseline correction and baseline substraction for raman spectra using Modpoly, ImodPoly and Zhang fit. Returns baseline-subtracted spectrum</t>
-  </si>
-  <si>
-    <t>Python package for read-only accessing the wdf Raman spectroscopy from Ranishaw WiRE software</t>
-  </si>
-  <si>
     <t>specio: Python input/output for spectroscopic files</t>
   </si>
   <si>
-    <t>Code for processing either Raman or SERS maps. Includes baseline correction, peak comparison, and post processing anaylsis.</t>
-  </si>
-  <si>
-    <t>A Python framework for the batch processing and deconvolution of Raman spectra of carbonaceous materials.</t>
-  </si>
-  <si>
     <t>Neural network classifier for Raman spectral data using TensorFlow</t>
   </si>
   <si>
-    <t>Visualitzation and processing toolbox for Confocal Raman Spectroscopy Imaging</t>
-  </si>
-  <si>
     <t>An analysis kernel for raman spectrum.</t>
   </si>
   <si>
-    <t>Jupyter Notebooks for spectroscopic data processing</t>
-  </si>
-  <si>
     <t>Automated SpectroPhotometric Image REDuction (ASPIRED)</t>
   </si>
   <si>
-    <t>An Android application for controlling a Bluetooth spectrophotometer (ESP32 &amp; C12880MA)</t>
-  </si>
-  <si>
     <t>Laser-Induced Break Down Spectroscopy spectra analysis software</t>
   </si>
   <si>
     <t>Analysis codes for Laser-Induced Breakdown Spectroscopy data</t>
   </si>
   <si>
-    <t>Program to analyse XAS data</t>
+    <t>http://dnplab.net/</t>
+  </si>
+  <si>
+    <t>Processing DNP-NMR spectra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference implemention of the IUPAC JCAMP-DX spectroscopy data standard. </t>
+  </si>
+  <si>
+    <t>Processing, analyzing and modeling spectroscopic data for chemistry</t>
+  </si>
+  <si>
+    <t>Analysis of dipolar EPR spectroscopy</t>
+  </si>
+  <si>
+    <t>https://jeschkelab.github.io/DeerLab/</t>
+  </si>
+  <si>
+    <t>https://customxepr.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>https://thcasey3.github.io/hanlab/</t>
+  </si>
+  <si>
+    <t>Process, fit, and analyze various types of DNP, NMR, and EPR data</t>
+  </si>
+  <si>
+    <t>EPR, NMR</t>
+  </si>
+  <si>
+    <t>https://docs.nmrium.org/</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>https://github.com/Farseer-NMR/FarSeer-NMR/wiki</t>
+  </si>
+  <si>
+    <t>http://softwares.casc4de.eu/spike/spikedoc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FT-spectroscopy processing </t>
+  </si>
+  <si>
+    <t>https://pubs.rsc.org/en/content/articlelanding/2017/AN/C6AN01902A</t>
+  </si>
+  <si>
+    <t>DOSY signal processing</t>
+  </si>
+  <si>
+    <t>http://charlesll.github.io/rampy/html/index.html</t>
+  </si>
+  <si>
+    <t>Spectral data processing (IR, Raman, XAS...)</t>
+  </si>
+  <si>
+    <t>Treatment of spectral (Raman, Infrared, XAS, NMR) data</t>
+  </si>
+  <si>
+    <t>Baseline removal, baseline correction and baseline subtraction</t>
+  </si>
+  <si>
+    <t>Batch processing and deconvolution of Raman spectra of carbonaceous materials</t>
+  </si>
+  <si>
+    <t>https://specio.readthedocs.io/en/stable/</t>
+  </si>
+  <si>
+    <t>Read-only accessing the wdf Raman spectroscopy from Ranishaw WiRE software</t>
+  </si>
+  <si>
+    <t>Visualization and processing toolbox for Confocal Raman Spectroscopy Imaging</t>
+  </si>
+  <si>
+    <t>Spectroscopic data processing</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2111.02127</t>
+  </si>
+  <si>
+    <t>Analyse XAS data</t>
+  </si>
+  <si>
+    <t>C#</t>
   </si>
 </sst>
 </file>
@@ -2535,12 +2532,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F150" sqref="F150"/>
+      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5981,332 +5978,508 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>654</v>
+        <v>648</v>
+      </c>
+      <c r="B135" t="s">
+        <v>676</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>666</v>
+        <v>658</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
       </c>
       <c r="F135" t="s">
-        <v>676</v>
+        <v>677</v>
+      </c>
+      <c r="G135" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>655</v>
+        <v>649</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>667</v>
+        <v>659</v>
+      </c>
+      <c r="E136" t="s">
+        <v>248</v>
       </c>
       <c r="F136" t="s">
-        <v>677</v>
+        <v>678</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>656</v>
+        <v>650</v>
+      </c>
+      <c r="B137" t="s">
+        <v>550</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>549</v>
       </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
       <c r="F137" t="s">
-        <v>678</v>
+        <v>679</v>
+      </c>
+      <c r="G137" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>657</v>
+        <v>651</v>
+      </c>
+      <c r="B138" t="s">
+        <v>681</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>668</v>
+        <v>660</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
       </c>
       <c r="F138" t="s">
-        <v>679</v>
+        <v>680</v>
+      </c>
+      <c r="G138" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>658</v>
+        <v>652</v>
+      </c>
+      <c r="B139" t="s">
+        <v>682</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>669</v>
+        <v>661</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>680</v>
+        <v>666</v>
+      </c>
+      <c r="G139" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>659</v>
+        <v>653</v>
+      </c>
+      <c r="B140" t="s">
+        <v>683</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>670</v>
+        <v>662</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>681</v>
+        <v>684</v>
+      </c>
+      <c r="G140" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>660</v>
+        <v>654</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>671</v>
+        <v>663</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>682</v>
+        <v>667</v>
+      </c>
+      <c r="G141" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>661</v>
+        <v>655</v>
+      </c>
+      <c r="B142" t="s">
+        <v>686</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>672</v>
+        <v>664</v>
+      </c>
+      <c r="E142" t="s">
+        <v>687</v>
       </c>
       <c r="F142" t="s">
-        <v>683</v>
+        <v>668</v>
+      </c>
+      <c r="G142" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>662</v>
+        <v>656</v>
+      </c>
+      <c r="B143" t="s">
+        <v>688</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>673</v>
+        <v>333</v>
+      </c>
+      <c r="D143" t="s">
+        <v>334</v>
+      </c>
+      <c r="E143" t="s">
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>684</v>
+        <v>669</v>
+      </c>
+      <c r="G143" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>663</v>
+        <v>657</v>
+      </c>
+      <c r="B144" t="s">
+        <v>689</v>
       </c>
       <c r="C144" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>690</v>
+      </c>
+      <c r="G144" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>621</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D145" t="s">
+        <v>691</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" t="s">
+        <v>692</v>
+      </c>
+      <c r="G145" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>622</v>
+      </c>
+      <c r="B146" t="s">
+        <v>693</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
+        <v>694</v>
+      </c>
+      <c r="G146" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>623</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E147" t="s">
+        <v>407</v>
+      </c>
+      <c r="F147" t="s">
+        <v>695</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>624</v>
+      </c>
+      <c r="B148" t="s">
+        <v>11</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>696</v>
+      </c>
+      <c r="G148" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>625</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>699</v>
+      </c>
+      <c r="G149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>626</v>
+      </c>
+      <c r="B150" t="s">
+        <v>698</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>670</v>
+      </c>
+      <c r="G150" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>627</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s">
+        <v>697</v>
+      </c>
+      <c r="G151" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>628</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>671</v>
+      </c>
+      <c r="G152" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>629</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>700</v>
+      </c>
+      <c r="G153" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>630</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" t="s">
+        <v>672</v>
+      </c>
+      <c r="G154" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>631</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
+        <v>701</v>
+      </c>
+      <c r="G155" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>632</v>
+      </c>
+      <c r="B156" t="s">
+        <v>702</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="E156" t="s">
+        <v>38</v>
+      </c>
+      <c r="F156" t="s">
+        <v>673</v>
+      </c>
+      <c r="G156" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>633</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E157" t="s">
+        <v>704</v>
+      </c>
+      <c r="F157" t="s">
         <v>674</v>
       </c>
-      <c r="F144" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>664</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F145" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>665</v>
-      </c>
-      <c r="C146" s="2" t="s">
+      <c r="G157" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>634</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="E158" t="s">
+        <v>38</v>
+      </c>
+      <c r="F158" t="s">
         <v>675</v>
       </c>
-      <c r="F146" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>621</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F147" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>622</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="F148" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>623</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="F149" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>624</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="F150" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>625</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F151" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>626</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="F152" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>627</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F153" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>628</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="F154" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>629</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="F155" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>630</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F156" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>631</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="F157" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>632</v>
-      </c>
-      <c r="C158" s="2" t="s">
+      <c r="G158" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>635</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="F158" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>633</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>648</v>
+      <c r="E159" t="s">
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>634</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>649</v>
-      </c>
-      <c r="F160" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>635</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F161" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>636</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="F162" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>637</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="F163" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>638</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="F164" t="s">
-        <v>705</v>
+      <c r="G159" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -6578,31 +6751,26 @@
     <hyperlink ref="C137" r:id="rId265" xr:uid="{C6C180D4-D87A-4D48-8817-ABD91B6243AD}"/>
     <hyperlink ref="C138" r:id="rId266" xr:uid="{F4F61C2C-C1F7-7147-8DAC-F04A10994944}"/>
     <hyperlink ref="C139" r:id="rId267" xr:uid="{1E329ECB-8E96-9C44-BFA1-914822245AD5}"/>
-    <hyperlink ref="C141" r:id="rId268" xr:uid="{6D6FADB7-CFCB-EF42-B4C8-5A772019679B}"/>
-    <hyperlink ref="C142" r:id="rId269" xr:uid="{2A87F5BC-C340-6149-B12F-3F9425A0527B}"/>
-    <hyperlink ref="C143" r:id="rId270" xr:uid="{D0E7A090-9133-1442-A80D-229E6F82D51F}"/>
-    <hyperlink ref="C144" r:id="rId271" xr:uid="{2407433B-D83D-2742-B1C3-CF65FF93283D}"/>
-    <hyperlink ref="C145" r:id="rId272" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
-    <hyperlink ref="C146" r:id="rId273" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
-    <hyperlink ref="C147" r:id="rId274" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
-    <hyperlink ref="C148" r:id="rId275" xr:uid="{CADE7398-4579-394B-8CCD-E2C7CC0E02E7}"/>
-    <hyperlink ref="C149" r:id="rId276" xr:uid="{17D20192-38F2-2344-AC9A-F1DF646DA898}"/>
-    <hyperlink ref="C150" r:id="rId277" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
-    <hyperlink ref="C151" r:id="rId278" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
-    <hyperlink ref="C152" r:id="rId279" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
-    <hyperlink ref="C153" r:id="rId280" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
-    <hyperlink ref="C154" r:id="rId281" xr:uid="{64547E34-44D9-1848-AAA7-1C3BBB7DB2D9}"/>
-    <hyperlink ref="C155" r:id="rId282" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
-    <hyperlink ref="C156" r:id="rId283" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
-    <hyperlink ref="C157" r:id="rId284" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
-    <hyperlink ref="C158" r:id="rId285" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
-    <hyperlink ref="C159" r:id="rId286" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
-    <hyperlink ref="C160" r:id="rId287" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
-    <hyperlink ref="C161" r:id="rId288" xr:uid="{0BC4DD0E-7FEB-0D4D-A81D-6609730F3270}"/>
-    <hyperlink ref="C162" r:id="rId289" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
-    <hyperlink ref="C163" r:id="rId290" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
-    <hyperlink ref="C164" r:id="rId291" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
-    <hyperlink ref="C140" r:id="rId292" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
+    <hyperlink ref="C141" r:id="rId268" xr:uid="{2A87F5BC-C340-6149-B12F-3F9425A0527B}"/>
+    <hyperlink ref="C142" r:id="rId269" xr:uid="{2407433B-D83D-2742-B1C3-CF65FF93283D}"/>
+    <hyperlink ref="C143" r:id="rId270" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
+    <hyperlink ref="C144" r:id="rId271" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
+    <hyperlink ref="C145" r:id="rId272" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
+    <hyperlink ref="C146" r:id="rId273" xr:uid="{CADE7398-4579-394B-8CCD-E2C7CC0E02E7}"/>
+    <hyperlink ref="C147" r:id="rId274" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
+    <hyperlink ref="C148" r:id="rId275" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
+    <hyperlink ref="C149" r:id="rId276" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
+    <hyperlink ref="C150" r:id="rId277" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
+    <hyperlink ref="C151" r:id="rId278" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
+    <hyperlink ref="C152" r:id="rId279" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
+    <hyperlink ref="C153" r:id="rId280" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
+    <hyperlink ref="C154" r:id="rId281" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
+    <hyperlink ref="C155" r:id="rId282" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
+    <hyperlink ref="C156" r:id="rId283" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
+    <hyperlink ref="C157" r:id="rId284" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
+    <hyperlink ref="C158" r:id="rId285" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
+    <hyperlink ref="C159" r:id="rId286" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
+    <hyperlink ref="C140" r:id="rId287" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07AE748-4C2F-2F4D-9980-3FD345B1899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C92AB8-B969-734F-802E-823ED0B5EB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="680" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2169" uniqueCount="1395">
   <si>
     <t>name</t>
   </si>
@@ -2135,6 +2135,2076 @@
   </si>
   <si>
     <t>C#</t>
+  </si>
+  <si>
+    <t>pocketchemist-nmr</t>
+  </si>
+  <si>
+    <t>nmr-sims</t>
+  </si>
+  <si>
+    <t>nmr-classifier</t>
+  </si>
+  <si>
+    <t>icarus-nmr</t>
+  </si>
+  <si>
+    <t>NMR-peaks-picking</t>
+  </si>
+  <si>
+    <t>wwpdb.utils.nmr</t>
+  </si>
+  <si>
+    <t>farseernmr</t>
+  </si>
+  <si>
+    <t>nmrespy</t>
+  </si>
+  <si>
+    <t>nmrglue</t>
+  </si>
+  <si>
+    <t>nmrpy</t>
+  </si>
+  <si>
+    <t>pybmrb</t>
+  </si>
+  <si>
+    <t>masai</t>
+  </si>
+  <si>
+    <t>pynmrstar</t>
+  </si>
+  <si>
+    <t>bruker-utils</t>
+  </si>
+  <si>
+    <t>dnplab</t>
+  </si>
+  <si>
+    <t>ansurr</t>
+  </si>
+  <si>
+    <t>ml-jdp4</t>
+  </si>
+  <si>
+    <t>nmrformd</t>
+  </si>
+  <si>
+    <t>bdata</t>
+  </si>
+  <si>
+    <t>mrinversion</t>
+  </si>
+  <si>
+    <t>pynmr</t>
+  </si>
+  <si>
+    <t>nmrquant</t>
+  </si>
+  <si>
+    <t>peakfit</t>
+  </si>
+  <si>
+    <t>NMRPySchedule</t>
+  </si>
+  <si>
+    <t>mud-py</t>
+  </si>
+  <si>
+    <t>nPYc</t>
+  </si>
+  <si>
+    <t>spike-py</t>
+  </si>
+  <si>
+    <t>Akvo</t>
+  </si>
+  <si>
+    <t>famn-opt</t>
+  </si>
+  <si>
+    <t>chemex</t>
+  </si>
+  <si>
+    <t>Soprano</t>
+  </si>
+  <si>
+    <t>Pathomx</t>
+  </si>
+  <si>
+    <t>SpectraFP</t>
+  </si>
+  <si>
+    <t>isoenum-webgui</t>
+  </si>
+  <si>
+    <t>relaxNMR</t>
+  </si>
+  <si>
+    <t>autoenrich</t>
+  </si>
+  <si>
+    <t>biceps</t>
+  </si>
+  <si>
+    <t>pynmranalysis</t>
+  </si>
+  <si>
+    <t>rna-tools</t>
+  </si>
+  <si>
+    <t>penguins</t>
+  </si>
+  <si>
+    <t>nmraspecds</t>
+  </si>
+  <si>
+    <t>shiftcrypt</t>
+  </si>
+  <si>
+    <t>isosolve</t>
+  </si>
+  <si>
+    <t>nmrpro</t>
+  </si>
+  <si>
+    <t>peakipy</t>
+  </si>
+  <si>
+    <t>flowchem</t>
+  </si>
+  <si>
+    <t>nmrpoise</t>
+  </si>
+  <si>
+    <t>qmdesc</t>
+  </si>
+  <si>
+    <t>pygamess</t>
+  </si>
+  <si>
+    <t>NMRPyStar</t>
+  </si>
+  <si>
+    <t>eNMRpy</t>
+  </si>
+  <si>
+    <t>django-nmrpro</t>
+  </si>
+  <si>
+    <t>chemometrics</t>
+  </si>
+  <si>
+    <t>DEERPREdict</t>
+  </si>
+  <si>
+    <t>nightshift</t>
+  </si>
+  <si>
+    <t>nmrgnn-data</t>
+  </si>
+  <si>
+    <t>pynmeagps</t>
+  </si>
+  <si>
+    <t>metabolabpy</t>
+  </si>
+  <si>
+    <t>muspinsim</t>
+  </si>
+  <si>
+    <t>bccd</t>
+  </si>
+  <si>
+    <t>metabohunter</t>
+  </si>
+  <si>
+    <t>pynics</t>
+  </si>
+  <si>
+    <t>jcalc</t>
+  </si>
+  <si>
+    <t>spindata</t>
+  </si>
+  <si>
+    <t>mrsprint</t>
+  </si>
+  <si>
+    <t>mrainet</t>
+  </si>
+  <si>
+    <t>ssfp</t>
+  </si>
+  <si>
+    <t>mwtab</t>
+  </si>
+  <si>
+    <t>cctk</t>
+  </si>
+  <si>
+    <t>pybaselines</t>
+  </si>
+  <si>
+    <t>RotamerConvolveMD</t>
+  </si>
+  <si>
+    <t>pyopls</t>
+  </si>
+  <si>
+    <t>epr2md</t>
+  </si>
+  <si>
+    <t>pyepr</t>
+  </si>
+  <si>
+    <t>EPRsimGUI</t>
+  </si>
+  <si>
+    <t>qunetsim</t>
+  </si>
+  <si>
+    <t>spinpy</t>
+  </si>
+  <si>
+    <t>EPRsim</t>
+  </si>
+  <si>
+    <t>PulseShape</t>
+  </si>
+  <si>
+    <t>trepr</t>
+  </si>
+  <si>
+    <t>fitpy</t>
+  </si>
+  <si>
+    <t>GloPel</t>
+  </si>
+  <si>
+    <t>uvvispy</t>
+  </si>
+  <si>
+    <t>aspecd</t>
+  </si>
+  <si>
+    <t>pyEPR-quantum</t>
+  </si>
+  <si>
+    <t>exmemo</t>
+  </si>
+  <si>
+    <t>uv-metrics</t>
+  </si>
+  <si>
+    <t>uv2json</t>
+  </si>
+  <si>
+    <t>sunscreen</t>
+  </si>
+  <si>
+    <t>pyopenuv</t>
+  </si>
+  <si>
+    <t>COS</t>
+  </si>
+  <si>
+    <t>vis-sample</t>
+  </si>
+  <si>
+    <t>pyspectrum-MTJ</t>
+  </si>
+  <si>
+    <t>hy2glsl</t>
+  </si>
+  <si>
+    <t>galcv</t>
+  </si>
+  <si>
+    <t>Aston</t>
+  </si>
+  <si>
+    <t>pyPreprocessing</t>
+  </si>
+  <si>
+    <t>flowiz</t>
+  </si>
+  <si>
+    <t>bumbleview</t>
+  </si>
+  <si>
+    <t>NistChemPy</t>
+  </si>
+  <si>
+    <t>canuvit</t>
+  </si>
+  <si>
+    <t>pyplis</t>
+  </si>
+  <si>
+    <t>PyUvVis</t>
+  </si>
+  <si>
+    <t>rpi-piusv</t>
+  </si>
+  <si>
+    <t>Barak</t>
+  </si>
+  <si>
+    <t>cpdseqer</t>
+  </si>
+  <si>
+    <t>aquaipy</t>
+  </si>
+  <si>
+    <t>astro-prospector</t>
+  </si>
+  <si>
+    <t>SuperBoL</t>
+  </si>
+  <si>
+    <t>PyWavefront</t>
+  </si>
+  <si>
+    <t>flowcell</t>
+  </si>
+  <si>
+    <t>lspr-library-Piast-Kolodziej</t>
+  </si>
+  <si>
+    <t>coloured-spectra</t>
+  </si>
+  <si>
+    <t>pop-loop</t>
+  </si>
+  <si>
+    <t>lspr</t>
+  </si>
+  <si>
+    <t>lsprlib</t>
+  </si>
+  <si>
+    <t>pysolardb</t>
+  </si>
+  <si>
+    <t>platypos</t>
+  </si>
+  <si>
+    <t>astrometry</t>
+  </si>
+  <si>
+    <t>tesliper</t>
+  </si>
+  <si>
+    <t>colour-science</t>
+  </si>
+  <si>
+    <t>pyuvis</t>
+  </si>
+  <si>
+    <t>ragavi</t>
+  </si>
+  <si>
+    <t>bob.db.nivl</t>
+  </si>
+  <si>
+    <t>splat</t>
+  </si>
+  <si>
+    <t>NIR-preprocess</t>
+  </si>
+  <si>
+    <t>mne-nirs</t>
+  </si>
+  <si>
+    <t>ndx-nirs</t>
+  </si>
+  <si>
+    <t>nirtools</t>
+  </si>
+  <si>
+    <t>eniric</t>
+  </si>
+  <si>
+    <t>SRPAstro.REM</t>
+  </si>
+  <si>
+    <t>SRPAstro.STATS</t>
+  </si>
+  <si>
+    <t>SRPAstro.FITS</t>
+  </si>
+  <si>
+    <t>SRPAstro.TNG</t>
+  </si>
+  <si>
+    <t>SRPAstro.GW</t>
+  </si>
+  <si>
+    <t>SRPAstro</t>
+  </si>
+  <si>
+    <t>wdphottools</t>
+  </si>
+  <si>
+    <t>ppxf</t>
+  </si>
+  <si>
+    <t>isatex</t>
+  </si>
+  <si>
+    <t>MeisterInSitu</t>
+  </si>
+  <si>
+    <t>ftir-renamer</t>
+  </si>
+  <si>
+    <t>FTIR-background-subtract</t>
+  </si>
+  <si>
+    <t>ono</t>
+  </si>
+  <si>
+    <t>compressedftir</t>
+  </si>
+  <si>
+    <t>agilentaspparser-egonik</t>
+  </si>
+  <si>
+    <t>boxsers</t>
+  </si>
+  <si>
+    <t>raman-rabi</t>
+  </si>
+  <si>
+    <t>xcal_raman</t>
+  </si>
+  <si>
+    <t>pyvib2</t>
+  </si>
+  <si>
+    <t>polypython</t>
+  </si>
+  <si>
+    <t>kars</t>
+  </si>
+  <si>
+    <t>ramix</t>
+  </si>
+  <si>
+    <t>galore</t>
+  </si>
+  <si>
+    <t>spectramap</t>
+  </si>
+  <si>
+    <t>carspy</t>
+  </si>
+  <si>
+    <t>renishawWiRE</t>
+  </si>
+  <si>
+    <t>ramanfitter</t>
+  </si>
+  <si>
+    <t>rspec</t>
+  </si>
+  <si>
+    <t>lumispy</t>
+  </si>
+  <si>
+    <t>hypers</t>
+  </si>
+  <si>
+    <t>speview</t>
+  </si>
+  <si>
+    <t>autogamess</t>
+  </si>
+  <si>
+    <t>spectrapepper</t>
+  </si>
+  <si>
+    <t>spectrai</t>
+  </si>
+  <si>
+    <t>moseley</t>
+  </si>
+  <si>
+    <t>xfit</t>
+  </si>
+  <si>
+    <t>xmimsim</t>
+  </si>
+  <si>
+    <t>corrct</t>
+  </si>
+  <si>
+    <t>SimulatedLIBS</t>
+  </si>
+  <si>
+    <t>xas-pipeline</t>
+  </si>
+  <si>
+    <t>catmass</t>
+  </si>
+  <si>
+    <t>xanespy</t>
+  </si>
+  <si>
+    <t>thorondor</t>
+  </si>
+  <si>
+    <t>edrixs</t>
+  </si>
+  <si>
+    <t>NMR analysis tools for pocketchemist</t>
+  </si>
+  <si>
+    <t>A package for running basic NMR simulations.</t>
+  </si>
+  <si>
+    <t>Pressure Jump Software for time-resolved pressure NMR</t>
+  </si>
+  <si>
+    <t>wwPDB NMR utilities</t>
+  </si>
+  <si>
+    <t>NMR-EsPy: Nuclear Magnetic Resonance Estimation in Python</t>
+  </si>
+  <si>
+    <t>A module for working with NMR data in Python</t>
+  </si>
+  <si>
+    <t>A suite of tools for processing and analysing NMR spectra in Python.</t>
+  </si>
+  <si>
+    <t>PyBMRB provides tools for visualizing BMRB entries and  NMR-STAR files. Maintained by the BMRB.</t>
+  </si>
+  <si>
+    <t>Masai, a framework for processing and modelling of solid state NMR spectra</t>
+  </si>
+  <si>
+    <t>Python library for parsing data from NMR-STAR format files</t>
+  </si>
+  <si>
+    <t>A library for simulating nuclear magnetic resonance (NMR) spectra.</t>
+  </si>
+  <si>
+    <t>PyNMR-STAR provides tools for reading, writing, modifying, and interacting with NMR-STAR files. Maintained by the BMRB.</t>
+  </si>
+  <si>
+    <t>bruker_utils: Helper functions for handling Bruker NMR data.</t>
+  </si>
+  <si>
+    <t>DNPLab - Bringing the Power of Python to DNP-NMR Spectroscopy</t>
+  </si>
+  <si>
+    <t>Read NMR data files in the TecMag .tnt file format</t>
+  </si>
+  <si>
+    <t>ANSURR uses backbone chemical shifts to validate the accuracy of NMR protein structures.</t>
+  </si>
+  <si>
+    <t>An integrated quantum mechanics-machine learning approach for ultra-fast NMR structural elucidation.</t>
+  </si>
+  <si>
+    <t>Calculate NMR relaxation time from molecular dynamics trajectory file</t>
+  </si>
+  <si>
+    <t>β-NMR/β-NQR MUD file reader and asymmetry calculator</t>
+  </si>
+  <si>
+    <t>Python based statistical learning of NMR tensor parameters distribution from 2D isotropic/anisotropic NMR correlation spectra.</t>
+  </si>
+  <si>
+    <t>Parse and Process NMR data.</t>
+  </si>
+  <si>
+    <t>Metabolite concentration quantification from 1D proton nmr integrated data</t>
+  </si>
+  <si>
+    <t>PeakFit allow for lineshape fitting in pseudo-3D NMR spectra.</t>
+  </si>
+  <si>
+    <t>a library for building non-uniform NMR sample schedules</t>
+  </si>
+  <si>
+    <t>β-NMR and β-NQR Data Analysis</t>
+  </si>
+  <si>
+    <t>MUon Data file reader</t>
+  </si>
+  <si>
+    <t>Aggregate package of internal bionmr utils</t>
+  </si>
+  <si>
+    <t>National Phenome Centre toolbox</t>
+  </si>
+  <si>
+    <t>The SPIKE program. A collaborative development for a FT-spectroscopy processing program</t>
+  </si>
+  <si>
+    <t>Bloch equation simulator for e.g. NMR-related simulations</t>
+  </si>
+  <si>
+    <t>Surface nuclear magnetic resonance workbench</t>
+  </si>
+  <si>
+    <t>icoshift: A versatile tool for the rapid alignment of 1D NMR spectra</t>
+  </si>
+  <si>
+    <t>Python code to optimise FAM-N pulses for MQMAS experiments</t>
+  </si>
+  <si>
+    <t>ChemEx is an analysis program for chemical exchange detected by NMR.</t>
+  </si>
+  <si>
+    <t>A python toolbox for simulating fast real-time solid-state NMR spectra.</t>
+  </si>
+  <si>
+    <t>A Python library to crack crystals</t>
+  </si>
+  <si>
+    <t>Metabolic pathway visualisation and analysis.</t>
+  </si>
+  <si>
+    <t>A package to perform fingerprints from spectroscopy datas.</t>
+  </si>
+  <si>
+    <t>Web interface to generate NMR-specific InChI</t>
+  </si>
+  <si>
+    <t>A module for displaying NMR data with bokeh in Python or Jupyter Notebooks.</t>
+  </si>
+  <si>
+    <t>1D Proton NMR relaxometry analysis</t>
+  </si>
+  <si>
+    <t>Computational NMR Library</t>
+  </si>
+  <si>
+    <t>python library for NMR preprocessing and analysis</t>
+  </si>
+  <si>
+    <t>a toolbox to analyze structures and simulations of RNA</t>
+  </si>
+  <si>
+    <t>Penguins: an Easy, NPE-free Gateway to Unpacking and Illustrating NMR Spectra</t>
+  </si>
+  <si>
+    <t>hanlab - odnp data processing and fitting</t>
+  </si>
+  <si>
+    <t>ASpecD derived Package for recipe driven data analysis of NMR spectra</t>
+  </si>
+  <si>
+    <t>Auto-encoding NMR chemical shifts from their native vector space to a residue-level biophysical index</t>
+  </si>
+  <si>
+    <t>integrative framework for measurements of isotope labeling</t>
+  </si>
+  <si>
+    <t>Chemical shift predictor</t>
+  </si>
+  <si>
+    <t>Interactive processing of NMR Spectra</t>
+  </si>
+  <si>
+    <t>Deconvolute overlapping NMR peaks</t>
+  </si>
+  <si>
+    <t>Flowchem is a python library to control a variety of instruments commonly found in chemistry labs.</t>
+  </si>
+  <si>
+    <t>Parameter Optimisation by Iterative Spectral Evaluation, a TopSpin-compatible NMR package</t>
+  </si>
+  <si>
+    <t>A qm descriptor prediction package</t>
+  </si>
+  <si>
+    <t>GAMESS wrapper for Python</t>
+  </si>
+  <si>
+    <t>a parser for the NMR-STAR data format</t>
+  </si>
+  <si>
+    <t>nmrglue-based package for the import and analysis of electrophoretic NMR-data</t>
+  </si>
+  <si>
+    <t>Django app companion for nmrpro package</t>
+  </si>
+  <si>
+    <t>Calculate paramagnetic effects in NMR spectra of proteins</t>
+  </si>
+  <si>
+    <t>package for chemometric data analysis</t>
+  </si>
+  <si>
+    <t>A package for DEER and PRE predictions based on molecular dynamics ensembles. Can be installed with pip.</t>
+  </si>
+  <si>
+    <t>A python library and command line program for plotting simulated 2D and 3D NMR spectra from assigned chemical shifts from the BMRB</t>
+  </si>
+  <si>
+    <t>Chemical shift prediction dataset</t>
+  </si>
+  <si>
+    <t>NMEA Protocol Parser</t>
+  </si>
+  <si>
+    <t>Python package for data processing of NMR 1D and 2D metabolomics and metabolism tracing data</t>
+  </si>
+  <si>
+    <t>Full quantum simulation of muon experiments</t>
+  </si>
+  <si>
+    <t>B-NMR/B-NQR Beamspot Image Viewer and Analysis</t>
+  </si>
+  <si>
+    <t>Python interface to Metabohunter 1H NMR metabolite identification service</t>
+  </si>
+  <si>
+    <t>object-oriented N-dimensional data processing with notebook functionality</t>
+  </si>
+  <si>
+    <t>Computing Nuclear Independent Chemical Shifts</t>
+  </si>
+  <si>
+    <t>jcalc: Calculate NMR J values from         Molecular Dynamics simulations</t>
+  </si>
+  <si>
+    <t>Gyromagnetic ratios, spin, and quadrupole moments (where applicable) of all elements and the electron.</t>
+  </si>
+  <si>
+    <t>Magnetic resonance experiment simulator and visualization tool.</t>
+  </si>
+  <si>
+    <t>MR acquisition-invariant network.</t>
+  </si>
+  <si>
+    <t>SSFP simulation</t>
+  </si>
+  <si>
+    <t>Parser for mwtab files from the Metabolomics Workbench</t>
+  </si>
+  <si>
+    <t>computational chemistry toolkit</t>
+  </si>
+  <si>
+    <t>A library of algorithms for the baseline correction of experimental data.</t>
+  </si>
+  <si>
+    <t>Analysis of spin label distances over structural ensembles</t>
+  </si>
+  <si>
+    <t>Orthogonal Projection to Latent Structures</t>
+  </si>
+  <si>
+    <t>Converts EPR files to Markdown</t>
+  </si>
+  <si>
+    <t>Python ENVISAT Product Reader API</t>
+  </si>
+  <si>
+    <t>GUI for simulating cw-EPR spectra</t>
+  </si>
+  <si>
+    <t>A Quantum Network Simulation Framework</t>
+  </si>
+  <si>
+    <t>Package for simulating EPR data.</t>
+  </si>
+  <si>
+    <t>Package for handling cw-EPR data.</t>
+  </si>
+  <si>
+    <t>Simulation Package for cw-EPR spectra</t>
+  </si>
+  <si>
+    <t>Comprehensive package for data analysis of dipolar EPR spectroscopy</t>
+  </si>
+  <si>
+    <t>A pulse shaping program for EPR!</t>
+  </si>
+  <si>
+    <t>Package for handling tr-EPR data.</t>
+  </si>
+  <si>
+    <t>Framework for fitting models to (spectroscopic) data.</t>
+  </si>
+  <si>
+    <t>Global Analysis of PELDOR time traces</t>
+  </si>
+  <si>
+    <t>Package for handling optical absorption data.</t>
+  </si>
+  <si>
+    <t>Framework for handling spectroscopic data.</t>
+  </si>
+  <si>
+    <t>Shared tooling for Blueshift research.</t>
+  </si>
+  <si>
+    <t>Convert Gilson CSV files to JSON</t>
+  </si>
+  <si>
+    <t>What's the UV forecast?</t>
+  </si>
+  <si>
+    <t>A simple Python API data from openuv.io</t>
+  </si>
+  <si>
+    <t>Utilities for data taken with the Cosmic Origins Spectrograph on the Hubble Space Telescope</t>
+  </si>
+  <si>
+    <t>Visibility sampler</t>
+  </si>
+  <si>
+    <t>UV-VIS spectra analyzer</t>
+  </si>
+  <si>
+    <t>A simple calculator for cosmic variance</t>
+  </si>
+  <si>
+    <t>Mass/UV Spectral Analysis Program</t>
+  </si>
+  <si>
+    <t>package preprocessing of datasets, especially from spectroscopy</t>
+  </si>
+  <si>
+    <t>Optical Flow file wizard</t>
+  </si>
+  <si>
+    <t>Convert physical spectra to excitation potential in insect eyes</t>
+  </si>
+  <si>
+    <t>A simple Python wrapper around the NIST Chemistry WebBook</t>
+  </si>
+  <si>
+    <t>UVIT safety checks</t>
+  </si>
+  <si>
+    <t>Python library for the analysis UV SO2 camera data</t>
+  </si>
+  <si>
+    <t>Pandas-based toolkit for spectral data analysis, primarily UVVis spectra for now.</t>
+  </si>
+  <si>
+    <t>Python module for RPI USV+ Raspberry Pi - USV+</t>
+  </si>
+  <si>
+    <t>A set of astronomy-related routines for generating Voigt profiles from atomic data, reading and writing data, working with SEDs, passbands and dust extinction laws.</t>
+  </si>
+  <si>
+    <t>CPDseq data analysis</t>
+  </si>
+  <si>
+    <t>Python library for controlling the AquaIllumination range of aquarium lights</t>
+  </si>
+  <si>
+    <t>Stellar Population Inference</t>
+  </si>
+  <si>
+    <t>Supernova Bolometric Lightcurves</t>
+  </si>
+  <si>
+    <t>Python library for importing Wavefront .obj files</t>
+  </si>
+  <si>
+    <t>Acquisition software for wireless flow-through spectrophotometer</t>
+  </si>
+  <si>
+    <t>LSPR-library is a Python 3 scientific package for modelling UV-Vis spectral behaviour of metallic nanoparticle-dieletric composites.</t>
+  </si>
+  <si>
+    <t>Got a spectra? Use this to find what is the observed colour.</t>
+  </si>
+  <si>
+    <t>lspr is a Python 3 scientific package for modelling UV-Vis spectral behaviour of metallic nanoparticle-dieletric composites.</t>
+  </si>
+  <si>
+    <t>lsprlib is a Python 3 scientific package for modelling UV-Vis spectral behaviour of metallic nanoparticle-dieletric composites.</t>
+  </si>
+  <si>
+    <t>Package used to access the LE2P solar database SolarDB</t>
+  </si>
+  <si>
+    <t>light curves from UVIT data</t>
+  </si>
+  <si>
+    <t>PLAneTarY PhOtoevaporation Simulator</t>
+  </si>
+  <si>
+    <t>Astrometry.net solver interface</t>
+  </si>
+  <si>
+    <t>a package for batch processing of spectra-related Gaussian output files</t>
+  </si>
+  <si>
+    <t>Colour Science for Python</t>
+  </si>
+  <si>
+    <t>Python tools for Cassini UVIS data</t>
+  </si>
+  <si>
+    <t>Radio Astronomy Gain and Visibility Inspector</t>
+  </si>
+  <si>
+    <t>Near-Infrared and Visible-Light (NIVL) Dataset</t>
+  </si>
+  <si>
+    <t>SpeX Prism Library Analysis Toolkit</t>
+  </si>
+  <si>
+    <t>Function to evaluate impact of NIR pre-processing techniques on spectral data</t>
+  </si>
+  <si>
+    <t>An MNE compatible package for processing near-infrared spectroscopy data.</t>
+  </si>
+  <si>
+    <t>An NWB extension for storing Near-Infrared Spectroscopy (NIRS) data</t>
+  </si>
+  <si>
+    <t>Some small tool functions for nir</t>
+  </si>
+  <si>
+    <t>Extended NIR Information Content</t>
+  </si>
+  <si>
+    <t>Tools for the REM telescope under SRP</t>
+  </si>
+  <si>
+    <t>Statistical tools under SRP</t>
+  </si>
+  <si>
+    <t>Tools for handling FITS files under SRP</t>
+  </si>
+  <si>
+    <t>Tools for the TNG telescope under SRP</t>
+  </si>
+  <si>
+    <t>Tools for handling GW EM transient search under SRP</t>
+  </si>
+  <si>
+    <t>Astronomical Data Analysis Tools</t>
+  </si>
+  <si>
+    <t>The Python White Dwarf Photometric SED fitter.</t>
+  </si>
+  <si>
+    <t>pPXF: Full Spectrum and SED Fitting of Galactic and Stellar Spectra</t>
+  </si>
+  <si>
+    <t>iSATex is an ideal software package for all uses of Raman microscope and/or FT-IR. Open-source-software development from the researcher’s perspectives would be complementary with the development of the modern analytical geosciences.</t>
+  </si>
+  <si>
+    <t>A Python library to aid in the processing and interpretation of Hyper spectrometric data.</t>
+  </si>
+  <si>
+    <t>File renamer for FTIR files</t>
+  </si>
+  <si>
+    <t>A GUI tool for drawing polynomial backgrounds on FTIR spectra and subtracting them to get total absorbance (by height) of a desired peak.</t>
+  </si>
+  <si>
+    <t>Bruker Opus FTIR spectroscopy clone</t>
+  </si>
+  <si>
+    <t>Reconstruction of sample FTIR data</t>
+  </si>
+  <si>
+    <t>A package for parsing Agilent FTIR asp files</t>
+  </si>
+  <si>
+    <t>Python package that provides a full range of functionality to process and analyze vibrational spectra (Raman, SERS, FTIR, etc.).</t>
+  </si>
+  <si>
+    <t>Parameter fitting for Raman-Rabi electron-nuclear spin flip-flop transitions in NV centers.</t>
+  </si>
+  <si>
+    <t>Python framework for the batch processing and deconvolution of raman spectra.</t>
+  </si>
+  <si>
+    <t>Module for x-axis calibration of Raman spectrometers</t>
+  </si>
+  <si>
+    <t>A program for analyzing vibrational motion and vibrational spectra</t>
+  </si>
+  <si>
+    <t>Analysis of Raman spectral images for plastic content.</t>
+  </si>
+  <si>
+    <t>Kernel Approximation to Raman Spectra</t>
+  </si>
+  <si>
+    <t>RaMix: A Python package for generating Raman Mixture Spectra</t>
+  </si>
+  <si>
+    <t>Broadening and weighting for simulated spectra</t>
+  </si>
+  <si>
+    <t>Perform baseline removal, baseline correction and baseline substraction for raman spectra using Modpoly, ImodPoly and Zhang fit. Returns baseline-subtracted spectrum</t>
+  </si>
+  <si>
+    <t>Hyperspectral package for spectroscopists</t>
+  </si>
+  <si>
+    <t>Hyperspectral imaging (HSI) processing and analysis platform (user interface, UI)</t>
+  </si>
+  <si>
+    <t>Synthesizing and fitting coherent anti-Stokes Raman spectra (CARS) in Python</t>
+  </si>
+  <si>
+    <t>Reading wdf Raman spectroscopy file from Renishaw WiRE</t>
+  </si>
+  <si>
+    <t>A Raman peak finder and model fitter</t>
+  </si>
+  <si>
+    <t>Simple Raman spectrum composition analysis.</t>
+  </si>
+  <si>
+    <t>Analysis of luminescence spectroscopy data with HyperSpy.</t>
+  </si>
+  <si>
+    <t>Hyperspectral data analysis and machine learning</t>
+  </si>
+  <si>
+    <t>Program to display binary SPE files containing Raman spectra</t>
+  </si>
+  <si>
+    <t>This is a python module for automating Raman calculations using GAMESS(us).</t>
+  </si>
+  <si>
+    <t>A Python module containing functions to treat spectroscopic (XANES, Raman, IR...) data</t>
+  </si>
+  <si>
+    <t>A Python package to simplify and accelerate analysis of spectroscopy data</t>
+  </si>
+  <si>
+    <t>spectrai: a deep learning framework for spectral data.</t>
+  </si>
+  <si>
+    <t>A tiny python package for simulating XRF spectra to better understand them</t>
+  </si>
+  <si>
+    <t>Package for fitting XRF spectra. Based on xraylib</t>
+  </si>
+  <si>
+    <t>Toolkit for making and processing X-ray fluoresence simulations via XMI-MSIM</t>
+  </si>
+  <si>
+    <t>Physically corrected projectors for X-ray induced emission CT.</t>
+  </si>
+  <si>
+    <t>SimulatedLIBS provides simple Python class to simulate LIBS spectra with NIST LIBS Database interface</t>
+  </si>
+  <si>
+    <t>A data pipeline for processing XAS data</t>
+  </si>
+  <si>
+    <t>Py Qt package for calculating the proper loading of samples for XAS measurements</t>
+  </si>
+  <si>
+    <t>Tools for analyzing X-ray absorbance spectroscopy data</t>
+  </si>
+  <si>
+    <t>XANES package using jupyter widgets</t>
+  </si>
+  <si>
+    <t>An open source toolkit for simulating RIXS spectra based on ED</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pocketchemist-nmr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmr-sims/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmr-classifier/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/icarus-nmr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/NMR-peaks-picking/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/wwpdb.utils.nmr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/farseernmr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrespy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrglue/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrpy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/masai/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bruker-utils/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/dnplab/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pytnt/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ansurr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ml-jdp4/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrformd/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bdata/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mrinversion/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pynmr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrquant/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/peakfit/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/NMRPySchedule/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mud-py/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nPYc/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/Akvo/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mrsimulator/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/Soprano/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/Pathomx/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SpectraFP/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/isoenum-webgui/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/relaxNMR/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/autoenrich/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pynmranalysis/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/rna-tools/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/penguins/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/hanlab/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmraspecds/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/shiftcrypt/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrgnn/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/flowchem/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrpoise/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/qmdesc/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pygamess/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/NMRPyStar/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/eNMRpy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/django-nmrpro/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/chemometrics/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/DEERPREdict/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nightshift/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrgnn-data/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pynmeagps/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/metabolabpy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/muspinsim/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bccd/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/metabohunter/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pynics/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/jcalc/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/spindata/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mrsprint/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mrainet/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ssfp/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/cctk/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pybaselines/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/RotamerConvolveMD/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyopls/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/epr2md/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyepr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/EPRsimGUI/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/qunetsim/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/spinpy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/cwepr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/EPRsim/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/DeerLab/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/PulseShape/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/trepr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/fitpy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/GloPel/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/uvvispy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/aspecd/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyEPR-quantum/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/exmemo/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/uv-metrics/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/uv2json/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/sunscreen/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyopenuv/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/COS/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/vis-sample/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyspectrum-MTJ/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/hy2glsl/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/galcv/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/Aston/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyPreprocessing/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/flowiz/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bumbleview/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/NistChemPy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/canuvit/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyplis/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/PyUvVis/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/rpi-piusv/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/Barak/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/cpdseqer/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/aquaipy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/astro-prospector/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SuperBoL/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/PyWavefront/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/flowcell/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/lspr-library-Piast-Kolodziej/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/coloured-spectra/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pop-loop/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/lspr/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/lsprlib/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pysolardb/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/curvit/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/platypos/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/astrometry/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/tesliper/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/colour-science/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyuvis/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ragavi/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bob.db.nivl/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/splat/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/NIR-preprocess/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mne-nirs/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ndx-nirs/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nirtools/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/eniric/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.REM/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.STATS/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.FITS/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.TNG/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.GW/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/wdphottools/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ppxf/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/isatex/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/MeisterInSitu/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ftir-renamer/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/FTIR-background-subtract/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ono/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/compressedftir/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/agilentaspparser-egonik/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/boxsers/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/raman-rabi/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/raman-fitting/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/xcal_raman/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyvib2/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/polypython/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/kars/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ramix/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ramkit/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/galore/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/BaselineRemoval/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/spectramap/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/CRIkit2/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/carspy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/renishawWiRE/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/ramanfitter/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/rspec/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/lumispy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/hypers/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/speview/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/autogamess/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/rampy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/spectrapepper/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/spectrai/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/moseley/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/xfit/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/xmimsim/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/corrct/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SimulatedLIBS/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/xas-pipeline/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/catmass/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/xanespy/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/thorondor/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/edrixs/</t>
+  </si>
+  <si>
+    <t>justin@lorieau.com</t>
+  </si>
+  <si>
+    <t>simonhulse@protonmail.com</t>
+  </si>
+  <si>
+    <t>riverkangg@gmail.com</t>
+  </si>
+  <si>
+    <t>vstadnytskyi@gmail.com</t>
+  </si>
+  <si>
+    <t>C.Chao@liverpool.ac.uk</t>
+  </si>
+  <si>
+    <t>ezra.peisach@rcsb.org</t>
+  </si>
+  <si>
+    <t>farseer.nmr@gmail.com</t>
+  </si>
+  <si>
+    <t>simon.hulse@chem.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>jjhelmus@gmail.com</t>
+  </si>
+  <si>
+    <t>johanneicher@gmail.com, j.m.rohwer@gmail.com</t>
+  </si>
+  <si>
+    <t>baskaran@uchc.edu</t>
+  </si>
+  <si>
+    <t>christian.fernandez@ensicaen.fr</t>
+  </si>
+  <si>
+    <t>andrey.smelter@gmail.com</t>
+  </si>
+  <si>
+    <t>sametz@udel.edu</t>
+  </si>
+  <si>
+    <t>wedell@uchc.edu</t>
+  </si>
+  <si>
+    <t>chris.kerr@mykolab.ch</t>
+  </si>
+  <si>
+    <t>nickjfowler0@gmail.com</t>
+  </si>
+  <si>
+    <t>zanardi@inv.rosario-conicet.gov.ar</t>
+  </si>
+  <si>
+    <t>simon.gravelle@live.fr</t>
+  </si>
+  <si>
+    <t>fujimoto@phas.ubc.ca</t>
+  </si>
+  <si>
+    <t>deepansh2012@gmail.com</t>
+  </si>
+  <si>
+    <t>meier.benno@gmail.com</t>
+  </si>
+  <si>
+    <t>legregam@insa-toulouse.fr</t>
+  </si>
+  <si>
+    <t>gbouvignies@gmail.com</t>
+  </si>
+  <si>
+    <t>mfenwick100@gmail.com</t>
+  </si>
+  <si>
+    <t>sergei.a.izmailov@gmail.com</t>
+  </si>
+  <si>
+    <t>phenomecentre@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>madelsuc@unistra.fr</t>
+  </si>
+  <si>
+    <t>koos.zevenhoven@aalto.fi</t>
+  </si>
+  <si>
+    <t>Trevor.Irons@lemmasoftware.org</t>
+  </si>
+  <si>
+    <t>martin.fitzpatrick@gmail.com</t>
+  </si>
+  <si>
+    <t>henri.colaux@normalesup.org</t>
+  </si>
+  <si>
+    <t>srivastava.89@osu.edu</t>
+  </si>
+  <si>
+    <t>simone.sturniolo@stfc.ac.uk</t>
+  </si>
+  <si>
+    <t>jrichardquimica@gmail.com</t>
+  </si>
+  <si>
+    <t>tlinnet@gmail.com</t>
+  </si>
+  <si>
+    <t>Fabien.georget@epfl.ch</t>
+  </si>
+  <si>
+    <t>will.gerrard@bristol.ac.uk</t>
+  </si>
+  <si>
+    <t>vvoelz@gmail.com</t>
+  </si>
+  <si>
+    <t>feressakouhi@gmail.com</t>
+  </si>
+  <si>
+    <t>mag_dex@o2.pl</t>
+  </si>
+  <si>
+    <t>yongrenjie@gmail.com</t>
+  </si>
+  <si>
+    <t>mirjam.schroeder@catalysis.de</t>
+  </si>
+  <si>
+    <t>orlando.gabriele89@gmail.com</t>
+  </si>
+  <si>
+    <t>sokol@insa-toulouse.fr</t>
+  </si>
+  <si>
+    <t>andrew.white@rochester.edu</t>
+  </si>
+  <si>
+    <t>mohamed@kuicr.kyoto-u.ac.jp</t>
+  </si>
+  <si>
+    <t>jacob.brady0449@gmail.com</t>
+  </si>
+  <si>
+    <t>dario.cambie@mpikg.mpg.de, jakob.wolf@mpikg.mpg.de</t>
+  </si>
+  <si>
+    <t>jonathan.yong@chem.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>yanfeig@mit.edu</t>
+  </si>
+  <si>
+    <t>kerolinq@gmail.com</t>
+  </si>
+  <si>
+    <t>nairolf.ackermann@gmail.com</t>
+  </si>
+  <si>
+    <t>henry.orton@anu.edu.au</t>
+  </si>
+  <si>
+    <t>mruedt@icloud.com</t>
+  </si>
+  <si>
+    <t>giulio.tesei@bio.ku.dk</t>
+  </si>
+  <si>
+    <t>fucci.ian@gmail.com</t>
+  </si>
+  <si>
+    <t>semuadmin@semuconsulting.com</t>
+  </si>
+  <si>
+    <t>C.Ludwig@bham.ac.uk</t>
+  </si>
+  <si>
+    <t>simonesturniolo@gmail.com</t>
+  </si>
+  <si>
+    <t>jmfranck@notgiven.com</t>
+  </si>
+  <si>
+    <t>jldemeirelles@gmail.com</t>
+  </si>
+  <si>
+    <t>daniel.pizetta@usp.br</t>
+  </si>
+  <si>
+    <t>wmkouw@gmail.com</t>
+  </si>
+  <si>
+    <t>nicholas.bgp@gmail.com</t>
+  </si>
+  <si>
+    <t>corin.wagen@gmail.com</t>
+  </si>
+  <si>
+    <t>donnie.erb@gmail.com</t>
+  </si>
+  <si>
+    <t>philip.fowler@ndm.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>foose.3@wright.edu</t>
+  </si>
+  <si>
+    <t>humberto.a.sanchez.ii@gmail.com</t>
+  </si>
+  <si>
+    <t>antonio.valentino@tiscali.it</t>
+  </si>
+  <si>
+    <t>stephan.rein@physchem.uni-freiburg.de</t>
+  </si>
+  <si>
+    <t>stephen.diadamo@gmail.com</t>
+  </si>
+  <si>
+    <t>till@till-biskup.de</t>
+  </si>
+  <si>
+    <t>mhtessmer@gmail.com</t>
+  </si>
+  <si>
+    <t>zlatko.minev@aya.yale.edu</t>
+  </si>
+  <si>
+    <t>kale@thekunderts.net</t>
+  </si>
+  <si>
+    <t>samritchie@google.com</t>
+  </si>
+  <si>
+    <t>schanana@wisc.edu</t>
+  </si>
+  <si>
+    <t>jmill@jmill.xyz</t>
+  </si>
+  <si>
+    <t>bachya1208@gmail.com</t>
+  </si>
+  <si>
+    <t>c.w.finn2301@gmail.com</t>
+  </si>
+  <si>
+    <t>rloomis@nrao.edu</t>
+  </si>
+  <si>
+    <t>marcinjaszczykowski@gmail.com</t>
+  </si>
+  <si>
+    <t>tristanC@wombatt.eu</t>
+  </si>
+  <si>
+    <t>atrapp@astro.ucla.edu</t>
+  </si>
+  <si>
+    <t>rbovee@gmail.com</t>
+  </si>
+  <si>
+    <t>alexander.southan@web.de</t>
+  </si>
+  <si>
+    <t>georgegach@outlook.com</t>
+  </si>
+  <si>
+    <t>thomas.huber@evobio.eu</t>
+  </si>
+  <si>
+    <t>ivan.chernyshoff@gmail.com</t>
+  </si>
+  <si>
+    <t>prajwel.pj@gmail.com</t>
+  </si>
+  <si>
+    <t>jonasgliss@gmail.com</t>
+  </si>
+  <si>
+    <t>hughesadam87@gmail.com</t>
+  </si>
+  <si>
+    <t>andreas.motl@terkin.org</t>
+  </si>
+  <si>
+    <t>neilcrighton .at. gmail .dot. com</t>
+  </si>
+  <si>
+    <t>quanhu.sheng.1@vumc.org</t>
+  </si>
+  <si>
+    <t>mcclown@gmail.com</t>
+  </si>
+  <si>
+    <t>benjamin.johnson@cfa.harvard.edu</t>
+  </si>
+  <si>
+    <t>jeremy.lusk@gmail.com</t>
+  </si>
+  <si>
+    <t>kyoder@gmail.com</t>
+  </si>
+  <si>
+    <t>kakoori@gmail.com</t>
+  </si>
+  <si>
+    <t>ewaymao@gmail.com</t>
+  </si>
+  <si>
+    <t>tyjohnson@vmware.com</t>
+  </si>
+  <si>
+    <t>manuparfait@gmail.com</t>
+  </si>
+  <si>
+    <t>prajwel.joseph@gmail.com</t>
+  </si>
+  <si>
+    <t>lketzer@aip.de</t>
+  </si>
+  <si>
+    <t>alexandre.marcireau@gmail.com</t>
+  </si>
+  <si>
+    <t>wieclawmm@gmail.com</t>
+  </si>
+  <si>
+    <t>colour-developers@colour-science.org</t>
+  </si>
+  <si>
+    <t>kmichael.aye@gmail.com</t>
+  </si>
+  <si>
+    <t>andatilexy@gmail.com</t>
+  </si>
+  <si>
+    <t>tiago.pereira@idiap.ch</t>
+  </si>
+  <si>
+    <t>aburgasser@ucsd.edu</t>
+  </si>
+  <si>
+    <t>giverny.robert@usherbrooke.ca, ryan.gosselin@usherbrooke.ca</t>
+  </si>
+  <si>
+    <t>sumner@ae.studio,darin@ae.studio,jose@ae.studio</t>
+  </si>
+  <si>
+    <t>xzhangbx@gmail.com</t>
+  </si>
+  <si>
+    <t>jason.neal@astro.up.pt</t>
+  </si>
+  <si>
+    <t>stefano.covino@inaf.it</t>
+  </si>
+  <si>
+    <t>lam@tau.ac.il</t>
+  </si>
+  <si>
+    <t>michele.cappellari@physics.ox.ac.uk</t>
+  </si>
+  <si>
+    <t>ryo.s1042@gmail.com</t>
+  </si>
+  <si>
+    <t>adam.koziol@canada.ca</t>
+  </si>
+  <si>
+    <t>kaylaiacovino@gmail.com</t>
+  </si>
+  <si>
+    <t>hirschbeutel@gmail.com</t>
+  </si>
+  <si>
+    <t>manuelmarschall@ptb.de</t>
+  </si>
+  <si>
+    <t>gonik@quimica.unlp.edu.ar</t>
+  </si>
+  <si>
+    <t>alexis.lebrun.1@ulaval.ca</t>
+  </si>
+  <si>
+    <t>soumya_ghosh@g.harvard.edu</t>
+  </si>
+  <si>
+    <t>wdz.wallace@protonmail.com</t>
+  </si>
+  <si>
+    <t>roman.kiselew@gmail.com</t>
+  </si>
+  <si>
+    <t>Maxim.Fedorovsky@unifr.ch; mutable@yandex.ru</t>
+  </si>
+  <si>
+    <t>j.levermore@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>ghunt@wm.edu</t>
+  </si>
+  <si>
+    <t>dexter.d.antonio@gmail.com</t>
+  </si>
+  <si>
+    <t>1432440963@qq.com</t>
+  </si>
+  <si>
+    <t>d.scanlon@ucl.ac.uk</t>
+  </si>
+  <si>
+    <t>jmunozbolanos@gmail.com</t>
+  </si>
+  <si>
+    <t>zhiyao.yin@dlr.de</t>
+  </si>
+  <si>
+    <t>tian.tian@chem.ethz.ch</t>
+  </si>
+  <si>
+    <t>&lt;jo.ferrier@northeastern.edu&gt;</t>
+  </si>
+  <si>
+    <t>priyank.shah@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>brianf1996@knights.ucf.edu</t>
+  </si>
+  <si>
+    <t>spectrapepper@gmail.com</t>
+  </si>
+  <si>
+    <t>conor.horgan@kcl.ac.uk</t>
+  </si>
+  <si>
+    <t>frank.ligterink@gmail.com</t>
+  </si>
+  <si>
+    <t>sergio.lins@roma3.infn.it</t>
+  </si>
+  <si>
+    <t>N.R.Vigano@cwi.nl</t>
+  </si>
+  <si>
+    <t>marcin.kastek.stud@pw.edu.pl</t>
+  </si>
+  <si>
+    <t>zliang@bnl.gov</t>
+  </si>
+  <si>
+    <t>ashoff@slac.stanford.edu</t>
+  </si>
+  <si>
+    <t>canismarko@gmail.com</t>
+  </si>
+  <si>
+    <t>david.simonne@synchrotron-soleil.fr, andrea.martini@unito.it</t>
+  </si>
+  <si>
+    <t>yilinwang@bnl.gov</t>
   </si>
 </sst>
 </file>
@@ -2532,12 +4602,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H159"/>
+  <dimension ref="A1:H356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D161" sqref="D161"/>
+      <selection pane="bottomLeft" activeCell="H161" sqref="H161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6480,6 +8550,3293 @@
       </c>
       <c r="G159" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>705</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E162" t="s">
+        <v>38</v>
+      </c>
+      <c r="F162" t="s">
+        <v>879</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>706</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E163" t="s">
+        <v>38</v>
+      </c>
+      <c r="F163" t="s">
+        <v>880</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>707</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="E164" t="s">
+        <v>38</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>708</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E165" t="s">
+        <v>38</v>
+      </c>
+      <c r="F165" t="s">
+        <v>881</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>709</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E166" t="s">
+        <v>38</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>710</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E167" t="s">
+        <v>38</v>
+      </c>
+      <c r="F167" t="s">
+        <v>882</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>711</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="E168" t="s">
+        <v>38</v>
+      </c>
+      <c r="F168" t="s">
+        <v>669</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>712</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E169" t="s">
+        <v>38</v>
+      </c>
+      <c r="F169" t="s">
+        <v>883</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>713</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E170" t="s">
+        <v>38</v>
+      </c>
+      <c r="F170" t="s">
+        <v>884</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>714</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E171" t="s">
+        <v>38</v>
+      </c>
+      <c r="F171" t="s">
+        <v>885</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>715</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E172" t="s">
+        <v>38</v>
+      </c>
+      <c r="F172" t="s">
+        <v>886</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>716</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E173" t="s">
+        <v>38</v>
+      </c>
+      <c r="F173" t="s">
+        <v>887</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>129</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
+        <v>888</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>135</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E175" t="s">
+        <v>38</v>
+      </c>
+      <c r="F175" t="s">
+        <v>889</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>717</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E176" t="s">
+        <v>38</v>
+      </c>
+      <c r="F176" t="s">
+        <v>890</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>718</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E177" t="s">
+        <v>38</v>
+      </c>
+      <c r="F177" t="s">
+        <v>891</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>719</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E178" t="s">
+        <v>38</v>
+      </c>
+      <c r="F178" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>502</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E179" t="s">
+        <v>38</v>
+      </c>
+      <c r="F179" t="s">
+        <v>893</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>720</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E180" t="s">
+        <v>38</v>
+      </c>
+      <c r="F180" t="s">
+        <v>894</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>721</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E181" t="s">
+        <v>38</v>
+      </c>
+      <c r="F181" t="s">
+        <v>895</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>722</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E182" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" t="s">
+        <v>896</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>723</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E183" t="s">
+        <v>38</v>
+      </c>
+      <c r="F183" t="s">
+        <v>897</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>724</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E184" t="s">
+        <v>38</v>
+      </c>
+      <c r="F184" t="s">
+        <v>898</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>725</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E185" t="s">
+        <v>38</v>
+      </c>
+      <c r="F185" t="s">
+        <v>899</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>726</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E186" t="s">
+        <v>38</v>
+      </c>
+      <c r="F186" t="s">
+        <v>900</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>727</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E187" t="s">
+        <v>38</v>
+      </c>
+      <c r="F187" t="s">
+        <v>901</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>728</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E188" t="s">
+        <v>38</v>
+      </c>
+      <c r="F188" t="s">
+        <v>902</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>196</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E189" t="s">
+        <v>38</v>
+      </c>
+      <c r="F189" t="s">
+        <v>903</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>729</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="E190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s">
+        <v>904</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>148</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E191" t="s">
+        <v>38</v>
+      </c>
+      <c r="F191" t="s">
+        <v>905</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>730</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E192" t="s">
+        <v>38</v>
+      </c>
+      <c r="F192" t="s">
+        <v>906</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>731</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E193" t="s">
+        <v>38</v>
+      </c>
+      <c r="F193" t="s">
+        <v>907</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>152</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E194" t="s">
+        <v>38</v>
+      </c>
+      <c r="F194" t="s">
+        <v>908</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>732</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E195" t="s">
+        <v>38</v>
+      </c>
+      <c r="F195" t="s">
+        <v>909</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>156</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E196" t="s">
+        <v>38</v>
+      </c>
+      <c r="F196" t="s">
+        <v>910</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>733</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E197" t="s">
+        <v>38</v>
+      </c>
+      <c r="F197" t="s">
+        <v>911</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>734</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E198" t="s">
+        <v>38</v>
+      </c>
+      <c r="F198" t="s">
+        <v>912</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>346</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E199" t="s">
+        <v>38</v>
+      </c>
+      <c r="F199" t="s">
+        <v>913</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>735</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E200" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" t="s">
+        <v>914</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>736</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E201" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" t="s">
+        <v>915</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>737</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E202" t="s">
+        <v>38</v>
+      </c>
+      <c r="F202" t="s">
+        <v>916</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>738</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E203" t="s">
+        <v>38</v>
+      </c>
+      <c r="F203" t="s">
+        <v>917</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>183</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E204" t="s">
+        <v>38</v>
+      </c>
+      <c r="F204" t="s">
+        <v>918</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>739</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E205" t="s">
+        <v>38</v>
+      </c>
+      <c r="F205" t="s">
+        <v>919</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>740</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E206" t="s">
+        <v>38</v>
+      </c>
+      <c r="F206" t="s">
+        <v>920</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>741</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E207" t="s">
+        <v>38</v>
+      </c>
+      <c r="F207" t="s">
+        <v>187</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>742</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E208" t="s">
+        <v>38</v>
+      </c>
+      <c r="F208" t="s">
+        <v>921</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>743</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E209" t="s">
+        <v>38</v>
+      </c>
+      <c r="F209" t="s">
+        <v>922</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>744</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E210" t="s">
+        <v>38</v>
+      </c>
+      <c r="F210" t="s">
+        <v>923</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>653</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E211" t="s">
+        <v>38</v>
+      </c>
+      <c r="F211" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>745</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E212" t="s">
+        <v>38</v>
+      </c>
+      <c r="F212" t="s">
+        <v>925</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>746</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E213" t="s">
+        <v>38</v>
+      </c>
+      <c r="F213" t="s">
+        <v>926</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>747</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="E214" t="s">
+        <v>38</v>
+      </c>
+      <c r="F214" t="s">
+        <v>927</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>595</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E215" t="s">
+        <v>38</v>
+      </c>
+      <c r="F215" t="s">
+        <v>928</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>748</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E216" t="s">
+        <v>38</v>
+      </c>
+      <c r="F216" t="s">
+        <v>929</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>749</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E217" t="s">
+        <v>38</v>
+      </c>
+      <c r="F217" t="s">
+        <v>930</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>750</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E218" t="s">
+        <v>38</v>
+      </c>
+      <c r="F218" t="s">
+        <v>931</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>751</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219" t="s">
+        <v>932</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>752</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="E220" t="s">
+        <v>38</v>
+      </c>
+      <c r="F220" t="s">
+        <v>933</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>753</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E221" t="s">
+        <v>38</v>
+      </c>
+      <c r="F221" t="s">
+        <v>934</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>754</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E222" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222" t="s">
+        <v>935</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>755</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E223" t="s">
+        <v>38</v>
+      </c>
+      <c r="F223" t="s">
+        <v>936</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>756</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E224" t="s">
+        <v>38</v>
+      </c>
+      <c r="F224" t="s">
+        <v>937</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>160</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E225" t="s">
+        <v>38</v>
+      </c>
+      <c r="F225" t="s">
+        <v>938</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>757</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="E226" t="s">
+        <v>38</v>
+      </c>
+      <c r="F226" t="s">
+        <v>939</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>758</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E227" t="s">
+        <v>38</v>
+      </c>
+      <c r="F227" t="s">
+        <v>940</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>759</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E228" t="s">
+        <v>38</v>
+      </c>
+      <c r="F228" t="s">
+        <v>941</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>760</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E229" t="s">
+        <v>38</v>
+      </c>
+      <c r="F229" t="s">
+        <v>942</v>
+      </c>
+      <c r="H229" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>761</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E230" t="s">
+        <v>38</v>
+      </c>
+      <c r="F230" t="s">
+        <v>943</v>
+      </c>
+      <c r="H230" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>762</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E231" t="s">
+        <v>38</v>
+      </c>
+      <c r="F231" t="s">
+        <v>944</v>
+      </c>
+      <c r="H231" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>763</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E232" t="s">
+        <v>38</v>
+      </c>
+      <c r="F232" t="s">
+        <v>945</v>
+      </c>
+      <c r="H232" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>764</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="E233" t="s">
+        <v>38</v>
+      </c>
+      <c r="F233" t="s">
+        <v>946</v>
+      </c>
+      <c r="H233" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>765</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E234" t="s">
+        <v>38</v>
+      </c>
+      <c r="F234" t="s">
+        <v>947</v>
+      </c>
+      <c r="H234" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>199</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E235" t="s">
+        <v>38</v>
+      </c>
+      <c r="F235" t="s">
+        <v>948</v>
+      </c>
+      <c r="H235" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>766</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E236" t="s">
+        <v>38</v>
+      </c>
+      <c r="F236" t="s">
+        <v>949</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>767</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237" t="s">
+        <v>950</v>
+      </c>
+      <c r="H237" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>768</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="E238" t="s">
+        <v>38</v>
+      </c>
+      <c r="F238" t="s">
+        <v>951</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>769</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E239" t="s">
+        <v>38</v>
+      </c>
+      <c r="F239" t="s">
+        <v>952</v>
+      </c>
+      <c r="H239" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>770</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240" t="s">
+        <v>953</v>
+      </c>
+      <c r="H240" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>771</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="E241" t="s">
+        <v>38</v>
+      </c>
+      <c r="F241" t="s">
+        <v>954</v>
+      </c>
+      <c r="H241" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>772</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E242" t="s">
+        <v>38</v>
+      </c>
+      <c r="F242" t="s">
+        <v>955</v>
+      </c>
+      <c r="H242" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>773</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E243" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243" t="s">
+        <v>956</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>774</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="E244" t="s">
+        <v>38</v>
+      </c>
+      <c r="F244" t="s">
+        <v>957</v>
+      </c>
+      <c r="H244" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>775</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E245" t="s">
+        <v>38</v>
+      </c>
+      <c r="F245" t="s">
+        <v>958</v>
+      </c>
+      <c r="H245" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>776</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246" t="s">
+        <v>959</v>
+      </c>
+      <c r="H246" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>777</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="E247" t="s">
+        <v>38</v>
+      </c>
+      <c r="F247" t="s">
+        <v>960</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>778</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E248" t="s">
+        <v>38</v>
+      </c>
+      <c r="F248" t="s">
+        <v>961</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>779</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E249" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249" t="s">
+        <v>962</v>
+      </c>
+      <c r="H249" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>780</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E250" t="s">
+        <v>38</v>
+      </c>
+      <c r="F250" t="s">
+        <v>963</v>
+      </c>
+      <c r="H250" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>781</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E251" t="s">
+        <v>38</v>
+      </c>
+      <c r="F251" t="s">
+        <v>964</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>599</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="E252" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252" t="s">
+        <v>965</v>
+      </c>
+      <c r="H252" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>782</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E253" t="s">
+        <v>38</v>
+      </c>
+      <c r="F253" t="s">
+        <v>966</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>651</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E254" t="s">
+        <v>38</v>
+      </c>
+      <c r="F254" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>783</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="E255" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255" t="s">
+        <v>968</v>
+      </c>
+      <c r="H255" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>784</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E256" t="s">
+        <v>38</v>
+      </c>
+      <c r="F256" t="s">
+        <v>969</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>785</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E257" t="s">
+        <v>38</v>
+      </c>
+      <c r="F257" t="s">
+        <v>970</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>786</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E258" t="s">
+        <v>38</v>
+      </c>
+      <c r="F258" t="s">
+        <v>971</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>787</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E259" t="s">
+        <v>38</v>
+      </c>
+      <c r="F259" t="s">
+        <v>972</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>788</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E260" t="s">
+        <v>38</v>
+      </c>
+      <c r="F260" t="s">
+        <v>973</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>789</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E261" t="s">
+        <v>38</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>790</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="E262" t="s">
+        <v>38</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>791</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E263" t="s">
+        <v>38</v>
+      </c>
+      <c r="F263" t="s">
+        <v>974</v>
+      </c>
+      <c r="H263" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>792</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E264" t="s">
+        <v>38</v>
+      </c>
+      <c r="F264" t="s">
+        <v>975</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>793</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E265" t="s">
+        <v>38</v>
+      </c>
+      <c r="F265" t="s">
+        <v>976</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>794</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="E266" t="s">
+        <v>38</v>
+      </c>
+      <c r="F266" t="s">
+        <v>977</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>795</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="E267" t="s">
+        <v>38</v>
+      </c>
+      <c r="F267" t="s">
+        <v>978</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>796</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E268" t="s">
+        <v>38</v>
+      </c>
+      <c r="F268" t="s">
+        <v>979</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>797</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E269" t="s">
+        <v>38</v>
+      </c>
+      <c r="F269" t="s">
+        <v>980</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>798</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E270" t="s">
+        <v>38</v>
+      </c>
+      <c r="H270" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>799</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E271" t="s">
+        <v>38</v>
+      </c>
+      <c r="F271" t="s">
+        <v>981</v>
+      </c>
+      <c r="H271" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>800</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E272" t="s">
+        <v>38</v>
+      </c>
+      <c r="F272" t="s">
+        <v>982</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>801</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E273" t="s">
+        <v>38</v>
+      </c>
+      <c r="F273" t="s">
+        <v>983</v>
+      </c>
+      <c r="H273" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>802</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="E274" t="s">
+        <v>38</v>
+      </c>
+      <c r="F274" t="s">
+        <v>984</v>
+      </c>
+      <c r="H274" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>803</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E275" t="s">
+        <v>38</v>
+      </c>
+      <c r="F275" t="s">
+        <v>985</v>
+      </c>
+      <c r="H275" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>804</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E276" t="s">
+        <v>38</v>
+      </c>
+      <c r="F276" t="s">
+        <v>986</v>
+      </c>
+      <c r="H276" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>805</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E277" t="s">
+        <v>38</v>
+      </c>
+      <c r="F277" t="s">
+        <v>987</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>806</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E278" t="s">
+        <v>38</v>
+      </c>
+      <c r="F278" t="s">
+        <v>988</v>
+      </c>
+      <c r="H278" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>807</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E279" t="s">
+        <v>38</v>
+      </c>
+      <c r="F279" t="s">
+        <v>989</v>
+      </c>
+      <c r="H279" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>808</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E280" t="s">
+        <v>38</v>
+      </c>
+      <c r="F280" t="s">
+        <v>990</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>809</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E281" t="s">
+        <v>38</v>
+      </c>
+      <c r="F281" t="s">
+        <v>991</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>810</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E282" t="s">
+        <v>38</v>
+      </c>
+      <c r="F282" t="s">
+        <v>992</v>
+      </c>
+      <c r="H282" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>811</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E283" t="s">
+        <v>38</v>
+      </c>
+      <c r="F283" t="s">
+        <v>993</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>812</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E284" t="s">
+        <v>38</v>
+      </c>
+      <c r="F284" t="s">
+        <v>994</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>813</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E285" t="s">
+        <v>38</v>
+      </c>
+      <c r="F285" t="s">
+        <v>995</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>814</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E286" t="s">
+        <v>38</v>
+      </c>
+      <c r="F286" t="s">
+        <v>996</v>
+      </c>
+      <c r="H286" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>815</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E287" t="s">
+        <v>38</v>
+      </c>
+      <c r="F287" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>816</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E288" t="s">
+        <v>38</v>
+      </c>
+      <c r="F288" t="s">
+        <v>998</v>
+      </c>
+      <c r="H288" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>817</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E289" t="s">
+        <v>38</v>
+      </c>
+      <c r="F289" t="s">
+        <v>999</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>818</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E290" t="s">
+        <v>38</v>
+      </c>
+      <c r="H290" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>819</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E291" t="s">
+        <v>38</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H291" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>820</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="E292" t="s">
+        <v>38</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1001</v>
+      </c>
+      <c r="H292" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>821</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E293" t="s">
+        <v>38</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1002</v>
+      </c>
+      <c r="H293" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>320</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E294" t="s">
+        <v>38</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H294" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>822</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E295" t="s">
+        <v>38</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H295" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>823</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E296" t="s">
+        <v>38</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1005</v>
+      </c>
+      <c r="H296" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>824</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="E297" t="s">
+        <v>38</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H297" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>825</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E298" t="s">
+        <v>38</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H298" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>826</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E299" t="s">
+        <v>38</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H299" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>827</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E300" t="s">
+        <v>38</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H300" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>828</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E301" t="s">
+        <v>38</v>
+      </c>
+      <c r="F301" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H301" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>829</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="E302" t="s">
+        <v>38</v>
+      </c>
+      <c r="F302" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H302" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>830</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E303" t="s">
+        <v>38</v>
+      </c>
+      <c r="F303" t="s">
+        <v>1012</v>
+      </c>
+      <c r="H303" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>831</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E304" t="s">
+        <v>38</v>
+      </c>
+      <c r="F304" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>832</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E305" t="s">
+        <v>38</v>
+      </c>
+      <c r="F305" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H305" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>833</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E306" t="s">
+        <v>38</v>
+      </c>
+      <c r="F306" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H306" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>834</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E307" t="s">
+        <v>38</v>
+      </c>
+      <c r="F307" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H307" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>835</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E308" t="s">
+        <v>38</v>
+      </c>
+      <c r="F308" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H308" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>836</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E309" t="s">
+        <v>38</v>
+      </c>
+      <c r="F309" t="s">
+        <v>1018</v>
+      </c>
+      <c r="H309" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>837</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E310" t="s">
+        <v>38</v>
+      </c>
+      <c r="F310" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H310" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>838</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E311" t="s">
+        <v>38</v>
+      </c>
+      <c r="F311" t="s">
+        <v>1020</v>
+      </c>
+      <c r="H311" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>839</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E312" t="s">
+        <v>38</v>
+      </c>
+      <c r="F312" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H312" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>840</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E313" t="s">
+        <v>38</v>
+      </c>
+      <c r="F313" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H313" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>841</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E314" t="s">
+        <v>38</v>
+      </c>
+      <c r="F314" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H314" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>842</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E315" t="s">
+        <v>38</v>
+      </c>
+      <c r="F315" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H315" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>843</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E316" t="s">
+        <v>38</v>
+      </c>
+      <c r="F316" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H316" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>844</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E317" t="s">
+        <v>38</v>
+      </c>
+      <c r="F317" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>845</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E318" t="s">
+        <v>38</v>
+      </c>
+      <c r="F318" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H318" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>846</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E319" t="s">
+        <v>38</v>
+      </c>
+      <c r="F319" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H319" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>847</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="E320" t="s">
+        <v>38</v>
+      </c>
+      <c r="F320" t="s">
+        <v>1029</v>
+      </c>
+      <c r="H320" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>848</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E321" t="s">
+        <v>38</v>
+      </c>
+      <c r="F321" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H321" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>849</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E322" t="s">
+        <v>38</v>
+      </c>
+      <c r="F322" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H322" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>850</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E323" t="s">
+        <v>38</v>
+      </c>
+      <c r="F323" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H323" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>851</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E324" t="s">
+        <v>38</v>
+      </c>
+      <c r="F324" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H324" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>627</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E325" t="s">
+        <v>38</v>
+      </c>
+      <c r="F325" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H325" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>852</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E326" t="s">
+        <v>38</v>
+      </c>
+      <c r="F326" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H326" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>853</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E327" t="s">
+        <v>38</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1036</v>
+      </c>
+      <c r="H327" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>854</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E328" t="s">
+        <v>38</v>
+      </c>
+      <c r="F328" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H328" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>855</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E329" t="s">
+        <v>38</v>
+      </c>
+      <c r="F329" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H329" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>856</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E330" t="s">
+        <v>38</v>
+      </c>
+      <c r="F330" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H330" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>630</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E331" t="s">
+        <v>38</v>
+      </c>
+      <c r="F331" t="s">
+        <v>672</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>857</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E332" t="s">
+        <v>38</v>
+      </c>
+      <c r="F332" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H332" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>624</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E333" t="s">
+        <v>38</v>
+      </c>
+      <c r="F333" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>858</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E334" t="s">
+        <v>38</v>
+      </c>
+      <c r="F334" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H334" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>310</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E335" t="s">
+        <v>38</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H335" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>859</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E336" t="s">
+        <v>38</v>
+      </c>
+      <c r="F336" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H336" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>860</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E337" t="s">
+        <v>38</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1045</v>
+      </c>
+      <c r="H337" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>861</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E338" t="s">
+        <v>38</v>
+      </c>
+      <c r="F338" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H338" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>862</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E339" t="s">
+        <v>38</v>
+      </c>
+      <c r="F339" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>863</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E340" t="s">
+        <v>38</v>
+      </c>
+      <c r="F340" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>864</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E341" t="s">
+        <v>38</v>
+      </c>
+      <c r="F341" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H341" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>865</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E342" t="s">
+        <v>38</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H342" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>866</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E343" t="s">
+        <v>38</v>
+      </c>
+      <c r="F343" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H343" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>622</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E344" t="s">
+        <v>38</v>
+      </c>
+      <c r="F344" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H344" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>867</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E345" t="s">
+        <v>38</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H345" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>868</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E346" t="s">
+        <v>38</v>
+      </c>
+      <c r="F346" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H346" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>869</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E347" t="s">
+        <v>38</v>
+      </c>
+      <c r="F347" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H347" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>870</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E348" t="s">
+        <v>38</v>
+      </c>
+      <c r="F348" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H348" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>871</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E349" t="s">
+        <v>38</v>
+      </c>
+      <c r="F349" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>872</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E350" t="s">
+        <v>38</v>
+      </c>
+      <c r="F350" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H350" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>873</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E351" t="s">
+        <v>38</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H351" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>874</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E352" t="s">
+        <v>38</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>875</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E353" t="s">
+        <v>38</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H353" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>876</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E354" t="s">
+        <v>38</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H354" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>877</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E355" t="s">
+        <v>38</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H355" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>878</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E356" t="s">
+        <v>38</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1064</v>
+      </c>
+      <c r="H356" t="s">
+        <v>1394</v>
       </c>
     </row>
   </sheetData>
@@ -6771,6 +12128,201 @@
     <hyperlink ref="C158" r:id="rId285" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
     <hyperlink ref="C159" r:id="rId286" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
     <hyperlink ref="C140" r:id="rId287" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
+    <hyperlink ref="C162" r:id="rId288" xr:uid="{F234784D-26C2-A545-B685-EF602C8D974F}"/>
+    <hyperlink ref="C163" r:id="rId289" xr:uid="{0CF53428-4492-AE40-9C02-9FABA2BA0D3B}"/>
+    <hyperlink ref="C164" r:id="rId290" xr:uid="{1AB3A55B-E07B-D049-A8E2-ACBF8D24C517}"/>
+    <hyperlink ref="C165" r:id="rId291" xr:uid="{23DCDC2D-54DE-724B-A630-ACE767C4EB17}"/>
+    <hyperlink ref="C166" r:id="rId292" xr:uid="{F9EB7201-59BB-4D47-839B-041776F9C1FA}"/>
+    <hyperlink ref="C167" r:id="rId293" xr:uid="{7CA0D7D8-2C06-7C49-AFEF-BE95D56D90FC}"/>
+    <hyperlink ref="C168" r:id="rId294" xr:uid="{51CEC3F8-A5BE-E547-B71D-CC10D554040F}"/>
+    <hyperlink ref="C169" r:id="rId295" xr:uid="{6E42F66B-4B80-564E-8A39-545051468745}"/>
+    <hyperlink ref="C170" r:id="rId296" xr:uid="{9FD20705-64E6-F943-9F6E-9A4224DB91A3}"/>
+    <hyperlink ref="C171" r:id="rId297" xr:uid="{D200C44B-A95E-434E-B96F-F097A5CB9796}"/>
+    <hyperlink ref="C172" r:id="rId298" xr:uid="{6C870BBD-0FCA-4E4D-8C04-64F66A4CDDBD}"/>
+    <hyperlink ref="C173" r:id="rId299" xr:uid="{507AF2FE-9EB8-754F-A20E-D289D4831174}"/>
+    <hyperlink ref="C174" r:id="rId300" xr:uid="{1ED2C2C1-C720-7240-990E-D8917D3B4931}"/>
+    <hyperlink ref="C175" r:id="rId301" xr:uid="{56853F2B-5BCE-E741-8585-248737D355AA}"/>
+    <hyperlink ref="C176" r:id="rId302" xr:uid="{13618F8B-EF5F-744B-92F0-4F8047208B03}"/>
+    <hyperlink ref="C177" r:id="rId303" xr:uid="{369A99E5-8534-484F-9378-38EA1F763D49}"/>
+    <hyperlink ref="C178" r:id="rId304" xr:uid="{D695E7C4-97E9-D04C-8BB8-270540F10574}"/>
+    <hyperlink ref="C179" r:id="rId305" xr:uid="{2D1C622C-D503-0C4A-BF80-4D1EA7FF75C6}"/>
+    <hyperlink ref="C180" r:id="rId306" xr:uid="{E20BE2D2-5FEA-8448-A28A-EF91BC60FE7E}"/>
+    <hyperlink ref="C181" r:id="rId307" xr:uid="{F755E08D-37B2-7740-8B78-61FD6A0062F8}"/>
+    <hyperlink ref="C182" r:id="rId308" xr:uid="{DE03D456-C44C-C442-8758-FF0ADB5910C9}"/>
+    <hyperlink ref="C183" r:id="rId309" xr:uid="{DD51AED9-A8BF-E340-A7B8-574926029C7A}"/>
+    <hyperlink ref="C184" r:id="rId310" xr:uid="{4106DA73-80ED-0C48-9333-CF22AD9B453B}"/>
+    <hyperlink ref="C185" r:id="rId311" xr:uid="{24AA6FBD-DA03-1641-9CCE-C4125E436587}"/>
+    <hyperlink ref="C186" r:id="rId312" xr:uid="{671C41C7-BBE6-6244-AC5F-C2D5050A9976}"/>
+    <hyperlink ref="C187" r:id="rId313" xr:uid="{6AFBA8FD-A0FB-4048-8439-B8704E971EBB}"/>
+    <hyperlink ref="C188" r:id="rId314" xr:uid="{0A61AD93-54F4-B64C-A125-A39B41D20037}"/>
+    <hyperlink ref="C189" r:id="rId315" xr:uid="{B21EB3D6-55DF-A648-99FE-B9174BEB51CF}"/>
+    <hyperlink ref="C190" r:id="rId316" xr:uid="{EDD64D5C-42F2-1944-868E-02CE17E0C28C}"/>
+    <hyperlink ref="C191" r:id="rId317" xr:uid="{77C736A7-9C96-1A46-8E99-310C36CA7E65}"/>
+    <hyperlink ref="C192" r:id="rId318" xr:uid="{B3917C2F-E377-4A4F-972C-9FF6D6015812}"/>
+    <hyperlink ref="C193" r:id="rId319" xr:uid="{76E6FFD7-9F09-F545-9058-D27B73251ABF}"/>
+    <hyperlink ref="C194" r:id="rId320" xr:uid="{9ADE58D5-16AC-DC4F-A820-2981CD2C5EE1}"/>
+    <hyperlink ref="C195" r:id="rId321" xr:uid="{8D033399-8CBD-724D-80CD-C7397C3C2A0F}"/>
+    <hyperlink ref="C196" r:id="rId322" xr:uid="{48C75822-E1FC-964F-93B2-D136B99E4D70}"/>
+    <hyperlink ref="C197" r:id="rId323" xr:uid="{134186B5-6884-A840-AF53-70B9A62C42D6}"/>
+    <hyperlink ref="C198" r:id="rId324" xr:uid="{F189FB3D-7F71-F049-9FF0-A228A965B4D8}"/>
+    <hyperlink ref="C199" r:id="rId325" xr:uid="{01B1B80B-C304-4D4F-A53E-AB4D0EE61624}"/>
+    <hyperlink ref="C200" r:id="rId326" xr:uid="{0584C0BE-E31E-A342-AAE3-E055C38FCCFA}"/>
+    <hyperlink ref="C201" r:id="rId327" xr:uid="{25BAE983-43B9-7347-BCDE-41631F665A33}"/>
+    <hyperlink ref="C202" r:id="rId328" xr:uid="{F690EC01-0A49-E548-9E56-0EACEA75EA38}"/>
+    <hyperlink ref="C203" r:id="rId329" xr:uid="{CC615432-D5BF-BB46-B26A-0969EE7EE450}"/>
+    <hyperlink ref="C204" r:id="rId330" xr:uid="{7F51F9C1-398D-9749-A281-E22D1309A30E}"/>
+    <hyperlink ref="C205" r:id="rId331" xr:uid="{64214232-7C7F-8444-9AAC-0A4BBD3AF2D1}"/>
+    <hyperlink ref="C206" r:id="rId332" xr:uid="{79CC5709-5164-D842-A231-3ED31232A7E1}"/>
+    <hyperlink ref="C207" r:id="rId333" xr:uid="{7AF546D0-B342-424F-A68E-944E05062E8A}"/>
+    <hyperlink ref="C208" r:id="rId334" xr:uid="{0050ED55-AE7F-E64C-87FF-712ACBB46C7D}"/>
+    <hyperlink ref="C209" r:id="rId335" xr:uid="{C70148A5-1E01-B946-B234-609DB6F4FE82}"/>
+    <hyperlink ref="C210" r:id="rId336" xr:uid="{83754876-42D8-E74F-91FA-9CECBBAC6924}"/>
+    <hyperlink ref="C211" r:id="rId337" xr:uid="{EFF3BBC7-6CB9-1B4A-9D45-2DF23F43E01F}"/>
+    <hyperlink ref="C212" r:id="rId338" xr:uid="{5CDEBDE8-CB9F-A446-A90B-F269A0EAC934}"/>
+    <hyperlink ref="C213" r:id="rId339" xr:uid="{AE9DBFC6-79D8-3440-85B4-0D83ED79C454}"/>
+    <hyperlink ref="C214" r:id="rId340" xr:uid="{CD0E4248-B117-FC4F-B7DF-6DFD2C5DD988}"/>
+    <hyperlink ref="C215" r:id="rId341" xr:uid="{A77B36B6-3F83-8C44-A150-3A0BA8F53662}"/>
+    <hyperlink ref="C216" r:id="rId342" xr:uid="{A68C505D-29A1-AB46-8A1B-05349FAF5F67}"/>
+    <hyperlink ref="C217" r:id="rId343" xr:uid="{6BC3F143-2C0C-5A43-A2B3-1FC49CBBB880}"/>
+    <hyperlink ref="C218" r:id="rId344" xr:uid="{DB6A8D8B-B3D6-0149-A778-796337DC13C4}"/>
+    <hyperlink ref="C219" r:id="rId345" xr:uid="{337A6E39-03DD-064F-BF1E-FA6674858C0B}"/>
+    <hyperlink ref="C220" r:id="rId346" xr:uid="{79E74D5C-D094-9046-820E-DA48426AC9E8}"/>
+    <hyperlink ref="C221" r:id="rId347" xr:uid="{06AF5C80-F29C-514F-9BC9-4FFB517439FD}"/>
+    <hyperlink ref="C222" r:id="rId348" xr:uid="{8D3B4445-BD15-E441-B13B-E90EAF62DA8E}"/>
+    <hyperlink ref="C223" r:id="rId349" xr:uid="{F8DCC388-ABD3-2544-8E1A-8EAF5A2DAA9C}"/>
+    <hyperlink ref="C224" r:id="rId350" xr:uid="{4F0AD3AF-1A05-EC4A-BE94-E4328BBE2188}"/>
+    <hyperlink ref="C225" r:id="rId351" xr:uid="{BC6EE541-680A-884F-958C-C07EA84B94D8}"/>
+    <hyperlink ref="C226" r:id="rId352" xr:uid="{DD1C41B7-F12D-0B4A-807D-2D572F6BC0DA}"/>
+    <hyperlink ref="C227" r:id="rId353" xr:uid="{6BA1AC47-DE3E-7546-93C2-2D78745618A1}"/>
+    <hyperlink ref="C228" r:id="rId354" xr:uid="{456B4E6A-BAF0-1C4B-A5A2-33029913A11F}"/>
+    <hyperlink ref="C229" r:id="rId355" xr:uid="{2C043921-9DF3-D14E-9973-9F6D1A377B1D}"/>
+    <hyperlink ref="C230" r:id="rId356" xr:uid="{E95B1D90-4730-BF47-B0B3-0E0FF8C694C3}"/>
+    <hyperlink ref="C231" r:id="rId357" xr:uid="{AB596C81-A2E4-D84E-97FF-F4EDC38B3AB7}"/>
+    <hyperlink ref="C232" r:id="rId358" xr:uid="{6925BDA1-8306-C94C-B344-AC929606B70C}"/>
+    <hyperlink ref="C233" r:id="rId359" xr:uid="{0F05069D-ABED-0E43-8BDF-53252E24A411}"/>
+    <hyperlink ref="C234" r:id="rId360" xr:uid="{93BBA4AD-9E53-6C43-AE59-935C16F19153}"/>
+    <hyperlink ref="C235" r:id="rId361" xr:uid="{F1F6DFAC-7F73-E242-80A6-0A54A6B92CBA}"/>
+    <hyperlink ref="C236" r:id="rId362" xr:uid="{2B979D45-F5FD-A54F-886F-C8E41EB241BE}"/>
+    <hyperlink ref="C237" r:id="rId363" xr:uid="{A4B83D25-A914-374B-AC70-67BC2B213C2A}"/>
+    <hyperlink ref="C238" r:id="rId364" xr:uid="{BEAC89B1-23D7-1C49-BE89-07DE055DA511}"/>
+    <hyperlink ref="C239" r:id="rId365" xr:uid="{F533F9B9-2BCF-A847-AC92-C786DBA1CF4B}"/>
+    <hyperlink ref="C240" r:id="rId366" xr:uid="{0887BEF7-8E9F-8E40-865A-E6208BFEC7A5}"/>
+    <hyperlink ref="C241" r:id="rId367" xr:uid="{D720B0AA-A048-4C48-ACA4-C43EC1BCE4D1}"/>
+    <hyperlink ref="C242" r:id="rId368" xr:uid="{6C8BEC30-39CE-A548-BBDD-73A01B452059}"/>
+    <hyperlink ref="C243" r:id="rId369" xr:uid="{551C17B0-ED30-4949-8F26-F7C05B760575}"/>
+    <hyperlink ref="C244" r:id="rId370" xr:uid="{85FCE497-9E96-6648-867F-752AA283D510}"/>
+    <hyperlink ref="C245" r:id="rId371" xr:uid="{1AAEBCC4-F3CF-B741-84AE-1ADE742EF997}"/>
+    <hyperlink ref="C246" r:id="rId372" xr:uid="{7996D8BA-FD41-974A-83AB-D0198DC548E8}"/>
+    <hyperlink ref="C247" r:id="rId373" xr:uid="{14E87E96-A8B8-A741-9178-8C2FA53B6675}"/>
+    <hyperlink ref="C248" r:id="rId374" xr:uid="{0FA00837-6501-5E47-A317-11707FC0CFCC}"/>
+    <hyperlink ref="C249" r:id="rId375" xr:uid="{DC285ABB-FFFF-B746-959F-B7CD39B06C65}"/>
+    <hyperlink ref="C250" r:id="rId376" xr:uid="{C2A0F262-7869-5941-8CCF-CBEB3C694583}"/>
+    <hyperlink ref="C251" r:id="rId377" xr:uid="{7B74140A-518A-064B-8698-98B12FE41E38}"/>
+    <hyperlink ref="C252" r:id="rId378" xr:uid="{31C21428-23CD-1248-9600-4BC53AA38247}"/>
+    <hyperlink ref="C253" r:id="rId379" xr:uid="{7E53B034-A275-964B-982C-487F23B0764D}"/>
+    <hyperlink ref="C254" r:id="rId380" xr:uid="{623DBC13-B870-044F-B8D7-5253BA9C833D}"/>
+    <hyperlink ref="C255" r:id="rId381" xr:uid="{23E998B0-82F6-E345-9B49-988EB13C59DF}"/>
+    <hyperlink ref="C256" r:id="rId382" xr:uid="{9A551CBC-6E0D-CF40-9A3C-3D3069EF4378}"/>
+    <hyperlink ref="C257" r:id="rId383" xr:uid="{43C3B803-5A07-A642-8293-EBD66D59834D}"/>
+    <hyperlink ref="C258" r:id="rId384" xr:uid="{31EDEE6A-D8E5-8C48-87E9-064EB36F385C}"/>
+    <hyperlink ref="C259" r:id="rId385" xr:uid="{F9240DAF-1152-804D-82D6-CD96D548238C}"/>
+    <hyperlink ref="C260" r:id="rId386" xr:uid="{DD79C80C-1BE5-F149-88DD-8DA5369DFCAD}"/>
+    <hyperlink ref="C261" r:id="rId387" xr:uid="{3ADF7379-9DF9-F84D-B8B1-18CD416FC364}"/>
+    <hyperlink ref="C262" r:id="rId388" xr:uid="{EE4D3A36-D2E9-864D-8E61-836D3177D64B}"/>
+    <hyperlink ref="C263" r:id="rId389" xr:uid="{340626B6-3194-C548-9117-A83C5C407436}"/>
+    <hyperlink ref="C264" r:id="rId390" xr:uid="{86F4B52B-FF84-6F4D-BE99-0BF4FF770F26}"/>
+    <hyperlink ref="C265" r:id="rId391" xr:uid="{4EEE142D-445D-C441-B038-1E53824FC1F1}"/>
+    <hyperlink ref="C266" r:id="rId392" xr:uid="{163806AC-B617-CE46-B09A-A5B8F58DF2E0}"/>
+    <hyperlink ref="C267" r:id="rId393" xr:uid="{3C8B4461-1764-EB45-9B4E-7601DDDCCC49}"/>
+    <hyperlink ref="C268" r:id="rId394" xr:uid="{86107E1C-CB2B-5F49-A588-01476F6933BE}"/>
+    <hyperlink ref="C269" r:id="rId395" xr:uid="{01AC9EDC-119F-3F46-AA6E-4BBA099EC482}"/>
+    <hyperlink ref="C270" r:id="rId396" xr:uid="{62811E33-9DD8-2545-9836-7C2F0B4186E5}"/>
+    <hyperlink ref="C271" r:id="rId397" xr:uid="{1E695CF7-9C38-724E-A2C0-283FB1D15D4A}"/>
+    <hyperlink ref="C272" r:id="rId398" xr:uid="{DA23717E-ECD7-6A4D-AEFC-26360D99238E}"/>
+    <hyperlink ref="C273" r:id="rId399" xr:uid="{B0E436A7-E831-8E4C-9EAC-5207B2FC9DA3}"/>
+    <hyperlink ref="C274" r:id="rId400" xr:uid="{A4A4E5B2-96B2-C141-A475-99D6615A5CD4}"/>
+    <hyperlink ref="C275" r:id="rId401" xr:uid="{7380EDDC-BF62-9F49-81AE-AEF5C2E601F1}"/>
+    <hyperlink ref="C276" r:id="rId402" xr:uid="{945AD53A-A851-EB4A-B3AC-9B72897828BE}"/>
+    <hyperlink ref="C277" r:id="rId403" xr:uid="{55FE2D1E-0CA9-194A-BEB5-288518C178C5}"/>
+    <hyperlink ref="C278" r:id="rId404" xr:uid="{20CBD67F-B44E-5944-ABA1-B4AB59B555D7}"/>
+    <hyperlink ref="C279" r:id="rId405" xr:uid="{D7CAD239-ACAE-4A46-B7EF-A38B35ABCD33}"/>
+    <hyperlink ref="C280" r:id="rId406" xr:uid="{F7B5DBCC-BC2B-A944-9984-8828AAD2BBEE}"/>
+    <hyperlink ref="C281" r:id="rId407" xr:uid="{DF127D60-F014-F24D-A524-2FB6014F32B4}"/>
+    <hyperlink ref="C282" r:id="rId408" xr:uid="{5B30CCE5-6BBE-344A-BFCF-9E4E466F20AC}"/>
+    <hyperlink ref="C283" r:id="rId409" xr:uid="{4F9EBA02-6527-C548-AD1C-C470931F88EE}"/>
+    <hyperlink ref="C284" r:id="rId410" xr:uid="{FAEF4F3C-0C71-C542-B31C-BDECF30F1ABE}"/>
+    <hyperlink ref="C285" r:id="rId411" xr:uid="{822A572D-71F9-8744-91A0-1D07A6FC2429}"/>
+    <hyperlink ref="C286" r:id="rId412" xr:uid="{53DB8218-2971-1445-952A-9243576316E1}"/>
+    <hyperlink ref="C287" r:id="rId413" xr:uid="{40917AC7-A0FC-D14C-84D6-B8D08BC12BB3}"/>
+    <hyperlink ref="C288" r:id="rId414" xr:uid="{16789C92-8D31-CA42-A3C5-F457DE323071}"/>
+    <hyperlink ref="C289" r:id="rId415" xr:uid="{C9BB414A-D34A-A743-8C91-1506BC729AF1}"/>
+    <hyperlink ref="C290" r:id="rId416" xr:uid="{7962F420-A9E6-DF4E-9E68-EEAC7A25AF37}"/>
+    <hyperlink ref="C291" r:id="rId417" xr:uid="{F4E73946-68A9-BC45-B099-EE2C2C23C3E0}"/>
+    <hyperlink ref="C292" r:id="rId418" xr:uid="{6EA10ABD-F099-5541-B651-FBBFADB3D416}"/>
+    <hyperlink ref="C293" r:id="rId419" xr:uid="{21A98C24-3ABC-4D47-9CFF-124DCEA45698}"/>
+    <hyperlink ref="C294" r:id="rId420" xr:uid="{417F063F-4AF0-9C45-86F4-2CAE26D9A55F}"/>
+    <hyperlink ref="C295" r:id="rId421" xr:uid="{C1C486BE-AA3A-734C-811C-D1015622C087}"/>
+    <hyperlink ref="C296" r:id="rId422" xr:uid="{D1D324C4-645B-BE44-B43D-774F18E3E559}"/>
+    <hyperlink ref="C297" r:id="rId423" xr:uid="{6D9DADBC-8196-E347-8C58-250AA5A636C0}"/>
+    <hyperlink ref="C298" r:id="rId424" xr:uid="{7E709984-032A-6D43-B8C0-35BB36F33A8B}"/>
+    <hyperlink ref="C299" r:id="rId425" xr:uid="{AF735B37-2761-6B44-8457-C70F018D475D}"/>
+    <hyperlink ref="C300" r:id="rId426" xr:uid="{49BFADA0-F7F7-AA4E-BB18-E0A89AB9BAB8}"/>
+    <hyperlink ref="C301" r:id="rId427" xr:uid="{A63C29B7-0C8B-304D-B46C-79A4221A1838}"/>
+    <hyperlink ref="C302" r:id="rId428" xr:uid="{29C5565A-64E6-8F4C-A6D7-B8C75475C571}"/>
+    <hyperlink ref="C303" r:id="rId429" xr:uid="{F3E9CC02-E232-F247-910C-0F8F818F15FD}"/>
+    <hyperlink ref="C304" r:id="rId430" xr:uid="{CF20CF77-6D17-A640-BC1C-06D8AC56128F}"/>
+    <hyperlink ref="C305" r:id="rId431" xr:uid="{05A67C14-E63C-6643-A98B-DE5374A332F7}"/>
+    <hyperlink ref="C306" r:id="rId432" xr:uid="{EBBAB587-5F93-004C-A21E-981DD47D400D}"/>
+    <hyperlink ref="C307" r:id="rId433" xr:uid="{2E28DB30-178A-5F43-BABB-5699190A802A}"/>
+    <hyperlink ref="C308" r:id="rId434" xr:uid="{D1AA51DE-D608-3D45-AD22-E8B64F1419E7}"/>
+    <hyperlink ref="C309" r:id="rId435" xr:uid="{9BABC60F-FE82-5248-9E79-B718EC0F659A}"/>
+    <hyperlink ref="C310" r:id="rId436" xr:uid="{03289203-0011-5743-AC70-D84C9B97DC6E}"/>
+    <hyperlink ref="C311" r:id="rId437" xr:uid="{1B79D66B-2C73-624F-A90B-DE414F9850D6}"/>
+    <hyperlink ref="C312" r:id="rId438" xr:uid="{43F13A60-CCD1-0C40-AB37-E9F9EE97732E}"/>
+    <hyperlink ref="C313" r:id="rId439" xr:uid="{1C156BC9-5818-4049-8EF2-B540C3E68E81}"/>
+    <hyperlink ref="C314" r:id="rId440" xr:uid="{11C2CC3B-D164-1848-81AF-8CCAB067EEEE}"/>
+    <hyperlink ref="C315" r:id="rId441" xr:uid="{8197B7F5-0BB9-9246-80DC-D674978E176A}"/>
+    <hyperlink ref="C316" r:id="rId442" xr:uid="{53D53A00-1672-664D-91C8-7C5331F6CCA5}"/>
+    <hyperlink ref="C317" r:id="rId443" xr:uid="{9AA590C4-228E-474B-98A4-89BA39EB1F33}"/>
+    <hyperlink ref="C318" r:id="rId444" xr:uid="{A954073C-B336-FF47-9A76-411BA43ADCCF}"/>
+    <hyperlink ref="C319" r:id="rId445" xr:uid="{515855E3-E3E4-F845-9DC8-E34325F7F3DA}"/>
+    <hyperlink ref="C320" r:id="rId446" xr:uid="{BB4B339E-876F-A54B-9201-A7998B7A4C5D}"/>
+    <hyperlink ref="C321" r:id="rId447" xr:uid="{BA928391-E722-7746-BED2-1C83F80C0DBC}"/>
+    <hyperlink ref="C322" r:id="rId448" xr:uid="{102F6A53-9ABC-3E45-BD5C-B9BF66066C2A}"/>
+    <hyperlink ref="C323" r:id="rId449" xr:uid="{1285018C-691B-2E4B-A2D4-583D0B414C1F}"/>
+    <hyperlink ref="C324" r:id="rId450" xr:uid="{76AAE9CF-2707-B143-B652-46D8CE36A647}"/>
+    <hyperlink ref="C325" r:id="rId451" xr:uid="{D595AA32-6B99-6B45-8FD7-0CA55E90E86C}"/>
+    <hyperlink ref="C326" r:id="rId452" xr:uid="{6F160E9C-28C2-9641-9DFC-22F25114A500}"/>
+    <hyperlink ref="C327" r:id="rId453" xr:uid="{9C51E6A7-375F-1B4E-AA7C-7D11E7B7817A}"/>
+    <hyperlink ref="C328" r:id="rId454" xr:uid="{73B6A897-CC12-624B-B420-3142BFB3B7E7}"/>
+    <hyperlink ref="C329" r:id="rId455" xr:uid="{97260B38-6E63-8949-A540-58D6E311FC48}"/>
+    <hyperlink ref="C330" r:id="rId456" xr:uid="{63962B13-F41B-C849-BD6B-055FC35A58D4}"/>
+    <hyperlink ref="C331" r:id="rId457" xr:uid="{98EDB583-793D-A540-8B0F-FA8976BF2967}"/>
+    <hyperlink ref="C332" r:id="rId458" xr:uid="{A82777DC-48F6-FA4E-8782-21F09FA004E0}"/>
+    <hyperlink ref="C333" r:id="rId459" xr:uid="{EA2E52DC-C33A-2E4F-AE83-F8E03EC15257}"/>
+    <hyperlink ref="C334" r:id="rId460" xr:uid="{76C9DF5E-2957-2841-B4F2-ABA46671CCA0}"/>
+    <hyperlink ref="C335" r:id="rId461" xr:uid="{C717E06E-B8B2-6D47-9E8C-BFDFDFDC1A25}"/>
+    <hyperlink ref="C336" r:id="rId462" xr:uid="{89A49EA1-C764-B740-A236-82525B727186}"/>
+    <hyperlink ref="C337" r:id="rId463" xr:uid="{ECE997AF-CE38-B24F-ADBF-641D516BA06C}"/>
+    <hyperlink ref="C338" r:id="rId464" xr:uid="{D8B081E5-9C49-434F-BC64-9A2E3080C805}"/>
+    <hyperlink ref="C339" r:id="rId465" xr:uid="{4F7716B6-B922-8C4C-817A-22FC8E9687D6}"/>
+    <hyperlink ref="C340" r:id="rId466" xr:uid="{E42A850B-432C-BD4F-ADAD-269074FD12D7}"/>
+    <hyperlink ref="C341" r:id="rId467" xr:uid="{C1923A14-8FC3-3048-929B-76B8E6CABE4E}"/>
+    <hyperlink ref="C342" r:id="rId468" xr:uid="{FB93A9DD-F604-164C-8539-EE9D683EAE3F}"/>
+    <hyperlink ref="C343" r:id="rId469" xr:uid="{7F1710C4-FC83-2E4B-9DC2-43CBBB804C1C}"/>
+    <hyperlink ref="C344" r:id="rId470" xr:uid="{EE190C14-3B98-8141-90E9-545731C5A836}"/>
+    <hyperlink ref="C345" r:id="rId471" xr:uid="{3ED03127-35DA-8A49-93C9-896BA1D8DC06}"/>
+    <hyperlink ref="C346" r:id="rId472" xr:uid="{CB6F0F21-1B2D-924C-8C9C-2A75C4CD31CA}"/>
+    <hyperlink ref="C347" r:id="rId473" xr:uid="{6AECACA9-7563-5844-88E8-65163C3C2045}"/>
+    <hyperlink ref="C348" r:id="rId474" xr:uid="{B8FAEEBC-51D6-EA45-9665-6C77033E94EB}"/>
+    <hyperlink ref="C349" r:id="rId475" xr:uid="{8922321F-CDC7-5A46-838D-8D1A2F011DBC}"/>
+    <hyperlink ref="C350" r:id="rId476" xr:uid="{334105E5-CD96-1642-B84D-03A20E1CD0A5}"/>
+    <hyperlink ref="C351" r:id="rId477" xr:uid="{97E5BE47-CB30-1E45-9F11-15A6DE53936E}"/>
+    <hyperlink ref="C352" r:id="rId478" xr:uid="{FA61DDD2-C85E-5947-8801-5B134D37F3BB}"/>
+    <hyperlink ref="C353" r:id="rId479" xr:uid="{B055B99F-8704-CA44-985E-FEE3A9E3B3EB}"/>
+    <hyperlink ref="C354" r:id="rId480" xr:uid="{5FEA98AF-8D00-C041-8FAA-30E8369F763B}"/>
+    <hyperlink ref="C355" r:id="rId481" xr:uid="{6782F7DA-4236-7740-A30E-EFCC23B81659}"/>
+    <hyperlink ref="C356" r:id="rId482" xr:uid="{ECA5F0C7-3864-ED48-B6A1-19E564969867}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364B56BC-690A-3946-B9FE-F82C7BEB1C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9869CE-C94A-8F46-A651-942F5545AF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="500" windowWidth="22520" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="1020" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1115">
   <si>
     <t>name</t>
   </si>
@@ -61,9 +61,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>EDA of 1D spectra</t>
-  </si>
-  <si>
     <t>Any</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>https://github.com/bryanhanson/ChemoSpec2D</t>
   </si>
   <si>
-    <t>EDA of 2D NMR</t>
-  </si>
-  <si>
     <t>NMR (2D)</t>
   </si>
   <si>
@@ -166,12 +160,6 @@
     <t>https://github.com/bryanhanson/readJDX</t>
   </si>
   <si>
-    <t>Import JCAMP-DX files to ChemoSpec/Spectra format</t>
-  </si>
-  <si>
-    <t>Data sharing</t>
-  </si>
-  <si>
     <t>hyperChemoBridge</t>
   </si>
   <si>
@@ -211,9 +199,6 @@
     <t>Markup language for sharing NMR data</t>
   </si>
   <si>
-    <t>Data sharing (NMR)</t>
-  </si>
-  <si>
     <t>rDolphin</t>
   </si>
   <si>
@@ -241,9 +226,6 @@
     <t>Time-resolved spectroscopy</t>
   </si>
   <si>
-    <t>Time series</t>
-  </si>
-  <si>
     <t>Joris J. Snellenburg  &lt;j.snellenburg@vu.nl&gt;</t>
   </si>
   <si>
@@ -259,9 +241,6 @@
     <t>Vis &amp; NIR</t>
   </si>
   <si>
-    <t>Vis-Near-IR</t>
-  </si>
-  <si>
     <t>Leonardo Ramirez-Lopez &lt;ramirez.lopez.leo@gmail.com&gt;</t>
   </si>
   <si>
@@ -277,9 +256,6 @@
     <t>Non-linear modeling of Vis &amp; IR spectra</t>
   </si>
   <si>
-    <t>Vis-IR</t>
-  </si>
-  <si>
     <t>spectralAnalysis</t>
   </si>
   <si>
@@ -352,9 +328,6 @@
     <t>https://cran.r-project.org/package=muma</t>
   </si>
   <si>
-    <t>EDA of 1D NMR</t>
-  </si>
-  <si>
     <t>Edoardo gaude &lt;egaude541@gmail.com&gt;</t>
   </si>
   <si>
@@ -370,9 +343,6 @@
     <t>https://arxiv.org/abs/1604.07299</t>
   </si>
   <si>
-    <t>Modelling of surface enhanced Raman spectra (SERS)</t>
-  </si>
-  <si>
     <t>Raman</t>
   </si>
   <si>
@@ -403,9 +373,6 @@
     <t>NIR time-series</t>
   </si>
   <si>
-    <t>Time series (Near-IR)</t>
-  </si>
-  <si>
     <t>Yikai Wang &lt;johnzon.wyk@gmail.com&gt;</t>
   </si>
   <si>
@@ -421,9 +388,6 @@
     <t>https://bmcbioinformatics.biomedcentral.com/articles/10.1186/s12859-017-1580-5</t>
   </si>
   <si>
-    <t>I/O NMR-STAR files to JSON used by BMRB</t>
-  </si>
-  <si>
     <t>Data Sharing (NMR)</t>
   </si>
   <si>
@@ -613,24 +577,12 @@
     <t>https://github.com/jmfrancklab/pyspecdata</t>
   </si>
   <si>
-    <t>NMR, ESR</t>
-  </si>
-  <si>
-    <t>mwTab</t>
-  </si>
-  <si>
     <t>https://pypi.org/project/mwtab/</t>
   </si>
   <si>
     <t>https://github.com/MoseleyBioinformaticsLab/mwtab</t>
   </si>
   <si>
-    <t>https://link.springer.com/article/10.1007%2Fs11306-018-1356-6</t>
-  </si>
-  <si>
-    <t>I/O mwTab files</t>
-  </si>
-  <si>
     <t>nmrml2isa</t>
   </si>
   <si>
@@ -664,9 +616,6 @@
     <t>Spectral processing &amp; modeling</t>
   </si>
   <si>
-    <t>Near-IR, Mid-IR</t>
-  </si>
-  <si>
     <t>pavo</t>
   </si>
   <si>
@@ -676,9 +625,6 @@
     <t>https://github.com/rmaia/pavo/</t>
   </si>
   <si>
-    <t>Perceptual analysis, visualization &amp; organization of spectral color data (incl images)</t>
-  </si>
-  <si>
     <t>UV-Vis</t>
   </si>
   <si>
@@ -784,9 +730,6 @@
     <t>https://github.com/rochus-keller/CARA</t>
   </si>
   <si>
-    <t>C++, Qt</t>
-  </si>
-  <si>
     <t>Biomolecular NMR peak assignment</t>
   </si>
   <si>
@@ -826,9 +769,6 @@
     <t>Workflow for data sets with space/time/spectral dimensions</t>
   </si>
   <si>
-    <t>Mid-IR</t>
-  </si>
-  <si>
     <t>Servet Ahmet Cizmeli &lt;ahmet@pranageo.com&gt;</t>
   </si>
   <si>
@@ -907,9 +847,6 @@
     <t>https://www.pnas.org/content/110/42/16826</t>
   </si>
   <si>
-    <t>Prediction 13C shifts in proteins</t>
-  </si>
-  <si>
     <t>ChiantiPy</t>
   </si>
   <si>
@@ -919,9 +856,6 @@
     <t>Calculate radiative properties of astrophysical plasmas</t>
   </si>
   <si>
-    <t>UV-Vis-IR</t>
-  </si>
-  <si>
     <t>COMPASS</t>
   </si>
   <si>
@@ -1021,9 +955,6 @@
     <t>Real-time visualization tools for imaging spectroscopy</t>
   </si>
   <si>
-    <t>UV-VIS-IR</t>
-  </si>
-  <si>
     <t>Jacqueline.Ryan@jpl.nasa.gov</t>
   </si>
   <si>
@@ -1075,9 +1006,6 @@
     <t>https://github.com/sametz/pydnmr</t>
   </si>
   <si>
-    <t>Simulation dynamic NMR</t>
-  </si>
-  <si>
     <t>PyRoShift</t>
   </si>
   <si>
@@ -1099,9 +1027,6 @@
     <t>https://github.com/ibcp/pyspectra</t>
   </si>
   <si>
-    <t>General purpose?</t>
-  </si>
-  <si>
     <t>glvrst@gmail.com</t>
   </si>
   <si>
@@ -1336,9 +1261,6 @@
     <t>File conversion for NMR data formats</t>
   </si>
   <si>
-    <t>Data sharing (NMR nD)</t>
-  </si>
-  <si>
     <t>specutils</t>
   </si>
   <si>
@@ -1402,9 +1324,6 @@
     <t>https://www.ncbi.nlm.nih.gov/pubmed/19821464</t>
   </si>
   <si>
-    <t>Visualization of 1D and 2D NMR</t>
-  </si>
-  <si>
     <t>PRFFECT</t>
   </si>
   <si>
@@ -1498,9 +1417,6 @@
     <t>https://github.com/Quasars/orange-spectroscopy</t>
   </si>
   <si>
-    <t>General purpose running on Orange</t>
-  </si>
-  <si>
     <t>pytnt</t>
   </si>
   <si>
@@ -1516,9 +1432,6 @@
     <t>https://github.com/BioSystemsUM/specmine</t>
   </si>
   <si>
-    <t>General purpose</t>
-  </si>
-  <si>
     <t>Miguel Rocha &lt;mrocha@di.uminho.pt&gt;</t>
   </si>
   <si>
@@ -1543,9 +1456,6 @@
     <t>https://pubs.acs.org/doi/10.1021/acs.jproteome.0c00684</t>
   </si>
   <si>
-    <t>NMR binning, normalization (1D and 2D)</t>
-  </si>
-  <si>
     <t>Matthias Klein &lt;klein.663@osu.edu&gt;</t>
   </si>
   <si>
@@ -1624,12 +1534,6 @@
     <t>https://pubs.rsc.org/en/content/articlelanding/2019/fd/c8fd00227d#!divAbstract</t>
   </si>
   <si>
-    <t>Integrated MS and NMR analysis</t>
-  </si>
-  <si>
-    <t>NMR, MS</t>
-  </si>
-  <si>
     <t>hyperSpec.utils</t>
   </si>
   <si>
@@ -1639,9 +1543,6 @@
     <t>https://github.com/konradmayer/hyperSpec.utils/</t>
   </si>
   <si>
-    <t>Enhances hyperSpec</t>
-  </si>
-  <si>
     <t>https://github.com/spectrochempy/spectrochempy</t>
   </si>
   <si>
@@ -1657,9 +1558,6 @@
     <t>https://github.com/wincowgerDEV/OpenSpecy</t>
   </si>
   <si>
-    <t>Raman, IR</t>
-  </si>
-  <si>
     <t>https://wincowger.shinyapps.io/OpenSpecy/</t>
   </si>
   <si>
@@ -1816,9 +1714,6 @@
     <t>https://github.com/tillbiskup/aspecd</t>
   </si>
   <si>
-    <t>General handling of spectroscopic data</t>
-  </si>
-  <si>
     <t>trEPR</t>
   </si>
   <si>
@@ -1942,15 +1837,9 @@
     <t>jcamp-dx</t>
   </si>
   <si>
-    <t>spectrochempy</t>
-  </si>
-  <si>
     <t>DeerLab</t>
   </si>
   <si>
-    <t>customxepr</t>
-  </si>
-  <si>
     <t>hanlab</t>
   </si>
   <si>
@@ -1975,9 +1864,6 @@
     <t>https://github.com/JeschkeLab/DeerLab</t>
   </si>
   <si>
-    <t>https://github.com/OE-FET/customxepr</t>
-  </si>
-  <si>
     <t>https://github.com/thcasey3/hanlab</t>
   </si>
   <si>
@@ -1990,21 +1876,12 @@
     <t>https://github.com/spike-project/spike</t>
   </si>
   <si>
-    <t>Instrument control suite for Bruker E500, MercuryiTC and Keithley 2600.</t>
-  </si>
-  <si>
     <t>Near-Infrared Analysis</t>
   </si>
   <si>
-    <t>React component to display and process nuclear magnetic resonance (NMR) spectra.</t>
-  </si>
-  <si>
     <t>A software suite for automatic treatment, analysis and plotting of large and multivariable datasets of bioNMR peaklists.</t>
   </si>
   <si>
-    <t>specio: Python input/output for spectroscopic files</t>
-  </si>
-  <si>
     <t>Neural network classifier for Raman spectral data using TensorFlow</t>
   </si>
   <si>
@@ -2029,24 +1906,15 @@
     <t xml:space="preserve">Reference implemention of the IUPAC JCAMP-DX spectroscopy data standard. </t>
   </si>
   <si>
-    <t>Processing, analyzing and modeling spectroscopic data for chemistry</t>
-  </si>
-  <si>
     <t>Analysis of dipolar EPR spectroscopy</t>
   </si>
   <si>
     <t>https://jeschkelab.github.io/DeerLab/</t>
   </si>
   <si>
-    <t>https://customxepr.readthedocs.io/en/latest/</t>
-  </si>
-  <si>
     <t>https://thcasey3.github.io/hanlab/</t>
   </si>
   <si>
-    <t>Process, fit, and analyze various types of DNP, NMR, and EPR data</t>
-  </si>
-  <si>
     <t>EPR, NMR</t>
   </si>
   <si>
@@ -2074,18 +1942,9 @@
     <t>Treatment of spectral (Raman, Infrared, XAS, NMR) data</t>
   </si>
   <si>
-    <t>Baseline removal, baseline correction and baseline subtraction</t>
-  </si>
-  <si>
-    <t>Batch processing and deconvolution of Raman spectra of carbonaceous materials</t>
-  </si>
-  <si>
     <t>https://specio.readthedocs.io/en/stable/</t>
   </si>
   <si>
-    <t>Read-only accessing the wdf Raman spectroscopy from Ranishaw WiRE software</t>
-  </si>
-  <si>
     <t>Visualization and processing toolbox for Confocal Raman Spectroscopy Imaging</t>
   </si>
   <si>
@@ -2110,9 +1969,6 @@
     <t>icarus-nmr</t>
   </si>
   <si>
-    <t>farseernmr</t>
-  </si>
-  <si>
     <t>nmrespy</t>
   </si>
   <si>
@@ -2128,9 +1984,6 @@
     <t>bruker-utils</t>
   </si>
   <si>
-    <t>dnplab</t>
-  </si>
-  <si>
     <t>ml-jdp4</t>
   </si>
   <si>
@@ -2164,9 +2017,6 @@
     <t>Akvo</t>
   </si>
   <si>
-    <t>chemex</t>
-  </si>
-  <si>
     <t>SpectraFP</t>
   </si>
   <si>
@@ -2182,12 +2032,6 @@
     <t>penguins</t>
   </si>
   <si>
-    <t>nmrpro</t>
-  </si>
-  <si>
-    <t>peakipy</t>
-  </si>
-  <si>
     <t>nmrpoise</t>
   </si>
   <si>
@@ -2224,9 +2068,6 @@
     <t>pybaselines</t>
   </si>
   <si>
-    <t>trepr</t>
-  </si>
-  <si>
     <t>fitpy</t>
   </si>
   <si>
@@ -2254,9 +2095,6 @@
     <t>coloured-spectra</t>
   </si>
   <si>
-    <t>tesliper</t>
-  </si>
-  <si>
     <t>colour-science</t>
   </si>
   <si>
@@ -2377,18 +2215,6 @@
     <t>NMR-EsPy: Nuclear Magnetic Resonance Estimation in Python</t>
   </si>
   <si>
-    <t>A suite of tools for processing and analysing NMR spectra in Python.</t>
-  </si>
-  <si>
-    <t>PyBMRB provides tools for visualizing BMRB entries and  NMR-STAR files. Maintained by the BMRB.</t>
-  </si>
-  <si>
-    <t>PyNMR-STAR provides tools for reading, writing, modifying, and interacting with NMR-STAR files. Maintained by the BMRB.</t>
-  </si>
-  <si>
-    <t>DNPLab - Bringing the Power of Python to DNP-NMR Spectroscopy</t>
-  </si>
-  <si>
     <t>An integrated quantum mechanics-machine learning approach for ultra-fast NMR structural elucidation.</t>
   </si>
   <si>
@@ -2398,24 +2224,6 @@
     <t>β-NMR/β-NQR MUD file reader and asymmetry calculator</t>
   </si>
   <si>
-    <t>Python based statistical learning of NMR tensor parameters distribution from 2D isotropic/anisotropic NMR correlation spectra.</t>
-  </si>
-  <si>
-    <t>Parse and Process NMR data.</t>
-  </si>
-  <si>
-    <t>Metabolite concentration quantification from 1D proton nmr integrated data</t>
-  </si>
-  <si>
-    <t>a library for building non-uniform NMR sample schedules</t>
-  </si>
-  <si>
-    <t>β-NMR and β-NQR Data Analysis</t>
-  </si>
-  <si>
-    <t>MUon Data file reader</t>
-  </si>
-  <si>
     <t>National Phenome Centre toolbox</t>
   </si>
   <si>
@@ -2428,9 +2236,6 @@
     <t>Surface nuclear magnetic resonance workbench</t>
   </si>
   <si>
-    <t>ChemEx is an analysis program for chemical exchange detected by NMR.</t>
-  </si>
-  <si>
     <t>A python toolbox for simulating fast real-time solid-state NMR spectra.</t>
   </si>
   <si>
@@ -2443,72 +2248,27 @@
     <t>1D Proton NMR relaxometry analysis</t>
   </si>
   <si>
-    <t>python library for NMR preprocessing and analysis</t>
-  </si>
-  <si>
-    <t>Penguins: an Easy, NPE-free Gateway to Unpacking and Illustrating NMR Spectra</t>
-  </si>
-  <si>
-    <t>Interactive processing of NMR Spectra</t>
-  </si>
-  <si>
-    <t>Deconvolute overlapping NMR peaks</t>
-  </si>
-  <si>
     <t>Parameter Optimisation by Iterative Spectral Evaluation, a TopSpin-compatible NMR package</t>
   </si>
   <si>
-    <t>a parser for the NMR-STAR data format</t>
-  </si>
-  <si>
     <t>nmrglue-based package for the import and analysis of electrophoretic NMR-data</t>
   </si>
   <si>
     <t>Calculate paramagnetic effects in NMR spectra of proteins</t>
   </si>
   <si>
-    <t>package for chemometric data analysis</t>
-  </si>
-  <si>
-    <t>A python library and command line program for plotting simulated 2D and 3D NMR spectra from assigned chemical shifts from the BMRB</t>
-  </si>
-  <si>
-    <t>Python package for data processing of NMR 1D and 2D metabolomics and metabolism tracing data</t>
-  </si>
-  <si>
     <t>Full quantum simulation of muon experiments</t>
   </si>
   <si>
-    <t>object-oriented N-dimensional data processing with notebook functionality</t>
-  </si>
-  <si>
     <t>Computing Nuclear Independent Chemical Shifts</t>
   </si>
   <si>
-    <t>jcalc: Calculate NMR J values from         Molecular Dynamics simulations</t>
-  </si>
-  <si>
-    <t>Magnetic resonance experiment simulator and visualization tool.</t>
-  </si>
-  <si>
     <t>Parser for mwtab files from the Metabolomics Workbench</t>
   </si>
   <si>
-    <t>A library of algorithms for the baseline correction of experimental data.</t>
-  </si>
-  <si>
-    <t>Framework for fitting models to (spectroscopic) data.</t>
-  </si>
-  <si>
     <t>Global Analysis of PELDOR time traces</t>
   </si>
   <si>
-    <t>Package for handling optical absorption data.</t>
-  </si>
-  <si>
-    <t>Framework for handling spectroscopic data.</t>
-  </si>
-  <si>
     <t>package preprocessing of datasets, especially from spectroscopy</t>
   </si>
   <si>
@@ -2524,21 +2284,12 @@
     <t>Got a spectra? Use this to find what is the observed colour.</t>
   </si>
   <si>
-    <t>a package for batch processing of spectra-related Gaussian output files</t>
-  </si>
-  <si>
     <t>Colour Science for Python</t>
   </si>
   <si>
-    <t>Python tools for Cassini UVIS data</t>
-  </si>
-  <si>
     <t>Function to evaluate impact of NIR pre-processing techniques on spectral data</t>
   </si>
   <si>
-    <t>An MNE compatible package for processing near-infrared spectroscopy data.</t>
-  </si>
-  <si>
     <t>An NWB extension for storing Near-Infrared Spectroscopy (NIRS) data</t>
   </si>
   <si>
@@ -2563,9 +2314,6 @@
     <t>Astronomical Data Analysis Tools</t>
   </si>
   <si>
-    <t>iSATex is an ideal software package for all uses of Raman microscope and/or FT-IR. Open-source-software development from the researcher’s perspectives would be complementary with the development of the modern analytical geosciences.</t>
-  </si>
-  <si>
     <t>A GUI tool for drawing polynomial backgrounds on FTIR spectra and subtracting them to get total absorbance (by height) of a desired peak.</t>
   </si>
   <si>
@@ -2575,9 +2323,6 @@
     <t>A package for parsing Agilent FTIR asp files</t>
   </si>
   <si>
-    <t>Python package that provides a full range of functionality to process and analyze vibrational spectra (Raman, SERS, FTIR, etc.).</t>
-  </si>
-  <si>
     <t>Parameter fitting for Raman-Rabi electron-nuclear spin flip-flop transitions in NV centers.</t>
   </si>
   <si>
@@ -2596,30 +2341,15 @@
     <t>Hyperspectral package for spectroscopists</t>
   </si>
   <si>
-    <t>Synthesizing and fitting coherent anti-Stokes Raman spectra (CARS) in Python</t>
-  </si>
-  <si>
     <t>Reading wdf Raman spectroscopy file from Renishaw WiRE</t>
   </si>
   <si>
-    <t>Analysis of luminescence spectroscopy data with HyperSpy.</t>
-  </si>
-  <si>
     <t>Hyperspectral data analysis and machine learning</t>
   </si>
   <si>
     <t>Program to display binary SPE files containing Raman spectra</t>
   </si>
   <si>
-    <t>A Python package to simplify and accelerate analysis of spectroscopy data</t>
-  </si>
-  <si>
-    <t>A tiny python package for simulating XRF spectra to better understand them</t>
-  </si>
-  <si>
-    <t>Toolkit for making and processing X-ray fluoresence simulations via XMI-MSIM</t>
-  </si>
-  <si>
     <t>SimulatedLIBS provides simple Python class to simulate LIBS spectra with NIST LIBS Database interface</t>
   </si>
   <si>
@@ -2644,9 +2374,6 @@
     <t>https://pypi.org/project/icarus-nmr/</t>
   </si>
   <si>
-    <t>https://pypi.org/project/farseernmr/</t>
-  </si>
-  <si>
     <t>https://pypi.org/project/nmrespy/</t>
   </si>
   <si>
@@ -2734,9 +2461,6 @@
     <t>https://pypi.org/project/pybaselines/</t>
   </si>
   <si>
-    <t>https://pypi.org/project/trepr/</t>
-  </si>
-  <si>
     <t>https://pypi.org/project/fitpy/</t>
   </si>
   <si>
@@ -2764,9 +2488,6 @@
     <t>https://pypi.org/project/coloured-spectra/</t>
   </si>
   <si>
-    <t>https://pypi.org/project/tesliper/</t>
-  </si>
-  <si>
     <t>https://pypi.org/project/colour-science/</t>
   </si>
   <si>
@@ -2884,9 +2605,6 @@
     <t>vstadnytskyi@gmail.com</t>
   </si>
   <si>
-    <t>farseer.nmr@gmail.com</t>
-  </si>
-  <si>
     <t>simon.hulse@chem.ox.ac.uk</t>
   </si>
   <si>
@@ -2917,9 +2635,6 @@
     <t>legregam@insa-toulouse.fr</t>
   </si>
   <si>
-    <t>gbouvignies@gmail.com</t>
-  </si>
-  <si>
     <t>mfenwick100@gmail.com</t>
   </si>
   <si>
@@ -2959,12 +2674,6 @@
     <t>yongrenjie@gmail.com</t>
   </si>
   <si>
-    <t>mohamed@kuicr.kyoto-u.ac.jp</t>
-  </si>
-  <si>
-    <t>jacob.brady0449@gmail.com</t>
-  </si>
-  <si>
     <t>jonathan.yong@chem.ox.ac.uk</t>
   </si>
   <si>
@@ -3019,9 +2728,6 @@
     <t>ewaymao@gmail.com</t>
   </si>
   <si>
-    <t>wieclawmm@gmail.com</t>
-  </si>
-  <si>
     <t>colour-developers@colour-science.org</t>
   </si>
   <si>
@@ -3124,9 +2830,6 @@
     <t>https://github.com/5hulse/bruker_utils</t>
   </si>
   <si>
-    <t>https://github.com/DNPLab/dnplab</t>
-  </si>
-  <si>
     <t>https://github.com/Sarotti-Lab/ML_J_DP4</t>
   </si>
   <si>
@@ -3187,9 +2890,6 @@
     <t>https://github.com/yongrenjie/penguins</t>
   </si>
   <si>
-    <t>https://j-brady.github.io/peakipy/build/index.html</t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/doi/10.1021/acs.analchem.1c01767</t>
   </si>
   <si>
@@ -3235,9 +2935,6 @@
     <t>https://github.com/derb12/pybaselines</t>
   </si>
   <si>
-    <t>Package for handling time-resolved EPR data.</t>
-  </si>
-  <si>
     <t>https://github.com/tillbiskup/fitpy</t>
   </si>
   <si>
@@ -3265,27 +2962,15 @@
     <t>https://github.com/Arghantyr/LSPR-glass-transmittance</t>
   </si>
   <si>
-    <t>UV-Vis-NIR-IR</t>
-  </si>
-  <si>
     <t>https://github.com/YiweiMao/coloured_spectra</t>
   </si>
   <si>
     <t>Vis</t>
   </si>
   <si>
-    <t>https://github.com/mishioo/tesliper</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>https://github.com/colour-science/colour</t>
   </si>
   <si>
-    <t>https://github.com/Cassini-UVIS/pyuvis</t>
-  </si>
-  <si>
     <t>https://github.com/mne-tools/mne-nirs/</t>
   </si>
   <si>
@@ -3307,9 +2992,6 @@
     <t>https://github.com/egonik-unlp/agilentaspparser</t>
   </si>
   <si>
-    <t>Data sharing (IR)</t>
-  </si>
-  <si>
     <t>https://github.com/ALebrun-108/BoxSERS</t>
   </si>
   <si>
@@ -3334,9 +3016,6 @@
     <t>https://github.com/chuckedfromspace/carspy</t>
   </si>
   <si>
-    <t>Data sharing (Raman)</t>
-  </si>
-  <si>
     <t>HyperSpy</t>
   </si>
   <si>
@@ -3379,14 +3058,320 @@
     <t>https://github.com/NSLS-II/edrixs</t>
   </si>
   <si>
-    <t>XAS, RIXS</t>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>NIRX</t>
+  </si>
+  <si>
+    <t>https://juliapackages.com/p/nirx</t>
+  </si>
+  <si>
+    <t>https://github.com/rob-luke/NIRX.jl</t>
+  </si>
+  <si>
+    <t>Read NIRX NIR files</t>
+  </si>
+  <si>
+    <t>Data Sharing (NMR nD)</t>
+  </si>
+  <si>
+    <t>Data Sharing (Raman)</t>
+  </si>
+  <si>
+    <t>Data Sharing (NIR)</t>
+  </si>
+  <si>
+    <t>MIR</t>
+  </si>
+  <si>
+    <t>Time Series</t>
+  </si>
+  <si>
+    <t>Time Series (NIR)</t>
+  </si>
+  <si>
+    <t>Python tools for Cassini UVis data</t>
+  </si>
+  <si>
+    <t>https://github.com/Cassini-UVis/pyuvis</t>
+  </si>
+  <si>
+    <t>NIR, Vis</t>
+  </si>
+  <si>
+    <t>IR, Vis</t>
+  </si>
+  <si>
+    <t>MIR, NIR</t>
+  </si>
+  <si>
+    <t>IR, UV-Vis</t>
+  </si>
+  <si>
+    <t>ESR, NMR</t>
+  </si>
+  <si>
+    <t>IR, NIR, UV-Vis</t>
+  </si>
+  <si>
+    <t>Exploratory data analysis of 1D spectra</t>
+  </si>
+  <si>
+    <t>Exploratory data analysis of 2D NMR</t>
+  </si>
+  <si>
+    <t>Exploratory data analysis of 1D NMR</t>
+  </si>
+  <si>
+    <t>Import JCAMP-DX files to ChemoSpec format</t>
+  </si>
+  <si>
+    <t>Modeling of surface enhanced Raman spectra (SERS)</t>
+  </si>
+  <si>
+    <t>Convert NMR-STAR files to JSON used by BMRB</t>
+  </si>
+  <si>
+    <t>Predict 13C shifts in proteins</t>
+  </si>
+  <si>
+    <t>Simulation of dynamic NMR</t>
+  </si>
+  <si>
+    <t>Read-only access of wdf format from Ranishaw WiRE software</t>
+  </si>
+  <si>
+    <t>I/O spectroscopic files</t>
+  </si>
+  <si>
+    <t>Statistical learning of NMR tensor parameters distribution from 2D isotropic/anisotropic NMR correlation spectra.</t>
+  </si>
+  <si>
+    <t>Library for building non-uniform NMR sample schedules</t>
+  </si>
+  <si>
+    <t>Muon Data file reader</t>
+  </si>
+  <si>
+    <t>Metabolite concentration quantification from 1D proton NMR integrated data</t>
+  </si>
+  <si>
+    <t>Perceptual analysis, visualization &amp; organization of spectral color data (including images)</t>
+  </si>
+  <si>
+    <t>Data Sharing (XRF)</t>
+  </si>
+  <si>
+    <t>Visualization of 1D &amp; 2D NMR</t>
+  </si>
+  <si>
+    <t>Data Sharing (TecMag)</t>
+  </si>
+  <si>
+    <t>NMR binning, normalization (1D &amp; 2D)</t>
+  </si>
+  <si>
+    <t>Integrated MS &amp; NMR analysis</t>
+  </si>
+  <si>
+    <t>Utilities for use by hyperSpec</t>
+  </si>
+  <si>
+    <t>Process, fit, and analyze various types of DNP, NMR, &amp; EPR data</t>
+  </si>
+  <si>
+    <t>React component to display and process NMR spectra.</t>
+  </si>
+  <si>
+    <t>Baseline removal, baseline correction &amp; baseline subtraction</t>
+  </si>
+  <si>
+    <t>Batch processing &amp; deconvolution of Raman spectra of carbonaceous materials</t>
+  </si>
+  <si>
+    <t>A suite of tools for processing &amp; analysing NMR spectra in Python</t>
+  </si>
+  <si>
+    <t>Tools for visualizing BMRB entries &amp;  NMR-STAR files</t>
+  </si>
+  <si>
+    <t>PyNMR-STAR provides tools for reading, writing, modifying, &amp; interacting with NMR-STAR files</t>
+  </si>
+  <si>
+    <t>Parse &amp; Process NMR data.</t>
+  </si>
+  <si>
+    <t>β-NMR &amp; β-NQR Data Analysis</t>
+  </si>
+  <si>
+    <t>python library for NMR preprocessing &amp; analysis</t>
+  </si>
+  <si>
+    <t>Penguins: an Easy, NPE-free Gateway to Unpacking &amp; Illustrating NMR Spectra</t>
+  </si>
+  <si>
+    <t>Parser for the NMR-STAR data format</t>
+  </si>
+  <si>
+    <t>Chemometric data analysis</t>
+  </si>
+  <si>
+    <t>Library &amp; command line program for plotting simulated 2D &amp; 3D NMR spectra from assigned chemical shifts from the BMRB</t>
+  </si>
+  <si>
+    <t>Python package for data processing of NMR 1D &amp; 2D metabolomics and metabolism tracing data</t>
+  </si>
+  <si>
+    <t>Object-oriented N-dimensional data processing with notebook functionality</t>
+  </si>
+  <si>
+    <t>Calculate NMR J values from molecular dynamics simulations</t>
+  </si>
+  <si>
+    <t>Magnetic resonance experiment simulator &amp; visualization tool</t>
+  </si>
+  <si>
+    <t>A library of algorithms for the baseline correction of experimental data</t>
+  </si>
+  <si>
+    <t>Framework for fitting models to (spectroscopic) data</t>
+  </si>
+  <si>
+    <t>Package for handling optical absorption data</t>
+  </si>
+  <si>
+    <t>Framework for handling spectroscopic data</t>
+  </si>
+  <si>
+    <t>An MNE compatible package for processing near-infrared spectroscopy data</t>
+  </si>
+  <si>
+    <t>Raman &amp; IR processing</t>
+  </si>
+  <si>
+    <t>Functionality to process and analyze vibrational spectra (Raman, SERS, FTIR, etc.).</t>
+  </si>
+  <si>
+    <t>Synthesizing &amp; fitting coherent anti-Stokes Raman spectra (CARS)</t>
+  </si>
+  <si>
+    <t>Analysis of luminescence spectroscopy data with HyperSpy</t>
+  </si>
+  <si>
+    <t>A Python package to simplify &amp; accelerate analysis of spectroscopy data</t>
+  </si>
+  <si>
+    <t>Package for simulating XRF spectra to better understand them</t>
+  </si>
+  <si>
+    <t>Toolkit for making &amp; processing X-ray fluoresence simulations via XMI-MSIM</t>
+  </si>
+  <si>
+    <t>General spectroscopic data handling</t>
+  </si>
+  <si>
+    <t>General spectroscopic data handling running on Orange</t>
+  </si>
+  <si>
+    <t>hySpc.ggplot2</t>
+  </si>
+  <si>
+    <t>hySpc.read.spe</t>
+  </si>
+  <si>
+    <t>hySpc.read.mat</t>
+  </si>
+  <si>
+    <t>hySpc.dplyr</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.read.mat</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.read.spe</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.ggplot2</t>
+  </si>
+  <si>
+    <t>unmixR</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/unmixR</t>
+  </si>
+  <si>
+    <t>Unmixing of hyperspectral data sets</t>
+  </si>
+  <si>
+    <t>chemometrie@beleites.de</t>
+  </si>
+  <si>
+    <t>hySpc.read.jdx</t>
+  </si>
+  <si>
+    <t>hySpc.read.txt</t>
+  </si>
+  <si>
+    <t>hySpc.read.ENVI</t>
+  </si>
+  <si>
+    <t>hySpc.read.spc</t>
+  </si>
+  <si>
+    <t>https://r-hyperspec.github.io/index.html</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.read.ENVI/</t>
+  </si>
+  <si>
+    <t>Claudia.Beleites@chemometrix.gmbh</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.read.spc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interface between hyperSpec and ggplot2 </t>
+  </si>
+  <si>
+    <t>Import ENVI files into hyperSpec</t>
+  </si>
+  <si>
+    <t>Import SPC files into hyperSpec</t>
+  </si>
+  <si>
+    <t>Import spe formatted files to hyperSpec</t>
+  </si>
+  <si>
+    <t>Import MATLAB files into hyperSpec</t>
+  </si>
+  <si>
+    <t>Import JCAMP-DX files into hyperSpec</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.read.jdx/</t>
+  </si>
+  <si>
+    <t>hanson@depauw.edu</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.dplyr</t>
+  </si>
+  <si>
+    <t>Interface between hyperSpec and dplyr</t>
+  </si>
+  <si>
+    <t>https://github.com/r-hyperspec/hySpc.read.txt/</t>
+  </si>
+  <si>
+    <t>Import ASCII formatted data into hyperSpec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3408,6 +3393,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3434,10 +3426,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3777,20 +3770,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H249"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G252" sqref="G252"/>
+      <selection pane="bottomLeft" activeCell="H251" sqref="H251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="31.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="100.83203125" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
@@ -3840,24 +3833,24 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -3866,62 +3859,62 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>1032</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
         <v>25</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>31</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
@@ -3929,25 +3922,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
         <v>11</v>
@@ -3955,13 +3948,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -3970,24 +3963,24 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -3996,24 +3989,24 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>48</v>
+        <v>1034</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>341</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -4022,10 +4015,10 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>341</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -4033,25 +4026,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
@@ -4059,25 +4052,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>62</v>
-      </c>
       <c r="G11" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -4085,13 +4078,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -4100,10 +4093,10 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
         <v>11</v>
@@ -4111,39 +4104,39 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>73</v>
+        <v>1021</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -4152,24 +4145,24 @@
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>1025</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -4178,21 +4171,21 @@
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>85</v>
+        <v>1026</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
@@ -4204,21 +4197,21 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G16" t="s">
         <v>13</v>
       </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -4230,36 +4223,36 @@
         <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
         <v>11</v>
@@ -4267,13 +4260,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
@@ -4282,24 +4275,24 @@
         <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>341</v>
       </c>
       <c r="H19" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
@@ -4308,21 +4301,21 @@
         <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>341</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>11</v>
@@ -4334,47 +4327,47 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>1033</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E22" t="s">
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>1035</v>
       </c>
       <c r="G22" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -4386,62 +4379,62 @@
         <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G23" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>127</v>
+        <v>1022</v>
       </c>
       <c r="H24" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>1036</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
         <v>11</v>
@@ -4449,25 +4442,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26" t="s">
         <v>11</v>
@@ -4475,25 +4468,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D27" t="s">
         <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H27" t="s">
         <v>11</v>
@@ -4501,25 +4494,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F28" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="G28" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
@@ -4527,25 +4520,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="G29" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H29" t="s">
         <v>11</v>
@@ -4553,25 +4546,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D30" t="s">
         <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H30" t="s">
         <v>11</v>
@@ -4579,25 +4572,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D31" t="s">
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G31" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H31" t="s">
         <v>11</v>
@@ -4605,25 +4598,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="H32" t="s">
         <v>11</v>
@@ -4631,25 +4624,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H33" t="s">
         <v>11</v>
@@ -4657,25 +4650,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -4683,25 +4676,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -4709,25 +4702,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -4735,25 +4728,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>201</v>
+        <v>189</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -4761,25 +4754,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>341</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -4787,25 +4780,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="G39" t="s">
-        <v>49</v>
+        <v>1027</v>
       </c>
       <c r="H39" t="s">
         <v>11</v>
@@ -4813,13 +4806,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
@@ -4828,62 +4821,62 @@
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>213</v>
+        <v>1045</v>
       </c>
       <c r="G40" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H40" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D41" t="s">
-        <v>11</v>
+        <v>205</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="G41" t="s">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="H41" t="s">
-        <v>220</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>224</v>
+        <v>209</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
       </c>
       <c r="E42" t="s">
         <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -4891,25 +4884,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D43" t="s">
-        <v>11</v>
+        <v>212</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F43" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G43" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -4917,25 +4910,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="F44" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="G44" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -4943,25 +4936,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="G45" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -4969,25 +4962,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D46" t="s">
-        <v>11</v>
+        <v>228</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="F46" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="G46" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -4995,25 +4988,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>247</v>
+        <v>235</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="F47" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="G47" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -5021,39 +5014,39 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="G48" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>11</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -5062,24 +5055,24 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H49" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C50" t="s">
-        <v>11</v>
+        <v>247</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>247</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
@@ -5088,166 +5081,166 @@
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>1020</v>
       </c>
       <c r="H50" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D51" t="s">
-        <v>11</v>
+        <v>252</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="E51" t="s">
         <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="G51" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="H51" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="G52" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="H52" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="G53" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="H53" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>284</v>
+        <v>268</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="G54" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="H54" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D55" t="s">
-        <v>11</v>
+        <v>273</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>289</v>
+        <v>1037</v>
       </c>
       <c r="G55" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="H55" t="s">
-        <v>291</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>294</v>
+        <v>276</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F56" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="G56" t="s">
-        <v>98</v>
+        <v>1028</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -5255,25 +5248,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D57" t="s">
-        <v>11</v>
+        <v>279</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="F57" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G57" t="s">
-        <v>299</v>
+        <v>135</v>
       </c>
       <c r="H57" t="s">
         <v>11</v>
@@ -5281,77 +5274,77 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>300</v>
+        <v>282</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>301</v>
+        <v>283</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="E58" t="s">
-        <v>237</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>303</v>
+        <v>285</v>
       </c>
       <c r="G58" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>306</v>
+        <v>289</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="H59" t="s">
-        <v>308</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="G60" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -5359,25 +5352,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G61" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -5385,25 +5378,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="G62" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
@@ -5411,25 +5404,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
+        <v>305</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F63" t="s">
-        <v>324</v>
+        <v>307</v>
       </c>
       <c r="G63" t="s">
-        <v>219</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
         <v>11</v>
@@ -5437,103 +5430,103 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>328</v>
+        <v>309</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="F64" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="G64" t="s">
-        <v>20</v>
+        <v>1028</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D65" t="s">
-        <v>11</v>
+        <v>313</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>314</v>
       </c>
       <c r="E65" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="G65" t="s">
-        <v>333</v>
+        <v>107</v>
       </c>
       <c r="H65" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>337</v>
+        <v>319</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="G66" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="H66" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="F67" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="G67" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -5541,25 +5534,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>347</v>
+        <v>1038</v>
       </c>
       <c r="G68" t="s">
-        <v>348</v>
+        <v>31</v>
       </c>
       <c r="H68" t="s">
         <v>11</v>
@@ -5567,233 +5560,233 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
+        <v>329</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>330</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s">
-        <v>11</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>354</v>
+        <v>334</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>355</v>
+        <v>1082</v>
       </c>
       <c r="G70" t="s">
-        <v>98</v>
+        <v>13</v>
       </c>
       <c r="H70" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
+        <v>338</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G71" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="H71" t="s">
-        <v>360</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>364</v>
+        <v>344</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="G72" t="s">
-        <v>366</v>
+        <v>107</v>
       </c>
       <c r="H72" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="G73" t="s">
-        <v>117</v>
+        <v>260</v>
       </c>
       <c r="H73" t="s">
-        <v>371</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="G74" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="H74" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G75" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="H75" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="G76" t="s">
-        <v>117</v>
+        <v>1028</v>
       </c>
       <c r="H76" t="s">
-        <v>383</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>384</v>
+        <v>362</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>385</v>
+        <v>363</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="G77" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -5801,25 +5794,25 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>369</v>
       </c>
       <c r="F78" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
@@ -5827,77 +5820,77 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F79" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>375</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D80" t="s">
         <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>398</v>
+        <v>36</v>
       </c>
       <c r="F80" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="H80" t="s">
-        <v>400</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -5905,25 +5898,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
+        <v>385</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>386</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>230</v>
       </c>
       <c r="F82" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="G82" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -5931,25 +5924,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>411</v>
+        <v>390</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="G83" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -5957,25 +5950,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
+        <v>394</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="G84" t="s">
-        <v>348</v>
+        <v>1021</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -5983,25 +5976,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="F85" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>402</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -6009,25 +6002,25 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>424</v>
+        <v>404</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="F86" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="G86" t="s">
-        <v>427</v>
+        <v>1046</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -6035,25 +6028,25 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="D87" t="s">
         <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>430</v>
+        <v>36</v>
       </c>
       <c r="F87" t="s">
-        <v>431</v>
+        <v>409</v>
       </c>
       <c r="G87" t="s">
-        <v>348</v>
+        <v>1046</v>
       </c>
       <c r="H87" t="s">
         <v>11</v>
@@ -6061,25 +6054,25 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="G88" t="s">
-        <v>348</v>
+        <v>1017</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -6087,77 +6080,77 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>436</v>
+        <v>414</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D89" t="s">
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="G89" t="s">
-        <v>438</v>
+        <v>201</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
+        <v>420</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>421</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="G90" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="H90" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>446</v>
+        <v>424</v>
+      </c>
+      <c r="C91" t="s">
+        <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>31</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -6165,207 +6158,207 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C92" t="s">
-        <v>11</v>
+        <v>424</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>451</v>
+        <v>425</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="G92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H92" t="s">
-        <v>11</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>454</v>
+        <v>432</v>
+      </c>
+      <c r="C93" t="s">
+        <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E93" t="s">
         <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>455</v>
+        <v>1047</v>
       </c>
       <c r="G93" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H93" t="s">
-        <v>456</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C94" t="s">
-        <v>11</v>
+        <v>435</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="G94" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="H94" t="s">
-        <v>11</v>
+        <v>438</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>462</v>
+        <v>440</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="F95" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="G95" t="s">
-        <v>280</v>
+        <v>341</v>
       </c>
       <c r="H95" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C96" t="s">
-        <v>11</v>
+        <v>445</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="E96" t="s">
-        <v>242</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="G96" t="s">
-        <v>366</v>
+        <v>449</v>
       </c>
       <c r="H96" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="E97" t="s">
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="G97" t="s">
-        <v>476</v>
+        <v>260</v>
       </c>
       <c r="H97" t="s">
-        <v>477</v>
+        <v>456</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>481</v>
+        <v>458</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="G98" t="s">
-        <v>280</v>
+        <v>460</v>
       </c>
       <c r="H98" t="s">
-        <v>483</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>486</v>
+        <v>459</v>
       </c>
       <c r="G99" t="s">
-        <v>487</v>
+        <v>460</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -6373,25 +6366,25 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>489</v>
+        <v>464</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>486</v>
+        <v>1083</v>
       </c>
       <c r="G100" t="s">
-        <v>487</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
         <v>11</v>
@@ -6399,25 +6392,25 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>490</v>
+        <v>465</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
       </c>
       <c r="D101" t="s">
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="G101" t="s">
-        <v>14</v>
+        <v>1048</v>
       </c>
       <c r="H101" t="s">
         <v>11</v>
@@ -6425,39 +6418,39 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>493</v>
+        <v>468</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>494</v>
+        <v>469</v>
       </c>
       <c r="D102" t="s">
         <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>495</v>
+        <v>1082</v>
       </c>
       <c r="G102" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>470</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>496</v>
+        <v>471</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>497</v>
+        <v>472</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
@@ -6466,76 +6459,76 @@
         <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>498</v>
+        <v>1082</v>
       </c>
       <c r="G103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H103" t="s">
-        <v>499</v>
+        <v>473</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>500</v>
+        <v>474</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>501</v>
+        <v>475</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="D104" t="s">
-        <v>11</v>
+        <v>476</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>498</v>
+        <v>1049</v>
       </c>
       <c r="G104" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="H104" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>506</v>
+        <v>480</v>
+      </c>
+      <c r="C105" t="s">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="G105" t="s">
-        <v>147</v>
+        <v>482</v>
       </c>
       <c r="H105" t="s">
-        <v>508</v>
+        <v>483</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>509</v>
+        <v>484</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>510</v>
-      </c>
-      <c r="C106" t="s">
-        <v>11</v>
+        <v>485</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="D106" t="s">
         <v>11</v>
@@ -6544,24 +6537,24 @@
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="G106" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="H106" t="s">
-        <v>513</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>515</v>
+        <v>489</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
@@ -6570,62 +6563,62 @@
         <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>517</v>
+        <v>491</v>
       </c>
       <c r="G107" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="H107" t="s">
-        <v>518</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>512</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>519</v>
+        <v>493</v>
+      </c>
+      <c r="B108" t="s">
+        <v>11</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D108" t="s">
-        <v>11</v>
+        <v>494</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>521</v>
+        <v>496</v>
       </c>
       <c r="G108" t="s">
-        <v>512</v>
+        <v>135</v>
       </c>
       <c r="H108" t="s">
-        <v>522</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>523</v>
+        <v>497</v>
       </c>
       <c r="B109" t="s">
         <v>11</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>524</v>
+        <v>498</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>525</v>
+        <v>499</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="G109" t="s">
-        <v>147</v>
+        <v>449</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -6633,25 +6626,25 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>527</v>
+        <v>501</v>
       </c>
       <c r="B110" t="s">
         <v>11</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>528</v>
+        <v>502</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>529</v>
+        <v>503</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>530</v>
+        <v>1050</v>
       </c>
       <c r="G110" t="s">
-        <v>476</v>
+        <v>135</v>
       </c>
       <c r="H110" t="s">
         <v>11</v>
@@ -6659,25 +6652,25 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>531</v>
-      </c>
-      <c r="B111" t="s">
-        <v>11</v>
+        <v>504</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>505</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>533</v>
+        <v>506</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>534</v>
+        <v>1051</v>
       </c>
       <c r="G111" t="s">
-        <v>535</v>
+        <v>13</v>
       </c>
       <c r="H111" t="s">
         <v>11</v>
@@ -6685,3109 +6678,3412 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>536</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>538</v>
+        <v>509</v>
+      </c>
+      <c r="B112" t="s">
+        <v>508</v>
+      </c>
+      <c r="C112" t="s">
+        <v>507</v>
       </c>
       <c r="D112" t="s">
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F112" t="s">
-        <v>539</v>
+        <v>1082</v>
       </c>
       <c r="G112" t="s">
-        <v>14</v>
-      </c>
-      <c r="H112" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>542</v>
+        <v>510</v>
       </c>
       <c r="B113" t="s">
-        <v>541</v>
+        <v>512</v>
       </c>
       <c r="C113" t="s">
-        <v>540</v>
+        <v>511</v>
+      </c>
+      <c r="D113" t="s">
+        <v>513</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>498</v>
-      </c>
-      <c r="G113" t="s">
-        <v>14</v>
+        <v>514</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="B114" t="s">
-        <v>546</v>
+        <v>519</v>
       </c>
       <c r="C114" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="D114" t="s">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F114" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="G114" t="s">
-        <v>545</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="B115" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="C115" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="D115" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
       <c r="G115" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="B116" t="s">
-        <v>558</v>
+        <v>11</v>
       </c>
       <c r="C116" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="D116" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="G116" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>559</v>
+        <v>531</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>533</v>
       </c>
       <c r="C117" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="D117" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="G117" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="B118" t="s">
-        <v>567</v>
+        <v>538</v>
       </c>
       <c r="C118" t="s">
-        <v>563</v>
+        <v>536</v>
       </c>
       <c r="D118" t="s">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="E118" t="s">
         <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="G118" t="s">
-        <v>20</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>568</v>
+        <v>541</v>
       </c>
       <c r="B119" t="s">
-        <v>572</v>
+        <v>539</v>
       </c>
       <c r="C119" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="D119" t="s">
-        <v>571</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
         <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="G119" t="s">
-        <v>147</v>
+        <v>201</v>
+      </c>
+      <c r="H119" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="B120" t="s">
-        <v>573</v>
+        <v>11</v>
       </c>
       <c r="C120" t="s">
-        <v>574</v>
+        <v>545</v>
+      </c>
+      <c r="D120" t="s">
+        <v>547</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F120" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="G120" t="s">
-        <v>219</v>
-      </c>
-      <c r="H120" t="s">
-        <v>577</v>
+        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="B121" t="s">
         <v>11</v>
       </c>
       <c r="C121" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="D121" t="s">
-        <v>581</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>550</v>
       </c>
       <c r="F121" t="s">
-        <v>580</v>
+        <v>551</v>
       </c>
       <c r="G121" t="s">
-        <v>147</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="B122" t="s">
         <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>583</v>
+        <v>553</v>
+      </c>
+      <c r="D122" t="s">
+        <v>555</v>
       </c>
       <c r="E122" t="s">
-        <v>584</v>
+        <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="G122" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>557</v>
       </c>
       <c r="C123" t="s">
-        <v>587</v>
+        <v>558</v>
       </c>
       <c r="D123" t="s">
-        <v>589</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F123" t="s">
-        <v>588</v>
+        <v>559</v>
       </c>
       <c r="G123" t="s">
-        <v>147</v>
+        <v>560</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>590</v>
+        <v>561</v>
       </c>
       <c r="B124" t="s">
-        <v>591</v>
+        <v>562</v>
       </c>
       <c r="C124" t="s">
-        <v>592</v>
+        <v>563</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1012</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>593</v>
+        <v>1082</v>
       </c>
       <c r="G124" t="s">
-        <v>594</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="B125" t="s">
-        <v>596</v>
+        <v>567</v>
       </c>
       <c r="C125" t="s">
-        <v>597</v>
+        <v>566</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F125" t="s">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="G125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>599</v>
+        <v>568</v>
       </c>
       <c r="B126" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="C126" t="s">
-        <v>601</v>
+        <v>570</v>
+      </c>
+      <c r="D126" t="s">
+        <v>569</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="G126" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="B127" t="s">
-        <v>606</v>
+        <v>573</v>
       </c>
       <c r="C127" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="D127" t="s">
-        <v>604</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>607</v>
+        <v>575</v>
       </c>
       <c r="G127" t="s">
-        <v>147</v>
+        <v>260</v>
+      </c>
+      <c r="H127" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>603</v>
+      </c>
+      <c r="B128" t="s">
+        <v>625</v>
+      </c>
+      <c r="C128" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="B128" t="s">
-        <v>608</v>
-      </c>
-      <c r="C128" t="s">
-        <v>609</v>
-      </c>
       <c r="D128" t="s">
         <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>610</v>
+        <v>626</v>
       </c>
       <c r="G128" t="s">
-        <v>280</v>
-      </c>
-      <c r="H128" t="s">
-        <v>11</v>
+        <v>135</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
       <c r="B129" t="s">
-        <v>666</v>
+        <v>11</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>648</v>
+        <v>612</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>224</v>
       </c>
       <c r="F129" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="G129" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>629</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>649</v>
+        <v>613</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>242</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="G130" t="s">
-        <v>14</v>
+        <v>560</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
       <c r="B131" t="s">
-        <v>541</v>
+        <v>630</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>540</v>
+        <v>614</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>669</v>
+        <v>1052</v>
       </c>
       <c r="G131" t="s">
-        <v>14</v>
+        <v>631</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="B132" t="s">
-        <v>671</v>
+        <v>11</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>650</v>
+        <v>615</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="G132" t="s">
-        <v>594</v>
+        <v>449</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
       <c r="B133" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>651</v>
+        <v>616</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>38</v>
+        <v>633</v>
       </c>
       <c r="F133" t="s">
-        <v>656</v>
+        <v>1053</v>
       </c>
       <c r="G133" t="s">
-        <v>594</v>
+        <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="B134" t="s">
-        <v>673</v>
+        <v>634</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>652</v>
+        <v>305</v>
+      </c>
+      <c r="D134" t="s">
+        <v>306</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>674</v>
+        <v>619</v>
       </c>
       <c r="G134" t="s">
-        <v>675</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>635</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>653</v>
+        <v>617</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="G135" t="s">
-        <v>476</v>
+        <v>135</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>645</v>
+        <v>577</v>
       </c>
       <c r="B136" t="s">
-        <v>676</v>
+        <v>11</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>654</v>
+        <v>591</v>
+      </c>
+      <c r="D136" t="s">
+        <v>637</v>
       </c>
       <c r="E136" t="s">
-        <v>677</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="G136" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>646</v>
+        <v>578</v>
       </c>
       <c r="B137" t="s">
-        <v>678</v>
+        <v>11</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>327</v>
+        <v>372</v>
       </c>
       <c r="D137" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="F137" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="G137" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>647</v>
+        <v>579</v>
       </c>
       <c r="B138" t="s">
-        <v>679</v>
+        <v>11</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>655</v>
+        <v>592</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>680</v>
+        <v>1054</v>
       </c>
       <c r="G138" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>612</v>
+        <v>580</v>
       </c>
       <c r="B139" t="s">
         <v>11</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>626</v>
+        <v>593</v>
       </c>
       <c r="D139" t="s">
-        <v>681</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>682</v>
+        <v>1039</v>
       </c>
       <c r="G139" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>640</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>397</v>
+        <v>594</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>398</v>
+        <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>683</v>
+        <v>1040</v>
       </c>
       <c r="G140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>614</v>
+        <v>582</v>
       </c>
       <c r="B141" t="s">
         <v>11</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>627</v>
+        <v>595</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>684</v>
+        <v>1055</v>
       </c>
       <c r="G141" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>615</v>
+        <v>583</v>
       </c>
       <c r="B142" t="s">
         <v>11</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>628</v>
+        <v>596</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>687</v>
+        <v>620</v>
       </c>
       <c r="G142" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>616</v>
+        <v>584</v>
       </c>
       <c r="B143" t="s">
-        <v>686</v>
+        <v>11</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>629</v>
+        <v>356</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="G143" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>617</v>
+        <v>585</v>
       </c>
       <c r="B144" t="s">
         <v>11</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>630</v>
+        <v>597</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>685</v>
+        <v>621</v>
       </c>
       <c r="G144" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>618</v>
+        <v>586</v>
       </c>
       <c r="B145" t="s">
         <v>11</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>631</v>
+        <v>598</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="G145" t="s">
-        <v>117</v>
+        <v>460</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>619</v>
+        <v>587</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>643</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>381</v>
+        <v>599</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>688</v>
+        <v>622</v>
       </c>
       <c r="G146" t="s">
-        <v>117</v>
+        <v>201</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>620</v>
+        <v>588</v>
       </c>
       <c r="B147" t="s">
         <v>11</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>632</v>
+        <v>600</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>645</v>
       </c>
       <c r="F147" t="s">
-        <v>662</v>
+        <v>623</v>
       </c>
       <c r="G147" t="s">
-        <v>117</v>
+        <v>589</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="B148" t="s">
         <v>11</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>633</v>
+        <v>601</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>689</v>
+        <v>624</v>
       </c>
       <c r="G148" t="s">
-        <v>545</v>
+        <v>589</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="B149" t="s">
-        <v>690</v>
+        <v>11</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>634</v>
+        <v>602</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>663</v>
+        <v>644</v>
       </c>
       <c r="G149" t="s">
-        <v>219</v>
+        <v>291</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="B150" t="s">
         <v>11</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>635</v>
+        <v>781</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>692</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>664</v>
+        <v>727</v>
       </c>
       <c r="G150" t="s">
-        <v>624</v>
+        <v>135</v>
+      </c>
+      <c r="H150" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="B151" t="s">
         <v>11</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>636</v>
+        <v>782</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>665</v>
+        <v>728</v>
       </c>
       <c r="G151" t="s">
-        <v>624</v>
+        <v>135</v>
+      </c>
+      <c r="H151" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>625</v>
-      </c>
-      <c r="B152" t="s">
-        <v>11</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>637</v>
+        <v>648</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="C152" t="s">
+        <v>929</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>691</v>
+        <v>729</v>
       </c>
       <c r="G152" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>7</v>
+        <v>135</v>
+      </c>
+      <c r="H152" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>649</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="C153" t="s">
+        <v>570</v>
+      </c>
+      <c r="D153" t="s">
+        <v>569</v>
+      </c>
+      <c r="E153" t="s">
+        <v>36</v>
+      </c>
+      <c r="F153" t="s">
+        <v>730</v>
+      </c>
+      <c r="G153" t="s">
+        <v>135</v>
+      </c>
+      <c r="H153" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>650</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="C154" t="s">
+        <v>930</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s">
+        <v>36</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G154" t="s">
+        <v>135</v>
+      </c>
+      <c r="H154" t="s">
+        <v>931</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>693</v>
-      </c>
-      <c r="B155" t="s">
-        <v>11</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>871</v>
+        <v>651</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C155" t="s">
+        <v>932</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>781</v>
+        <v>1057</v>
       </c>
       <c r="G155" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H155" t="s">
-        <v>951</v>
+        <v>862</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>694</v>
-      </c>
-      <c r="B156" t="s">
-        <v>11</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>872</v>
+        <v>652</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C156" t="s">
+        <v>933</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>782</v>
+        <v>1058</v>
       </c>
       <c r="G156" t="s">
-        <v>147</v>
+        <v>1017</v>
       </c>
       <c r="H156" t="s">
-        <v>952</v>
+        <v>864</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>873</v>
+        <v>786</v>
       </c>
       <c r="C157" t="s">
-        <v>1027</v>
+        <v>935</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>783</v>
+        <v>934</v>
       </c>
       <c r="G157" t="s">
-        <v>147</v>
+        <v>232</v>
       </c>
       <c r="H157" t="s">
-        <v>953</v>
+        <v>861</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>874</v>
+        <v>787</v>
       </c>
       <c r="C158" t="s">
-        <v>327</v>
+        <v>936</v>
       </c>
       <c r="D158" t="s">
-        <v>328</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>659</v>
+        <v>731</v>
       </c>
       <c r="G158" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H158" t="s">
-        <v>954</v>
+        <v>865</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>875</v>
+        <v>788</v>
       </c>
       <c r="C159" t="s">
-        <v>605</v>
+        <v>937</v>
       </c>
       <c r="D159" t="s">
-        <v>604</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
       <c r="G159" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H159" t="s">
-        <v>955</v>
+        <v>866</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>876</v>
+        <v>789</v>
       </c>
       <c r="C160" t="s">
-        <v>1028</v>
+        <v>939</v>
       </c>
       <c r="D160" t="s">
-        <v>11</v>
+        <v>938</v>
       </c>
       <c r="E160" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>785</v>
+        <v>733</v>
       </c>
       <c r="G160" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H160" t="s">
-        <v>1029</v>
+        <v>867</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>140</v>
+        <v>790</v>
       </c>
       <c r="C161" t="s">
-        <v>1030</v>
+        <v>941</v>
       </c>
       <c r="D161" t="s">
-        <v>11</v>
+        <v>940</v>
       </c>
       <c r="E161" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>786</v>
+        <v>1041</v>
       </c>
       <c r="G161" t="s">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>956</v>
+        <v>868</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>173</v>
+        <v>791</v>
       </c>
       <c r="C162" t="s">
-        <v>1031</v>
+        <v>942</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>787</v>
+        <v>1059</v>
       </c>
       <c r="G162" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="H162" t="s">
-        <v>958</v>
+        <v>869</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>877</v>
+        <v>792</v>
       </c>
       <c r="C163" t="s">
-        <v>1033</v>
+        <v>943</v>
       </c>
       <c r="D163" t="s">
         <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>1032</v>
+        <v>1044</v>
       </c>
       <c r="G163" t="s">
-        <v>250</v>
+        <v>31</v>
       </c>
       <c r="H163" t="s">
-        <v>955</v>
+        <v>870</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>702</v>
-      </c>
-      <c r="B164" t="s">
-        <v>666</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>1034</v>
+        <v>660</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C164" t="s">
+        <v>944</v>
       </c>
       <c r="D164" t="s">
         <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>788</v>
+        <v>1042</v>
       </c>
       <c r="G164" t="s">
-        <v>147</v>
+        <v>135</v>
+      </c>
+      <c r="H164" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>703</v>
+        <v>179</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>878</v>
+        <v>180</v>
       </c>
       <c r="C165" t="s">
-        <v>1035</v>
+        <v>181</v>
       </c>
       <c r="D165" t="s">
-        <v>11</v>
+        <v>938</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F165" t="s">
-        <v>789</v>
+        <v>1060</v>
       </c>
       <c r="G165" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H165" t="s">
-        <v>959</v>
+        <v>867</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>704</v>
+        <v>661</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>879</v>
+        <v>794</v>
       </c>
       <c r="C166" t="s">
-        <v>1036</v>
+        <v>945</v>
       </c>
       <c r="D166" t="s">
-        <v>11</v>
+        <v>938</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>790</v>
+        <v>1043</v>
       </c>
       <c r="G166" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H166" t="s">
-        <v>960</v>
+        <v>867</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>705</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>880</v>
+        <v>662</v>
+      </c>
+      <c r="B167" t="s">
+        <v>795</v>
       </c>
       <c r="C167" t="s">
-        <v>1038</v>
+        <v>946</v>
       </c>
       <c r="D167" t="s">
-        <v>1037</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>791</v>
+        <v>734</v>
       </c>
       <c r="G167" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H167" t="s">
-        <v>961</v>
+        <v>872</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>706</v>
+        <v>663</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>881</v>
+        <v>165</v>
       </c>
       <c r="C168" t="s">
-        <v>1040</v>
+        <v>617</v>
       </c>
       <c r="D168" t="s">
-        <v>1039</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>792</v>
+        <v>735</v>
       </c>
       <c r="G168" t="s">
-        <v>20</v>
+        <v>947</v>
       </c>
       <c r="H168" t="s">
-        <v>962</v>
+        <v>873</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>707</v>
+        <v>140</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>882</v>
+        <v>141</v>
       </c>
       <c r="C169" t="s">
-        <v>1041</v>
+        <v>142</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>793</v>
+        <v>736</v>
       </c>
       <c r="G169" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H169" t="s">
-        <v>963</v>
+        <v>874</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>708</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="C170" t="s">
-        <v>1042</v>
+        <v>664</v>
+      </c>
+      <c r="B170" t="s">
+        <v>948</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>796</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>794</v>
+        <v>737</v>
       </c>
       <c r="G170" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="H170" t="s">
-        <v>964</v>
+        <v>875</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>709</v>
+        <v>317</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>884</v>
+        <v>797</v>
       </c>
       <c r="C171" t="s">
-        <v>1043</v>
+        <v>949</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>795</v>
+        <v>738</v>
       </c>
       <c r="G171" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H171" t="s">
-        <v>966</v>
+        <v>876</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>191</v>
+        <v>665</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>192</v>
+        <v>798</v>
       </c>
       <c r="C172" t="s">
-        <v>193</v>
+        <v>950</v>
       </c>
       <c r="D172" t="s">
-        <v>1037</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>796</v>
+        <v>739</v>
       </c>
       <c r="G172" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="H172" t="s">
-        <v>961</v>
+        <v>878</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>710</v>
+        <v>168</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>885</v>
+        <v>169</v>
       </c>
       <c r="C173" t="s">
-        <v>1044</v>
+        <v>169</v>
       </c>
       <c r="D173" t="s">
-        <v>1037</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>797</v>
+        <v>740</v>
       </c>
       <c r="G173" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H173" t="s">
-        <v>961</v>
+        <v>879</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>711</v>
-      </c>
-      <c r="B174" t="s">
-        <v>886</v>
+        <v>666</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>799</v>
       </c>
       <c r="C174" t="s">
-        <v>1045</v>
+        <v>951</v>
+      </c>
+      <c r="D174" t="s">
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>798</v>
+        <v>741</v>
       </c>
       <c r="G174" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H174" t="s">
-        <v>967</v>
+        <v>880</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>712</v>
+        <v>667</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C175" t="s">
-        <v>655</v>
+        <v>952</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>799</v>
+        <v>953</v>
       </c>
       <c r="G175" t="s">
-        <v>1046</v>
+        <v>135</v>
       </c>
       <c r="H175" t="s">
-        <v>968</v>
+        <v>881</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>152</v>
+        <v>668</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>153</v>
+        <v>800</v>
       </c>
       <c r="C176" t="s">
-        <v>154</v>
+        <v>954</v>
+      </c>
+      <c r="D176" t="s">
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>800</v>
+        <v>1061</v>
       </c>
       <c r="G176" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H176" t="s">
-        <v>969</v>
+        <v>882</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>713</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>887</v>
+        <v>669</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C177" t="s">
+        <v>955</v>
+      </c>
+      <c r="D177" t="s">
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>801</v>
+        <v>1062</v>
       </c>
       <c r="G177" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H177" t="s">
-        <v>970</v>
+        <v>883</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>714</v>
+        <v>670</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>163</v>
+        <v>802</v>
       </c>
       <c r="C178" t="s">
-        <v>164</v>
+        <v>957</v>
+      </c>
+      <c r="D178" t="s">
+        <v>956</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>802</v>
+        <v>742</v>
       </c>
       <c r="G178" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H178" t="s">
-        <v>965</v>
+        <v>884</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>340</v>
+        <v>671</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>888</v>
+        <v>803</v>
       </c>
       <c r="C179" t="s">
-        <v>1048</v>
+        <v>958</v>
+      </c>
+      <c r="D179" t="s">
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>803</v>
+        <v>1063</v>
       </c>
       <c r="G179" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H179" t="s">
-        <v>971</v>
+        <v>871</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>715</v>
+        <v>672</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>889</v>
+        <v>804</v>
       </c>
       <c r="C180" t="s">
-        <v>1049</v>
+        <v>959</v>
+      </c>
+      <c r="D180" t="s">
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>804</v>
+        <v>743</v>
       </c>
       <c r="G180" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="H180" t="s">
-        <v>973</v>
+        <v>885</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>180</v>
+        <v>147</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>181</v>
+        <v>148</v>
       </c>
       <c r="C181" t="s">
-        <v>181</v>
+        <v>149</v>
+      </c>
+      <c r="D181" t="s">
+        <v>960</v>
       </c>
       <c r="E181" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>805</v>
+        <v>744</v>
       </c>
       <c r="G181" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H181" t="s">
-        <v>974</v>
+        <v>886</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>716</v>
+        <v>673</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>890</v>
+        <v>805</v>
       </c>
       <c r="C182" t="s">
-        <v>1050</v>
+        <v>961</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>806</v>
+        <v>1064</v>
       </c>
       <c r="G182" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
-        <v>975</v>
+        <v>887</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>717</v>
+        <v>674</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>183</v>
+        <v>806</v>
       </c>
       <c r="C183" t="s">
-        <v>1051</v>
+        <v>962</v>
+      </c>
+      <c r="D183" t="s">
+        <v>963</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
       <c r="G183" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H183" t="s">
-        <v>976</v>
+        <v>888</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>718</v>
+        <v>675</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>891</v>
+        <v>807</v>
       </c>
       <c r="C184" t="s">
-        <v>1053</v>
+        <v>964</v>
+      </c>
+      <c r="D184" t="s">
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>807</v>
+        <v>1066</v>
       </c>
       <c r="G184" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H184" t="s">
-        <v>977</v>
+        <v>889</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>719</v>
+        <v>676</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>892</v>
+        <v>808</v>
       </c>
       <c r="C185" t="s">
-        <v>1054</v>
+        <v>965</v>
+      </c>
+      <c r="D185" t="s">
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>808</v>
+        <v>745</v>
       </c>
       <c r="G185" t="s">
-        <v>147</v>
+        <v>966</v>
       </c>
       <c r="H185" t="s">
-        <v>978</v>
+        <v>890</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>720</v>
+        <v>182</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="C186" t="s">
-        <v>145</v>
+        <v>184</v>
+      </c>
+      <c r="D186" t="s">
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>809</v>
+        <v>1067</v>
       </c>
       <c r="G186" t="s">
-        <v>147</v>
+        <v>1029</v>
       </c>
       <c r="H186" t="s">
-        <v>979</v>
+        <v>891</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>721</v>
+        <v>677</v>
       </c>
       <c r="B187" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C187" t="s">
-        <v>189</v>
-      </c>
-      <c r="D187" s="2"/>
+        <v>967</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D187" t="s">
+        <v>11</v>
+      </c>
       <c r="E187" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>810</v>
+        <v>746</v>
       </c>
       <c r="G187" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H187" t="s">
-        <v>980</v>
+        <v>877</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>722</v>
+        <v>678</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>893</v>
+        <v>810</v>
       </c>
       <c r="C188" t="s">
-        <v>1057</v>
+        <v>968</v>
       </c>
       <c r="D188" t="s">
-        <v>1056</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>811</v>
+        <v>1068</v>
       </c>
       <c r="G188" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H188" t="s">
-        <v>981</v>
+        <v>892</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>723</v>
+        <v>679</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>894</v>
+        <v>811</v>
       </c>
       <c r="C189" t="s">
-        <v>1058</v>
+        <v>969</v>
+      </c>
+      <c r="D189" t="s">
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>812</v>
+        <v>1069</v>
       </c>
       <c r="G189" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H189" t="s">
-        <v>966</v>
+        <v>893</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>724</v>
+        <v>680</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>895</v>
+        <v>185</v>
       </c>
       <c r="C190" t="s">
-        <v>1059</v>
+        <v>186</v>
+      </c>
+      <c r="D190" t="s">
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F190" t="s">
-        <v>813</v>
+        <v>747</v>
       </c>
       <c r="G190" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="H190" t="s">
-        <v>982</v>
+        <v>863</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>159</v>
+        <v>681</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>160</v>
+        <v>812</v>
       </c>
       <c r="C191" t="s">
-        <v>161</v>
+        <v>970</v>
       </c>
       <c r="D191" t="s">
-        <v>1060</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>814</v>
+        <v>1070</v>
       </c>
       <c r="G191" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="H191" t="s">
-        <v>983</v>
+        <v>894</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>725</v>
+        <v>682</v>
       </c>
       <c r="B192" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="C192" t="s">
+        <v>971</v>
+      </c>
+      <c r="D192" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" t="s">
+        <v>36</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
+      <c r="H192" t="s">
         <v>896</v>
-      </c>
-      <c r="C192" t="s">
-        <v>1061</v>
-      </c>
-      <c r="E192" t="s">
-        <v>38</v>
-      </c>
-      <c r="F192" t="s">
-        <v>815</v>
-      </c>
-      <c r="G192" t="s">
-        <v>14</v>
-      </c>
-      <c r="H192" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>726</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1062</v>
+        <v>683</v>
+      </c>
+      <c r="B193" t="s">
+        <v>972</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>814</v>
       </c>
       <c r="D193" t="s">
-        <v>1063</v>
+        <v>973</v>
       </c>
       <c r="E193" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>816</v>
+        <v>748</v>
       </c>
       <c r="G193" t="s">
-        <v>147</v>
+        <v>560</v>
       </c>
       <c r="H193" t="s">
-        <v>985</v>
+        <v>895</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>727</v>
+        <v>684</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>898</v>
+        <v>815</v>
       </c>
       <c r="C194" t="s">
-        <v>1064</v>
+        <v>974</v>
+      </c>
+      <c r="D194" t="s">
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>817</v>
+        <v>1072</v>
       </c>
       <c r="G194" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="H194" t="s">
-        <v>986</v>
+        <v>896</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>728</v>
+        <v>685</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>899</v>
+        <v>816</v>
       </c>
       <c r="C195" t="s">
-        <v>1065</v>
+        <v>563</v>
+      </c>
+      <c r="D195" t="s">
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>818</v>
+        <v>1073</v>
       </c>
       <c r="G195" t="s">
-        <v>1066</v>
+        <v>13</v>
       </c>
       <c r="H195" t="s">
-        <v>987</v>
+        <v>896</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>686</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>195</v>
+        <v>817</v>
       </c>
       <c r="C196" t="s">
-        <v>196</v>
+        <v>975</v>
+      </c>
+      <c r="D196" t="s">
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>819</v>
+        <v>749</v>
       </c>
       <c r="G196" t="s">
-        <v>197</v>
+        <v>13</v>
       </c>
       <c r="H196" t="s">
-        <v>988</v>
+        <v>897</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>729</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1067</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>900</v>
+        <v>687</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C197" t="s">
+        <v>976</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>820</v>
+        <v>750</v>
       </c>
       <c r="G197" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
       <c r="H197" t="s">
-        <v>972</v>
+        <v>898</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>901</v>
+        <v>819</v>
       </c>
       <c r="C198" t="s">
-        <v>1068</v>
+        <v>977</v>
+      </c>
+      <c r="D198" t="s">
+        <v>978</v>
       </c>
       <c r="E198" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>821</v>
+        <v>751</v>
       </c>
       <c r="G198" t="s">
-        <v>147</v>
+        <v>1030</v>
       </c>
       <c r="H198" t="s">
-        <v>989</v>
+        <v>899</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>902</v>
+        <v>820</v>
       </c>
       <c r="C199" t="s">
-        <v>1069</v>
+        <v>979</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F199" t="s">
-        <v>822</v>
+        <v>752</v>
       </c>
       <c r="G199" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="H199" t="s">
-        <v>990</v>
+        <v>900</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>199</v>
+        <v>821</v>
       </c>
       <c r="C200" t="s">
-        <v>200</v>
+        <v>980</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>823</v>
+        <v>753</v>
       </c>
       <c r="G200" t="s">
-        <v>134</v>
+        <v>981</v>
       </c>
       <c r="H200" t="s">
-        <v>957</v>
+        <v>901</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>903</v>
+        <v>822</v>
       </c>
       <c r="C201" t="s">
-        <v>1070</v>
+        <v>982</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>824</v>
+        <v>754</v>
       </c>
       <c r="G201" t="s">
-        <v>14</v>
+        <v>981</v>
       </c>
       <c r="H201" t="s">
-        <v>991</v>
+        <v>902</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>734</v>
+        <v>692</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>904</v>
+        <v>823</v>
       </c>
       <c r="C202" t="s">
-        <v>601</v>
+        <v>1024</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>1071</v>
+        <v>1023</v>
       </c>
       <c r="G202" t="s">
-        <v>594</v>
+        <v>201</v>
       </c>
       <c r="H202" t="s">
-        <v>993</v>
+        <v>903</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>735</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1072</v>
+        <v>693</v>
+      </c>
+      <c r="B203" t="s">
+        <v>11</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F203" t="s">
-        <v>825</v>
+        <v>755</v>
       </c>
       <c r="G203" t="s">
-        <v>14</v>
+        <v>449</v>
       </c>
       <c r="H203" t="s">
-        <v>993</v>
+        <v>904</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>736</v>
-      </c>
-      <c r="B204" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>906</v>
+        <v>694</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C204" t="s">
+        <v>983</v>
       </c>
       <c r="D204" t="s">
+        <v>11</v>
+      </c>
+      <c r="E204" t="s">
+        <v>36</v>
+      </c>
+      <c r="F204" t="s">
         <v>1074</v>
       </c>
-      <c r="E204" t="s">
-        <v>38</v>
-      </c>
-      <c r="F204" t="s">
-        <v>826</v>
-      </c>
       <c r="G204" t="s">
-        <v>594</v>
-      </c>
-      <c r="H204" t="s">
-        <v>992</v>
+        <v>449</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>737</v>
+        <v>695</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>907</v>
+        <v>826</v>
       </c>
       <c r="C205" t="s">
-        <v>1075</v>
+        <v>984</v>
+      </c>
+      <c r="D205" t="s">
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>827</v>
+        <v>756</v>
       </c>
       <c r="G205" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="H205" t="s">
-        <v>993</v>
+        <v>905</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>738</v>
+        <v>696</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>908</v>
+        <v>827</v>
       </c>
       <c r="C206" t="s">
-        <v>597</v>
+        <v>985</v>
+      </c>
+      <c r="D206" t="s">
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>828</v>
+        <v>757</v>
       </c>
       <c r="G206" t="s">
-        <v>14</v>
+        <v>449</v>
       </c>
       <c r="H206" t="s">
-        <v>993</v>
+        <v>906</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>739</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="C207" t="s">
-        <v>1076</v>
+        <v>697</v>
+      </c>
+      <c r="B207" t="s">
+        <v>11</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="D207" t="s">
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>829</v>
+        <v>758</v>
       </c>
       <c r="G207" t="s">
-        <v>14</v>
+        <v>449</v>
       </c>
       <c r="H207" t="s">
-        <v>994</v>
+        <v>907</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>740</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="C208" t="s">
-        <v>1077</v>
+        <v>698</v>
+      </c>
+      <c r="B208" t="s">
+        <v>11</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D208" t="s">
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>830</v>
+        <v>759</v>
       </c>
       <c r="G208" t="s">
-        <v>366</v>
+        <v>449</v>
       </c>
       <c r="H208" t="s">
-        <v>995</v>
+        <v>907</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>741</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C209" t="s">
-        <v>1078</v>
+        <v>699</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>830</v>
       </c>
       <c r="D209" t="s">
-        <v>1079</v>
+        <v>11</v>
       </c>
       <c r="E209" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>831</v>
+        <v>760</v>
       </c>
       <c r="G209" t="s">
-        <v>1081</v>
+        <v>449</v>
       </c>
       <c r="H209" t="s">
-        <v>996</v>
+        <v>907</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>742</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="C210" t="s">
-        <v>1080</v>
+        <v>700</v>
+      </c>
+      <c r="B210" t="s">
+        <v>11</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D210" t="s">
+        <v>11</v>
       </c>
       <c r="E210" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>832</v>
+        <v>761</v>
       </c>
       <c r="G210" t="s">
-        <v>219</v>
+        <v>449</v>
       </c>
       <c r="H210" t="s">
-        <v>997</v>
+        <v>907</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>743</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C211" t="s">
-        <v>1082</v>
+        <v>701</v>
+      </c>
+      <c r="B211" t="s">
+        <v>11</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="D211" t="s">
+        <v>11</v>
       </c>
       <c r="E211" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F211" t="s">
-        <v>833</v>
+        <v>762</v>
       </c>
       <c r="G211" t="s">
-        <v>1083</v>
+        <v>449</v>
       </c>
       <c r="H211" t="s">
-        <v>998</v>
+        <v>907</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>744</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="C212" t="s">
-        <v>1084</v>
+        <v>702</v>
+      </c>
+      <c r="B212" t="s">
+        <v>11</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="D212" t="s">
+        <v>11</v>
       </c>
       <c r="E212" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>834</v>
+        <v>763</v>
       </c>
       <c r="G212" t="s">
-        <v>1085</v>
+        <v>449</v>
       </c>
       <c r="H212" t="s">
-        <v>999</v>
+        <v>907</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>745</v>
+        <v>703</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>915</v>
+        <v>834</v>
       </c>
       <c r="C213" t="s">
-        <v>1086</v>
+        <v>986</v>
+      </c>
+      <c r="D213" t="s">
+        <v>11</v>
       </c>
       <c r="E213" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F213" t="s">
-        <v>835</v>
+        <v>1075</v>
       </c>
       <c r="G213" t="s">
-        <v>1083</v>
+        <v>460</v>
       </c>
       <c r="H213" t="s">
-        <v>1000</v>
+        <v>908</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>746</v>
+        <v>704</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>916</v>
+        <v>835</v>
       </c>
       <c r="C214" t="s">
-        <v>1087</v>
+        <v>987</v>
+      </c>
+      <c r="D214" t="s">
+        <v>11</v>
       </c>
       <c r="E214" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>836</v>
+        <v>764</v>
       </c>
       <c r="G214" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="H214" t="s">
-        <v>1001</v>
+        <v>909</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>747</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>917</v>
+        <v>705</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C215" t="s">
+        <v>988</v>
+      </c>
+      <c r="D215" t="s">
+        <v>11</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F215" t="s">
-        <v>837</v>
+        <v>765</v>
       </c>
       <c r="G215" t="s">
-        <v>476</v>
+        <v>260</v>
       </c>
       <c r="H215" t="s">
-        <v>1002</v>
+        <v>910</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>748</v>
+        <v>706</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>918</v>
+        <v>837</v>
       </c>
       <c r="C216" t="s">
-        <v>1088</v>
+        <v>989</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
       </c>
       <c r="E216" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>838</v>
+        <v>766</v>
       </c>
       <c r="G216" t="s">
-        <v>476</v>
+        <v>270</v>
+      </c>
+      <c r="H216" t="s">
+        <v>911</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>749</v>
+        <v>707</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>919</v>
+        <v>838</v>
       </c>
       <c r="C217" t="s">
-        <v>1089</v>
+        <v>990</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
       </c>
       <c r="E217" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F217" t="s">
-        <v>839</v>
+        <v>1076</v>
       </c>
       <c r="G217" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="H217" t="s">
-        <v>1003</v>
+        <v>912</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>750</v>
+        <v>708</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>920</v>
+        <v>839</v>
       </c>
       <c r="C218" t="s">
-        <v>1090</v>
+        <v>991</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
       </c>
       <c r="E218" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>840</v>
+        <v>767</v>
       </c>
       <c r="G218" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="H218" t="s">
-        <v>1004</v>
+        <v>913</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>751</v>
+        <v>709</v>
+      </c>
+      <c r="B219" t="s">
+        <v>11</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>921</v>
+        <v>840</v>
+      </c>
+      <c r="D219" t="s">
+        <v>11</v>
       </c>
       <c r="E219" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>841</v>
+        <v>768</v>
       </c>
       <c r="G219" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="H219" t="s">
-        <v>1005</v>
+        <v>914</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>752</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>922</v>
+        <v>710</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C220" t="s">
+        <v>992</v>
+      </c>
+      <c r="D220" t="s">
+        <v>993</v>
       </c>
       <c r="E220" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F220" t="s">
-        <v>842</v>
+        <v>769</v>
       </c>
       <c r="G220" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="H220" t="s">
-        <v>1005</v>
+        <v>915</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>753</v>
+        <v>711</v>
+      </c>
+      <c r="B221" t="s">
+        <v>11</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>923</v>
+        <v>842</v>
+      </c>
+      <c r="D221" t="s">
+        <v>994</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F221" t="s">
-        <v>843</v>
+        <v>770</v>
       </c>
       <c r="G221" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="H221" t="s">
-        <v>1005</v>
+        <v>916</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>754</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>924</v>
+        <v>712</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C222" t="s">
+        <v>995</v>
+      </c>
+      <c r="D222" t="s">
+        <v>11</v>
       </c>
       <c r="E222" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F222" t="s">
-        <v>844</v>
+        <v>771</v>
       </c>
       <c r="G222" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="H222" t="s">
-        <v>1005</v>
+        <v>917</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>755</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>925</v>
+        <v>713</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="C223" t="s">
+        <v>996</v>
+      </c>
+      <c r="D223" t="s">
+        <v>11</v>
       </c>
       <c r="E223" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>845</v>
+        <v>772</v>
       </c>
       <c r="G223" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="H223" t="s">
-        <v>1005</v>
+        <v>918</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>756</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>926</v>
+        <v>714</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C224" t="s">
+        <v>997</v>
+      </c>
+      <c r="D224" t="s">
+        <v>11</v>
       </c>
       <c r="E224" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>846</v>
+        <v>1077</v>
       </c>
       <c r="G224" t="s">
-        <v>476</v>
+        <v>107</v>
       </c>
       <c r="H224" t="s">
-        <v>1005</v>
+        <v>919</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>927</v>
+        <v>846</v>
       </c>
       <c r="C225" t="s">
-        <v>1091</v>
+        <v>593</v>
+      </c>
+      <c r="D225" t="s">
+        <v>11</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>847</v>
+        <v>773</v>
       </c>
       <c r="G225" t="s">
-        <v>545</v>
+        <v>1018</v>
       </c>
       <c r="H225" t="s">
-        <v>1006</v>
+        <v>920</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>758</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C226" t="s">
-        <v>1092</v>
+        <v>716</v>
+      </c>
+      <c r="B226" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="D226" t="s">
+        <v>11</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>848</v>
+        <v>1078</v>
       </c>
       <c r="G226" t="s">
-        <v>280</v>
-      </c>
-      <c r="H226" t="s">
-        <v>1007</v>
+        <v>107</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>929</v>
+        <v>848</v>
       </c>
       <c r="C227" t="s">
-        <v>1093</v>
+        <v>1003</v>
+      </c>
+      <c r="D227" t="s">
+        <v>11</v>
       </c>
       <c r="E227" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F227" t="s">
-        <v>849</v>
+        <v>774</v>
       </c>
       <c r="G227" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="H227" t="s">
-        <v>1008</v>
+        <v>921</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>930</v>
+        <v>849</v>
       </c>
       <c r="C228" t="s">
-        <v>1094</v>
+        <v>1004</v>
+      </c>
+      <c r="D228" t="s">
+        <v>11</v>
       </c>
       <c r="E228" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>850</v>
+        <v>775</v>
       </c>
       <c r="G228" t="s">
-        <v>1095</v>
+        <v>1018</v>
       </c>
       <c r="H228" t="s">
-        <v>1009</v>
+        <v>914</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>931</v>
+        <v>850</v>
       </c>
       <c r="C229" t="s">
-        <v>1096</v>
+        <v>1005</v>
+      </c>
+      <c r="D229" t="s">
+        <v>11</v>
       </c>
       <c r="E229" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>851</v>
+        <v>1079</v>
       </c>
       <c r="G229" t="s">
-        <v>545</v>
+        <v>13</v>
       </c>
       <c r="H229" t="s">
-        <v>1010</v>
+        <v>922</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>762</v>
+        <v>720</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>932</v>
+        <v>851</v>
       </c>
       <c r="C230" t="s">
-        <v>1097</v>
+        <v>1006</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
       </c>
       <c r="E230" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F230" t="s">
-        <v>852</v>
+        <v>1080</v>
       </c>
       <c r="G230" t="s">
-        <v>117</v>
+        <v>325</v>
       </c>
       <c r="H230" t="s">
-        <v>1011</v>
+        <v>923</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>763</v>
+        <v>721</v>
+      </c>
+      <c r="B231" t="s">
+        <v>11</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>933</v>
+        <v>852</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
       </c>
       <c r="E231" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F231" t="s">
-        <v>853</v>
+        <v>1081</v>
       </c>
       <c r="G231" t="s">
-        <v>117</v>
-      </c>
-      <c r="H231" t="s">
-        <v>1012</v>
+        <v>325</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>934</v>
+        <v>853</v>
       </c>
       <c r="C232" t="s">
-        <v>1098</v>
+        <v>1007</v>
       </c>
       <c r="D232" t="s">
-        <v>1099</v>
+        <v>11</v>
       </c>
       <c r="E232" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F232" t="s">
-        <v>854</v>
+        <v>776</v>
       </c>
       <c r="G232" t="s">
-        <v>117</v>
+        <v>589</v>
       </c>
       <c r="H232" t="s">
-        <v>1013</v>
+        <v>924</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>765</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>935</v>
+        <v>723</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1008</v>
       </c>
       <c r="D233" t="s">
-        <v>1100</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>855</v>
+        <v>777</v>
       </c>
       <c r="G233" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="H233" t="s">
-        <v>1014</v>
+        <v>925</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>936</v>
+        <v>855</v>
       </c>
       <c r="C234" t="s">
-        <v>1101</v>
+        <v>1009</v>
+      </c>
+      <c r="D234" t="s">
+        <v>11</v>
       </c>
       <c r="E234" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>856</v>
+        <v>778</v>
       </c>
       <c r="G234" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="H234" t="s">
-        <v>1015</v>
+        <v>926</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>767</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C235" t="s">
-        <v>1102</v>
+        <v>725</v>
+      </c>
+      <c r="B235" t="s">
+        <v>11</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1010</v>
       </c>
       <c r="E235" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>857</v>
+        <v>779</v>
       </c>
       <c r="G235" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="H235" t="s">
-        <v>1016</v>
+        <v>927</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>938</v>
+        <v>857</v>
       </c>
       <c r="C236" t="s">
-        <v>1103</v>
+        <v>1011</v>
+      </c>
+      <c r="D236" t="s">
+        <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F236" t="s">
-        <v>858</v>
+        <v>780</v>
       </c>
       <c r="G236" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="H236" t="s">
-        <v>1017</v>
+        <v>928</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>769</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>939</v>
+        <v>998</v>
+      </c>
+      <c r="B237" t="s">
+        <v>999</v>
       </c>
       <c r="C237" t="s">
-        <v>628</v>
+        <v>1000</v>
+      </c>
+      <c r="D237" t="s">
+        <v>11</v>
       </c>
       <c r="E237" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>859</v>
+        <v>1001</v>
       </c>
       <c r="G237" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H237" t="s">
-        <v>1018</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>770</v>
+        <v>1013</v>
       </c>
       <c r="B238" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>940</v>
+        <v>1014</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D238" t="s">
+        <v>11</v>
       </c>
       <c r="E238" t="s">
-        <v>38</v>
+        <v>373</v>
       </c>
       <c r="F238" t="s">
-        <v>860</v>
+        <v>1016</v>
       </c>
       <c r="G238" t="s">
-        <v>117</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>771</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>941</v>
+        <v>1084</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1099</v>
       </c>
       <c r="C239" t="s">
-        <v>1110</v>
+        <v>1090</v>
+      </c>
+      <c r="D239" t="s">
+        <v>11</v>
       </c>
       <c r="E239" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>861</v>
+        <v>1103</v>
       </c>
       <c r="G239" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H239" t="s">
-        <v>1019</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>772</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>942</v>
+        <v>1085</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1099</v>
       </c>
       <c r="C240" t="s">
-        <v>1111</v>
+        <v>1089</v>
+      </c>
+      <c r="D240" t="s">
+        <v>11</v>
       </c>
       <c r="E240" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F240" t="s">
-        <v>862</v>
+        <v>1106</v>
       </c>
       <c r="G240" t="s">
-        <v>1104</v>
+        <v>341</v>
       </c>
       <c r="H240" t="s">
-        <v>1012</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>773</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>943</v>
+        <v>1086</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1099</v>
       </c>
       <c r="C241" t="s">
-        <v>1112</v>
+        <v>1088</v>
+      </c>
+      <c r="D241" t="s">
+        <v>11</v>
       </c>
       <c r="E241" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>863</v>
+        <v>1107</v>
       </c>
       <c r="G241" t="s">
-        <v>14</v>
+        <v>341</v>
       </c>
       <c r="H241" t="s">
-        <v>1020</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>774</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>944</v>
+        <v>1087</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1099</v>
       </c>
       <c r="C242" t="s">
-        <v>1113</v>
+        <v>1111</v>
+      </c>
+      <c r="D242" t="s">
+        <v>11</v>
       </c>
       <c r="E242" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F242" t="s">
-        <v>864</v>
+        <v>1112</v>
       </c>
       <c r="G242" t="s">
-        <v>348</v>
+        <v>13</v>
       </c>
       <c r="H242" t="s">
-        <v>1021</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>775</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>945</v>
+        <v>1095</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D243" t="s">
+        <v>11</v>
       </c>
       <c r="E243" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>865</v>
+        <v>1108</v>
       </c>
       <c r="G243" t="s">
-        <v>348</v>
+        <v>341</v>
+      </c>
+      <c r="H243" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>776</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>946</v>
+        <v>1096</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1099</v>
       </c>
       <c r="C244" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D244" t="s">
+        <v>11</v>
+      </c>
+      <c r="E244" t="s">
+        <v>12</v>
+      </c>
+      <c r="F244" t="s">
         <v>1114</v>
       </c>
-      <c r="E244" t="s">
-        <v>38</v>
-      </c>
-      <c r="F244" t="s">
-        <v>866</v>
-      </c>
       <c r="G244" t="s">
-        <v>624</v>
+        <v>341</v>
       </c>
       <c r="H244" t="s">
-        <v>1022</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>777</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>947</v>
+        <v>1097</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1099</v>
       </c>
       <c r="C245" t="s">
-        <v>1115</v>
+        <v>1100</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
       </c>
       <c r="E245" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F245" t="s">
-        <v>867</v>
+        <v>1104</v>
       </c>
       <c r="G245" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="H245" t="s">
-        <v>1023</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>778</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>948</v>
+        <v>1098</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1099</v>
       </c>
       <c r="C246" t="s">
-        <v>1116</v>
+        <v>1102</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
       </c>
       <c r="E246" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F246" t="s">
-        <v>868</v>
+        <v>1105</v>
       </c>
       <c r="G246" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="H246" t="s">
-        <v>1024</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>779</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>949</v>
+        <v>1091</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1092</v>
       </c>
       <c r="D247" t="s">
-        <v>1117</v>
+        <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F247" t="s">
-        <v>869</v>
+        <v>1093</v>
       </c>
       <c r="G247" t="s">
-        <v>313</v>
+        <v>13</v>
       </c>
       <c r="H247" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>780</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E248" t="s">
-        <v>38</v>
-      </c>
-      <c r="F248" t="s">
-        <v>870</v>
-      </c>
-      <c r="G248" t="s">
-        <v>1119</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>1105</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1106</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1107</v>
-      </c>
-      <c r="E249" t="s">
-        <v>38</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G249" t="s">
-        <v>14</v>
+        <v>1094</v>
       </c>
     </row>
   </sheetData>
@@ -9867,296 +10163,287 @@
     <hyperlink ref="D35" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
     <hyperlink ref="B36" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
     <hyperlink ref="C36" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C37" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="D37" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B38" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C38" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B39" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C39" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B40" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C40" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B41" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B42" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C42" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D42" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B43" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C43" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B44" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C44" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D44" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C45" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D45" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B46" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C47" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D47" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B48" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C48" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B49" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C49" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B50" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B51" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C51" r:id="rId109" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B52" r:id="rId110" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C52" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D52" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B53" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C53" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D54" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B55" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C55" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B56" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C56" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D56" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B57" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C57" r:id="rId125" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B58" r:id="rId126" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C58" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D58" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B59" r:id="rId129" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C59" r:id="rId130" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D59" r:id="rId131" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B60" r:id="rId132" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C60" r:id="rId133" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B61" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C61" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B62" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C62" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B63" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C63" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B64" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C64" r:id="rId141" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D64" r:id="rId142" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B65" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C65" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B66" r:id="rId145" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C66" r:id="rId146" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D66" r:id="rId147" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B67" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C67" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B68" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C68" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B69" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C69" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B70" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C70" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D70" r:id="rId156" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B71" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C71" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B72" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C72" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D72" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B73" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C73" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B74" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C74" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B75" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C75" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B76" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C76" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B77" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C77" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B78" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C78" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B79" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C79" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B80" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C80" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B81" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C81" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B82" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C82" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B83" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C83" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D83" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B84" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C84" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B85" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C85" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="D85" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B86" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C86" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="D86" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B87" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C87" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B88" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C88" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B89" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C89" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B90" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C90" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B91" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C91" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="D91" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B92" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="D92" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B93" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C93" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="D93" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B94" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="D94" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B95" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C95" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="D95" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B96" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="D96" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B97" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C97" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="D97" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B98" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C98" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="D98" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B99" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C99" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B100" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C100" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B101" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C101" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B102" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C102" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B103" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C103" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B104" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C104" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B105" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C105" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="D105" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B106" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B107" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C107" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B108" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C108" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C109" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="D109" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C110" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="D110" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="C111" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="D111" r:id="rId247" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B112" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="C112" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="C129" r:id="rId250" xr:uid="{185FB0CC-1BFF-5145-BEB3-72BDF47C8947}"/>
-    <hyperlink ref="C130" r:id="rId251" xr:uid="{97A80B27-831C-6549-8311-FA687785EA30}"/>
-    <hyperlink ref="C131" r:id="rId252" xr:uid="{C6C180D4-D87A-4D48-8817-ABD91B6243AD}"/>
-    <hyperlink ref="C132" r:id="rId253" xr:uid="{F4F61C2C-C1F7-7147-8DAC-F04A10994944}"/>
-    <hyperlink ref="C133" r:id="rId254" xr:uid="{1E329ECB-8E96-9C44-BFA1-914822245AD5}"/>
-    <hyperlink ref="C135" r:id="rId255" xr:uid="{2A87F5BC-C340-6149-B12F-3F9425A0527B}"/>
-    <hyperlink ref="C136" r:id="rId256" xr:uid="{2407433B-D83D-2742-B1C3-CF65FF93283D}"/>
-    <hyperlink ref="C137" r:id="rId257" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
-    <hyperlink ref="C138" r:id="rId258" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
-    <hyperlink ref="C139" r:id="rId259" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
-    <hyperlink ref="C140" r:id="rId260" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
-    <hyperlink ref="C141" r:id="rId261" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
-    <hyperlink ref="C142" r:id="rId262" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
-    <hyperlink ref="C143" r:id="rId263" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
-    <hyperlink ref="C144" r:id="rId264" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
-    <hyperlink ref="C145" r:id="rId265" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
-    <hyperlink ref="C146" r:id="rId266" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
-    <hyperlink ref="C147" r:id="rId267" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
-    <hyperlink ref="C148" r:id="rId268" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
-    <hyperlink ref="C149" r:id="rId269" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
-    <hyperlink ref="C150" r:id="rId270" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
-    <hyperlink ref="C151" r:id="rId271" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
-    <hyperlink ref="C152" r:id="rId272" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
-    <hyperlink ref="C134" r:id="rId273" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
-    <hyperlink ref="C155" r:id="rId274" xr:uid="{F234784D-26C2-A545-B685-EF602C8D974F}"/>
-    <hyperlink ref="C156" r:id="rId275" xr:uid="{0CF53428-4492-AE40-9C02-9FABA2BA0D3B}"/>
-    <hyperlink ref="B159" r:id="rId276" xr:uid="{6E42F66B-4B80-564E-8A39-545051468745}"/>
-    <hyperlink ref="B160" r:id="rId277" xr:uid="{D200C44B-A95E-434E-B96F-F097A5CB9796}"/>
-    <hyperlink ref="B161" r:id="rId278" xr:uid="{6C870BBD-0FCA-4E4D-8C04-64F66A4CDDBD}"/>
-    <hyperlink ref="B162" r:id="rId279" xr:uid="{13618F8B-EF5F-744B-92F0-4F8047208B03}"/>
-    <hyperlink ref="B163" r:id="rId280" xr:uid="{369A99E5-8534-484F-9378-38EA1F763D49}"/>
-    <hyperlink ref="B165" r:id="rId281" xr:uid="{F755E08D-37B2-7740-8B78-61FD6A0062F8}"/>
-    <hyperlink ref="B166" r:id="rId282" xr:uid="{DE03D456-C44C-C442-8758-FF0ADB5910C9}"/>
-    <hyperlink ref="B167" r:id="rId283" xr:uid="{DD51AED9-A8BF-E340-A7B8-574926029C7A}"/>
-    <hyperlink ref="B168" r:id="rId284" xr:uid="{4106DA73-80ED-0C48-9333-CF22AD9B453B}"/>
-    <hyperlink ref="B169" r:id="rId285" xr:uid="{24AA6FBD-DA03-1641-9CCE-C4125E436587}"/>
-    <hyperlink ref="B170" r:id="rId286" xr:uid="{671C41C7-BBE6-6244-AC5F-C2D5050A9976}"/>
-    <hyperlink ref="B171" r:id="rId287" xr:uid="{0A61AD93-54F4-B64C-A125-A39B41D20037}"/>
-    <hyperlink ref="B172" r:id="rId288" xr:uid="{B21EB3D6-55DF-A648-99FE-B9174BEB51CF}"/>
-    <hyperlink ref="B173" r:id="rId289" xr:uid="{EDD64D5C-42F2-1944-868E-02CE17E0C28C}"/>
-    <hyperlink ref="B175" r:id="rId290" xr:uid="{76E6FFD7-9F09-F545-9058-D27B73251ABF}"/>
-    <hyperlink ref="B176" r:id="rId291" xr:uid="{9ADE58D5-16AC-DC4F-A820-2981CD2C5EE1}"/>
-    <hyperlink ref="C177" r:id="rId292" xr:uid="{8D033399-8CBD-724D-80CD-C7397C3C2A0F}"/>
-    <hyperlink ref="B178" r:id="rId293" xr:uid="{F189FB3D-7F71-F049-9FF0-A228A965B4D8}"/>
-    <hyperlink ref="B179" r:id="rId294" xr:uid="{01B1B80B-C304-4D4F-A53E-AB4D0EE61624}"/>
-    <hyperlink ref="B180" r:id="rId295" xr:uid="{F690EC01-0A49-E548-9E56-0EACEA75EA38}"/>
-    <hyperlink ref="B181" r:id="rId296" xr:uid="{7F51F9C1-398D-9749-A281-E22D1309A30E}"/>
-    <hyperlink ref="B182" r:id="rId297" xr:uid="{64214232-7C7F-8444-9AAC-0A4BBD3AF2D1}"/>
-    <hyperlink ref="B183" r:id="rId298" xr:uid="{7AF546D0-B342-424F-A68E-944E05062E8A}"/>
-    <hyperlink ref="B184" r:id="rId299" xr:uid="{0050ED55-AE7F-E64C-87FF-712ACBB46C7D}"/>
-    <hyperlink ref="B185" r:id="rId300" xr:uid="{83754876-42D8-E74F-91FA-9CECBBAC6924}"/>
-    <hyperlink ref="B186" r:id="rId301" xr:uid="{A68C505D-29A1-AB46-8A1B-05349FAF5F67}"/>
-    <hyperlink ref="B188" r:id="rId302" xr:uid="{337A6E39-03DD-064F-BF1E-FA6674858C0B}"/>
-    <hyperlink ref="B189" r:id="rId303" xr:uid="{8D3B4445-BD15-E441-B13B-E90EAF62DA8E}"/>
-    <hyperlink ref="B190" r:id="rId304" xr:uid="{F8DCC388-ABD3-2544-8E1A-8EAF5A2DAA9C}"/>
-    <hyperlink ref="B191" r:id="rId305" xr:uid="{BC6EE541-680A-884F-958C-C07EA84B94D8}"/>
-    <hyperlink ref="B192" r:id="rId306" xr:uid="{DD1C41B7-F12D-0B4A-807D-2D572F6BC0DA}"/>
-    <hyperlink ref="B193" r:id="rId307" xr:uid="{456B4E6A-BAF0-1C4B-A5A2-33029913A11F}"/>
-    <hyperlink ref="B194" r:id="rId308" xr:uid="{AB596C81-A2E4-D84E-97FF-F4EDC38B3AB7}"/>
-    <hyperlink ref="B195" r:id="rId309" xr:uid="{6925BDA1-8306-C94C-B344-AC929606B70C}"/>
-    <hyperlink ref="B196" r:id="rId310" xr:uid="{F1F6DFAC-7F73-E242-80A6-0A54A6B92CBA}"/>
-    <hyperlink ref="C197" r:id="rId311" xr:uid="{2B979D45-F5FD-A54F-886F-C8E41EB241BE}"/>
-    <hyperlink ref="B198" r:id="rId312" xr:uid="{A4B83D25-A914-374B-AC70-67BC2B213C2A}"/>
-    <hyperlink ref="B199" r:id="rId313" xr:uid="{F533F9B9-2BCF-A847-AC92-C786DBA1CF4B}"/>
-    <hyperlink ref="B200" r:id="rId314" xr:uid="{6C8BEC30-39CE-A548-BBDD-73A01B452059}"/>
-    <hyperlink ref="B201" r:id="rId315" xr:uid="{85FCE497-9E96-6648-867F-752AA283D510}"/>
-    <hyperlink ref="B202" r:id="rId316" xr:uid="{9A551CBC-6E0D-CF40-9A3C-3D3069EF4378}"/>
-    <hyperlink ref="B203" r:id="rId317" xr:uid="{43C3B803-5A07-A642-8293-EBD66D59834D}"/>
-    <hyperlink ref="C204" r:id="rId318" xr:uid="{31EDEE6A-D8E5-8C48-87E9-064EB36F385C}"/>
-    <hyperlink ref="B205" r:id="rId319" xr:uid="{F9240DAF-1152-804D-82D6-CD96D548238C}"/>
-    <hyperlink ref="B206" r:id="rId320" xr:uid="{DD79C80C-1BE5-F149-88DD-8DA5369DFCAD}"/>
-    <hyperlink ref="B207" r:id="rId321" xr:uid="{B0E436A7-E831-8E4C-9EAC-5207B2FC9DA3}"/>
-    <hyperlink ref="B208" r:id="rId322" xr:uid="{945AD53A-A851-EB4A-B3AC-9B72897828BE}"/>
-    <hyperlink ref="B209" r:id="rId323" xr:uid="{FAEF4F3C-0C71-C542-B31C-BDECF30F1ABE}"/>
-    <hyperlink ref="B210" r:id="rId324" xr:uid="{16789C92-8D31-CA42-A3C5-F457DE323071}"/>
-    <hyperlink ref="B211" r:id="rId325" xr:uid="{C9BB414A-D34A-A743-8C91-1506BC729AF1}"/>
-    <hyperlink ref="B212" r:id="rId326" xr:uid="{6D9DADBC-8196-E347-8C58-250AA5A636C0}"/>
-    <hyperlink ref="B213" r:id="rId327" xr:uid="{7E709984-032A-6D43-B8C0-35BB36F33A8B}"/>
-    <hyperlink ref="B214" r:id="rId328" xr:uid="{AF735B37-2761-6B44-8457-C70F018D475D}"/>
-    <hyperlink ref="C215" r:id="rId329" xr:uid="{F3E9CC02-E232-F247-910C-0F8F818F15FD}"/>
-    <hyperlink ref="B216" r:id="rId330" xr:uid="{CF20CF77-6D17-A640-BC1C-06D8AC56128F}"/>
-    <hyperlink ref="B217" r:id="rId331" xr:uid="{05A67C14-E63C-6643-A98B-DE5374A332F7}"/>
-    <hyperlink ref="B218" r:id="rId332" xr:uid="{2E28DB30-178A-5F43-BABB-5699190A802A}"/>
-    <hyperlink ref="C219" r:id="rId333" xr:uid="{D1AA51DE-D608-3D45-AD22-E8B64F1419E7}"/>
-    <hyperlink ref="C220" r:id="rId334" xr:uid="{9BABC60F-FE82-5248-9E79-B718EC0F659A}"/>
-    <hyperlink ref="C221" r:id="rId335" xr:uid="{03289203-0011-5743-AC70-D84C9B97DC6E}"/>
-    <hyperlink ref="C222" r:id="rId336" xr:uid="{1B79D66B-2C73-624F-A90B-DE414F9850D6}"/>
-    <hyperlink ref="C223" r:id="rId337" xr:uid="{43F13A60-CCD1-0C40-AB37-E9F9EE97732E}"/>
-    <hyperlink ref="C224" r:id="rId338" xr:uid="{1C156BC9-5818-4049-8EF2-B540C3E68E81}"/>
-    <hyperlink ref="B225" r:id="rId339" xr:uid="{53D53A00-1672-664D-91C8-7C5331F6CCA5}"/>
-    <hyperlink ref="B226" r:id="rId340" xr:uid="{515855E3-E3E4-F845-9DC8-E34325F7F3DA}"/>
-    <hyperlink ref="B227" r:id="rId341" xr:uid="{BA928391-E722-7746-BED2-1C83F80C0DBC}"/>
-    <hyperlink ref="B228" r:id="rId342" xr:uid="{102F6A53-9ABC-3E45-BD5C-B9BF66066C2A}"/>
-    <hyperlink ref="B229" r:id="rId343" xr:uid="{1285018C-691B-2E4B-A2D4-583D0B414C1F}"/>
-    <hyperlink ref="B230" r:id="rId344" xr:uid="{76AAE9CF-2707-B143-B652-46D8CE36A647}"/>
-    <hyperlink ref="C231" r:id="rId345" xr:uid="{6F160E9C-28C2-9641-9DFC-22F25114A500}"/>
-    <hyperlink ref="B232" r:id="rId346" xr:uid="{73B6A897-CC12-624B-B420-3142BFB3B7E7}"/>
-    <hyperlink ref="C233" r:id="rId347" xr:uid="{97260B38-6E63-8949-A540-58D6E311FC48}"/>
-    <hyperlink ref="B234" r:id="rId348" xr:uid="{63962B13-F41B-C849-BD6B-055FC35A58D4}"/>
-    <hyperlink ref="B235" r:id="rId349" xr:uid="{76C9DF5E-2957-2841-B4F2-ABA46671CCA0}"/>
-    <hyperlink ref="B236" r:id="rId350" xr:uid="{89A49EA1-C764-B740-A236-82525B727186}"/>
-    <hyperlink ref="B237" r:id="rId351" xr:uid="{ECE997AF-CE38-B24F-ADBF-641D516BA06C}"/>
-    <hyperlink ref="C238" r:id="rId352" xr:uid="{E42A850B-432C-BD4F-ADAD-269074FD12D7}"/>
-    <hyperlink ref="B239" r:id="rId353" xr:uid="{C1923A14-8FC3-3048-929B-76B8E6CABE4E}"/>
-    <hyperlink ref="B240" r:id="rId354" xr:uid="{FB93A9DD-F604-164C-8539-EE9D683EAE3F}"/>
-    <hyperlink ref="B241" r:id="rId355" xr:uid="{3ED03127-35DA-8A49-93C9-896BA1D8DC06}"/>
-    <hyperlink ref="B242" r:id="rId356" xr:uid="{6AECACA9-7563-5844-88E8-65163C3C2045}"/>
-    <hyperlink ref="C243" r:id="rId357" xr:uid="{8922321F-CDC7-5A46-838D-8D1A2F011DBC}"/>
-    <hyperlink ref="B244" r:id="rId358" xr:uid="{97E5BE47-CB30-1E45-9F11-15A6DE53936E}"/>
-    <hyperlink ref="B245" r:id="rId359" xr:uid="{B055B99F-8704-CA44-985E-FEE3A9E3B3EB}"/>
-    <hyperlink ref="B246" r:id="rId360" xr:uid="{5FEA98AF-8D00-C041-8FAA-30E8369F763B}"/>
-    <hyperlink ref="C247" r:id="rId361" xr:uid="{6782F7DA-4236-7740-A30E-EFCC23B81659}"/>
-    <hyperlink ref="B248" r:id="rId362" xr:uid="{ECA5F0C7-3864-ED48-B6A1-19E564969867}"/>
-    <hyperlink ref="B157" r:id="rId363" xr:uid="{C9B92141-6E73-914D-864F-BCF52A0441AB}"/>
-    <hyperlink ref="B158" r:id="rId364" xr:uid="{30CCC1BD-1B7B-1744-9D0C-3E64AC89FBBA}"/>
+    <hyperlink ref="B37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C37" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B38" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C38" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B39" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C39" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B40" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C40" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B41" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C41" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B42" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C42" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B43" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C43" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D43" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B44" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C44" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D44" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C45" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B46" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C46" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C47" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B48" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C48" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B49" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B50" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C50" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B51" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C51" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D51" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B52" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C52" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D52" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B53" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C53" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B55" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C55" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D55" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B56" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C56" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B57" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C57" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D57" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B58" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C58" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D58" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B59" r:id="rId129" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C59" r:id="rId130" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C60" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B61" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C61" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B62" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C62" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B63" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C63" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D63" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B64" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C64" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B65" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C65" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D65" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B66" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C66" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B67" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C67" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B68" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C68" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B69" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C69" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D69" r:id="rId153" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B70" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C70" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B71" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C71" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D71" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B72" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C72" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B73" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C73" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B74" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C74" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B75" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C75" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B76" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C76" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B77" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C77" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B78" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C78" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B79" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C79" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B80" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C80" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B81" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="C81" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B82" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C82" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D82" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B83" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C83" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B84" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C84" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D84" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B85" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C85" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D85" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B86" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C86" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B87" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C87" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B88" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C88" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B89" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C89" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B90" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C90" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="D90" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B91" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D91" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B92" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C92" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D92" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B93" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="D93" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B94" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C94" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="D94" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B95" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D95" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B96" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C96" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D96" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B97" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C97" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D97" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B98" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C98" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B99" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C99" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B100" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C100" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B101" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C101" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B102" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C102" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B103" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C103" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B104" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C104" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="D104" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B105" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B106" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C106" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B107" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C107" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C108" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="D108" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C109" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="D109" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C110" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="D110" r:id="rId244" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B111" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C111" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C128" r:id="rId247" xr:uid="{185FB0CC-1BFF-5145-BEB3-72BDF47C8947}"/>
+    <hyperlink ref="C129" r:id="rId248" xr:uid="{97A80B27-831C-6549-8311-FA687785EA30}"/>
+    <hyperlink ref="C130" r:id="rId249" xr:uid="{F4F61C2C-C1F7-7147-8DAC-F04A10994944}"/>
+    <hyperlink ref="C132" r:id="rId250" xr:uid="{2A87F5BC-C340-6149-B12F-3F9425A0527B}"/>
+    <hyperlink ref="C133" r:id="rId251" xr:uid="{2407433B-D83D-2742-B1C3-CF65FF93283D}"/>
+    <hyperlink ref="C134" r:id="rId252" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
+    <hyperlink ref="C135" r:id="rId253" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
+    <hyperlink ref="C136" r:id="rId254" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
+    <hyperlink ref="C137" r:id="rId255" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
+    <hyperlink ref="C138" r:id="rId256" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
+    <hyperlink ref="C139" r:id="rId257" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
+    <hyperlink ref="C140" r:id="rId258" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
+    <hyperlink ref="C141" r:id="rId259" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
+    <hyperlink ref="C142" r:id="rId260" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
+    <hyperlink ref="C143" r:id="rId261" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
+    <hyperlink ref="C144" r:id="rId262" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
+    <hyperlink ref="C145" r:id="rId263" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
+    <hyperlink ref="C146" r:id="rId264" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
+    <hyperlink ref="C147" r:id="rId265" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
+    <hyperlink ref="C148" r:id="rId266" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
+    <hyperlink ref="C149" r:id="rId267" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
+    <hyperlink ref="C131" r:id="rId268" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
+    <hyperlink ref="C150" r:id="rId269" xr:uid="{F234784D-26C2-A545-B685-EF602C8D974F}"/>
+    <hyperlink ref="C151" r:id="rId270" xr:uid="{0CF53428-4492-AE40-9C02-9FABA2BA0D3B}"/>
+    <hyperlink ref="B153" r:id="rId271" xr:uid="{6E42F66B-4B80-564E-8A39-545051468745}"/>
+    <hyperlink ref="B154" r:id="rId272" xr:uid="{D200C44B-A95E-434E-B96F-F097A5CB9796}"/>
+    <hyperlink ref="B155" r:id="rId273" xr:uid="{6C870BBD-0FCA-4E4D-8C04-64F66A4CDDBD}"/>
+    <hyperlink ref="B156" r:id="rId274" xr:uid="{13618F8B-EF5F-744B-92F0-4F8047208B03}"/>
+    <hyperlink ref="B157" r:id="rId275" xr:uid="{369A99E5-8534-484F-9378-38EA1F763D49}"/>
+    <hyperlink ref="B158" r:id="rId276" xr:uid="{F755E08D-37B2-7740-8B78-61FD6A0062F8}"/>
+    <hyperlink ref="B159" r:id="rId277" xr:uid="{DE03D456-C44C-C442-8758-FF0ADB5910C9}"/>
+    <hyperlink ref="B160" r:id="rId278" xr:uid="{DD51AED9-A8BF-E340-A7B8-574926029C7A}"/>
+    <hyperlink ref="B161" r:id="rId279" xr:uid="{4106DA73-80ED-0C48-9333-CF22AD9B453B}"/>
+    <hyperlink ref="B162" r:id="rId280" xr:uid="{24AA6FBD-DA03-1641-9CCE-C4125E436587}"/>
+    <hyperlink ref="B163" r:id="rId281" xr:uid="{671C41C7-BBE6-6244-AC5F-C2D5050A9976}"/>
+    <hyperlink ref="B164" r:id="rId282" xr:uid="{0A61AD93-54F4-B64C-A125-A39B41D20037}"/>
+    <hyperlink ref="B165" r:id="rId283" xr:uid="{B21EB3D6-55DF-A648-99FE-B9174BEB51CF}"/>
+    <hyperlink ref="B166" r:id="rId284" xr:uid="{EDD64D5C-42F2-1944-868E-02CE17E0C28C}"/>
+    <hyperlink ref="B168" r:id="rId285" xr:uid="{76E6FFD7-9F09-F545-9058-D27B73251ABF}"/>
+    <hyperlink ref="B169" r:id="rId286" xr:uid="{9ADE58D5-16AC-DC4F-A820-2981CD2C5EE1}"/>
+    <hyperlink ref="C170" r:id="rId287" xr:uid="{8D033399-8CBD-724D-80CD-C7397C3C2A0F}"/>
+    <hyperlink ref="B171" r:id="rId288" xr:uid="{01B1B80B-C304-4D4F-A53E-AB4D0EE61624}"/>
+    <hyperlink ref="B172" r:id="rId289" xr:uid="{F690EC01-0A49-E548-9E56-0EACEA75EA38}"/>
+    <hyperlink ref="B173" r:id="rId290" xr:uid="{7F51F9C1-398D-9749-A281-E22D1309A30E}"/>
+    <hyperlink ref="B174" r:id="rId291" xr:uid="{64214232-7C7F-8444-9AAC-0A4BBD3AF2D1}"/>
+    <hyperlink ref="B175" r:id="rId292" xr:uid="{7AF546D0-B342-424F-A68E-944E05062E8A}"/>
+    <hyperlink ref="B176" r:id="rId293" xr:uid="{0050ED55-AE7F-E64C-87FF-712ACBB46C7D}"/>
+    <hyperlink ref="B177" r:id="rId294" xr:uid="{83754876-42D8-E74F-91FA-9CECBBAC6924}"/>
+    <hyperlink ref="B178" r:id="rId295" xr:uid="{337A6E39-03DD-064F-BF1E-FA6674858C0B}"/>
+    <hyperlink ref="B179" r:id="rId296" xr:uid="{8D3B4445-BD15-E441-B13B-E90EAF62DA8E}"/>
+    <hyperlink ref="B180" r:id="rId297" xr:uid="{F8DCC388-ABD3-2544-8E1A-8EAF5A2DAA9C}"/>
+    <hyperlink ref="B181" r:id="rId298" xr:uid="{BC6EE541-680A-884F-958C-C07EA84B94D8}"/>
+    <hyperlink ref="B182" r:id="rId299" xr:uid="{DD1C41B7-F12D-0B4A-807D-2D572F6BC0DA}"/>
+    <hyperlink ref="B183" r:id="rId300" xr:uid="{456B4E6A-BAF0-1C4B-A5A2-33029913A11F}"/>
+    <hyperlink ref="B184" r:id="rId301" xr:uid="{AB596C81-A2E4-D84E-97FF-F4EDC38B3AB7}"/>
+    <hyperlink ref="B185" r:id="rId302" xr:uid="{6925BDA1-8306-C94C-B344-AC929606B70C}"/>
+    <hyperlink ref="B186" r:id="rId303" xr:uid="{F1F6DFAC-7F73-E242-80A6-0A54A6B92CBA}"/>
+    <hyperlink ref="C187" r:id="rId304" xr:uid="{2B979D45-F5FD-A54F-886F-C8E41EB241BE}"/>
+    <hyperlink ref="B188" r:id="rId305" xr:uid="{A4B83D25-A914-374B-AC70-67BC2B213C2A}"/>
+    <hyperlink ref="B189" r:id="rId306" xr:uid="{F533F9B9-2BCF-A847-AC92-C786DBA1CF4B}"/>
+    <hyperlink ref="B190" r:id="rId307" xr:uid="{6C8BEC30-39CE-A548-BBDD-73A01B452059}"/>
+    <hyperlink ref="B191" r:id="rId308" xr:uid="{85FCE497-9E96-6648-867F-752AA283D510}"/>
+    <hyperlink ref="B192" r:id="rId309" xr:uid="{43C3B803-5A07-A642-8293-EBD66D59834D}"/>
+    <hyperlink ref="C193" r:id="rId310" xr:uid="{31EDEE6A-D8E5-8C48-87E9-064EB36F385C}"/>
+    <hyperlink ref="B194" r:id="rId311" xr:uid="{F9240DAF-1152-804D-82D6-CD96D548238C}"/>
+    <hyperlink ref="B195" r:id="rId312" xr:uid="{DD79C80C-1BE5-F149-88DD-8DA5369DFCAD}"/>
+    <hyperlink ref="B196" r:id="rId313" xr:uid="{B0E436A7-E831-8E4C-9EAC-5207B2FC9DA3}"/>
+    <hyperlink ref="B197" r:id="rId314" xr:uid="{945AD53A-A851-EB4A-B3AC-9B72897828BE}"/>
+    <hyperlink ref="B198" r:id="rId315" xr:uid="{FAEF4F3C-0C71-C542-B31C-BDECF30F1ABE}"/>
+    <hyperlink ref="B199" r:id="rId316" xr:uid="{16789C92-8D31-CA42-A3C5-F457DE323071}"/>
+    <hyperlink ref="B200" r:id="rId317" xr:uid="{C9BB414A-D34A-A743-8C91-1506BC729AF1}"/>
+    <hyperlink ref="B201" r:id="rId318" xr:uid="{7E709984-032A-6D43-B8C0-35BB36F33A8B}"/>
+    <hyperlink ref="B202" r:id="rId319" xr:uid="{AF735B37-2761-6B44-8457-C70F018D475D}"/>
+    <hyperlink ref="C203" r:id="rId320" xr:uid="{F3E9CC02-E232-F247-910C-0F8F818F15FD}"/>
+    <hyperlink ref="B204" r:id="rId321" xr:uid="{CF20CF77-6D17-A640-BC1C-06D8AC56128F}"/>
+    <hyperlink ref="B205" r:id="rId322" xr:uid="{05A67C14-E63C-6643-A98B-DE5374A332F7}"/>
+    <hyperlink ref="B206" r:id="rId323" xr:uid="{2E28DB30-178A-5F43-BABB-5699190A802A}"/>
+    <hyperlink ref="C207" r:id="rId324" xr:uid="{D1AA51DE-D608-3D45-AD22-E8B64F1419E7}"/>
+    <hyperlink ref="C208" r:id="rId325" xr:uid="{9BABC60F-FE82-5248-9E79-B718EC0F659A}"/>
+    <hyperlink ref="C209" r:id="rId326" xr:uid="{03289203-0011-5743-AC70-D84C9B97DC6E}"/>
+    <hyperlink ref="C210" r:id="rId327" xr:uid="{1B79D66B-2C73-624F-A90B-DE414F9850D6}"/>
+    <hyperlink ref="C211" r:id="rId328" xr:uid="{43F13A60-CCD1-0C40-AB37-E9F9EE97732E}"/>
+    <hyperlink ref="C212" r:id="rId329" xr:uid="{1C156BC9-5818-4049-8EF2-B540C3E68E81}"/>
+    <hyperlink ref="B213" r:id="rId330" xr:uid="{53D53A00-1672-664D-91C8-7C5331F6CCA5}"/>
+    <hyperlink ref="B214" r:id="rId331" xr:uid="{515855E3-E3E4-F845-9DC8-E34325F7F3DA}"/>
+    <hyperlink ref="B215" r:id="rId332" xr:uid="{BA928391-E722-7746-BED2-1C83F80C0DBC}"/>
+    <hyperlink ref="B216" r:id="rId333" xr:uid="{102F6A53-9ABC-3E45-BD5C-B9BF66066C2A}"/>
+    <hyperlink ref="B217" r:id="rId334" xr:uid="{1285018C-691B-2E4B-A2D4-583D0B414C1F}"/>
+    <hyperlink ref="B218" r:id="rId335" xr:uid="{76AAE9CF-2707-B143-B652-46D8CE36A647}"/>
+    <hyperlink ref="C219" r:id="rId336" xr:uid="{6F160E9C-28C2-9641-9DFC-22F25114A500}"/>
+    <hyperlink ref="B220" r:id="rId337" xr:uid="{73B6A897-CC12-624B-B420-3142BFB3B7E7}"/>
+    <hyperlink ref="C221" r:id="rId338" xr:uid="{97260B38-6E63-8949-A540-58D6E311FC48}"/>
+    <hyperlink ref="B222" r:id="rId339" xr:uid="{63962B13-F41B-C849-BD6B-055FC35A58D4}"/>
+    <hyperlink ref="B223" r:id="rId340" xr:uid="{76C9DF5E-2957-2841-B4F2-ABA46671CCA0}"/>
+    <hyperlink ref="B224" r:id="rId341" xr:uid="{89A49EA1-C764-B740-A236-82525B727186}"/>
+    <hyperlink ref="B225" r:id="rId342" xr:uid="{ECE997AF-CE38-B24F-ADBF-641D516BA06C}"/>
+    <hyperlink ref="C226" r:id="rId343" xr:uid="{E42A850B-432C-BD4F-ADAD-269074FD12D7}"/>
+    <hyperlink ref="B227" r:id="rId344" xr:uid="{C1923A14-8FC3-3048-929B-76B8E6CABE4E}"/>
+    <hyperlink ref="B228" r:id="rId345" xr:uid="{FB93A9DD-F604-164C-8539-EE9D683EAE3F}"/>
+    <hyperlink ref="B229" r:id="rId346" xr:uid="{3ED03127-35DA-8A49-93C9-896BA1D8DC06}"/>
+    <hyperlink ref="B230" r:id="rId347" xr:uid="{6AECACA9-7563-5844-88E8-65163C3C2045}"/>
+    <hyperlink ref="C231" r:id="rId348" xr:uid="{8922321F-CDC7-5A46-838D-8D1A2F011DBC}"/>
+    <hyperlink ref="B232" r:id="rId349" xr:uid="{97E5BE47-CB30-1E45-9F11-15A6DE53936E}"/>
+    <hyperlink ref="B233" r:id="rId350" xr:uid="{B055B99F-8704-CA44-985E-FEE3A9E3B3EB}"/>
+    <hyperlink ref="B234" r:id="rId351" xr:uid="{5FEA98AF-8D00-C041-8FAA-30E8369F763B}"/>
+    <hyperlink ref="C235" r:id="rId352" xr:uid="{6782F7DA-4236-7740-A30E-EFCC23B81659}"/>
+    <hyperlink ref="B236" r:id="rId353" xr:uid="{ECA5F0C7-3864-ED48-B6A1-19E564969867}"/>
+    <hyperlink ref="B152" r:id="rId354" xr:uid="{C9B92141-6E73-914D-864F-BCF52A0441AB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9869CE-C94A-8F46-A651-942F5545AF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2900E926-D0B5-6C49-8D79-DB9D2033FE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="1020" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1934" uniqueCount="1115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1108">
   <si>
     <t>name</t>
   </si>
@@ -514,18 +514,9 @@
     <t>I/O NMR-STAR files from BMRB</t>
   </si>
   <si>
-    <t>SPIKE</t>
-  </si>
-  <si>
     <t>https://pypi.org/project/spike-py/</t>
   </si>
   <si>
-    <t>https://bitbucket.org/delsuc/spike/src/default/</t>
-  </si>
-  <si>
-    <t>Processing 1D/2D spectroscopic data</t>
-  </si>
-  <si>
     <t>drawnmr</t>
   </si>
   <si>
@@ -1162,18 +1153,6 @@
     <t>Atomic/Plasma spectroscopy</t>
   </si>
   <si>
-    <t>SpecViz</t>
-  </si>
-  <si>
-    <t>https://specviz.readthedocs.io/en/stable/</t>
-  </si>
-  <si>
-    <t>https://github.com/spacetelescope/specviz</t>
-  </si>
-  <si>
-    <t>Interactive analysis of 1D astronomical spectra</t>
-  </si>
-  <si>
     <t>Vespucci</t>
   </si>
   <si>
@@ -1558,9 +1537,6 @@
     <t>https://github.com/wincowgerDEV/OpenSpecy</t>
   </si>
   <si>
-    <t>https://wincowger.shinyapps.io/OpenSpecy/</t>
-  </si>
-  <si>
     <t>https://pubs.acs.org/doi/10.1021/acs.analchem.1c00123</t>
   </si>
   <si>
@@ -1636,9 +1612,6 @@
     <t>https://academic.oup.com/bioinformatics/article/36/9/2943/5701646</t>
   </si>
   <si>
-    <t>https://sipss.github.io/AlpsNMR/articles/introduction-to-alpsnmr.html</t>
-  </si>
-  <si>
     <t>https://htmlpreview.github.io/?https://github.com/solarchemist/uvvistauc/blob/master/doc/intro.html</t>
   </si>
   <si>
@@ -3365,6 +3338,12 @@
   </si>
   <si>
     <t>Import ASCII formatted data into hyperSpec</t>
+  </si>
+  <si>
+    <t>https://sipss.github.io/AlpsNMR/index.html</t>
+  </si>
+  <si>
+    <t>https://www.openanalysis.org/openspecy</t>
   </si>
 </sst>
 </file>
@@ -3426,11 +3405,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3770,12 +3750,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H251" sqref="H251"/>
+      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3833,7 +3813,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -3859,7 +3839,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -3989,10 +3969,10 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="G8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
@@ -4018,7 +3998,7 @@
         <v>48</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H9" t="s">
         <v>11</v>
@@ -4122,7 +4102,7 @@
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="H13" t="s">
         <v>68</v>
@@ -4148,7 +4128,7 @@
         <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="H14" t="s">
         <v>73</v>
@@ -4174,7 +4154,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="H15" t="s">
         <v>73</v>
@@ -4197,7 +4177,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -4278,7 +4258,7 @@
         <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H19" t="s">
         <v>95</v>
@@ -4304,7 +4284,7 @@
         <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H20" t="s">
         <v>99</v>
@@ -4327,7 +4307,7 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -4353,7 +4333,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="G22" t="s">
         <v>107</v>
@@ -4408,7 +4388,7 @@
         <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="H24" t="s">
         <v>117</v>
@@ -4431,7 +4411,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="G25" t="s">
         <v>122</v>
@@ -4650,25 +4630,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" t="s">
-        <v>11</v>
+        <v>169</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E34" t="s">
         <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H34" t="s">
         <v>11</v>
@@ -4676,25 +4656,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
       </c>
       <c r="E35" t="s">
         <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="H35" t="s">
         <v>11</v>
@@ -4702,13 +4682,13 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
@@ -4717,10 +4697,10 @@
         <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -4728,10 +4708,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>189</v>
@@ -4746,7 +4726,7 @@
         <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>122</v>
+        <v>338</v>
       </c>
       <c r="H37" t="s">
         <v>11</v>
@@ -4760,19 +4740,19 @@
         <v>192</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G38" t="s">
-        <v>341</v>
+        <v>1018</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -4780,13 +4760,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
@@ -4795,53 +4775,53 @@
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>1036</v>
       </c>
       <c r="G39" t="s">
-        <v>1027</v>
+        <v>198</v>
       </c>
       <c r="H39" t="s">
-        <v>11</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D40" t="s">
-        <v>11</v>
+        <v>202</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="E40" t="s">
         <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>1045</v>
+        <v>204</v>
       </c>
       <c r="G40" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="H40" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D41" s="2" t="s">
         <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
       </c>
       <c r="E41" t="s">
         <v>12</v>
@@ -4866,17 +4846,17 @@
       <c r="C42" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D42" t="s">
-        <v>11</v>
+      <c r="D42" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>159</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -4884,25 +4864,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="F43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -4910,22 +4890,22 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G44" t="s">
         <v>135</v>
@@ -4936,25 +4916,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D45" t="s">
-        <v>11</v>
+        <v>225</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G45" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -4962,25 +4942,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
         <v>227</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" t="s">
-        <v>230</v>
-      </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -4988,39 +4968,39 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D47" t="s">
         <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G47" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
@@ -5029,24 +5009,24 @@
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G48" t="s">
         <v>13</v>
       </c>
       <c r="H48" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" t="s">
-        <v>11</v>
+        <v>244</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>244</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
@@ -5055,143 +5035,143 @@
         <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>1011</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D50" t="s">
-        <v>11</v>
+        <v>249</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>250</v>
       </c>
       <c r="E50" t="s">
         <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="G50" t="s">
-        <v>1020</v>
+        <v>198</v>
       </c>
       <c r="H50" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F51" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G51" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="H51" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E52" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" t="s">
+        <v>262</v>
+      </c>
+      <c r="G52" t="s">
         <v>257</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" t="s">
-        <v>259</v>
-      </c>
-      <c r="G52" t="s">
-        <v>260</v>
-      </c>
       <c r="H52" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
       </c>
       <c r="E53" t="s">
         <v>36</v>
       </c>
       <c r="F53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D54" t="s">
-        <v>11</v>
+        <v>270</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="E54" t="s">
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>269</v>
+        <v>1028</v>
       </c>
       <c r="G54" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="H54" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -5204,17 +5184,17 @@
       <c r="C55" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" t="s">
         <v>274</v>
       </c>
-      <c r="E55" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" t="s">
-        <v>1037</v>
-      </c>
       <c r="G55" t="s">
-        <v>90</v>
+        <v>1019</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -5230,17 +5210,17 @@
       <c r="C56" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="D56" t="s">
-        <v>11</v>
+      <c r="D56" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G56" t="s">
-        <v>1028</v>
+        <v>135</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
@@ -5248,65 +5228,65 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E57" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="F57" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G57" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
       </c>
       <c r="E58" t="s">
         <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>288</v>
       </c>
       <c r="H58" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D59" t="s">
         <v>11</v>
@@ -5315,10 +5295,10 @@
         <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H59" t="s">
         <v>11</v>
@@ -5326,13 +5306,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
@@ -5341,10 +5321,10 @@
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G60" t="s">
-        <v>295</v>
+        <v>13</v>
       </c>
       <c r="H60" t="s">
         <v>11</v>
@@ -5358,7 +5338,7 @@
         <v>297</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D61" t="s">
         <v>11</v>
@@ -5367,10 +5347,10 @@
         <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="H61" t="s">
         <v>11</v>
@@ -5378,25 +5358,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D62" t="s">
-        <v>11</v>
+        <v>302</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="E62" t="s">
         <v>36</v>
       </c>
       <c r="F62" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="G62" t="s">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="H62" t="s">
         <v>11</v>
@@ -5404,80 +5384,80 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D63" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="F63" t="s">
         <v>307</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>1019</v>
       </c>
       <c r="H63" t="s">
-        <v>11</v>
+        <v>308</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D64" t="s">
-        <v>11</v>
+        <v>310</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="E64" t="s">
-        <v>230</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G64" t="s">
-        <v>1028</v>
+        <v>107</v>
       </c>
       <c r="H64" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G65" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="H65" t="s">
-        <v>316</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -5488,19 +5468,19 @@
         <v>319</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>221</v>
       </c>
       <c r="F66" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G66" t="s">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="H66" t="s">
         <v>11</v>
@@ -5508,25 +5488,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>324</v>
+        <v>1029</v>
       </c>
       <c r="G67" t="s">
-        <v>325</v>
+        <v>31</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
@@ -5534,51 +5514,51 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>325</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
       <c r="E68" t="s">
         <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>1038</v>
+        <v>328</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s">
-        <v>11</v>
+        <v>329</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
       </c>
       <c r="E69" t="s">
         <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>331</v>
+        <v>1073</v>
       </c>
       <c r="G69" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
         <v>332</v>
@@ -5592,59 +5572,59 @@
         <v>334</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
+        <v>335</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>336</v>
       </c>
       <c r="E70" t="s">
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>1082</v>
+        <v>337</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H70" t="s">
-        <v>335</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
       </c>
       <c r="E71" t="s">
         <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G71" t="s">
-        <v>341</v>
+        <v>107</v>
       </c>
       <c r="H71" t="s">
-        <v>11</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -5653,21 +5633,21 @@
         <v>36</v>
       </c>
       <c r="F72" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>257</v>
       </c>
       <c r="H72" t="s">
-        <v>346</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>349</v>
@@ -5682,62 +5662,62 @@
         <v>350</v>
       </c>
       <c r="G73" t="s">
-        <v>260</v>
+        <v>107</v>
       </c>
       <c r="H73" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
         <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G74" t="s">
         <v>107</v>
       </c>
       <c r="H74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>1019</v>
       </c>
       <c r="H75" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -5748,7 +5728,7 @@
         <v>360</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
@@ -5757,10 +5737,10 @@
         <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G76" t="s">
-        <v>1028</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
         <v>11</v>
@@ -5768,25 +5748,25 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D77" t="s">
         <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>36</v>
+        <v>366</v>
       </c>
       <c r="F77" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="H77" t="s">
         <v>11</v>
@@ -5794,77 +5774,77 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F78" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>372</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>373</v>
+        <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="H79" t="s">
-        <v>375</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D80" t="s">
-        <v>11</v>
+      <c r="D80" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>227</v>
       </c>
       <c r="F80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G80" t="s">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
@@ -5872,25 +5852,25 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D81" t="s">
         <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G81" t="s">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="H81" t="s">
         <v>11</v>
@@ -5898,25 +5878,25 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E82" t="s">
-        <v>230</v>
+        <v>36</v>
       </c>
       <c r="F82" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>1012</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -5924,25 +5904,25 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
+        <v>391</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>392</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>393</v>
       </c>
       <c r="F83" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G83" t="s">
-        <v>325</v>
+        <v>395</v>
       </c>
       <c r="H83" t="s">
         <v>11</v>
@@ -5950,25 +5930,25 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>36</v>
+        <v>398</v>
       </c>
       <c r="F84" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="G84" t="s">
-        <v>1021</v>
+        <v>1037</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -5976,25 +5956,25 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>400</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G85" t="s">
-        <v>402</v>
+        <v>1037</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -6014,13 +5994,13 @@
         <v>11</v>
       </c>
       <c r="E86" t="s">
+        <v>29</v>
+      </c>
+      <c r="F86" t="s">
         <v>405</v>
       </c>
-      <c r="F86" t="s">
-        <v>406</v>
-      </c>
       <c r="G86" t="s">
-        <v>1046</v>
+        <v>1008</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -6028,10 +6008,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>406</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>408</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>408</v>
@@ -6046,33 +6026,33 @@
         <v>409</v>
       </c>
       <c r="G87" t="s">
-        <v>1046</v>
+        <v>198</v>
       </c>
       <c r="H87" t="s">
-        <v>11</v>
+        <v>410</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
+        <v>413</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>414</v>
       </c>
       <c r="E88" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G88" t="s">
-        <v>1017</v>
+        <v>107</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
@@ -6080,77 +6060,77 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
+        <v>417</v>
+      </c>
+      <c r="C89" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>418</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G89" t="s">
-        <v>201</v>
+        <v>31</v>
       </c>
       <c r="H89" t="s">
-        <v>417</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>420</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>421</v>
-      </c>
       <c r="E90" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
         <v>422</v>
       </c>
       <c r="G90" t="s">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="H90" t="s">
-        <v>11</v>
+        <v>423</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C91" t="s">
         <v>11</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E91" t="s">
         <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>426</v>
+        <v>1038</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="H91" t="s">
         <v>11</v>
@@ -6161,166 +6141,166 @@
         <v>427</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>428</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="E92" t="s">
         <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="H92" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C93" t="s">
         <v>11</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="F93" t="s">
-        <v>1047</v>
+        <v>435</v>
       </c>
       <c r="G93" t="s">
-        <v>24</v>
+        <v>338</v>
       </c>
       <c r="H93" t="s">
-        <v>11</v>
+        <v>436</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="E94" t="s">
         <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
       <c r="H94" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="C95" t="s">
-        <v>11</v>
+        <v>445</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="E95" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="G95" t="s">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="H95" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>447</v>
+        <v>451</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G96" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H96" t="s">
-        <v>450</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>36</v>
+      </c>
+      <c r="F97" t="s">
         <v>452</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="G97" t="s">
         <v>453</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E97" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" t="s">
-        <v>455</v>
-      </c>
-      <c r="G97" t="s">
-        <v>260</v>
-      </c>
       <c r="H97" t="s">
-        <v>456</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>456</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="B98" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="C98" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
@@ -6329,10 +6309,10 @@
         <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>459</v>
+        <v>1074</v>
       </c>
       <c r="G98" t="s">
-        <v>460</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
         <v>11</v>
@@ -6340,13 +6320,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D99" t="s">
         <v>11</v>
@@ -6355,10 +6335,10 @@
         <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G99" t="s">
-        <v>460</v>
+        <v>1039</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -6366,91 +6346,91 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D100" t="s">
         <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>1083</v>
+        <v>1073</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>464</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
+      <c r="H101" t="s">
         <v>466</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="D101" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" t="s">
-        <v>36</v>
-      </c>
-      <c r="F101" t="s">
-        <v>467</v>
-      </c>
-      <c r="G101" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H101" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>467</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>468</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D102" t="s">
-        <v>11</v>
+      <c r="D102" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>1082</v>
+        <v>1040</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H102" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="C103" t="s">
+        <v>11</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
@@ -6459,50 +6439,50 @@
         <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>1082</v>
+        <v>474</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>475</v>
       </c>
       <c r="H103" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>1049</v>
+        <v>480</v>
       </c>
       <c r="G104" t="s">
-        <v>135</v>
+        <v>475</v>
       </c>
       <c r="H104" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C105" t="s">
-        <v>11</v>
+        <v>482</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>483</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
@@ -6511,85 +6491,85 @@
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="G105" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="H105" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D106" t="s">
-        <v>11</v>
+        <v>487</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F106" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="G106" t="s">
-        <v>482</v>
+        <v>135</v>
       </c>
       <c r="H106" t="s">
-        <v>488</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="D107" t="s">
-        <v>11</v>
+        <v>491</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G107" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="H107" t="s">
-        <v>492</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>493</v>
-      </c>
-      <c r="B108" t="s">
-        <v>11</v>
+        <v>494</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>495</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E108" t="s">
         <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>496</v>
+        <v>1041</v>
       </c>
       <c r="G108" t="s">
         <v>135</v>
@@ -6602,23 +6582,23 @@
       <c r="A109" t="s">
         <v>497</v>
       </c>
-      <c r="B109" t="s">
-        <v>11</v>
+      <c r="B109" s="2" t="s">
+        <v>498</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="D109" s="2" t="s">
         <v>499</v>
       </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
       <c r="E109" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>500</v>
+        <v>1042</v>
       </c>
       <c r="G109" t="s">
-        <v>449</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
         <v>11</v>
@@ -6626,120 +6606,114 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>502</v>
+      </c>
+      <c r="B110" t="s">
         <v>501</v>
       </c>
-      <c r="B110" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>503</v>
+      <c r="C110" t="s">
+        <v>500</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
       </c>
       <c r="E110" t="s">
         <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>1050</v>
+        <v>1073</v>
       </c>
       <c r="G110" t="s">
-        <v>135</v>
-      </c>
-      <c r="H110" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>503</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C111" t="s">
         <v>504</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="D111" t="s">
         <v>505</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="D111" t="s">
-        <v>11</v>
       </c>
       <c r="E111" t="s">
         <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>1051</v>
-      </c>
-      <c r="G111" t="s">
-        <v>13</v>
-      </c>
-      <c r="H111" t="s">
-        <v>11</v>
+        <v>506</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>507</v>
+      </c>
+      <c r="B112" t="s">
+        <v>511</v>
+      </c>
+      <c r="C112" t="s">
+        <v>508</v>
+      </c>
+      <c r="D112" t="s">
+        <v>510</v>
+      </c>
+      <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" t="s">
         <v>509</v>
       </c>
-      <c r="B112" t="s">
-        <v>508</v>
-      </c>
-      <c r="C112" t="s">
-        <v>507</v>
-      </c>
-      <c r="D112" t="s">
-        <v>11</v>
-      </c>
-      <c r="E112" t="s">
-        <v>36</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1082</v>
-      </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B113" t="s">
+        <v>516</v>
+      </c>
+      <c r="C113" t="s">
         <v>512</v>
       </c>
-      <c r="C113" t="s">
-        <v>511</v>
-      </c>
       <c r="D113" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F113" t="s">
         <v>514</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>460</v>
+      <c r="G113" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B114" t="s">
+        <v>518</v>
+      </c>
+      <c r="C114" t="s">
+        <v>518</v>
+      </c>
+      <c r="D114" t="s">
+        <v>520</v>
+      </c>
+      <c r="E114" t="s">
+        <v>36</v>
+      </c>
+      <c r="F114" t="s">
         <v>519</v>
-      </c>
-      <c r="C114" t="s">
-        <v>516</v>
-      </c>
-      <c r="D114" t="s">
-        <v>518</v>
-      </c>
-      <c r="E114" t="s">
-        <v>36</v>
-      </c>
-      <c r="F114" t="s">
-        <v>517</v>
       </c>
       <c r="G114" t="s">
         <v>135</v>
@@ -6747,19 +6721,19 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>523</v>
+      </c>
+      <c r="B115" t="s">
+        <v>525</v>
+      </c>
+      <c r="C115" t="s">
         <v>521</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>524</v>
       </c>
-      <c r="C115" t="s">
-        <v>520</v>
-      </c>
-      <c r="D115" t="s">
-        <v>523</v>
-      </c>
       <c r="E115" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
         <v>522</v>
@@ -6770,19 +6744,19 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>1106</v>
       </c>
       <c r="C116" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D116" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
         <v>527</v>
@@ -6793,45 +6767,48 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>532</v>
+      </c>
+      <c r="B117" t="s">
+        <v>530</v>
+      </c>
+      <c r="C117" t="s">
         <v>531</v>
       </c>
-      <c r="B117" t="s">
-        <v>533</v>
-      </c>
-      <c r="C117" t="s">
-        <v>529</v>
-      </c>
       <c r="D117" t="s">
-        <v>532</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
         <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>198</v>
+      </c>
+      <c r="H117" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B118" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C118" t="s">
         <v>536</v>
       </c>
       <c r="D118" t="s">
+        <v>538</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
         <v>537</v>
-      </c>
-      <c r="E118" t="s">
-        <v>12</v>
-      </c>
-      <c r="F118" t="s">
-        <v>535</v>
       </c>
       <c r="G118" t="s">
         <v>135</v>
@@ -6839,10 +6816,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B119" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C119" t="s">
         <v>540</v>
@@ -6851,36 +6828,33 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>541</v>
       </c>
       <c r="F119" t="s">
         <v>542</v>
       </c>
       <c r="G119" t="s">
-        <v>201</v>
-      </c>
-      <c r="H119" t="s">
-        <v>543</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>543</v>
+      </c>
+      <c r="B120" t="s">
         <v>544</v>
       </c>
-      <c r="B120" t="s">
-        <v>11</v>
-      </c>
       <c r="C120" t="s">
+        <v>544</v>
+      </c>
+      <c r="D120" t="s">
+        <v>546</v>
+      </c>
+      <c r="E120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" t="s">
         <v>545</v>
-      </c>
-      <c r="D120" t="s">
-        <v>547</v>
-      </c>
-      <c r="E120" t="s">
-        <v>36</v>
-      </c>
-      <c r="F120" t="s">
-        <v>546</v>
       </c>
       <c r="G120" t="s">
         <v>135</v>
@@ -6888,10 +6862,10 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>547</v>
+      </c>
+      <c r="B121" t="s">
         <v>548</v>
-      </c>
-      <c r="B121" t="s">
-        <v>11</v>
       </c>
       <c r="C121" t="s">
         <v>549</v>
@@ -6900,13 +6874,13 @@
         <v>11</v>
       </c>
       <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" t="s">
         <v>550</v>
       </c>
-      <c r="F121" t="s">
+      <c r="G121" t="s">
         <v>551</v>
-      </c>
-      <c r="G121" t="s">
-        <v>1017</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
@@ -6914,111 +6888,114 @@
         <v>552</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>553</v>
       </c>
       <c r="C122" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D122" t="s">
-        <v>555</v>
+        <v>1003</v>
       </c>
       <c r="E122" t="s">
         <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>554</v>
+        <v>1073</v>
       </c>
       <c r="G122" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>555</v>
+      </c>
+      <c r="B123" t="s">
+        <v>558</v>
+      </c>
+      <c r="C123" t="s">
+        <v>557</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>36</v>
+      </c>
+      <c r="F123" t="s">
         <v>556</v>
       </c>
-      <c r="B123" t="s">
-        <v>557</v>
-      </c>
-      <c r="C123" t="s">
-        <v>558</v>
-      </c>
-      <c r="D123" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" t="s">
-        <v>36</v>
-      </c>
-      <c r="F123" t="s">
-        <v>559</v>
-      </c>
       <c r="G123" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B124" t="s">
         <v>562</v>
       </c>
       <c r="C124" t="s">
+        <v>561</v>
+      </c>
+      <c r="D124" t="s">
+        <v>560</v>
+      </c>
+      <c r="E124" t="s">
+        <v>36</v>
+      </c>
+      <c r="F124" t="s">
         <v>563</v>
       </c>
-      <c r="D124" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E124" t="s">
-        <v>36</v>
-      </c>
-      <c r="F124" t="s">
-        <v>1082</v>
-      </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>567</v>
+      </c>
+      <c r="B125" t="s">
         <v>564</v>
       </c>
-      <c r="B125" t="s">
-        <v>567</v>
-      </c>
       <c r="C125" t="s">
+        <v>565</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
         <v>566</v>
       </c>
-      <c r="D125" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" t="s">
-        <v>36</v>
-      </c>
-      <c r="F125" t="s">
-        <v>565</v>
-      </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>257</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="B126" t="s">
-        <v>571</v>
-      </c>
-      <c r="C126" t="s">
-        <v>570</v>
+        <v>616</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>602</v>
       </c>
       <c r="D126" t="s">
-        <v>569</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
         <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="G126" t="s">
         <v>135</v>
@@ -7026,39 +7003,36 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>576</v>
-      </c>
-      <c r="B127" t="s">
-        <v>573</v>
-      </c>
-      <c r="C127" t="s">
-        <v>574</v>
+        <v>595</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>603</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="F127" t="s">
-        <v>575</v>
+        <v>618</v>
       </c>
       <c r="G127" t="s">
-        <v>260</v>
-      </c>
-      <c r="H127" t="s">
-        <v>11</v>
+        <v>338</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B128" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
@@ -7067,122 +7041,122 @@
         <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G128" t="s">
-        <v>135</v>
+        <v>551</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>621</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>224</v>
+        <v>36</v>
       </c>
       <c r="F129" t="s">
-        <v>627</v>
+        <v>1043</v>
       </c>
       <c r="G129" t="s">
-        <v>341</v>
+        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>605</v>
-      </c>
-      <c r="B130" t="s">
-        <v>629</v>
+        <v>598</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>606</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="G130" t="s">
-        <v>560</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B131" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>36</v>
+        <v>624</v>
       </c>
       <c r="F131" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="G131" t="s">
-        <v>631</v>
+        <v>135</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>625</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>615</v>
+        <v>302</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>303</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G132" t="s">
-        <v>449</v>
+        <v>135</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>601</v>
+      </c>
+      <c r="B133" t="s">
+        <v>626</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="B133" t="s">
-        <v>632</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>616</v>
-      </c>
       <c r="D133" t="s">
         <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>633</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
-        <v>1053</v>
+        <v>627</v>
       </c>
       <c r="G133" t="s">
         <v>135</v>
@@ -7190,22 +7164,22 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>609</v>
-      </c>
-      <c r="B134" t="s">
-        <v>634</v>
+        <v>568</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>582</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>305</v>
+        <v>582</v>
       </c>
       <c r="D134" t="s">
-        <v>306</v>
+        <v>628</v>
       </c>
       <c r="E134" t="s">
         <v>36</v>
       </c>
       <c r="F134" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="G134" t="s">
         <v>135</v>
@@ -7213,82 +7187,82 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>610</v>
-      </c>
-      <c r="B135" t="s">
-        <v>635</v>
+        <v>569</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>369</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>617</v>
+        <v>369</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="F135" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="G135" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>577</v>
-      </c>
-      <c r="B136" t="s">
-        <v>11</v>
+        <v>570</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>583</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D136" t="s">
-        <v>637</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
         <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>638</v>
+        <v>1045</v>
       </c>
       <c r="G136" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>578</v>
-      </c>
-      <c r="B137" t="s">
-        <v>11</v>
+        <v>571</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>584</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>372</v>
+        <v>584</v>
       </c>
       <c r="D137" t="s">
         <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>373</v>
+        <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>639</v>
+        <v>1030</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>631</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="D138" t="s">
         <v>11</v>
@@ -7297,7 +7271,7 @@
         <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>1054</v>
+        <v>1031</v>
       </c>
       <c r="G138" t="s">
         <v>13</v>
@@ -7305,13 +7279,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>580</v>
-      </c>
-      <c r="B139" t="s">
-        <v>11</v>
+        <v>573</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>586</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D139" t="s">
         <v>11</v>
@@ -7320,7 +7294,7 @@
         <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>1039</v>
+        <v>1046</v>
       </c>
       <c r="G139" t="s">
         <v>107</v>
@@ -7328,13 +7302,13 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>581</v>
-      </c>
-      <c r="B140" t="s">
-        <v>640</v>
+        <v>574</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>587</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
@@ -7343,30 +7317,30 @@
         <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>1040</v>
+        <v>611</v>
       </c>
       <c r="G140" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>582</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
+        <v>575</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>595</v>
+        <v>353</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>1055</v>
+        <v>632</v>
       </c>
       <c r="G141" t="s">
         <v>107</v>
@@ -7374,13 +7348,13 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>583</v>
-      </c>
-      <c r="B142" t="s">
-        <v>11</v>
+        <v>576</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>588</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D142" t="s">
         <v>11</v>
@@ -7389,7 +7363,7 @@
         <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G142" t="s">
         <v>107</v>
@@ -7397,82 +7371,82 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>584</v>
-      </c>
-      <c r="B143" t="s">
-        <v>11</v>
+        <v>577</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>589</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>356</v>
+        <v>589</v>
       </c>
       <c r="D143" t="s">
         <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="G143" t="s">
-        <v>107</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>585</v>
-      </c>
-      <c r="B144" t="s">
-        <v>11</v>
+        <v>578</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>590</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>634</v>
       </c>
       <c r="E144" t="s">
         <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="G144" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>586</v>
-      </c>
-      <c r="B145" t="s">
-        <v>11</v>
+        <v>579</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>591</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D145" t="s">
         <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>36</v>
+        <v>636</v>
       </c>
       <c r="F145" t="s">
-        <v>642</v>
+        <v>614</v>
       </c>
       <c r="G145" t="s">
-        <v>460</v>
+        <v>580</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>587</v>
-      </c>
-      <c r="B146" t="s">
-        <v>643</v>
+        <v>580</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>592</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D146" t="s">
         <v>11</v>
@@ -7481,44 +7455,44 @@
         <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="G146" t="s">
-        <v>201</v>
+        <v>580</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>588</v>
-      </c>
-      <c r="B147" t="s">
-        <v>11</v>
+        <v>581</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>593</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>645</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="G147" t="s">
-        <v>589</v>
+        <v>288</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>589</v>
-      </c>
-      <c r="B148" t="s">
-        <v>11</v>
+        <v>637</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>772</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>601</v>
+        <v>772</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -7527,21 +7501,24 @@
         <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="G148" t="s">
-        <v>589</v>
+        <v>135</v>
+      </c>
+      <c r="H148" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>590</v>
-      </c>
-      <c r="B149" t="s">
-        <v>11</v>
+        <v>638</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>773</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>602</v>
+        <v>773</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -7550,21 +7527,24 @@
         <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="G149" t="s">
-        <v>291</v>
+        <v>135</v>
+      </c>
+      <c r="H149" t="s">
+        <v>850</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>646</v>
-      </c>
-      <c r="B150" t="s">
-        <v>11</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>781</v>
+        <v>639</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="C150" t="s">
+        <v>920</v>
       </c>
       <c r="D150" t="s">
         <v>11</v>
@@ -7573,50 +7553,50 @@
         <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="G150" t="s">
         <v>135</v>
       </c>
       <c r="H150" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>647</v>
-      </c>
-      <c r="B151" t="s">
-        <v>11</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>782</v>
+        <v>640</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="C151" t="s">
+        <v>561</v>
       </c>
       <c r="D151" t="s">
-        <v>11</v>
+        <v>560</v>
       </c>
       <c r="E151" t="s">
         <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G151" t="s">
         <v>135</v>
       </c>
       <c r="H151" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="C152" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="D152" t="s">
         <v>11</v>
@@ -7625,50 +7605,50 @@
         <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>729</v>
+        <v>1047</v>
       </c>
       <c r="G152" t="s">
         <v>135</v>
       </c>
       <c r="H152" t="s">
-        <v>860</v>
+        <v>922</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>784</v>
+        <v>128</v>
       </c>
       <c r="C153" t="s">
-        <v>570</v>
+        <v>923</v>
       </c>
       <c r="D153" t="s">
-        <v>569</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
         <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>730</v>
+        <v>1048</v>
       </c>
       <c r="G153" t="s">
         <v>135</v>
       </c>
       <c r="H153" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>785</v>
+        <v>161</v>
       </c>
       <c r="C154" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="D154" t="s">
         <v>11</v>
@@ -7677,24 +7657,24 @@
         <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="G154" t="s">
-        <v>135</v>
+        <v>1008</v>
       </c>
       <c r="H154" t="s">
-        <v>931</v>
+        <v>855</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>128</v>
+        <v>777</v>
       </c>
       <c r="C155" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
@@ -7703,24 +7683,24 @@
         <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>1057</v>
+        <v>925</v>
       </c>
       <c r="G155" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="H155" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>161</v>
+        <v>778</v>
       </c>
       <c r="C156" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -7729,24 +7709,24 @@
         <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>1058</v>
+        <v>722</v>
       </c>
       <c r="G156" t="s">
-        <v>1017</v>
+        <v>135</v>
       </c>
       <c r="H156" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="C157" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="D157" t="s">
         <v>11</v>
@@ -7755,128 +7735,128 @@
         <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>934</v>
+        <v>723</v>
       </c>
       <c r="G157" t="s">
-        <v>232</v>
+        <v>135</v>
       </c>
       <c r="H157" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="C158" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D158" t="s">
-        <v>11</v>
+        <v>929</v>
       </c>
       <c r="E158" t="s">
         <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G158" t="s">
         <v>135</v>
       </c>
       <c r="H158" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>788</v>
+        <v>781</v>
       </c>
       <c r="C159" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D159" t="s">
-        <v>11</v>
+        <v>931</v>
       </c>
       <c r="E159" t="s">
         <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>732</v>
+        <v>1032</v>
       </c>
       <c r="G159" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>789</v>
+        <v>782</v>
       </c>
       <c r="C160" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="D160" t="s">
-        <v>938</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
         <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>733</v>
+        <v>1050</v>
       </c>
       <c r="G160" t="s">
         <v>135</v>
       </c>
       <c r="H160" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>790</v>
+        <v>783</v>
       </c>
       <c r="C161" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="D161" t="s">
-        <v>940</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
         <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="G161" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="H161" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>791</v>
+        <v>784</v>
       </c>
       <c r="C162" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="D162" t="s">
         <v>11</v>
@@ -7885,128 +7865,128 @@
         <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>1059</v>
+        <v>1033</v>
       </c>
       <c r="G162" t="s">
         <v>135</v>
       </c>
       <c r="H162" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>659</v>
+        <v>176</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>792</v>
+        <v>177</v>
       </c>
       <c r="C163" t="s">
-        <v>943</v>
+        <v>178</v>
       </c>
       <c r="D163" t="s">
-        <v>11</v>
+        <v>929</v>
       </c>
       <c r="E163" t="s">
         <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>1044</v>
+        <v>1051</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="H163" t="s">
-        <v>870</v>
+        <v>858</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="C164" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="D164" t="s">
-        <v>11</v>
+        <v>929</v>
       </c>
       <c r="E164" t="s">
         <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="G164" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H164" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>179</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>180</v>
+        <v>653</v>
+      </c>
+      <c r="B165" t="s">
+        <v>786</v>
       </c>
       <c r="C165" t="s">
-        <v>181</v>
+        <v>937</v>
       </c>
       <c r="D165" t="s">
-        <v>938</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
         <v>36</v>
       </c>
       <c r="F165" t="s">
-        <v>1060</v>
+        <v>725</v>
       </c>
       <c r="G165" t="s">
         <v>135</v>
       </c>
       <c r="H165" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>794</v>
+        <v>164</v>
       </c>
       <c r="C166" t="s">
-        <v>945</v>
+        <v>608</v>
       </c>
       <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>36</v>
+      </c>
+      <c r="F166" t="s">
+        <v>726</v>
+      </c>
+      <c r="G166" t="s">
         <v>938</v>
       </c>
-      <c r="E166" t="s">
-        <v>36</v>
-      </c>
-      <c r="F166" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G166" t="s">
-        <v>122</v>
-      </c>
       <c r="H166" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>662</v>
-      </c>
-      <c r="B167" t="s">
-        <v>795</v>
+        <v>140</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="C167" t="s">
-        <v>946</v>
+        <v>142</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -8015,24 +7995,24 @@
         <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G167" t="s">
         <v>135</v>
       </c>
       <c r="H167" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>663</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C168" t="s">
-        <v>617</v>
+        <v>655</v>
+      </c>
+      <c r="B168" t="s">
+        <v>939</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>787</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -8041,24 +8021,24 @@
         <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="G168" t="s">
-        <v>947</v>
+        <v>135</v>
       </c>
       <c r="H168" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>140</v>
+        <v>314</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>788</v>
       </c>
       <c r="C169" t="s">
-        <v>142</v>
+        <v>940</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -8067,24 +8047,24 @@
         <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G169" t="s">
         <v>135</v>
       </c>
       <c r="H169" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>664</v>
-      </c>
-      <c r="B170" t="s">
-        <v>948</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>796</v>
+        <v>656</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="C170" t="s">
+        <v>941</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -8093,24 +8073,24 @@
         <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G170" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H170" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>797</v>
+        <v>166</v>
       </c>
       <c r="C171" t="s">
-        <v>949</v>
+        <v>166</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -8119,24 +8099,24 @@
         <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G171" t="s">
         <v>135</v>
       </c>
       <c r="H171" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="C172" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D172" t="s">
         <v>11</v>
@@ -8145,24 +8125,24 @@
         <v>36</v>
       </c>
       <c r="F172" t="s">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="G172" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H172" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>658</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C173" t="s">
-        <v>169</v>
+        <v>943</v>
       </c>
       <c r="D173" t="s">
         <v>11</v>
@@ -8171,24 +8151,24 @@
         <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>740</v>
+        <v>944</v>
       </c>
       <c r="G173" t="s">
         <v>135</v>
       </c>
       <c r="H173" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="C174" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -8197,24 +8177,24 @@
         <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>741</v>
+        <v>1052</v>
       </c>
       <c r="G174" t="s">
         <v>135</v>
       </c>
       <c r="H174" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>171</v>
+        <v>792</v>
       </c>
       <c r="C175" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="D175" t="s">
         <v>11</v>
@@ -8223,50 +8203,50 @@
         <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>953</v>
+        <v>1053</v>
       </c>
       <c r="G175" t="s">
         <v>135</v>
       </c>
       <c r="H175" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C176" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="D176" t="s">
-        <v>11</v>
+        <v>947</v>
       </c>
       <c r="E176" t="s">
         <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>1061</v>
+        <v>733</v>
       </c>
       <c r="G176" t="s">
         <v>135</v>
       </c>
       <c r="H176" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="C177" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
@@ -8275,76 +8255,76 @@
         <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="G177" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H177" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C178" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="D178" t="s">
-        <v>956</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
         <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G178" t="s">
         <v>135</v>
       </c>
       <c r="H178" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>671</v>
+        <v>147</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>803</v>
+        <v>148</v>
       </c>
       <c r="C179" t="s">
-        <v>958</v>
+        <v>149</v>
       </c>
       <c r="D179" t="s">
-        <v>11</v>
+        <v>951</v>
       </c>
       <c r="E179" t="s">
         <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>1063</v>
+        <v>735</v>
       </c>
       <c r="G179" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H179" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="C180" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="D180" t="s">
         <v>11</v>
@@ -8353,50 +8333,50 @@
         <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>743</v>
+        <v>1055</v>
       </c>
       <c r="G180" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H180" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>147</v>
+        <v>665</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>148</v>
+        <v>797</v>
       </c>
       <c r="C181" t="s">
-        <v>149</v>
+        <v>953</v>
       </c>
       <c r="D181" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="E181" t="s">
         <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>744</v>
+        <v>1056</v>
       </c>
       <c r="G181" t="s">
         <v>135</v>
       </c>
       <c r="H181" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="C182" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="D182" t="s">
         <v>11</v>
@@ -8405,50 +8385,50 @@
         <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="G182" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H182" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="C183" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="D183" t="s">
-        <v>963</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
         <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>1065</v>
+        <v>736</v>
       </c>
       <c r="G183" t="s">
-        <v>135</v>
+        <v>957</v>
       </c>
       <c r="H183" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>675</v>
+        <v>179</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>807</v>
+        <v>180</v>
       </c>
       <c r="C184" t="s">
-        <v>964</v>
+        <v>181</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
@@ -8457,24 +8437,24 @@
         <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
       <c r="G184" t="s">
-        <v>135</v>
+        <v>1020</v>
       </c>
       <c r="H184" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>676</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="C185" t="s">
-        <v>965</v>
+        <v>668</v>
+      </c>
+      <c r="B185" t="s">
+        <v>958</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -8483,24 +8463,24 @@
         <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G185" t="s">
-        <v>966</v>
+        <v>135</v>
       </c>
       <c r="H185" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>182</v>
+        <v>669</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>183</v>
+        <v>801</v>
       </c>
       <c r="C186" t="s">
-        <v>184</v>
+        <v>959</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
@@ -8509,24 +8489,24 @@
         <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="G186" t="s">
-        <v>1029</v>
+        <v>135</v>
       </c>
       <c r="H186" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>677</v>
-      </c>
-      <c r="B187" t="s">
-        <v>967</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>809</v>
+        <v>670</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="C187" t="s">
+        <v>960</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
@@ -8535,24 +8515,24 @@
         <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>746</v>
+        <v>1060</v>
       </c>
       <c r="G187" t="s">
         <v>135</v>
       </c>
       <c r="H187" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>810</v>
+        <v>182</v>
       </c>
       <c r="C188" t="s">
-        <v>968</v>
+        <v>183</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
@@ -8561,24 +8541,24 @@
         <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>1068</v>
+        <v>738</v>
       </c>
       <c r="G188" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H188" t="s">
-        <v>892</v>
+        <v>854</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="C189" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="D189" t="s">
         <v>11</v>
@@ -8587,24 +8567,24 @@
         <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="G189" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H189" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>185</v>
+        <v>804</v>
       </c>
       <c r="C190" t="s">
-        <v>186</v>
+        <v>962</v>
       </c>
       <c r="D190" t="s">
         <v>11</v>
@@ -8613,50 +8593,50 @@
         <v>36</v>
       </c>
       <c r="F190" t="s">
-        <v>747</v>
+        <v>1062</v>
       </c>
       <c r="G190" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>863</v>
+        <v>887</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>681</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="C191" t="s">
-        <v>970</v>
+        <v>674</v>
+      </c>
+      <c r="B191" t="s">
+        <v>963</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>805</v>
       </c>
       <c r="D191" t="s">
-        <v>11</v>
+        <v>964</v>
       </c>
       <c r="E191" t="s">
         <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>1070</v>
+        <v>739</v>
       </c>
       <c r="G191" t="s">
-        <v>13</v>
+        <v>551</v>
       </c>
       <c r="H191" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="C192" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="D192" t="s">
         <v>11</v>
@@ -8665,50 +8645,50 @@
         <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="H192" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>683</v>
-      </c>
-      <c r="B193" t="s">
-        <v>972</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>814</v>
+        <v>676</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="C193" t="s">
+        <v>554</v>
       </c>
       <c r="D193" t="s">
-        <v>973</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
         <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>748</v>
+        <v>1064</v>
       </c>
       <c r="G193" t="s">
-        <v>560</v>
+        <v>13</v>
       </c>
       <c r="H193" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="C194" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
@@ -8717,24 +8697,24 @@
         <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>1072</v>
+        <v>740</v>
       </c>
       <c r="G194" t="s">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="C195" t="s">
-        <v>563</v>
+        <v>967</v>
       </c>
       <c r="D195" t="s">
         <v>11</v>
@@ -8743,50 +8723,50 @@
         <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>1073</v>
+        <v>741</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H195" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="C196" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>969</v>
       </c>
       <c r="E196" t="s">
         <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>749</v>
+        <v>742</v>
       </c>
       <c r="G196" t="s">
-        <v>13</v>
+        <v>1021</v>
       </c>
       <c r="H196" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="C197" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="D197" t="s">
         <v>11</v>
@@ -8795,50 +8775,50 @@
         <v>36</v>
       </c>
       <c r="F197" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="G197" t="s">
-        <v>341</v>
+        <v>198</v>
       </c>
       <c r="H197" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="C198" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="D198" t="s">
-        <v>978</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
         <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>751</v>
+        <v>744</v>
       </c>
       <c r="G198" t="s">
-        <v>1030</v>
+        <v>972</v>
       </c>
       <c r="H198" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="C199" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="D199" t="s">
         <v>11</v>
@@ -8847,24 +8827,24 @@
         <v>36</v>
       </c>
       <c r="F199" t="s">
-        <v>752</v>
+        <v>745</v>
       </c>
       <c r="G199" t="s">
-        <v>201</v>
+        <v>972</v>
       </c>
       <c r="H199" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="C200" t="s">
-        <v>980</v>
+        <v>1015</v>
       </c>
       <c r="D200" t="s">
         <v>11</v>
@@ -8873,24 +8853,24 @@
         <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>753</v>
+        <v>1014</v>
       </c>
       <c r="G200" t="s">
-        <v>981</v>
+        <v>198</v>
       </c>
       <c r="H200" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="C201" t="s">
-        <v>982</v>
+        <v>815</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>815</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
@@ -8899,24 +8879,24 @@
         <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G201" t="s">
-        <v>981</v>
+        <v>442</v>
       </c>
       <c r="H201" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="C202" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
       <c r="D202" t="s">
         <v>11</v>
@@ -8925,24 +8905,21 @@
         <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>1023</v>
+        <v>1065</v>
       </c>
       <c r="G202" t="s">
-        <v>201</v>
-      </c>
-      <c r="H202" t="s">
-        <v>903</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>693</v>
-      </c>
-      <c r="B203" t="s">
-        <v>11</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>824</v>
+        <v>686</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="C203" t="s">
+        <v>975</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
@@ -8951,24 +8928,24 @@
         <v>36</v>
       </c>
       <c r="F203" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="G203" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H203" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="C204" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
@@ -8977,21 +8954,24 @@
         <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>1074</v>
+        <v>748</v>
       </c>
       <c r="G204" t="s">
-        <v>449</v>
+        <v>442</v>
+      </c>
+      <c r="H204" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C205" t="s">
-        <v>984</v>
+        <v>819</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>819</v>
       </c>
       <c r="D205" t="s">
         <v>11</v>
@@ -9000,24 +8980,24 @@
         <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>756</v>
+        <v>749</v>
       </c>
       <c r="G205" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H205" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="C206" t="s">
-        <v>985</v>
+        <v>820</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>820</v>
       </c>
       <c r="D206" t="s">
         <v>11</v>
@@ -9026,24 +9006,24 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>757</v>
+        <v>750</v>
       </c>
       <c r="G206" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H206" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>697</v>
-      </c>
-      <c r="B207" t="s">
-        <v>11</v>
+        <v>690</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>821</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
@@ -9052,24 +9032,24 @@
         <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="G207" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H207" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>698</v>
-      </c>
-      <c r="B208" t="s">
-        <v>11</v>
+        <v>691</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>822</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="D208" t="s">
         <v>11</v>
@@ -9078,24 +9058,24 @@
         <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>759</v>
+        <v>752</v>
       </c>
       <c r="G208" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H208" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>699</v>
-      </c>
-      <c r="B209" t="s">
-        <v>11</v>
+        <v>692</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>823</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="D209" t="s">
         <v>11</v>
@@ -9104,24 +9084,24 @@
         <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>760</v>
+        <v>753</v>
       </c>
       <c r="G209" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H209" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>700</v>
-      </c>
-      <c r="B210" t="s">
-        <v>11</v>
+        <v>693</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>824</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="D210" t="s">
         <v>11</v>
@@ -9130,24 +9110,24 @@
         <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="G210" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="H210" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>701</v>
-      </c>
-      <c r="B211" t="s">
-        <v>11</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>832</v>
+        <v>694</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="C211" t="s">
+        <v>977</v>
       </c>
       <c r="D211" t="s">
         <v>11</v>
@@ -9156,24 +9136,24 @@
         <v>36</v>
       </c>
       <c r="F211" t="s">
-        <v>762</v>
+        <v>1066</v>
       </c>
       <c r="G211" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H211" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>702</v>
-      </c>
-      <c r="B212" t="s">
-        <v>11</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>833</v>
+        <v>695</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C212" t="s">
+        <v>978</v>
       </c>
       <c r="D212" t="s">
         <v>11</v>
@@ -9182,24 +9162,24 @@
         <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="G212" t="s">
-        <v>449</v>
+        <v>257</v>
       </c>
       <c r="H212" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="C213" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D213" t="s">
         <v>11</v>
@@ -9208,24 +9188,24 @@
         <v>36</v>
       </c>
       <c r="F213" t="s">
-        <v>1075</v>
+        <v>756</v>
       </c>
       <c r="G213" t="s">
-        <v>460</v>
+        <v>257</v>
       </c>
       <c r="H213" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="C214" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="D214" t="s">
         <v>11</v>
@@ -9234,24 +9214,24 @@
         <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="G214" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="H214" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="C215" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D215" t="s">
         <v>11</v>
@@ -9260,24 +9240,24 @@
         <v>36</v>
       </c>
       <c r="F215" t="s">
-        <v>765</v>
+        <v>1067</v>
       </c>
       <c r="G215" t="s">
-        <v>260</v>
+        <v>453</v>
       </c>
       <c r="H215" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="C216" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="D216" t="s">
         <v>11</v>
@@ -9286,24 +9266,24 @@
         <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="G216" t="s">
-        <v>270</v>
+        <v>107</v>
       </c>
       <c r="H216" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="C217" t="s">
-        <v>990</v>
+        <v>831</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>831</v>
       </c>
       <c r="D217" t="s">
         <v>11</v>
@@ -9312,128 +9292,128 @@
         <v>36</v>
       </c>
       <c r="F217" t="s">
-        <v>1076</v>
+        <v>759</v>
       </c>
       <c r="G217" t="s">
-        <v>460</v>
+        <v>107</v>
       </c>
       <c r="H217" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="C218" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="D218" t="s">
-        <v>11</v>
+        <v>984</v>
       </c>
       <c r="E218" t="s">
         <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="G218" t="s">
         <v>107</v>
       </c>
       <c r="H218" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>709</v>
-      </c>
-      <c r="B219" t="s">
-        <v>11</v>
+        <v>702</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>833</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="D219" t="s">
-        <v>11</v>
+        <v>985</v>
       </c>
       <c r="E219" t="s">
         <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="G219" t="s">
         <v>107</v>
       </c>
       <c r="H219" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="C220" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="D220" t="s">
-        <v>993</v>
+        <v>11</v>
       </c>
       <c r="E220" t="s">
         <v>36</v>
       </c>
       <c r="F220" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="G220" t="s">
         <v>107</v>
       </c>
       <c r="H220" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>711</v>
-      </c>
-      <c r="B221" t="s">
-        <v>11</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>842</v>
+        <v>704</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C221" t="s">
+        <v>987</v>
       </c>
       <c r="D221" t="s">
-        <v>994</v>
+        <v>11</v>
       </c>
       <c r="E221" t="s">
         <v>36</v>
       </c>
       <c r="F221" t="s">
-        <v>770</v>
+        <v>763</v>
       </c>
       <c r="G221" t="s">
         <v>107</v>
       </c>
       <c r="H221" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="C222" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D222" t="s">
         <v>11</v>
@@ -9442,24 +9422,24 @@
         <v>36</v>
       </c>
       <c r="F222" t="s">
-        <v>771</v>
+        <v>1068</v>
       </c>
       <c r="G222" t="s">
         <v>107</v>
       </c>
       <c r="H222" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="C223" t="s">
-        <v>996</v>
+        <v>584</v>
       </c>
       <c r="D223" t="s">
         <v>11</v>
@@ -9468,24 +9448,24 @@
         <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="G223" t="s">
-        <v>107</v>
+        <v>1009</v>
       </c>
       <c r="H223" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>714</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C224" t="s">
-        <v>997</v>
+        <v>707</v>
+      </c>
+      <c r="B224" t="s">
+        <v>993</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>838</v>
       </c>
       <c r="D224" t="s">
         <v>11</v>
@@ -9494,24 +9474,21 @@
         <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="G224" t="s">
         <v>107</v>
       </c>
-      <c r="H224" t="s">
-        <v>919</v>
-      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="C225" t="s">
-        <v>593</v>
+        <v>994</v>
       </c>
       <c r="D225" t="s">
         <v>11</v>
@@ -9520,24 +9497,24 @@
         <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="G225" t="s">
-        <v>1018</v>
+        <v>13</v>
       </c>
       <c r="H225" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>716</v>
-      </c>
-      <c r="B226" t="s">
-        <v>1002</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>847</v>
+        <v>709</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="C226" t="s">
+        <v>995</v>
       </c>
       <c r="D226" t="s">
         <v>11</v>
@@ -9546,21 +9523,24 @@
         <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>1078</v>
+        <v>766</v>
       </c>
       <c r="G226" t="s">
-        <v>107</v>
+        <v>1009</v>
+      </c>
+      <c r="H226" t="s">
+        <v>905</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="C227" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="D227" t="s">
         <v>11</v>
@@ -9569,24 +9549,24 @@
         <v>36</v>
       </c>
       <c r="F227" t="s">
-        <v>774</v>
+        <v>1070</v>
       </c>
       <c r="G227" t="s">
         <v>13</v>
       </c>
       <c r="H227" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="C228" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="D228" t="s">
         <v>11</v>
@@ -9595,10 +9575,10 @@
         <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>775</v>
+        <v>1071</v>
       </c>
       <c r="G228" t="s">
-        <v>1018</v>
+        <v>322</v>
       </c>
       <c r="H228" t="s">
         <v>914</v>
@@ -9606,13 +9586,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1005</v>
+        <v>843</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>843</v>
       </c>
       <c r="D229" t="s">
         <v>11</v>
@@ -9621,24 +9601,21 @@
         <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>1079</v>
+        <v>1072</v>
       </c>
       <c r="G229" t="s">
-        <v>13</v>
-      </c>
-      <c r="H229" t="s">
-        <v>922</v>
+        <v>322</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="C230" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="D230" t="s">
         <v>11</v>
@@ -9647,24 +9624,24 @@
         <v>36</v>
       </c>
       <c r="F230" t="s">
-        <v>1080</v>
+        <v>767</v>
       </c>
       <c r="G230" t="s">
-        <v>325</v>
+        <v>580</v>
       </c>
       <c r="H230" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>721</v>
-      </c>
-      <c r="B231" t="s">
-        <v>11</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>852</v>
+        <v>714</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C231" t="s">
+        <v>999</v>
       </c>
       <c r="D231" t="s">
         <v>11</v>
@@ -9673,21 +9650,24 @@
         <v>36</v>
       </c>
       <c r="F231" t="s">
-        <v>1081</v>
+        <v>768</v>
       </c>
       <c r="G231" t="s">
-        <v>325</v>
+        <v>288</v>
+      </c>
+      <c r="H231" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="C232" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="D232" t="s">
         <v>11</v>
@@ -9696,50 +9676,50 @@
         <v>36</v>
       </c>
       <c r="F232" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G232" t="s">
-        <v>589</v>
+        <v>288</v>
       </c>
       <c r="H232" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="C233" t="s">
-        <v>1008</v>
+        <v>847</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>847</v>
       </c>
       <c r="D233" t="s">
-        <v>11</v>
+        <v>1001</v>
       </c>
       <c r="E233" t="s">
         <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="G233" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H233" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="C234" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="D234" t="s">
         <v>11</v>
@@ -9748,122 +9728,122 @@
         <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="G234" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H234" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>725</v>
+        <v>989</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>856</v>
+        <v>990</v>
+      </c>
+      <c r="C235" t="s">
+        <v>991</v>
       </c>
       <c r="D235" t="s">
-        <v>1010</v>
+        <v>11</v>
       </c>
       <c r="E235" t="s">
         <v>36</v>
       </c>
       <c r="F235" t="s">
-        <v>779</v>
+        <v>992</v>
       </c>
       <c r="G235" t="s">
-        <v>291</v>
-      </c>
-      <c r="H235" t="s">
-        <v>927</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>726</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>857</v>
+        <v>1004</v>
+      </c>
+      <c r="B236" t="s">
+        <v>1005</v>
       </c>
       <c r="C236" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="D236" t="s">
         <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="F236" t="s">
-        <v>780</v>
+        <v>1007</v>
       </c>
       <c r="G236" t="s">
-        <v>291</v>
-      </c>
-      <c r="H236" t="s">
-        <v>928</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>998</v>
+        <v>1075</v>
       </c>
       <c r="B237" t="s">
-        <v>999</v>
+        <v>1090</v>
       </c>
       <c r="C237" t="s">
-        <v>1000</v>
+        <v>1081</v>
       </c>
       <c r="D237" t="s">
         <v>11</v>
       </c>
       <c r="E237" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F237" t="s">
-        <v>1001</v>
+        <v>1094</v>
       </c>
       <c r="G237" t="s">
         <v>13</v>
       </c>
+      <c r="H237" t="s">
+        <v>1092</v>
+      </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1013</v>
+        <v>1076</v>
       </c>
       <c r="B238" t="s">
-        <v>1014</v>
+        <v>1090</v>
       </c>
       <c r="C238" t="s">
-        <v>1015</v>
+        <v>1080</v>
       </c>
       <c r="D238" t="s">
         <v>11</v>
       </c>
       <c r="E238" t="s">
-        <v>373</v>
+        <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>1016</v>
+        <v>1097</v>
       </c>
       <c r="G238" t="s">
-        <v>1019</v>
+        <v>338</v>
+      </c>
+      <c r="H238" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="B239" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C239" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
@@ -9872,24 +9852,24 @@
         <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="G239" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H239" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1085</v>
+        <v>1078</v>
       </c>
       <c r="B240" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C240" t="s">
-        <v>1089</v>
+        <v>1102</v>
       </c>
       <c r="D240" t="s">
         <v>11</v>
@@ -9898,13 +9878,13 @@
         <v>12</v>
       </c>
       <c r="F240" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="G240" t="s">
-        <v>341</v>
+        <v>13</v>
       </c>
       <c r="H240" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
@@ -9912,10 +9892,10 @@
         <v>1086</v>
       </c>
       <c r="B241" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C241" t="s">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D241" t="s">
         <v>11</v>
@@ -9924,10 +9904,10 @@
         <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="G241" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H241" t="s">
         <v>1101</v>
@@ -9938,10 +9918,10 @@
         <v>1087</v>
       </c>
       <c r="B242" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C242" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="D242" t="s">
         <v>11</v>
@@ -9950,24 +9930,24 @@
         <v>12</v>
       </c>
       <c r="F242" t="s">
-        <v>1112</v>
+        <v>1105</v>
       </c>
       <c r="G242" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H242" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B243" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C243" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="D243" t="s">
         <v>11</v>
@@ -9976,24 +9956,24 @@
         <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>1108</v>
+        <v>1095</v>
       </c>
       <c r="G243" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H243" t="s">
-        <v>1110</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="B244" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="C244" t="s">
-        <v>1113</v>
+        <v>1093</v>
       </c>
       <c r="D244" t="s">
         <v>11</v>
@@ -10002,24 +9982,24 @@
         <v>12</v>
       </c>
       <c r="F244" t="s">
-        <v>1114</v>
+        <v>1096</v>
       </c>
       <c r="G244" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H244" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1097</v>
+        <v>1082</v>
       </c>
       <c r="B245" t="s">
-        <v>1099</v>
+        <v>1083</v>
       </c>
       <c r="C245" t="s">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="D245" t="s">
         <v>11</v>
@@ -10028,62 +10008,13 @@
         <v>12</v>
       </c>
       <c r="F245" t="s">
-        <v>1104</v>
+        <v>1084</v>
       </c>
       <c r="G245" t="s">
-        <v>341</v>
+        <v>13</v>
       </c>
       <c r="H245" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B246" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C246" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D246" t="s">
-        <v>11</v>
-      </c>
-      <c r="E246" t="s">
-        <v>12</v>
-      </c>
-      <c r="F246" t="s">
-        <v>1105</v>
-      </c>
-      <c r="G246" t="s">
-        <v>341</v>
-      </c>
-      <c r="H246" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D247" t="s">
-        <v>11</v>
-      </c>
-      <c r="E247" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1093</v>
-      </c>
-      <c r="G247" t="s">
-        <v>13</v>
-      </c>
-      <c r="H247" t="s">
-        <v>1094</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
@@ -10156,292 +10087,319 @@
     <hyperlink ref="D32" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
     <hyperlink ref="B33" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
     <hyperlink ref="C33" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B34" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C34" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B35" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C35" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="D35" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B36" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C36" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C37" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B38" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C38" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B39" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C39" r:id="rId81" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B40" r:id="rId82" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C40" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B41" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C41" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="D41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B42" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C42" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B43" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C43" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="D43" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B44" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C44" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="D44" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C45" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B46" r:id="rId97" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C46" r:id="rId98" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="D46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C47" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B48" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C48" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B49" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B50" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C50" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B51" r:id="rId107" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C51" r:id="rId108" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="D51" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B52" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C52" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="D52" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B53" r:id="rId113" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C53" r:id="rId114" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="D53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B55" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C55" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="D55" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B56" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C56" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B57" r:id="rId123" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C57" r:id="rId124" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="D57" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B58" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C58" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="D58" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B59" r:id="rId129" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C59" r:id="rId130" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C60" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B61" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C61" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B62" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C62" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B63" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="C63" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="D63" r:id="rId139" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B64" r:id="rId140" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="C64" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B65" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="C65" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="D65" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B66" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="C66" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B67" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="C67" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B68" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="C68" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B69" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="C69" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="D69" r:id="rId153" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B70" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="C70" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B71" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="C71" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="D71" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B72" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="C72" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B73" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="C73" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B74" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="C74" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B75" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="C75" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B76" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="C76" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B77" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="C77" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B78" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="C78" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B79" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="C79" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B80" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="C80" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B81" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="C81" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B82" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="C82" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="D82" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B83" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="C83" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B84" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="C84" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="D84" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B85" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="C85" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="D85" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B86" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="C86" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B87" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="C87" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B88" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="C88" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B89" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="C89" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B90" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="C90" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="D90" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B91" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="D91" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B92" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="C92" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="D92" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B93" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="D93" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B94" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="C94" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="D94" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B95" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="D95" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B96" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="C96" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="D96" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B97" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="C97" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="D97" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B98" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="C98" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B99" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="C99" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B100" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="C100" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="B101" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="C101" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B102" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C102" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B103" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="C103" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B104" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="C104" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="D104" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B105" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B106" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C106" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B107" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="C107" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="C108" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="D108" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="C109" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="D109" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="C110" r:id="rId243" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="D110" r:id="rId244" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B111" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="C111" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="C128" r:id="rId247" xr:uid="{185FB0CC-1BFF-5145-BEB3-72BDF47C8947}"/>
-    <hyperlink ref="C129" r:id="rId248" xr:uid="{97A80B27-831C-6549-8311-FA687785EA30}"/>
-    <hyperlink ref="C130" r:id="rId249" xr:uid="{F4F61C2C-C1F7-7147-8DAC-F04A10994944}"/>
-    <hyperlink ref="C132" r:id="rId250" xr:uid="{2A87F5BC-C340-6149-B12F-3F9425A0527B}"/>
-    <hyperlink ref="C133" r:id="rId251" xr:uid="{2407433B-D83D-2742-B1C3-CF65FF93283D}"/>
-    <hyperlink ref="C134" r:id="rId252" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
-    <hyperlink ref="C135" r:id="rId253" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
-    <hyperlink ref="C136" r:id="rId254" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
-    <hyperlink ref="C137" r:id="rId255" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
-    <hyperlink ref="C138" r:id="rId256" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
-    <hyperlink ref="C139" r:id="rId257" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
-    <hyperlink ref="C140" r:id="rId258" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
-    <hyperlink ref="C141" r:id="rId259" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
-    <hyperlink ref="C142" r:id="rId260" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
-    <hyperlink ref="C143" r:id="rId261" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
-    <hyperlink ref="C144" r:id="rId262" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
-    <hyperlink ref="C145" r:id="rId263" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
-    <hyperlink ref="C146" r:id="rId264" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
-    <hyperlink ref="C147" r:id="rId265" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
-    <hyperlink ref="C148" r:id="rId266" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
-    <hyperlink ref="C149" r:id="rId267" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
-    <hyperlink ref="C131" r:id="rId268" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
-    <hyperlink ref="C150" r:id="rId269" xr:uid="{F234784D-26C2-A545-B685-EF602C8D974F}"/>
-    <hyperlink ref="C151" r:id="rId270" xr:uid="{0CF53428-4492-AE40-9C02-9FABA2BA0D3B}"/>
-    <hyperlink ref="B153" r:id="rId271" xr:uid="{6E42F66B-4B80-564E-8A39-545051468745}"/>
-    <hyperlink ref="B154" r:id="rId272" xr:uid="{D200C44B-A95E-434E-B96F-F097A5CB9796}"/>
-    <hyperlink ref="B155" r:id="rId273" xr:uid="{6C870BBD-0FCA-4E4D-8C04-64F66A4CDDBD}"/>
-    <hyperlink ref="B156" r:id="rId274" xr:uid="{13618F8B-EF5F-744B-92F0-4F8047208B03}"/>
-    <hyperlink ref="B157" r:id="rId275" xr:uid="{369A99E5-8534-484F-9378-38EA1F763D49}"/>
-    <hyperlink ref="B158" r:id="rId276" xr:uid="{F755E08D-37B2-7740-8B78-61FD6A0062F8}"/>
-    <hyperlink ref="B159" r:id="rId277" xr:uid="{DE03D456-C44C-C442-8758-FF0ADB5910C9}"/>
-    <hyperlink ref="B160" r:id="rId278" xr:uid="{DD51AED9-A8BF-E340-A7B8-574926029C7A}"/>
-    <hyperlink ref="B161" r:id="rId279" xr:uid="{4106DA73-80ED-0C48-9333-CF22AD9B453B}"/>
-    <hyperlink ref="B162" r:id="rId280" xr:uid="{24AA6FBD-DA03-1641-9CCE-C4125E436587}"/>
-    <hyperlink ref="B163" r:id="rId281" xr:uid="{671C41C7-BBE6-6244-AC5F-C2D5050A9976}"/>
-    <hyperlink ref="B164" r:id="rId282" xr:uid="{0A61AD93-54F4-B64C-A125-A39B41D20037}"/>
-    <hyperlink ref="B165" r:id="rId283" xr:uid="{B21EB3D6-55DF-A648-99FE-B9174BEB51CF}"/>
-    <hyperlink ref="B166" r:id="rId284" xr:uid="{EDD64D5C-42F2-1944-868E-02CE17E0C28C}"/>
-    <hyperlink ref="B168" r:id="rId285" xr:uid="{76E6FFD7-9F09-F545-9058-D27B73251ABF}"/>
-    <hyperlink ref="B169" r:id="rId286" xr:uid="{9ADE58D5-16AC-DC4F-A820-2981CD2C5EE1}"/>
-    <hyperlink ref="C170" r:id="rId287" xr:uid="{8D033399-8CBD-724D-80CD-C7397C3C2A0F}"/>
-    <hyperlink ref="B171" r:id="rId288" xr:uid="{01B1B80B-C304-4D4F-A53E-AB4D0EE61624}"/>
-    <hyperlink ref="B172" r:id="rId289" xr:uid="{F690EC01-0A49-E548-9E56-0EACEA75EA38}"/>
-    <hyperlink ref="B173" r:id="rId290" xr:uid="{7F51F9C1-398D-9749-A281-E22D1309A30E}"/>
-    <hyperlink ref="B174" r:id="rId291" xr:uid="{64214232-7C7F-8444-9AAC-0A4BBD3AF2D1}"/>
-    <hyperlink ref="B175" r:id="rId292" xr:uid="{7AF546D0-B342-424F-A68E-944E05062E8A}"/>
-    <hyperlink ref="B176" r:id="rId293" xr:uid="{0050ED55-AE7F-E64C-87FF-712ACBB46C7D}"/>
-    <hyperlink ref="B177" r:id="rId294" xr:uid="{83754876-42D8-E74F-91FA-9CECBBAC6924}"/>
-    <hyperlink ref="B178" r:id="rId295" xr:uid="{337A6E39-03DD-064F-BF1E-FA6674858C0B}"/>
-    <hyperlink ref="B179" r:id="rId296" xr:uid="{8D3B4445-BD15-E441-B13B-E90EAF62DA8E}"/>
-    <hyperlink ref="B180" r:id="rId297" xr:uid="{F8DCC388-ABD3-2544-8E1A-8EAF5A2DAA9C}"/>
-    <hyperlink ref="B181" r:id="rId298" xr:uid="{BC6EE541-680A-884F-958C-C07EA84B94D8}"/>
-    <hyperlink ref="B182" r:id="rId299" xr:uid="{DD1C41B7-F12D-0B4A-807D-2D572F6BC0DA}"/>
-    <hyperlink ref="B183" r:id="rId300" xr:uid="{456B4E6A-BAF0-1C4B-A5A2-33029913A11F}"/>
-    <hyperlink ref="B184" r:id="rId301" xr:uid="{AB596C81-A2E4-D84E-97FF-F4EDC38B3AB7}"/>
-    <hyperlink ref="B185" r:id="rId302" xr:uid="{6925BDA1-8306-C94C-B344-AC929606B70C}"/>
-    <hyperlink ref="B186" r:id="rId303" xr:uid="{F1F6DFAC-7F73-E242-80A6-0A54A6B92CBA}"/>
-    <hyperlink ref="C187" r:id="rId304" xr:uid="{2B979D45-F5FD-A54F-886F-C8E41EB241BE}"/>
-    <hyperlink ref="B188" r:id="rId305" xr:uid="{A4B83D25-A914-374B-AC70-67BC2B213C2A}"/>
-    <hyperlink ref="B189" r:id="rId306" xr:uid="{F533F9B9-2BCF-A847-AC92-C786DBA1CF4B}"/>
-    <hyperlink ref="B190" r:id="rId307" xr:uid="{6C8BEC30-39CE-A548-BBDD-73A01B452059}"/>
-    <hyperlink ref="B191" r:id="rId308" xr:uid="{85FCE497-9E96-6648-867F-752AA283D510}"/>
-    <hyperlink ref="B192" r:id="rId309" xr:uid="{43C3B803-5A07-A642-8293-EBD66D59834D}"/>
-    <hyperlink ref="C193" r:id="rId310" xr:uid="{31EDEE6A-D8E5-8C48-87E9-064EB36F385C}"/>
-    <hyperlink ref="B194" r:id="rId311" xr:uid="{F9240DAF-1152-804D-82D6-CD96D548238C}"/>
-    <hyperlink ref="B195" r:id="rId312" xr:uid="{DD79C80C-1BE5-F149-88DD-8DA5369DFCAD}"/>
-    <hyperlink ref="B196" r:id="rId313" xr:uid="{B0E436A7-E831-8E4C-9EAC-5207B2FC9DA3}"/>
-    <hyperlink ref="B197" r:id="rId314" xr:uid="{945AD53A-A851-EB4A-B3AC-9B72897828BE}"/>
-    <hyperlink ref="B198" r:id="rId315" xr:uid="{FAEF4F3C-0C71-C542-B31C-BDECF30F1ABE}"/>
-    <hyperlink ref="B199" r:id="rId316" xr:uid="{16789C92-8D31-CA42-A3C5-F457DE323071}"/>
-    <hyperlink ref="B200" r:id="rId317" xr:uid="{C9BB414A-D34A-A743-8C91-1506BC729AF1}"/>
-    <hyperlink ref="B201" r:id="rId318" xr:uid="{7E709984-032A-6D43-B8C0-35BB36F33A8B}"/>
-    <hyperlink ref="B202" r:id="rId319" xr:uid="{AF735B37-2761-6B44-8457-C70F018D475D}"/>
-    <hyperlink ref="C203" r:id="rId320" xr:uid="{F3E9CC02-E232-F247-910C-0F8F818F15FD}"/>
-    <hyperlink ref="B204" r:id="rId321" xr:uid="{CF20CF77-6D17-A640-BC1C-06D8AC56128F}"/>
-    <hyperlink ref="B205" r:id="rId322" xr:uid="{05A67C14-E63C-6643-A98B-DE5374A332F7}"/>
-    <hyperlink ref="B206" r:id="rId323" xr:uid="{2E28DB30-178A-5F43-BABB-5699190A802A}"/>
-    <hyperlink ref="C207" r:id="rId324" xr:uid="{D1AA51DE-D608-3D45-AD22-E8B64F1419E7}"/>
-    <hyperlink ref="C208" r:id="rId325" xr:uid="{9BABC60F-FE82-5248-9E79-B718EC0F659A}"/>
-    <hyperlink ref="C209" r:id="rId326" xr:uid="{03289203-0011-5743-AC70-D84C9B97DC6E}"/>
-    <hyperlink ref="C210" r:id="rId327" xr:uid="{1B79D66B-2C73-624F-A90B-DE414F9850D6}"/>
-    <hyperlink ref="C211" r:id="rId328" xr:uid="{43F13A60-CCD1-0C40-AB37-E9F9EE97732E}"/>
-    <hyperlink ref="C212" r:id="rId329" xr:uid="{1C156BC9-5818-4049-8EF2-B540C3E68E81}"/>
-    <hyperlink ref="B213" r:id="rId330" xr:uid="{53D53A00-1672-664D-91C8-7C5331F6CCA5}"/>
-    <hyperlink ref="B214" r:id="rId331" xr:uid="{515855E3-E3E4-F845-9DC8-E34325F7F3DA}"/>
-    <hyperlink ref="B215" r:id="rId332" xr:uid="{BA928391-E722-7746-BED2-1C83F80C0DBC}"/>
-    <hyperlink ref="B216" r:id="rId333" xr:uid="{102F6A53-9ABC-3E45-BD5C-B9BF66066C2A}"/>
-    <hyperlink ref="B217" r:id="rId334" xr:uid="{1285018C-691B-2E4B-A2D4-583D0B414C1F}"/>
-    <hyperlink ref="B218" r:id="rId335" xr:uid="{76AAE9CF-2707-B143-B652-46D8CE36A647}"/>
-    <hyperlink ref="C219" r:id="rId336" xr:uid="{6F160E9C-28C2-9641-9DFC-22F25114A500}"/>
-    <hyperlink ref="B220" r:id="rId337" xr:uid="{73B6A897-CC12-624B-B420-3142BFB3B7E7}"/>
-    <hyperlink ref="C221" r:id="rId338" xr:uid="{97260B38-6E63-8949-A540-58D6E311FC48}"/>
-    <hyperlink ref="B222" r:id="rId339" xr:uid="{63962B13-F41B-C849-BD6B-055FC35A58D4}"/>
-    <hyperlink ref="B223" r:id="rId340" xr:uid="{76C9DF5E-2957-2841-B4F2-ABA46671CCA0}"/>
-    <hyperlink ref="B224" r:id="rId341" xr:uid="{89A49EA1-C764-B740-A236-82525B727186}"/>
-    <hyperlink ref="B225" r:id="rId342" xr:uid="{ECE997AF-CE38-B24F-ADBF-641D516BA06C}"/>
-    <hyperlink ref="C226" r:id="rId343" xr:uid="{E42A850B-432C-BD4F-ADAD-269074FD12D7}"/>
-    <hyperlink ref="B227" r:id="rId344" xr:uid="{C1923A14-8FC3-3048-929B-76B8E6CABE4E}"/>
-    <hyperlink ref="B228" r:id="rId345" xr:uid="{FB93A9DD-F604-164C-8539-EE9D683EAE3F}"/>
-    <hyperlink ref="B229" r:id="rId346" xr:uid="{3ED03127-35DA-8A49-93C9-896BA1D8DC06}"/>
-    <hyperlink ref="B230" r:id="rId347" xr:uid="{6AECACA9-7563-5844-88E8-65163C3C2045}"/>
-    <hyperlink ref="C231" r:id="rId348" xr:uid="{8922321F-CDC7-5A46-838D-8D1A2F011DBC}"/>
-    <hyperlink ref="B232" r:id="rId349" xr:uid="{97E5BE47-CB30-1E45-9F11-15A6DE53936E}"/>
-    <hyperlink ref="B233" r:id="rId350" xr:uid="{B055B99F-8704-CA44-985E-FEE3A9E3B3EB}"/>
-    <hyperlink ref="B234" r:id="rId351" xr:uid="{5FEA98AF-8D00-C041-8FAA-30E8369F763B}"/>
-    <hyperlink ref="C235" r:id="rId352" xr:uid="{6782F7DA-4236-7740-A30E-EFCC23B81659}"/>
-    <hyperlink ref="B236" r:id="rId353" xr:uid="{ECA5F0C7-3864-ED48-B6A1-19E564969867}"/>
-    <hyperlink ref="B152" r:id="rId354" xr:uid="{C9B92141-6E73-914D-864F-BCF52A0441AB}"/>
+    <hyperlink ref="B34" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C34" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="D34" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B35" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C35" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B36" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C36" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B37" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C37" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B38" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C38" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B39" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C39" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B40" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C40" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="D40" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B41" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C41" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B42" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C42" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="D42" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B43" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C43" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="D43" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B44" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C44" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B45" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C45" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="D45" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B46" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C46" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B47" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C47" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B48" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B49" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C49" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B50" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C50" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="D50" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B51" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C51" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="D51" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B52" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C52" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D52" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B53" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B54" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C54" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="D54" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B55" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C55" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B56" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C56" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="D56" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B57" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C57" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="D57" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B58" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C58" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B59" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C59" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B60" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C60" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B61" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C61" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B62" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C62" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D62" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B63" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="C63" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B64" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="C64" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="D64" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B65" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C65" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B66" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C66" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B67" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C67" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B68" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C68" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D68" r:id="rId151" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B69" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="C69" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B70" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="C70" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="D70" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B71" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C71" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B72" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="C72" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B73" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="C73" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B74" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="C74" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B75" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="C75" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B76" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="C76" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B77" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="C77" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B78" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="C78" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B79" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="C79" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B80" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="C80" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="D80" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B81" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="C81" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B82" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="C82" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="D82" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B83" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="C83" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="D83" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B84" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="C84" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B85" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="C85" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B86" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="C86" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B87" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="C87" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B88" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="C88" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="D88" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B89" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="D89" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B90" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="C90" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="D90" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B91" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="D91" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B92" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="C92" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="D92" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B93" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="D93" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B94" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="C94" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="D94" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B95" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="C95" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="D95" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B96" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="C96" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B97" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="C97" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B98" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="C98" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="B99" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="C99" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B100" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C100" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B101" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="C101" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B102" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="C102" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="D102" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B103" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B104" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C104" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B105" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="C105" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="C106" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="D106" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="C107" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="D107" r:id="rId238" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="C108" r:id="rId239" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="D108" r:id="rId240" location="!divAbstract" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B109" r:id="rId241" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="C109" r:id="rId242" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="C126" r:id="rId243" xr:uid="{185FB0CC-1BFF-5145-BEB3-72BDF47C8947}"/>
+    <hyperlink ref="C127" r:id="rId244" xr:uid="{97A80B27-831C-6549-8311-FA687785EA30}"/>
+    <hyperlink ref="C128" r:id="rId245" xr:uid="{F4F61C2C-C1F7-7147-8DAC-F04A10994944}"/>
+    <hyperlink ref="C130" r:id="rId246" xr:uid="{2A87F5BC-C340-6149-B12F-3F9425A0527B}"/>
+    <hyperlink ref="C131" r:id="rId247" xr:uid="{2407433B-D83D-2742-B1C3-CF65FF93283D}"/>
+    <hyperlink ref="C132" r:id="rId248" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
+    <hyperlink ref="C133" r:id="rId249" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
+    <hyperlink ref="C134" r:id="rId250" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
+    <hyperlink ref="C135" r:id="rId251" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
+    <hyperlink ref="C136" r:id="rId252" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
+    <hyperlink ref="C137" r:id="rId253" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
+    <hyperlink ref="C138" r:id="rId254" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
+    <hyperlink ref="C139" r:id="rId255" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
+    <hyperlink ref="C140" r:id="rId256" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
+    <hyperlink ref="C141" r:id="rId257" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
+    <hyperlink ref="C142" r:id="rId258" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
+    <hyperlink ref="C143" r:id="rId259" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
+    <hyperlink ref="B144" r:id="rId260" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
+    <hyperlink ref="B145" r:id="rId261" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
+    <hyperlink ref="B146" r:id="rId262" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
+    <hyperlink ref="B147" r:id="rId263" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
+    <hyperlink ref="C129" r:id="rId264" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
+    <hyperlink ref="B148" r:id="rId265" xr:uid="{F234784D-26C2-A545-B685-EF602C8D974F}"/>
+    <hyperlink ref="B149" r:id="rId266" xr:uid="{0CF53428-4492-AE40-9C02-9FABA2BA0D3B}"/>
+    <hyperlink ref="B151" r:id="rId267" xr:uid="{6E42F66B-4B80-564E-8A39-545051468745}"/>
+    <hyperlink ref="B152" r:id="rId268" xr:uid="{D200C44B-A95E-434E-B96F-F097A5CB9796}"/>
+    <hyperlink ref="B153" r:id="rId269" xr:uid="{6C870BBD-0FCA-4E4D-8C04-64F66A4CDDBD}"/>
+    <hyperlink ref="B154" r:id="rId270" xr:uid="{13618F8B-EF5F-744B-92F0-4F8047208B03}"/>
+    <hyperlink ref="B155" r:id="rId271" xr:uid="{369A99E5-8534-484F-9378-38EA1F763D49}"/>
+    <hyperlink ref="B156" r:id="rId272" xr:uid="{F755E08D-37B2-7740-8B78-61FD6A0062F8}"/>
+    <hyperlink ref="B157" r:id="rId273" xr:uid="{DE03D456-C44C-C442-8758-FF0ADB5910C9}"/>
+    <hyperlink ref="B158" r:id="rId274" xr:uid="{DD51AED9-A8BF-E340-A7B8-574926029C7A}"/>
+    <hyperlink ref="B159" r:id="rId275" xr:uid="{4106DA73-80ED-0C48-9333-CF22AD9B453B}"/>
+    <hyperlink ref="B160" r:id="rId276" xr:uid="{24AA6FBD-DA03-1641-9CCE-C4125E436587}"/>
+    <hyperlink ref="B161" r:id="rId277" xr:uid="{671C41C7-BBE6-6244-AC5F-C2D5050A9976}"/>
+    <hyperlink ref="B162" r:id="rId278" xr:uid="{0A61AD93-54F4-B64C-A125-A39B41D20037}"/>
+    <hyperlink ref="B163" r:id="rId279" xr:uid="{B21EB3D6-55DF-A648-99FE-B9174BEB51CF}"/>
+    <hyperlink ref="B164" r:id="rId280" xr:uid="{EDD64D5C-42F2-1944-868E-02CE17E0C28C}"/>
+    <hyperlink ref="B166" r:id="rId281" xr:uid="{76E6FFD7-9F09-F545-9058-D27B73251ABF}"/>
+    <hyperlink ref="B167" r:id="rId282" xr:uid="{9ADE58D5-16AC-DC4F-A820-2981CD2C5EE1}"/>
+    <hyperlink ref="C168" r:id="rId283" xr:uid="{8D033399-8CBD-724D-80CD-C7397C3C2A0F}"/>
+    <hyperlink ref="B169" r:id="rId284" xr:uid="{01B1B80B-C304-4D4F-A53E-AB4D0EE61624}"/>
+    <hyperlink ref="B170" r:id="rId285" xr:uid="{F690EC01-0A49-E548-9E56-0EACEA75EA38}"/>
+    <hyperlink ref="B171" r:id="rId286" xr:uid="{7F51F9C1-398D-9749-A281-E22D1309A30E}"/>
+    <hyperlink ref="B172" r:id="rId287" xr:uid="{64214232-7C7F-8444-9AAC-0A4BBD3AF2D1}"/>
+    <hyperlink ref="B173" r:id="rId288" xr:uid="{7AF546D0-B342-424F-A68E-944E05062E8A}"/>
+    <hyperlink ref="B174" r:id="rId289" xr:uid="{0050ED55-AE7F-E64C-87FF-712ACBB46C7D}"/>
+    <hyperlink ref="B175" r:id="rId290" xr:uid="{83754876-42D8-E74F-91FA-9CECBBAC6924}"/>
+    <hyperlink ref="B176" r:id="rId291" xr:uid="{337A6E39-03DD-064F-BF1E-FA6674858C0B}"/>
+    <hyperlink ref="B177" r:id="rId292" xr:uid="{8D3B4445-BD15-E441-B13B-E90EAF62DA8E}"/>
+    <hyperlink ref="B178" r:id="rId293" xr:uid="{F8DCC388-ABD3-2544-8E1A-8EAF5A2DAA9C}"/>
+    <hyperlink ref="B179" r:id="rId294" xr:uid="{BC6EE541-680A-884F-958C-C07EA84B94D8}"/>
+    <hyperlink ref="B180" r:id="rId295" xr:uid="{DD1C41B7-F12D-0B4A-807D-2D572F6BC0DA}"/>
+    <hyperlink ref="B181" r:id="rId296" xr:uid="{456B4E6A-BAF0-1C4B-A5A2-33029913A11F}"/>
+    <hyperlink ref="B182" r:id="rId297" xr:uid="{AB596C81-A2E4-D84E-97FF-F4EDC38B3AB7}"/>
+    <hyperlink ref="B183" r:id="rId298" xr:uid="{6925BDA1-8306-C94C-B344-AC929606B70C}"/>
+    <hyperlink ref="B184" r:id="rId299" xr:uid="{F1F6DFAC-7F73-E242-80A6-0A54A6B92CBA}"/>
+    <hyperlink ref="C185" r:id="rId300" xr:uid="{2B979D45-F5FD-A54F-886F-C8E41EB241BE}"/>
+    <hyperlink ref="B186" r:id="rId301" xr:uid="{A4B83D25-A914-374B-AC70-67BC2B213C2A}"/>
+    <hyperlink ref="B187" r:id="rId302" xr:uid="{F533F9B9-2BCF-A847-AC92-C786DBA1CF4B}"/>
+    <hyperlink ref="B188" r:id="rId303" xr:uid="{6C8BEC30-39CE-A548-BBDD-73A01B452059}"/>
+    <hyperlink ref="B189" r:id="rId304" xr:uid="{85FCE497-9E96-6648-867F-752AA283D510}"/>
+    <hyperlink ref="B190" r:id="rId305" xr:uid="{43C3B803-5A07-A642-8293-EBD66D59834D}"/>
+    <hyperlink ref="C191" r:id="rId306" xr:uid="{31EDEE6A-D8E5-8C48-87E9-064EB36F385C}"/>
+    <hyperlink ref="B192" r:id="rId307" xr:uid="{F9240DAF-1152-804D-82D6-CD96D548238C}"/>
+    <hyperlink ref="B193" r:id="rId308" xr:uid="{DD79C80C-1BE5-F149-88DD-8DA5369DFCAD}"/>
+    <hyperlink ref="B194" r:id="rId309" xr:uid="{B0E436A7-E831-8E4C-9EAC-5207B2FC9DA3}"/>
+    <hyperlink ref="B195" r:id="rId310" xr:uid="{945AD53A-A851-EB4A-B3AC-9B72897828BE}"/>
+    <hyperlink ref="B196" r:id="rId311" xr:uid="{FAEF4F3C-0C71-C542-B31C-BDECF30F1ABE}"/>
+    <hyperlink ref="B197" r:id="rId312" xr:uid="{16789C92-8D31-CA42-A3C5-F457DE323071}"/>
+    <hyperlink ref="B198" r:id="rId313" xr:uid="{C9BB414A-D34A-A743-8C91-1506BC729AF1}"/>
+    <hyperlink ref="B199" r:id="rId314" xr:uid="{7E709984-032A-6D43-B8C0-35BB36F33A8B}"/>
+    <hyperlink ref="B200" r:id="rId315" xr:uid="{AF735B37-2761-6B44-8457-C70F018D475D}"/>
+    <hyperlink ref="C201" r:id="rId316" xr:uid="{F3E9CC02-E232-F247-910C-0F8F818F15FD}"/>
+    <hyperlink ref="B202" r:id="rId317" xr:uid="{CF20CF77-6D17-A640-BC1C-06D8AC56128F}"/>
+    <hyperlink ref="B203" r:id="rId318" xr:uid="{05A67C14-E63C-6643-A98B-DE5374A332F7}"/>
+    <hyperlink ref="B204" r:id="rId319" xr:uid="{2E28DB30-178A-5F43-BABB-5699190A802A}"/>
+    <hyperlink ref="C205" r:id="rId320" xr:uid="{D1AA51DE-D608-3D45-AD22-E8B64F1419E7}"/>
+    <hyperlink ref="C206" r:id="rId321" xr:uid="{9BABC60F-FE82-5248-9E79-B718EC0F659A}"/>
+    <hyperlink ref="C207" r:id="rId322" xr:uid="{03289203-0011-5743-AC70-D84C9B97DC6E}"/>
+    <hyperlink ref="C208" r:id="rId323" xr:uid="{1B79D66B-2C73-624F-A90B-DE414F9850D6}"/>
+    <hyperlink ref="C209" r:id="rId324" xr:uid="{43F13A60-CCD1-0C40-AB37-E9F9EE97732E}"/>
+    <hyperlink ref="C210" r:id="rId325" xr:uid="{1C156BC9-5818-4049-8EF2-B540C3E68E81}"/>
+    <hyperlink ref="B211" r:id="rId326" xr:uid="{53D53A00-1672-664D-91C8-7C5331F6CCA5}"/>
+    <hyperlink ref="B212" r:id="rId327" xr:uid="{515855E3-E3E4-F845-9DC8-E34325F7F3DA}"/>
+    <hyperlink ref="B213" r:id="rId328" xr:uid="{BA928391-E722-7746-BED2-1C83F80C0DBC}"/>
+    <hyperlink ref="B214" r:id="rId329" xr:uid="{102F6A53-9ABC-3E45-BD5C-B9BF66066C2A}"/>
+    <hyperlink ref="B215" r:id="rId330" xr:uid="{1285018C-691B-2E4B-A2D4-583D0B414C1F}"/>
+    <hyperlink ref="B216" r:id="rId331" xr:uid="{76AAE9CF-2707-B143-B652-46D8CE36A647}"/>
+    <hyperlink ref="C217" r:id="rId332" xr:uid="{6F160E9C-28C2-9641-9DFC-22F25114A500}"/>
+    <hyperlink ref="B218" r:id="rId333" xr:uid="{73B6A897-CC12-624B-B420-3142BFB3B7E7}"/>
+    <hyperlink ref="C219" r:id="rId334" xr:uid="{97260B38-6E63-8949-A540-58D6E311FC48}"/>
+    <hyperlink ref="B220" r:id="rId335" xr:uid="{63962B13-F41B-C849-BD6B-055FC35A58D4}"/>
+    <hyperlink ref="B221" r:id="rId336" xr:uid="{76C9DF5E-2957-2841-B4F2-ABA46671CCA0}"/>
+    <hyperlink ref="B222" r:id="rId337" xr:uid="{89A49EA1-C764-B740-A236-82525B727186}"/>
+    <hyperlink ref="B223" r:id="rId338" xr:uid="{ECE997AF-CE38-B24F-ADBF-641D516BA06C}"/>
+    <hyperlink ref="C224" r:id="rId339" xr:uid="{E42A850B-432C-BD4F-ADAD-269074FD12D7}"/>
+    <hyperlink ref="B225" r:id="rId340" xr:uid="{C1923A14-8FC3-3048-929B-76B8E6CABE4E}"/>
+    <hyperlink ref="B226" r:id="rId341" xr:uid="{FB93A9DD-F604-164C-8539-EE9D683EAE3F}"/>
+    <hyperlink ref="B227" r:id="rId342" xr:uid="{3ED03127-35DA-8A49-93C9-896BA1D8DC06}"/>
+    <hyperlink ref="B228" r:id="rId343" xr:uid="{6AECACA9-7563-5844-88E8-65163C3C2045}"/>
+    <hyperlink ref="C229" r:id="rId344" xr:uid="{8922321F-CDC7-5A46-838D-8D1A2F011DBC}"/>
+    <hyperlink ref="B230" r:id="rId345" xr:uid="{97E5BE47-CB30-1E45-9F11-15A6DE53936E}"/>
+    <hyperlink ref="B231" r:id="rId346" xr:uid="{B055B99F-8704-CA44-985E-FEE3A9E3B3EB}"/>
+    <hyperlink ref="B232" r:id="rId347" xr:uid="{5FEA98AF-8D00-C041-8FAA-30E8369F763B}"/>
+    <hyperlink ref="C233" r:id="rId348" xr:uid="{6782F7DA-4236-7740-A30E-EFCC23B81659}"/>
+    <hyperlink ref="B234" r:id="rId349" xr:uid="{ECA5F0C7-3864-ED48-B6A1-19E564969867}"/>
+    <hyperlink ref="B150" r:id="rId350" xr:uid="{C9B92141-6E73-914D-864F-BCF52A0441AB}"/>
+    <hyperlink ref="B106" r:id="rId351" xr:uid="{D9B7A9AA-835A-D440-B1F8-5FD8BA13EDDD}"/>
+    <hyperlink ref="B107" r:id="rId352" xr:uid="{7D9A8CFA-B72E-A545-A9FF-EDF4FCCB10D2}"/>
+    <hyperlink ref="B108" r:id="rId353" xr:uid="{1FDFABF3-4AC9-E94F-8F18-8D411A8F2A41}"/>
+    <hyperlink ref="B127" r:id="rId354" xr:uid="{0B90C06A-4AA3-7D4C-9151-0A8E86D33CF7}"/>
+    <hyperlink ref="B130" r:id="rId355" xr:uid="{41F8EA90-1905-5C44-A76E-C2835343544D}"/>
+    <hyperlink ref="B134" r:id="rId356" xr:uid="{FCCEDAA3-5F09-8F4E-A216-B145A130752A}"/>
+    <hyperlink ref="B135" r:id="rId357" xr:uid="{F25B11F0-FA68-8449-B6D5-77D0823A038E}"/>
+    <hyperlink ref="B136" r:id="rId358" xr:uid="{4CFCEB5C-9EA6-444B-B4A2-DFCB393B2F22}"/>
+    <hyperlink ref="B137" r:id="rId359" xr:uid="{9A0771D2-A3EE-1A4B-9800-411D74964533}"/>
+    <hyperlink ref="B139" r:id="rId360" xr:uid="{2185F98B-0A23-8744-A78F-0879B84BE337}"/>
+    <hyperlink ref="B140" r:id="rId361" xr:uid="{C24EAB49-5746-464B-9358-7B4ED4CF07C0}"/>
+    <hyperlink ref="B141" r:id="rId362" xr:uid="{7A760695-4FA5-784E-A939-A62BC029D8EE}"/>
+    <hyperlink ref="B142" r:id="rId363" xr:uid="{FB8F38DD-E9D5-474F-BE8C-E340D4584463}"/>
+    <hyperlink ref="B143" r:id="rId364" xr:uid="{A5739124-C2FB-7D4A-A75F-F924EE1B685A}"/>
+    <hyperlink ref="C144" r:id="rId365" xr:uid="{344639F6-7829-3644-88B4-2E8EADF8B352}"/>
+    <hyperlink ref="C145" r:id="rId366" xr:uid="{B8DA1305-DB70-2A43-8A0A-5086AC200953}"/>
+    <hyperlink ref="C146" r:id="rId367" xr:uid="{A32E6704-71B6-C64F-8C44-8E45ABCB3DD5}"/>
+    <hyperlink ref="C147" r:id="rId368" xr:uid="{75414C14-6E49-8F4F-A100-00774DE6E7B3}"/>
+    <hyperlink ref="C148" r:id="rId369" xr:uid="{CD048E5C-7315-ED41-9DC1-30B18B0F6186}"/>
+    <hyperlink ref="C149" r:id="rId370" xr:uid="{CBD425AF-7CFB-D441-89AA-C4A1EFC7F571}"/>
+    <hyperlink ref="B201" r:id="rId371" xr:uid="{7197ACB3-C33E-734B-BBE9-D327D1DB5402}"/>
+    <hyperlink ref="B205" r:id="rId372" xr:uid="{718283FF-C075-6F45-8844-8AB4A96EDC21}"/>
+    <hyperlink ref="B206" r:id="rId373" xr:uid="{0927B0FA-382D-0B41-B89F-7381B38B9AB6}"/>
+    <hyperlink ref="B207" r:id="rId374" xr:uid="{FD06177F-42A0-854E-9FA5-F28B82F7F4A9}"/>
+    <hyperlink ref="B208" r:id="rId375" xr:uid="{98A13AC8-DF8D-984C-B71C-26F2324FFA33}"/>
+    <hyperlink ref="B209" r:id="rId376" xr:uid="{7D123A10-F21A-5841-8929-AD430797D8B7}"/>
+    <hyperlink ref="B210" r:id="rId377" xr:uid="{B8AD5374-49B4-B747-9070-F3CD48B43977}"/>
+    <hyperlink ref="B217" r:id="rId378" xr:uid="{CB04DAAE-22D3-404A-9B59-41734A925C2C}"/>
+    <hyperlink ref="B219" r:id="rId379" xr:uid="{53EA6710-D57A-7948-8604-F4386503E804}"/>
+    <hyperlink ref="B229" r:id="rId380" xr:uid="{57B4B706-4868-C545-80F2-74B709A3780A}"/>
+    <hyperlink ref="B233" r:id="rId381" xr:uid="{39FE5A64-9EF1-9042-9A70-7B7BEB2DFDBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2900E926-D0B5-6C49-8D79-DB9D2033FE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABAACE2-6E1B-C54C-8B25-2BAE3210B52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1020" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5240" yWindow="700" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1112">
   <si>
     <t>name</t>
   </si>
@@ -3344,6 +3344,18 @@
   </si>
   <si>
     <t>https://www.openanalysis.org/openspecy</t>
+  </si>
+  <si>
+    <t>NMRTools</t>
+  </si>
+  <si>
+    <t>https://juliapackages.com/p/nmrtools</t>
+  </si>
+  <si>
+    <t>https://github.com/chriswaudby/NMRTools.jl</t>
+  </si>
+  <si>
+    <t>Import and plot NMR spectra</t>
   </si>
 </sst>
 </file>
@@ -3750,12 +3762,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H245"/>
+  <dimension ref="A1:H246"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B111" sqref="B111"/>
+      <selection pane="bottomLeft" activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10015,6 +10027,29 @@
       </c>
       <c r="H245" t="s">
         <v>1085</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" t="s">
+        <v>370</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G246" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABAACE2-6E1B-C54C-8B25-2BAE3210B52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42ADA4-E094-AA44-A8A6-5A4834AD2407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="700" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="700" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DF" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1119">
   <si>
     <t>name</t>
   </si>
@@ -3356,6 +3356,27 @@
   </si>
   <si>
     <t>Import and plot NMR spectra</t>
+  </si>
+  <si>
+    <t>https://github.com/mlesnoff/rchemo</t>
+  </si>
+  <si>
+    <t>matthieu.lesnoff@cirad.fr</t>
+  </si>
+  <si>
+    <t>Dimension reduction, regression and discrimination for chemometrics</t>
+  </si>
+  <si>
+    <t>rchemo</t>
+  </si>
+  <si>
+    <t>https://github.com/mlesnoff/Jchemo.jl</t>
+  </si>
+  <si>
+    <t>Jchemo</t>
+  </si>
+  <si>
+    <t>https://analyticalsciencejournals.onlinelibrary.wiley.com/doi/10.1002/cem.3209</t>
   </si>
 </sst>
 </file>
@@ -3762,12 +3783,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H246"/>
+  <dimension ref="A1:H248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E246" sqref="E246"/>
+      <selection pane="bottomLeft" activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10050,6 +10071,58 @@
       </c>
       <c r="G246" t="s">
         <v>135</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247" t="s">
+        <v>12</v>
+      </c>
+      <c r="F247" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G247" t="s">
+        <v>13</v>
+      </c>
+      <c r="H247" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1118</v>
+      </c>
+      <c r="E248" t="s">
+        <v>370</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G248" t="s">
+        <v>13</v>
+      </c>
+      <c r="H248" t="s">
+        <v>1113</v>
       </c>
     </row>
   </sheetData>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanhanson/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F42ADA4-E094-AA44-A8A6-5A4834AD2407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B44FFA-7F01-F748-9546-1AC73F29385B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1900" yWindow="700" windowWidth="23700" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1942" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="1117">
   <si>
     <t>name</t>
   </si>
@@ -1729,9 +1729,6 @@
     <t>PALMA</t>
   </si>
   <si>
-    <t>Spectra.jl</t>
-  </si>
-  <si>
     <t>BaselineRemoval</t>
   </si>
   <si>
@@ -1910,9 +1907,6 @@
   </si>
   <si>
     <t>DOSY signal processing</t>
-  </si>
-  <si>
-    <t>Treatment of spectral (Raman, Infrared, XAS, NMR) data</t>
   </si>
   <si>
     <t>https://specio.readthedocs.io/en/stable/</t>
@@ -3783,12 +3777,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H248"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B248" sqref="B248"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135:XFD135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3846,7 +3840,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -3872,7 +3866,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -4002,7 +3996,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="G8" t="s">
         <v>338</v>
@@ -4135,7 +4129,7 @@
         <v>67</v>
       </c>
       <c r="G13" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H13" t="s">
         <v>68</v>
@@ -4161,7 +4155,7 @@
         <v>72</v>
       </c>
       <c r="G14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="H14" t="s">
         <v>73</v>
@@ -4187,7 +4181,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H15" t="s">
         <v>73</v>
@@ -4210,7 +4204,7 @@
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -4340,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -4366,7 +4360,7 @@
         <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="G22" t="s">
         <v>107</v>
@@ -4421,7 +4415,7 @@
         <v>116</v>
       </c>
       <c r="G24" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="H24" t="s">
         <v>117</v>
@@ -4444,7 +4438,7 @@
         <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="G25" t="s">
         <v>122</v>
@@ -4785,7 +4779,7 @@
         <v>194</v>
       </c>
       <c r="G38" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="H38" t="s">
         <v>11</v>
@@ -4808,7 +4802,7 @@
         <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="G39" t="s">
         <v>198</v>
@@ -5071,7 +5065,7 @@
         <v>245</v>
       </c>
       <c r="G49" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H49" t="s">
         <v>246</v>
@@ -5198,7 +5192,7 @@
         <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G54" t="s">
         <v>90</v>
@@ -5227,7 +5221,7 @@
         <v>274</v>
       </c>
       <c r="G55" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
@@ -5435,7 +5429,7 @@
         <v>307</v>
       </c>
       <c r="G63" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H63" t="s">
         <v>308</v>
@@ -5536,7 +5530,7 @@
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G67" t="s">
         <v>31</v>
@@ -5588,7 +5582,7 @@
         <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G69" t="s">
         <v>13</v>
@@ -5747,7 +5741,7 @@
         <v>358</v>
       </c>
       <c r="G75" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="H75" t="s">
         <v>11</v>
@@ -5929,7 +5923,7 @@
         <v>389</v>
       </c>
       <c r="G82" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
@@ -5981,7 +5975,7 @@
         <v>399</v>
       </c>
       <c r="G84" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H84" t="s">
         <v>11</v>
@@ -6007,7 +6001,7 @@
         <v>402</v>
       </c>
       <c r="G85" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="H85" t="s">
         <v>11</v>
@@ -6033,7 +6027,7 @@
         <v>405</v>
       </c>
       <c r="G86" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H86" t="s">
         <v>11</v>
@@ -6160,7 +6154,7 @@
         <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G91" t="s">
         <v>24</v>
@@ -6342,7 +6336,7 @@
         <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G98" t="s">
         <v>13</v>
@@ -6371,7 +6365,7 @@
         <v>460</v>
       </c>
       <c r="G99" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H99" t="s">
         <v>11</v>
@@ -6394,7 +6388,7 @@
         <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G100" t="s">
         <v>13</v>
@@ -6420,7 +6414,7 @@
         <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G101" t="s">
         <v>13</v>
@@ -6446,7 +6440,7 @@
         <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="G102" t="s">
         <v>135</v>
@@ -6602,7 +6596,7 @@
         <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="G108" t="s">
         <v>135</v>
@@ -6628,7 +6622,7 @@
         <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G109" t="s">
         <v>13</v>
@@ -6654,7 +6648,7 @@
         <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G110" t="s">
         <v>13</v>
@@ -6665,7 +6659,7 @@
         <v>503</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C111" t="s">
         <v>504</v>
@@ -6780,7 +6774,7 @@
         <v>526</v>
       </c>
       <c r="B116" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C116" t="s">
         <v>528</v>
@@ -6867,7 +6861,7 @@
         <v>542</v>
       </c>
       <c r="G119" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
@@ -6927,13 +6921,13 @@
         <v>554</v>
       </c>
       <c r="D122" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="E122" t="s">
         <v>36</v>
       </c>
       <c r="F122" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G122" t="s">
         <v>13</v>
@@ -7013,22 +7007,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B126" t="s">
+        <v>615</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>36</v>
+      </c>
+      <c r="F126" t="s">
         <v>616</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="D126" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" t="s">
-        <v>36</v>
-      </c>
-      <c r="F126" t="s">
-        <v>617</v>
       </c>
       <c r="G126" t="s">
         <v>135</v>
@@ -7036,13 +7030,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -7051,7 +7045,7 @@
         <v>221</v>
       </c>
       <c r="F127" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G127" t="s">
         <v>338</v>
@@ -7059,13 +7053,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B128" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D128" t="s">
         <v>11</v>
@@ -7074,7 +7068,7 @@
         <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G128" t="s">
         <v>551</v>
@@ -7082,36 +7076,36 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B129" t="s">
+        <v>620</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>36</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G129" t="s">
         <v>621</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D129" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" t="s">
-        <v>36</v>
-      </c>
-      <c r="F129" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G129" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
@@ -7120,7 +7114,7 @@
         <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G130" t="s">
         <v>442</v>
@@ -7128,22 +7122,22 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B131" t="s">
+        <v>622</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
         <v>623</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-      <c r="E131" t="s">
-        <v>624</v>
-      </c>
       <c r="F131" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G131" t="s">
         <v>135</v>
@@ -7151,10 +7145,10 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B132" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>302</v>
@@ -7166,7 +7160,7 @@
         <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G132" t="s">
         <v>135</v>
@@ -7174,22 +7168,22 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B133" t="s">
+        <v>625</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" t="s">
         <v>626</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D133" t="s">
-        <v>11</v>
-      </c>
-      <c r="E133" t="s">
-        <v>36</v>
-      </c>
-      <c r="F133" t="s">
-        <v>627</v>
       </c>
       <c r="G133" t="s">
         <v>135</v>
@@ -7200,19 +7194,19 @@
         <v>568</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D134" t="s">
+        <v>627</v>
+      </c>
+      <c r="E134" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" t="s">
         <v>628</v>
-      </c>
-      <c r="E134" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" t="s">
-        <v>629</v>
       </c>
       <c r="G134" t="s">
         <v>135</v>
@@ -7223,19 +7217,19 @@
         <v>569</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>369</v>
+        <v>582</v>
       </c>
       <c r="D135" t="s">
         <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>370</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>630</v>
+        <v>1043</v>
       </c>
       <c r="G135" t="s">
         <v>13</v>
@@ -7258,18 +7252,18 @@
         <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>1045</v>
+        <v>1028</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>571</v>
       </c>
-      <c r="B137" s="2" t="s">
-        <v>584</v>
+      <c r="B137" t="s">
+        <v>629</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>584</v>
@@ -7281,18 +7275,18 @@
         <v>36</v>
       </c>
       <c r="F137" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G137" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>572</v>
       </c>
-      <c r="B138" t="s">
-        <v>631</v>
+      <c r="B138" s="2" t="s">
+        <v>585</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>585</v>
@@ -7304,10 +7298,10 @@
         <v>36</v>
       </c>
       <c r="F138" t="s">
-        <v>1031</v>
+        <v>1044</v>
       </c>
       <c r="G138" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -7327,7 +7321,7 @@
         <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>1046</v>
+        <v>610</v>
       </c>
       <c r="G139" t="s">
         <v>107</v>
@@ -7338,19 +7332,19 @@
         <v>574</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>587</v>
+        <v>353</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>587</v>
+        <v>353</v>
       </c>
       <c r="D140" t="s">
         <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="G140" t="s">
         <v>107</v>
@@ -7361,19 +7355,19 @@
         <v>575</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>353</v>
+        <v>587</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>353</v>
+        <v>587</v>
       </c>
       <c r="D141" t="s">
         <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>632</v>
+        <v>611</v>
       </c>
       <c r="G141" t="s">
         <v>107</v>
@@ -7396,10 +7390,10 @@
         <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="G142" t="s">
-        <v>107</v>
+        <v>453</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -7413,16 +7407,16 @@
         <v>589</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>632</v>
       </c>
       <c r="E143" t="s">
         <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>633</v>
+        <v>612</v>
       </c>
       <c r="G143" t="s">
-        <v>453</v>
+        <v>198</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -7436,16 +7430,16 @@
         <v>590</v>
       </c>
       <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
         <v>634</v>
-      </c>
-      <c r="E144" t="s">
-        <v>36</v>
       </c>
       <c r="F144" t="s">
         <v>613</v>
       </c>
       <c r="G144" t="s">
-        <v>198</v>
+        <v>579</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
@@ -7462,13 +7456,13 @@
         <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>636</v>
+        <v>36</v>
       </c>
       <c r="F145" t="s">
         <v>614</v>
       </c>
       <c r="G145" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
@@ -7488,21 +7482,21 @@
         <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="G146" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>581</v>
+        <v>635</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>593</v>
+        <v>770</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>593</v>
+        <v>770</v>
       </c>
       <c r="D147" t="s">
         <v>11</v>
@@ -7511,21 +7505,24 @@
         <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>635</v>
+        <v>716</v>
       </c>
       <c r="G147" t="s">
-        <v>288</v>
+        <v>135</v>
+      </c>
+      <c r="H147" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D148" t="s">
         <v>11</v>
@@ -7534,24 +7531,24 @@
         <v>36</v>
       </c>
       <c r="F148" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G148" t="s">
         <v>135</v>
       </c>
       <c r="H148" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
+      </c>
+      <c r="C149" t="s">
+        <v>918</v>
       </c>
       <c r="D149" t="s">
         <v>11</v>
@@ -7560,73 +7557,73 @@
         <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G149" t="s">
         <v>135</v>
       </c>
       <c r="H149" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C150" t="s">
-        <v>920</v>
+        <v>561</v>
       </c>
       <c r="D150" t="s">
-        <v>11</v>
+        <v>560</v>
       </c>
       <c r="E150" t="s">
         <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G150" t="s">
         <v>135</v>
       </c>
       <c r="H150" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C151" t="s">
-        <v>561</v>
+        <v>919</v>
       </c>
       <c r="D151" t="s">
-        <v>560</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
         <v>36</v>
       </c>
       <c r="F151" t="s">
-        <v>721</v>
+        <v>1045</v>
       </c>
       <c r="G151" t="s">
         <v>135</v>
       </c>
       <c r="H151" t="s">
-        <v>852</v>
+        <v>920</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>776</v>
+        <v>128</v>
       </c>
       <c r="C152" t="s">
         <v>921</v>
@@ -7638,24 +7635,24 @@
         <v>36</v>
       </c>
       <c r="F152" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G152" t="s">
         <v>135</v>
       </c>
       <c r="H152" t="s">
-        <v>922</v>
+        <v>851</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C153" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D153" t="s">
         <v>11</v>
@@ -7664,10 +7661,10 @@
         <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G153" t="s">
-        <v>135</v>
+        <v>1006</v>
       </c>
       <c r="H153" t="s">
         <v>853</v>
@@ -7675,10 +7672,10 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>161</v>
+        <v>775</v>
       </c>
       <c r="C154" t="s">
         <v>924</v>
@@ -7690,24 +7687,24 @@
         <v>36</v>
       </c>
       <c r="F154" t="s">
-        <v>1049</v>
+        <v>923</v>
       </c>
       <c r="G154" t="s">
-        <v>1008</v>
+        <v>229</v>
       </c>
       <c r="H154" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C155" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D155" t="s">
         <v>11</v>
@@ -7716,24 +7713,24 @@
         <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>925</v>
+        <v>720</v>
       </c>
       <c r="G155" t="s">
-        <v>229</v>
+        <v>135</v>
       </c>
       <c r="H155" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C156" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D156" t="s">
         <v>11</v>
@@ -7742,47 +7739,47 @@
         <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G156" t="s">
         <v>135</v>
       </c>
       <c r="H156" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C157" t="s">
         <v>928</v>
       </c>
       <c r="D157" t="s">
-        <v>11</v>
+        <v>927</v>
       </c>
       <c r="E157" t="s">
         <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G157" t="s">
         <v>135</v>
       </c>
       <c r="H157" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C158" t="s">
         <v>930</v>
@@ -7794,50 +7791,50 @@
         <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>724</v>
+        <v>1030</v>
       </c>
       <c r="G158" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="H158" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C159" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D159" t="s">
-        <v>931</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
         <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>1032</v>
+        <v>1048</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="H159" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C160" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D160" t="s">
         <v>11</v>
@@ -7846,24 +7843,24 @@
         <v>36</v>
       </c>
       <c r="F160" t="s">
-        <v>1050</v>
+        <v>1033</v>
       </c>
       <c r="G160" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="H160" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C161" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D161" t="s">
         <v>11</v>
@@ -7872,102 +7869,102 @@
         <v>36</v>
       </c>
       <c r="F161" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="H161" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>651</v>
+        <v>176</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>784</v>
+        <v>177</v>
       </c>
       <c r="C162" t="s">
-        <v>935</v>
+        <v>178</v>
       </c>
       <c r="D162" t="s">
-        <v>11</v>
+        <v>927</v>
       </c>
       <c r="E162" t="s">
         <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>1033</v>
+        <v>1049</v>
       </c>
       <c r="G162" t="s">
         <v>135</v>
       </c>
       <c r="H162" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>176</v>
+        <v>650</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>177</v>
+        <v>783</v>
       </c>
       <c r="C163" t="s">
-        <v>178</v>
+        <v>934</v>
       </c>
       <c r="D163" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="E163" t="s">
         <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>1051</v>
+        <v>1032</v>
       </c>
       <c r="G163" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H163" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>652</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>785</v>
+        <v>651</v>
+      </c>
+      <c r="B164" t="s">
+        <v>784</v>
       </c>
       <c r="C164" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D164" t="s">
-        <v>929</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
         <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>1034</v>
+        <v>723</v>
       </c>
       <c r="G164" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H164" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>653</v>
-      </c>
-      <c r="B165" t="s">
-        <v>786</v>
+        <v>652</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="C165" t="s">
-        <v>937</v>
+        <v>607</v>
       </c>
       <c r="D165" t="s">
         <v>11</v>
@@ -7976,24 +7973,24 @@
         <v>36</v>
       </c>
       <c r="F165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G165" t="s">
-        <v>135</v>
+        <v>936</v>
       </c>
       <c r="H165" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>654</v>
+        <v>140</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C166" t="s">
-        <v>608</v>
+        <v>142</v>
       </c>
       <c r="D166" t="s">
         <v>11</v>
@@ -8002,24 +7999,24 @@
         <v>36</v>
       </c>
       <c r="F166" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G166" t="s">
-        <v>938</v>
+        <v>135</v>
       </c>
       <c r="H166" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>140</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C167" t="s">
-        <v>142</v>
+        <v>653</v>
+      </c>
+      <c r="B167" t="s">
+        <v>937</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>785</v>
       </c>
       <c r="D167" t="s">
         <v>11</v>
@@ -8028,24 +8025,24 @@
         <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G167" t="s">
         <v>135</v>
       </c>
       <c r="H167" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>655</v>
-      </c>
-      <c r="B168" t="s">
-        <v>939</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>787</v>
+        <v>314</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="C168" t="s">
+        <v>938</v>
       </c>
       <c r="D168" t="s">
         <v>11</v>
@@ -8054,24 +8051,24 @@
         <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G168" t="s">
         <v>135</v>
       </c>
       <c r="H168" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>314</v>
+        <v>654</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C169" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D169" t="s">
         <v>11</v>
@@ -8080,10 +8077,10 @@
         <v>36</v>
       </c>
       <c r="F169" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G169" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H169" t="s">
         <v>867</v>
@@ -8091,13 +8088,13 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>656</v>
+        <v>165</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>789</v>
+        <v>166</v>
       </c>
       <c r="C170" t="s">
-        <v>941</v>
+        <v>166</v>
       </c>
       <c r="D170" t="s">
         <v>11</v>
@@ -8106,24 +8103,24 @@
         <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G170" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H170" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>165</v>
+        <v>655</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>166</v>
+        <v>788</v>
       </c>
       <c r="C171" t="s">
-        <v>166</v>
+        <v>940</v>
       </c>
       <c r="D171" t="s">
         <v>11</v>
@@ -8132,47 +8129,47 @@
         <v>36</v>
       </c>
       <c r="F171" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G171" t="s">
         <v>135</v>
       </c>
       <c r="H171" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>790</v>
+        <v>168</v>
       </c>
       <c r="C172" t="s">
+        <v>941</v>
+      </c>
+      <c r="D172" t="s">
+        <v>11</v>
+      </c>
+      <c r="E172" t="s">
+        <v>36</v>
+      </c>
+      <c r="F172" t="s">
         <v>942</v>
-      </c>
-      <c r="D172" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" t="s">
-        <v>36</v>
-      </c>
-      <c r="F172" t="s">
-        <v>732</v>
       </c>
       <c r="G172" t="s">
         <v>135</v>
       </c>
       <c r="H172" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>789</v>
       </c>
       <c r="C173" t="s">
         <v>943</v>
@@ -8184,24 +8181,24 @@
         <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>944</v>
+        <v>1050</v>
       </c>
       <c r="G173" t="s">
         <v>135</v>
       </c>
       <c r="H173" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C174" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D174" t="s">
         <v>11</v>
@@ -8210,76 +8207,76 @@
         <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G174" t="s">
         <v>135</v>
       </c>
       <c r="H174" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C175" t="s">
         <v>946</v>
       </c>
       <c r="D175" t="s">
-        <v>11</v>
+        <v>945</v>
       </c>
       <c r="E175" t="s">
         <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>1053</v>
+        <v>731</v>
       </c>
       <c r="G175" t="s">
         <v>135</v>
       </c>
       <c r="H175" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C176" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D176" t="s">
-        <v>947</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
         <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>733</v>
+        <v>1052</v>
       </c>
       <c r="G176" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H176" t="s">
-        <v>875</v>
+        <v>860</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C177" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D177" t="s">
         <v>11</v>
@@ -8288,154 +8285,154 @@
         <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>1054</v>
+        <v>732</v>
       </c>
       <c r="G177" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="H177" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>663</v>
+        <v>147</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>795</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
-        <v>950</v>
+        <v>149</v>
       </c>
       <c r="D178" t="s">
-        <v>11</v>
+        <v>949</v>
       </c>
       <c r="E178" t="s">
         <v>36</v>
       </c>
       <c r="F178" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G178" t="s">
         <v>135</v>
       </c>
       <c r="H178" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>147</v>
+        <v>662</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>148</v>
+        <v>794</v>
       </c>
       <c r="C179" t="s">
-        <v>149</v>
+        <v>950</v>
       </c>
       <c r="D179" t="s">
-        <v>951</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
         <v>36</v>
       </c>
       <c r="F179" t="s">
-        <v>735</v>
+        <v>1053</v>
       </c>
       <c r="G179" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
       <c r="H179" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C180" t="s">
+        <v>951</v>
+      </c>
+      <c r="D180" t="s">
         <v>952</v>
       </c>
-      <c r="D180" t="s">
-        <v>11</v>
-      </c>
       <c r="E180" t="s">
         <v>36</v>
       </c>
       <c r="F180" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="G180" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="H180" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C181" t="s">
         <v>953</v>
       </c>
       <c r="D181" t="s">
-        <v>954</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
         <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="G181" t="s">
         <v>135</v>
       </c>
       <c r="H181" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C182" t="s">
+        <v>954</v>
+      </c>
+      <c r="D182" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" t="s">
+        <v>36</v>
+      </c>
+      <c r="F182" t="s">
+        <v>734</v>
+      </c>
+      <c r="G182" t="s">
         <v>955</v>
       </c>
-      <c r="D182" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" t="s">
-        <v>36</v>
-      </c>
-      <c r="F182" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G182" t="s">
-        <v>135</v>
-      </c>
       <c r="H182" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>667</v>
+        <v>179</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>799</v>
+        <v>180</v>
       </c>
       <c r="C183" t="s">
-        <v>956</v>
+        <v>181</v>
       </c>
       <c r="D183" t="s">
         <v>11</v>
@@ -8444,24 +8441,24 @@
         <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>736</v>
+        <v>1056</v>
       </c>
       <c r="G183" t="s">
-        <v>957</v>
+        <v>1018</v>
       </c>
       <c r="H183" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>179</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C184" t="s">
-        <v>181</v>
+        <v>666</v>
+      </c>
+      <c r="B184" t="s">
+        <v>956</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>798</v>
       </c>
       <c r="D184" t="s">
         <v>11</v>
@@ -8470,24 +8467,24 @@
         <v>36</v>
       </c>
       <c r="F184" t="s">
-        <v>1058</v>
+        <v>735</v>
       </c>
       <c r="G184" t="s">
-        <v>1020</v>
+        <v>135</v>
       </c>
       <c r="H184" t="s">
-        <v>882</v>
+        <v>866</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>668</v>
-      </c>
-      <c r="B185" t="s">
-        <v>958</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>800</v>
+        <v>667</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="C185" t="s">
+        <v>957</v>
       </c>
       <c r="D185" t="s">
         <v>11</v>
@@ -8496,24 +8493,24 @@
         <v>36</v>
       </c>
       <c r="F185" t="s">
-        <v>737</v>
+        <v>1057</v>
       </c>
       <c r="G185" t="s">
         <v>135</v>
       </c>
       <c r="H185" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C186" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="D186" t="s">
         <v>11</v>
@@ -8522,24 +8519,24 @@
         <v>36</v>
       </c>
       <c r="F186" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G186" t="s">
         <v>135</v>
       </c>
       <c r="H186" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>802</v>
+        <v>182</v>
       </c>
       <c r="C187" t="s">
-        <v>960</v>
+        <v>183</v>
       </c>
       <c r="D187" t="s">
         <v>11</v>
@@ -8548,24 +8545,24 @@
         <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>1060</v>
+        <v>736</v>
       </c>
       <c r="G187" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="H187" t="s">
-        <v>884</v>
+        <v>852</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>182</v>
+        <v>801</v>
       </c>
       <c r="C188" t="s">
-        <v>183</v>
+        <v>959</v>
       </c>
       <c r="D188" t="s">
         <v>11</v>
@@ -8574,24 +8571,24 @@
         <v>36</v>
       </c>
       <c r="F188" t="s">
-        <v>738</v>
+        <v>1059</v>
       </c>
       <c r="G188" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
       <c r="H188" t="s">
-        <v>854</v>
+        <v>883</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C189" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D189" t="s">
         <v>11</v>
@@ -8600,7 +8597,7 @@
         <v>36</v>
       </c>
       <c r="F189" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="G189" t="s">
         <v>13</v>
@@ -8611,65 +8608,65 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>673</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C190" t="s">
+        <v>672</v>
+      </c>
+      <c r="B190" t="s">
+        <v>961</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="D190" t="s">
         <v>962</v>
       </c>
-      <c r="D190" t="s">
-        <v>11</v>
-      </c>
       <c r="E190" t="s">
         <v>36</v>
       </c>
       <c r="F190" t="s">
-        <v>1062</v>
+        <v>737</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>551</v>
       </c>
       <c r="H190" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>674</v>
-      </c>
-      <c r="B191" t="s">
+        <v>673</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="C191" t="s">
         <v>963</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>805</v>
-      </c>
       <c r="D191" t="s">
-        <v>964</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
         <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>739</v>
+        <v>1061</v>
       </c>
       <c r="G191" t="s">
-        <v>551</v>
+        <v>198</v>
       </c>
       <c r="H191" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C192" t="s">
-        <v>965</v>
+        <v>554</v>
       </c>
       <c r="D192" t="s">
         <v>11</v>
@@ -8678,24 +8675,24 @@
         <v>36</v>
       </c>
       <c r="F192" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="G192" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="H192" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C193" t="s">
-        <v>554</v>
+        <v>964</v>
       </c>
       <c r="D193" t="s">
         <v>11</v>
@@ -8704,24 +8701,24 @@
         <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>1064</v>
+        <v>738</v>
       </c>
       <c r="G193" t="s">
         <v>13</v>
       </c>
       <c r="H193" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C194" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D194" t="s">
         <v>11</v>
@@ -8730,99 +8727,99 @@
         <v>36</v>
       </c>
       <c r="F194" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H194" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C195" t="s">
+        <v>966</v>
+      </c>
+      <c r="D195" t="s">
         <v>967</v>
       </c>
-      <c r="D195" t="s">
-        <v>11</v>
-      </c>
       <c r="E195" t="s">
         <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G195" t="s">
-        <v>338</v>
+        <v>1019</v>
       </c>
       <c r="H195" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C196" t="s">
         <v>968</v>
       </c>
       <c r="D196" t="s">
-        <v>969</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
         <v>36</v>
       </c>
       <c r="F196" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G196" t="s">
-        <v>1021</v>
+        <v>198</v>
       </c>
       <c r="H196" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C197" t="s">
+        <v>969</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" t="s">
+        <v>36</v>
+      </c>
+      <c r="F197" t="s">
+        <v>742</v>
+      </c>
+      <c r="G197" t="s">
         <v>970</v>
       </c>
-      <c r="D197" t="s">
-        <v>11</v>
-      </c>
-      <c r="E197" t="s">
-        <v>36</v>
-      </c>
-      <c r="F197" t="s">
-        <v>743</v>
-      </c>
-      <c r="G197" t="s">
-        <v>198</v>
-      </c>
       <c r="H197" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C198" t="s">
         <v>971</v>
@@ -8834,24 +8831,24 @@
         <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G198" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H198" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C199" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
       <c r="D199" t="s">
         <v>11</v>
@@ -8860,24 +8857,24 @@
         <v>36</v>
       </c>
       <c r="F199" t="s">
-        <v>745</v>
+        <v>1012</v>
       </c>
       <c r="G199" t="s">
-        <v>972</v>
+        <v>198</v>
       </c>
       <c r="H199" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C200" t="s">
-        <v>1015</v>
+        <v>813</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>813</v>
       </c>
       <c r="D200" t="s">
         <v>11</v>
@@ -8886,24 +8883,24 @@
         <v>36</v>
       </c>
       <c r="F200" t="s">
-        <v>1014</v>
+        <v>744</v>
       </c>
       <c r="G200" t="s">
-        <v>198</v>
+        <v>442</v>
       </c>
       <c r="H200" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
+      </c>
+      <c r="C201" t="s">
+        <v>972</v>
       </c>
       <c r="D201" t="s">
         <v>11</v>
@@ -8912,24 +8909,21 @@
         <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>746</v>
+        <v>1063</v>
       </c>
       <c r="G201" t="s">
         <v>442</v>
       </c>
-      <c r="H201" t="s">
-        <v>895</v>
-      </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C202" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D202" t="s">
         <v>11</v>
@@ -8938,21 +8932,24 @@
         <v>36</v>
       </c>
       <c r="F202" t="s">
-        <v>1065</v>
+        <v>745</v>
       </c>
       <c r="G202" t="s">
         <v>442</v>
       </c>
+      <c r="H202" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C203" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D203" t="s">
         <v>11</v>
@@ -8961,24 +8958,24 @@
         <v>36</v>
       </c>
       <c r="F203" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G203" t="s">
         <v>442</v>
       </c>
       <c r="H203" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="C204" t="s">
-        <v>976</v>
+        <v>817</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>817</v>
       </c>
       <c r="D204" t="s">
         <v>11</v>
@@ -8987,24 +8984,24 @@
         <v>36</v>
       </c>
       <c r="F204" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G204" t="s">
         <v>442</v>
       </c>
       <c r="H204" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D205" t="s">
         <v>11</v>
@@ -9013,24 +9010,24 @@
         <v>36</v>
       </c>
       <c r="F205" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G205" t="s">
         <v>442</v>
       </c>
       <c r="H205" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D206" t="s">
         <v>11</v>
@@ -9039,24 +9036,24 @@
         <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G206" t="s">
         <v>442</v>
       </c>
       <c r="H206" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D207" t="s">
         <v>11</v>
@@ -9065,24 +9062,24 @@
         <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G207" t="s">
         <v>442</v>
       </c>
       <c r="H207" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D208" t="s">
         <v>11</v>
@@ -9091,24 +9088,24 @@
         <v>36</v>
       </c>
       <c r="F208" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G208" t="s">
         <v>442</v>
       </c>
       <c r="H208" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D209" t="s">
         <v>11</v>
@@ -9117,24 +9114,24 @@
         <v>36</v>
       </c>
       <c r="F209" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G209" t="s">
         <v>442</v>
       </c>
       <c r="H209" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
+      </c>
+      <c r="C210" t="s">
+        <v>975</v>
       </c>
       <c r="D210" t="s">
         <v>11</v>
@@ -9143,24 +9140,24 @@
         <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>754</v>
+        <v>1064</v>
       </c>
       <c r="G210" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="H210" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C211" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D211" t="s">
         <v>11</v>
@@ -9169,24 +9166,24 @@
         <v>36</v>
       </c>
       <c r="F211" t="s">
-        <v>1066</v>
+        <v>753</v>
       </c>
       <c r="G211" t="s">
-        <v>453</v>
+        <v>257</v>
       </c>
       <c r="H211" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C212" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D212" t="s">
         <v>11</v>
@@ -9195,24 +9192,24 @@
         <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G212" t="s">
         <v>257</v>
       </c>
       <c r="H212" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C213" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D213" t="s">
         <v>11</v>
@@ -9221,24 +9218,24 @@
         <v>36</v>
       </c>
       <c r="F213" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G213" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H213" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C214" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D214" t="s">
         <v>11</v>
@@ -9247,24 +9244,24 @@
         <v>36</v>
       </c>
       <c r="F214" t="s">
-        <v>757</v>
+        <v>1065</v>
       </c>
       <c r="G214" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="H214" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C215" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D215" t="s">
         <v>11</v>
@@ -9273,24 +9270,24 @@
         <v>36</v>
       </c>
       <c r="F215" t="s">
-        <v>1067</v>
+        <v>756</v>
       </c>
       <c r="G215" t="s">
-        <v>453</v>
+        <v>107</v>
       </c>
       <c r="H215" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C216" t="s">
-        <v>982</v>
+        <v>829</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>829</v>
       </c>
       <c r="D216" t="s">
         <v>11</v>
@@ -9299,102 +9296,102 @@
         <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G216" t="s">
         <v>107</v>
       </c>
       <c r="H216" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
+      </c>
+      <c r="C217" t="s">
+        <v>981</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>982</v>
       </c>
       <c r="E217" t="s">
         <v>36</v>
       </c>
       <c r="F217" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G217" t="s">
         <v>107</v>
       </c>
       <c r="H217" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C218" t="s">
+        <v>831</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D218" t="s">
         <v>983</v>
       </c>
-      <c r="D218" t="s">
-        <v>984</v>
-      </c>
       <c r="E218" t="s">
         <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G218" t="s">
         <v>107</v>
       </c>
       <c r="H218" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
+      </c>
+      <c r="C219" t="s">
+        <v>984</v>
       </c>
       <c r="D219" t="s">
-        <v>985</v>
+        <v>11</v>
       </c>
       <c r="E219" t="s">
         <v>36</v>
       </c>
       <c r="F219" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G219" t="s">
         <v>107</v>
       </c>
       <c r="H219" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C220" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D220" t="s">
         <v>11</v>
@@ -9403,24 +9400,24 @@
         <v>36</v>
       </c>
       <c r="F220" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G220" t="s">
         <v>107</v>
       </c>
       <c r="H220" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C221" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="D221" t="s">
         <v>11</v>
@@ -9429,24 +9426,24 @@
         <v>36</v>
       </c>
       <c r="F221" t="s">
-        <v>763</v>
+        <v>1066</v>
       </c>
       <c r="G221" t="s">
         <v>107</v>
       </c>
       <c r="H221" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C222" t="s">
-        <v>988</v>
+        <v>583</v>
       </c>
       <c r="D222" t="s">
         <v>11</v>
@@ -9455,24 +9452,24 @@
         <v>36</v>
       </c>
       <c r="F222" t="s">
-        <v>1068</v>
+        <v>762</v>
       </c>
       <c r="G222" t="s">
-        <v>107</v>
+        <v>1007</v>
       </c>
       <c r="H222" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>706</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C223" t="s">
-        <v>584</v>
+        <v>705</v>
+      </c>
+      <c r="B223" t="s">
+        <v>991</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>836</v>
       </c>
       <c r="D223" t="s">
         <v>11</v>
@@ -9481,24 +9478,21 @@
         <v>36</v>
       </c>
       <c r="F223" t="s">
-        <v>764</v>
+        <v>1067</v>
       </c>
       <c r="G223" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H223" t="s">
-        <v>911</v>
+        <v>107</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>707</v>
-      </c>
-      <c r="B224" t="s">
-        <v>993</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>838</v>
+        <v>706</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C224" t="s">
+        <v>992</v>
       </c>
       <c r="D224" t="s">
         <v>11</v>
@@ -9507,21 +9501,24 @@
         <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>1069</v>
+        <v>763</v>
       </c>
       <c r="G224" t="s">
-        <v>107</v>
+        <v>13</v>
+      </c>
+      <c r="H224" t="s">
+        <v>910</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C225" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D225" t="s">
         <v>11</v>
@@ -9530,24 +9527,24 @@
         <v>36</v>
       </c>
       <c r="F225" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G225" t="s">
-        <v>13</v>
+        <v>1007</v>
       </c>
       <c r="H225" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C226" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D226" t="s">
         <v>11</v>
@@ -9556,24 +9553,24 @@
         <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>766</v>
+        <v>1068</v>
       </c>
       <c r="G226" t="s">
-        <v>1009</v>
+        <v>13</v>
       </c>
       <c r="H226" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C227" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D227" t="s">
         <v>11</v>
@@ -9582,24 +9579,24 @@
         <v>36</v>
       </c>
       <c r="F227" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="G227" t="s">
-        <v>13</v>
+        <v>322</v>
       </c>
       <c r="H227" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="C228" t="s">
-        <v>997</v>
+        <v>841</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="D228" t="s">
         <v>11</v>
@@ -9608,24 +9605,21 @@
         <v>36</v>
       </c>
       <c r="F228" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="G228" t="s">
         <v>322</v>
       </c>
-      <c r="H228" t="s">
-        <v>914</v>
-      </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
+      </c>
+      <c r="C229" t="s">
+        <v>996</v>
       </c>
       <c r="D229" t="s">
         <v>11</v>
@@ -9634,21 +9628,24 @@
         <v>36</v>
       </c>
       <c r="F229" t="s">
-        <v>1072</v>
+        <v>765</v>
       </c>
       <c r="G229" t="s">
-        <v>322</v>
+        <v>579</v>
+      </c>
+      <c r="H229" t="s">
+        <v>913</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C230" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D230" t="s">
         <v>11</v>
@@ -9657,24 +9654,24 @@
         <v>36</v>
       </c>
       <c r="F230" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G230" t="s">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="H230" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C231" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D231" t="s">
         <v>11</v>
@@ -9683,76 +9680,76 @@
         <v>36</v>
       </c>
       <c r="F231" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G231" t="s">
         <v>288</v>
       </c>
       <c r="H231" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="C232" t="s">
-        <v>1000</v>
+        <v>845</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>845</v>
       </c>
       <c r="D232" t="s">
-        <v>11</v>
+        <v>999</v>
       </c>
       <c r="E232" t="s">
         <v>36</v>
       </c>
       <c r="F232" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G232" t="s">
         <v>288</v>
       </c>
       <c r="H232" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1000</v>
       </c>
       <c r="D233" t="s">
-        <v>1001</v>
+        <v>11</v>
       </c>
       <c r="E233" t="s">
         <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G233" t="s">
         <v>288</v>
       </c>
       <c r="H233" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>717</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>848</v>
+        <v>987</v>
+      </c>
+      <c r="B234" t="s">
+        <v>988</v>
       </c>
       <c r="C234" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="D234" t="s">
         <v>11</v>
@@ -9761,70 +9758,70 @@
         <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>771</v>
+        <v>990</v>
       </c>
       <c r="G234" t="s">
-        <v>288</v>
-      </c>
-      <c r="H234" t="s">
-        <v>919</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>989</v>
+        <v>1002</v>
       </c>
       <c r="B235" t="s">
-        <v>990</v>
+        <v>1003</v>
       </c>
       <c r="C235" t="s">
-        <v>991</v>
+        <v>1004</v>
       </c>
       <c r="D235" t="s">
         <v>11</v>
       </c>
       <c r="E235" t="s">
-        <v>36</v>
+        <v>370</v>
       </c>
       <c r="F235" t="s">
-        <v>992</v>
+        <v>1005</v>
       </c>
       <c r="G235" t="s">
-        <v>13</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1004</v>
+        <v>1073</v>
       </c>
       <c r="B236" t="s">
-        <v>1005</v>
+        <v>1088</v>
       </c>
       <c r="C236" t="s">
-        <v>1006</v>
+        <v>1079</v>
       </c>
       <c r="D236" t="s">
         <v>11</v>
       </c>
       <c r="E236" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="F236" t="s">
-        <v>1007</v>
+        <v>1092</v>
       </c>
       <c r="G236" t="s">
-        <v>1010</v>
+        <v>13</v>
+      </c>
+      <c r="H236" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B237" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C237" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D237" t="s">
         <v>11</v>
@@ -9833,24 +9830,24 @@
         <v>12</v>
       </c>
       <c r="F237" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="G237" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H237" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B238" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C238" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D238" t="s">
         <v>11</v>
@@ -9859,24 +9856,24 @@
         <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G238" t="s">
         <v>338</v>
       </c>
       <c r="H238" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B239" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C239" t="s">
-        <v>1079</v>
+        <v>1100</v>
       </c>
       <c r="D239" t="s">
         <v>11</v>
@@ -9885,24 +9882,24 @@
         <v>12</v>
       </c>
       <c r="F239" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="G239" t="s">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="H239" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B240" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C240" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D240" t="s">
         <v>11</v>
@@ -9911,24 +9908,24 @@
         <v>12</v>
       </c>
       <c r="F240" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="G240" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="H240" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B241" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C241" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="D241" t="s">
         <v>11</v>
@@ -9937,24 +9934,24 @@
         <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="G241" t="s">
         <v>338</v>
       </c>
       <c r="H241" t="s">
-        <v>1101</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B242" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="C242" t="s">
-        <v>1104</v>
+        <v>1089</v>
       </c>
       <c r="D242" t="s">
         <v>11</v>
@@ -9963,21 +9960,21 @@
         <v>12</v>
       </c>
       <c r="F242" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="G242" t="s">
         <v>338</v>
       </c>
       <c r="H242" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B243" t="s">
         <v>1088</v>
-      </c>
-      <c r="B243" t="s">
-        <v>1090</v>
       </c>
       <c r="C243" t="s">
         <v>1091</v>
@@ -9989,24 +9986,24 @@
         <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="G243" t="s">
         <v>338</v>
       </c>
       <c r="H243" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="B244" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="C244" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
       <c r="D244" t="s">
         <v>11</v>
@@ -10015,47 +10012,44 @@
         <v>12</v>
       </c>
       <c r="F244" t="s">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="G244" t="s">
-        <v>338</v>
+        <v>13</v>
       </c>
       <c r="H244" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1082</v>
+        <v>1106</v>
       </c>
       <c r="B245" t="s">
-        <v>1083</v>
+        <v>1107</v>
       </c>
       <c r="C245" t="s">
-        <v>1083</v>
+        <v>1108</v>
       </c>
       <c r="D245" t="s">
         <v>11</v>
       </c>
       <c r="E245" t="s">
-        <v>12</v>
+        <v>370</v>
       </c>
       <c r="F245" t="s">
-        <v>1084</v>
+        <v>1109</v>
       </c>
       <c r="G245" t="s">
-        <v>13</v>
-      </c>
-      <c r="H245" t="s">
-        <v>1085</v>
+        <v>135</v>
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1108</v>
+        <v>1113</v>
       </c>
       <c r="B246" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C246" t="s">
         <v>1110</v>
@@ -10064,13 +10058,16 @@
         <v>11</v>
       </c>
       <c r="E246" t="s">
-        <v>370</v>
+        <v>12</v>
       </c>
       <c r="F246" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G246" t="s">
+        <v>13</v>
+      </c>
+      <c r="H246" t="s">
         <v>1111</v>
-      </c>
-      <c r="G246" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
@@ -10078,51 +10075,25 @@
         <v>1115</v>
       </c>
       <c r="B247" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D247" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E247" t="s">
+        <v>370</v>
+      </c>
+      <c r="F247" t="s">
         <v>1112</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1112</v>
-      </c>
-      <c r="D247" t="s">
-        <v>11</v>
-      </c>
-      <c r="E247" t="s">
-        <v>12</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1114</v>
       </c>
       <c r="G247" t="s">
         <v>13</v>
       </c>
       <c r="H247" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1116</v>
-      </c>
-      <c r="D248" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E248" t="s">
-        <v>370</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1114</v>
-      </c>
-      <c r="G248" t="s">
-        <v>13</v>
-      </c>
-      <c r="H248" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -10377,137 +10348,135 @@
     <hyperlink ref="C132" r:id="rId248" xr:uid="{D918A6CC-4DE8-5749-B396-C5BE2178FEAC}"/>
     <hyperlink ref="C133" r:id="rId249" xr:uid="{993B79A8-C154-C64D-AAA1-BA2D47F20826}"/>
     <hyperlink ref="C134" r:id="rId250" xr:uid="{42BB3483-8CC1-E142-BE62-922281DD72B0}"/>
-    <hyperlink ref="C135" r:id="rId251" xr:uid="{F748A52A-20AD-7D4D-ADFF-FF4E6B3B904F}"/>
-    <hyperlink ref="C136" r:id="rId252" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
-    <hyperlink ref="C137" r:id="rId253" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
-    <hyperlink ref="C138" r:id="rId254" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
-    <hyperlink ref="C139" r:id="rId255" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
-    <hyperlink ref="C140" r:id="rId256" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
-    <hyperlink ref="C141" r:id="rId257" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
-    <hyperlink ref="C142" r:id="rId258" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
-    <hyperlink ref="C143" r:id="rId259" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
-    <hyperlink ref="B144" r:id="rId260" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
-    <hyperlink ref="B145" r:id="rId261" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
-    <hyperlink ref="B146" r:id="rId262" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
-    <hyperlink ref="B147" r:id="rId263" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
-    <hyperlink ref="C129" r:id="rId264" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
-    <hyperlink ref="B148" r:id="rId265" xr:uid="{F234784D-26C2-A545-B685-EF602C8D974F}"/>
-    <hyperlink ref="B149" r:id="rId266" xr:uid="{0CF53428-4492-AE40-9C02-9FABA2BA0D3B}"/>
-    <hyperlink ref="B151" r:id="rId267" xr:uid="{6E42F66B-4B80-564E-8A39-545051468745}"/>
-    <hyperlink ref="B152" r:id="rId268" xr:uid="{D200C44B-A95E-434E-B96F-F097A5CB9796}"/>
-    <hyperlink ref="B153" r:id="rId269" xr:uid="{6C870BBD-0FCA-4E4D-8C04-64F66A4CDDBD}"/>
-    <hyperlink ref="B154" r:id="rId270" xr:uid="{13618F8B-EF5F-744B-92F0-4F8047208B03}"/>
-    <hyperlink ref="B155" r:id="rId271" xr:uid="{369A99E5-8534-484F-9378-38EA1F763D49}"/>
-    <hyperlink ref="B156" r:id="rId272" xr:uid="{F755E08D-37B2-7740-8B78-61FD6A0062F8}"/>
-    <hyperlink ref="B157" r:id="rId273" xr:uid="{DE03D456-C44C-C442-8758-FF0ADB5910C9}"/>
-    <hyperlink ref="B158" r:id="rId274" xr:uid="{DD51AED9-A8BF-E340-A7B8-574926029C7A}"/>
-    <hyperlink ref="B159" r:id="rId275" xr:uid="{4106DA73-80ED-0C48-9333-CF22AD9B453B}"/>
-    <hyperlink ref="B160" r:id="rId276" xr:uid="{24AA6FBD-DA03-1641-9CCE-C4125E436587}"/>
-    <hyperlink ref="B161" r:id="rId277" xr:uid="{671C41C7-BBE6-6244-AC5F-C2D5050A9976}"/>
-    <hyperlink ref="B162" r:id="rId278" xr:uid="{0A61AD93-54F4-B64C-A125-A39B41D20037}"/>
-    <hyperlink ref="B163" r:id="rId279" xr:uid="{B21EB3D6-55DF-A648-99FE-B9174BEB51CF}"/>
-    <hyperlink ref="B164" r:id="rId280" xr:uid="{EDD64D5C-42F2-1944-868E-02CE17E0C28C}"/>
-    <hyperlink ref="B166" r:id="rId281" xr:uid="{76E6FFD7-9F09-F545-9058-D27B73251ABF}"/>
-    <hyperlink ref="B167" r:id="rId282" xr:uid="{9ADE58D5-16AC-DC4F-A820-2981CD2C5EE1}"/>
-    <hyperlink ref="C168" r:id="rId283" xr:uid="{8D033399-8CBD-724D-80CD-C7397C3C2A0F}"/>
-    <hyperlink ref="B169" r:id="rId284" xr:uid="{01B1B80B-C304-4D4F-A53E-AB4D0EE61624}"/>
-    <hyperlink ref="B170" r:id="rId285" xr:uid="{F690EC01-0A49-E548-9E56-0EACEA75EA38}"/>
-    <hyperlink ref="B171" r:id="rId286" xr:uid="{7F51F9C1-398D-9749-A281-E22D1309A30E}"/>
-    <hyperlink ref="B172" r:id="rId287" xr:uid="{64214232-7C7F-8444-9AAC-0A4BBD3AF2D1}"/>
-    <hyperlink ref="B173" r:id="rId288" xr:uid="{7AF546D0-B342-424F-A68E-944E05062E8A}"/>
-    <hyperlink ref="B174" r:id="rId289" xr:uid="{0050ED55-AE7F-E64C-87FF-712ACBB46C7D}"/>
-    <hyperlink ref="B175" r:id="rId290" xr:uid="{83754876-42D8-E74F-91FA-9CECBBAC6924}"/>
-    <hyperlink ref="B176" r:id="rId291" xr:uid="{337A6E39-03DD-064F-BF1E-FA6674858C0B}"/>
-    <hyperlink ref="B177" r:id="rId292" xr:uid="{8D3B4445-BD15-E441-B13B-E90EAF62DA8E}"/>
-    <hyperlink ref="B178" r:id="rId293" xr:uid="{F8DCC388-ABD3-2544-8E1A-8EAF5A2DAA9C}"/>
-    <hyperlink ref="B179" r:id="rId294" xr:uid="{BC6EE541-680A-884F-958C-C07EA84B94D8}"/>
-    <hyperlink ref="B180" r:id="rId295" xr:uid="{DD1C41B7-F12D-0B4A-807D-2D572F6BC0DA}"/>
-    <hyperlink ref="B181" r:id="rId296" xr:uid="{456B4E6A-BAF0-1C4B-A5A2-33029913A11F}"/>
-    <hyperlink ref="B182" r:id="rId297" xr:uid="{AB596C81-A2E4-D84E-97FF-F4EDC38B3AB7}"/>
-    <hyperlink ref="B183" r:id="rId298" xr:uid="{6925BDA1-8306-C94C-B344-AC929606B70C}"/>
-    <hyperlink ref="B184" r:id="rId299" xr:uid="{F1F6DFAC-7F73-E242-80A6-0A54A6B92CBA}"/>
-    <hyperlink ref="C185" r:id="rId300" xr:uid="{2B979D45-F5FD-A54F-886F-C8E41EB241BE}"/>
-    <hyperlink ref="B186" r:id="rId301" xr:uid="{A4B83D25-A914-374B-AC70-67BC2B213C2A}"/>
-    <hyperlink ref="B187" r:id="rId302" xr:uid="{F533F9B9-2BCF-A847-AC92-C786DBA1CF4B}"/>
-    <hyperlink ref="B188" r:id="rId303" xr:uid="{6C8BEC30-39CE-A548-BBDD-73A01B452059}"/>
-    <hyperlink ref="B189" r:id="rId304" xr:uid="{85FCE497-9E96-6648-867F-752AA283D510}"/>
-    <hyperlink ref="B190" r:id="rId305" xr:uid="{43C3B803-5A07-A642-8293-EBD66D59834D}"/>
-    <hyperlink ref="C191" r:id="rId306" xr:uid="{31EDEE6A-D8E5-8C48-87E9-064EB36F385C}"/>
-    <hyperlink ref="B192" r:id="rId307" xr:uid="{F9240DAF-1152-804D-82D6-CD96D548238C}"/>
-    <hyperlink ref="B193" r:id="rId308" xr:uid="{DD79C80C-1BE5-F149-88DD-8DA5369DFCAD}"/>
-    <hyperlink ref="B194" r:id="rId309" xr:uid="{B0E436A7-E831-8E4C-9EAC-5207B2FC9DA3}"/>
-    <hyperlink ref="B195" r:id="rId310" xr:uid="{945AD53A-A851-EB4A-B3AC-9B72897828BE}"/>
-    <hyperlink ref="B196" r:id="rId311" xr:uid="{FAEF4F3C-0C71-C542-B31C-BDECF30F1ABE}"/>
-    <hyperlink ref="B197" r:id="rId312" xr:uid="{16789C92-8D31-CA42-A3C5-F457DE323071}"/>
-    <hyperlink ref="B198" r:id="rId313" xr:uid="{C9BB414A-D34A-A743-8C91-1506BC729AF1}"/>
-    <hyperlink ref="B199" r:id="rId314" xr:uid="{7E709984-032A-6D43-B8C0-35BB36F33A8B}"/>
-    <hyperlink ref="B200" r:id="rId315" xr:uid="{AF735B37-2761-6B44-8457-C70F018D475D}"/>
-    <hyperlink ref="C201" r:id="rId316" xr:uid="{F3E9CC02-E232-F247-910C-0F8F818F15FD}"/>
-    <hyperlink ref="B202" r:id="rId317" xr:uid="{CF20CF77-6D17-A640-BC1C-06D8AC56128F}"/>
-    <hyperlink ref="B203" r:id="rId318" xr:uid="{05A67C14-E63C-6643-A98B-DE5374A332F7}"/>
-    <hyperlink ref="B204" r:id="rId319" xr:uid="{2E28DB30-178A-5F43-BABB-5699190A802A}"/>
-    <hyperlink ref="C205" r:id="rId320" xr:uid="{D1AA51DE-D608-3D45-AD22-E8B64F1419E7}"/>
-    <hyperlink ref="C206" r:id="rId321" xr:uid="{9BABC60F-FE82-5248-9E79-B718EC0F659A}"/>
-    <hyperlink ref="C207" r:id="rId322" xr:uid="{03289203-0011-5743-AC70-D84C9B97DC6E}"/>
-    <hyperlink ref="C208" r:id="rId323" xr:uid="{1B79D66B-2C73-624F-A90B-DE414F9850D6}"/>
-    <hyperlink ref="C209" r:id="rId324" xr:uid="{43F13A60-CCD1-0C40-AB37-E9F9EE97732E}"/>
-    <hyperlink ref="C210" r:id="rId325" xr:uid="{1C156BC9-5818-4049-8EF2-B540C3E68E81}"/>
-    <hyperlink ref="B211" r:id="rId326" xr:uid="{53D53A00-1672-664D-91C8-7C5331F6CCA5}"/>
-    <hyperlink ref="B212" r:id="rId327" xr:uid="{515855E3-E3E4-F845-9DC8-E34325F7F3DA}"/>
-    <hyperlink ref="B213" r:id="rId328" xr:uid="{BA928391-E722-7746-BED2-1C83F80C0DBC}"/>
-    <hyperlink ref="B214" r:id="rId329" xr:uid="{102F6A53-9ABC-3E45-BD5C-B9BF66066C2A}"/>
-    <hyperlink ref="B215" r:id="rId330" xr:uid="{1285018C-691B-2E4B-A2D4-583D0B414C1F}"/>
-    <hyperlink ref="B216" r:id="rId331" xr:uid="{76AAE9CF-2707-B143-B652-46D8CE36A647}"/>
-    <hyperlink ref="C217" r:id="rId332" xr:uid="{6F160E9C-28C2-9641-9DFC-22F25114A500}"/>
-    <hyperlink ref="B218" r:id="rId333" xr:uid="{73B6A897-CC12-624B-B420-3142BFB3B7E7}"/>
-    <hyperlink ref="C219" r:id="rId334" xr:uid="{97260B38-6E63-8949-A540-58D6E311FC48}"/>
-    <hyperlink ref="B220" r:id="rId335" xr:uid="{63962B13-F41B-C849-BD6B-055FC35A58D4}"/>
-    <hyperlink ref="B221" r:id="rId336" xr:uid="{76C9DF5E-2957-2841-B4F2-ABA46671CCA0}"/>
-    <hyperlink ref="B222" r:id="rId337" xr:uid="{89A49EA1-C764-B740-A236-82525B727186}"/>
-    <hyperlink ref="B223" r:id="rId338" xr:uid="{ECE997AF-CE38-B24F-ADBF-641D516BA06C}"/>
-    <hyperlink ref="C224" r:id="rId339" xr:uid="{E42A850B-432C-BD4F-ADAD-269074FD12D7}"/>
-    <hyperlink ref="B225" r:id="rId340" xr:uid="{C1923A14-8FC3-3048-929B-76B8E6CABE4E}"/>
-    <hyperlink ref="B226" r:id="rId341" xr:uid="{FB93A9DD-F604-164C-8539-EE9D683EAE3F}"/>
-    <hyperlink ref="B227" r:id="rId342" xr:uid="{3ED03127-35DA-8A49-93C9-896BA1D8DC06}"/>
-    <hyperlink ref="B228" r:id="rId343" xr:uid="{6AECACA9-7563-5844-88E8-65163C3C2045}"/>
-    <hyperlink ref="C229" r:id="rId344" xr:uid="{8922321F-CDC7-5A46-838D-8D1A2F011DBC}"/>
-    <hyperlink ref="B230" r:id="rId345" xr:uid="{97E5BE47-CB30-1E45-9F11-15A6DE53936E}"/>
-    <hyperlink ref="B231" r:id="rId346" xr:uid="{B055B99F-8704-CA44-985E-FEE3A9E3B3EB}"/>
-    <hyperlink ref="B232" r:id="rId347" xr:uid="{5FEA98AF-8D00-C041-8FAA-30E8369F763B}"/>
-    <hyperlink ref="C233" r:id="rId348" xr:uid="{6782F7DA-4236-7740-A30E-EFCC23B81659}"/>
-    <hyperlink ref="B234" r:id="rId349" xr:uid="{ECA5F0C7-3864-ED48-B6A1-19E564969867}"/>
-    <hyperlink ref="B150" r:id="rId350" xr:uid="{C9B92141-6E73-914D-864F-BCF52A0441AB}"/>
-    <hyperlink ref="B106" r:id="rId351" xr:uid="{D9B7A9AA-835A-D440-B1F8-5FD8BA13EDDD}"/>
-    <hyperlink ref="B107" r:id="rId352" xr:uid="{7D9A8CFA-B72E-A545-A9FF-EDF4FCCB10D2}"/>
-    <hyperlink ref="B108" r:id="rId353" xr:uid="{1FDFABF3-4AC9-E94F-8F18-8D411A8F2A41}"/>
-    <hyperlink ref="B127" r:id="rId354" xr:uid="{0B90C06A-4AA3-7D4C-9151-0A8E86D33CF7}"/>
-    <hyperlink ref="B130" r:id="rId355" xr:uid="{41F8EA90-1905-5C44-A76E-C2835343544D}"/>
-    <hyperlink ref="B134" r:id="rId356" xr:uid="{FCCEDAA3-5F09-8F4E-A216-B145A130752A}"/>
-    <hyperlink ref="B135" r:id="rId357" xr:uid="{F25B11F0-FA68-8449-B6D5-77D0823A038E}"/>
-    <hyperlink ref="B136" r:id="rId358" xr:uid="{4CFCEB5C-9EA6-444B-B4A2-DFCB393B2F22}"/>
-    <hyperlink ref="B137" r:id="rId359" xr:uid="{9A0771D2-A3EE-1A4B-9800-411D74964533}"/>
-    <hyperlink ref="B139" r:id="rId360" xr:uid="{2185F98B-0A23-8744-A78F-0879B84BE337}"/>
-    <hyperlink ref="B140" r:id="rId361" xr:uid="{C24EAB49-5746-464B-9358-7B4ED4CF07C0}"/>
-    <hyperlink ref="B141" r:id="rId362" xr:uid="{7A760695-4FA5-784E-A939-A62BC029D8EE}"/>
-    <hyperlink ref="B142" r:id="rId363" xr:uid="{FB8F38DD-E9D5-474F-BE8C-E340D4584463}"/>
-    <hyperlink ref="B143" r:id="rId364" xr:uid="{A5739124-C2FB-7D4A-A75F-F924EE1B685A}"/>
-    <hyperlink ref="C144" r:id="rId365" xr:uid="{344639F6-7829-3644-88B4-2E8EADF8B352}"/>
-    <hyperlink ref="C145" r:id="rId366" xr:uid="{B8DA1305-DB70-2A43-8A0A-5086AC200953}"/>
-    <hyperlink ref="C146" r:id="rId367" xr:uid="{A32E6704-71B6-C64F-8C44-8E45ABCB3DD5}"/>
-    <hyperlink ref="C147" r:id="rId368" xr:uid="{75414C14-6E49-8F4F-A100-00774DE6E7B3}"/>
-    <hyperlink ref="C148" r:id="rId369" xr:uid="{CD048E5C-7315-ED41-9DC1-30B18B0F6186}"/>
-    <hyperlink ref="C149" r:id="rId370" xr:uid="{CBD425AF-7CFB-D441-89AA-C4A1EFC7F571}"/>
-    <hyperlink ref="B201" r:id="rId371" xr:uid="{7197ACB3-C33E-734B-BBE9-D327D1DB5402}"/>
-    <hyperlink ref="B205" r:id="rId372" xr:uid="{718283FF-C075-6F45-8844-8AB4A96EDC21}"/>
-    <hyperlink ref="B206" r:id="rId373" xr:uid="{0927B0FA-382D-0B41-B89F-7381B38B9AB6}"/>
-    <hyperlink ref="B207" r:id="rId374" xr:uid="{FD06177F-42A0-854E-9FA5-F28B82F7F4A9}"/>
-    <hyperlink ref="B208" r:id="rId375" xr:uid="{98A13AC8-DF8D-984C-B71C-26F2324FFA33}"/>
-    <hyperlink ref="B209" r:id="rId376" xr:uid="{7D123A10-F21A-5841-8929-AD430797D8B7}"/>
-    <hyperlink ref="B210" r:id="rId377" xr:uid="{B8AD5374-49B4-B747-9070-F3CD48B43977}"/>
-    <hyperlink ref="B217" r:id="rId378" xr:uid="{CB04DAAE-22D3-404A-9B59-41734A925C2C}"/>
-    <hyperlink ref="B219" r:id="rId379" xr:uid="{53EA6710-D57A-7948-8604-F4386503E804}"/>
-    <hyperlink ref="B229" r:id="rId380" xr:uid="{57B4B706-4868-C545-80F2-74B709A3780A}"/>
-    <hyperlink ref="B233" r:id="rId381" xr:uid="{39FE5A64-9EF1-9042-9A70-7B7BEB2DFDBB}"/>
+    <hyperlink ref="C135" r:id="rId251" xr:uid="{BDA7CC67-1472-8248-946E-93B6F618685B}"/>
+    <hyperlink ref="C136" r:id="rId252" xr:uid="{EA63AAC0-2987-5B4D-8CA8-F8E8B820ED36}"/>
+    <hyperlink ref="C137" r:id="rId253" xr:uid="{A66AC424-A7F4-B84A-9280-820A43B4AEBA}"/>
+    <hyperlink ref="C138" r:id="rId254" xr:uid="{E7A6808E-50F2-0948-9C94-628B4F9ACF7D}"/>
+    <hyperlink ref="C139" r:id="rId255" xr:uid="{0B5221E8-DE05-0E4E-9EE3-DCADE66F2696}"/>
+    <hyperlink ref="C140" r:id="rId256" xr:uid="{EA1D837B-5F6A-B54C-9B61-2034B0CE85B3}"/>
+    <hyperlink ref="C141" r:id="rId257" xr:uid="{A3994F4F-3387-1942-A3D6-B8B67EB06BC1}"/>
+    <hyperlink ref="C142" r:id="rId258" xr:uid="{B8D152B1-8B72-E74D-88F6-C43A49A5AB2F}"/>
+    <hyperlink ref="B143" r:id="rId259" xr:uid="{6964114A-F58F-724D-A2B4-173388BA5302}"/>
+    <hyperlink ref="B144" r:id="rId260" xr:uid="{3BD56E0B-D3CE-AD4D-91FA-51D4543B137E}"/>
+    <hyperlink ref="B145" r:id="rId261" xr:uid="{23A75913-BCC4-4E47-9B47-B952CD9112B4}"/>
+    <hyperlink ref="B146" r:id="rId262" xr:uid="{60B2A7C5-DB9E-5F41-B146-74A96ECCE834}"/>
+    <hyperlink ref="C129" r:id="rId263" xr:uid="{F7F12410-9273-7F45-805B-07CE4BFEB9E8}"/>
+    <hyperlink ref="B147" r:id="rId264" xr:uid="{F234784D-26C2-A545-B685-EF602C8D974F}"/>
+    <hyperlink ref="B148" r:id="rId265" xr:uid="{0CF53428-4492-AE40-9C02-9FABA2BA0D3B}"/>
+    <hyperlink ref="B150" r:id="rId266" xr:uid="{6E42F66B-4B80-564E-8A39-545051468745}"/>
+    <hyperlink ref="B151" r:id="rId267" xr:uid="{D200C44B-A95E-434E-B96F-F097A5CB9796}"/>
+    <hyperlink ref="B152" r:id="rId268" xr:uid="{6C870BBD-0FCA-4E4D-8C04-64F66A4CDDBD}"/>
+    <hyperlink ref="B153" r:id="rId269" xr:uid="{13618F8B-EF5F-744B-92F0-4F8047208B03}"/>
+    <hyperlink ref="B154" r:id="rId270" xr:uid="{369A99E5-8534-484F-9378-38EA1F763D49}"/>
+    <hyperlink ref="B155" r:id="rId271" xr:uid="{F755E08D-37B2-7740-8B78-61FD6A0062F8}"/>
+    <hyperlink ref="B156" r:id="rId272" xr:uid="{DE03D456-C44C-C442-8758-FF0ADB5910C9}"/>
+    <hyperlink ref="B157" r:id="rId273" xr:uid="{DD51AED9-A8BF-E340-A7B8-574926029C7A}"/>
+    <hyperlink ref="B158" r:id="rId274" xr:uid="{4106DA73-80ED-0C48-9333-CF22AD9B453B}"/>
+    <hyperlink ref="B159" r:id="rId275" xr:uid="{24AA6FBD-DA03-1641-9CCE-C4125E436587}"/>
+    <hyperlink ref="B160" r:id="rId276" xr:uid="{671C41C7-BBE6-6244-AC5F-C2D5050A9976}"/>
+    <hyperlink ref="B161" r:id="rId277" xr:uid="{0A61AD93-54F4-B64C-A125-A39B41D20037}"/>
+    <hyperlink ref="B162" r:id="rId278" xr:uid="{B21EB3D6-55DF-A648-99FE-B9174BEB51CF}"/>
+    <hyperlink ref="B163" r:id="rId279" xr:uid="{EDD64D5C-42F2-1944-868E-02CE17E0C28C}"/>
+    <hyperlink ref="B165" r:id="rId280" xr:uid="{76E6FFD7-9F09-F545-9058-D27B73251ABF}"/>
+    <hyperlink ref="B166" r:id="rId281" xr:uid="{9ADE58D5-16AC-DC4F-A820-2981CD2C5EE1}"/>
+    <hyperlink ref="C167" r:id="rId282" xr:uid="{8D033399-8CBD-724D-80CD-C7397C3C2A0F}"/>
+    <hyperlink ref="B168" r:id="rId283" xr:uid="{01B1B80B-C304-4D4F-A53E-AB4D0EE61624}"/>
+    <hyperlink ref="B169" r:id="rId284" xr:uid="{F690EC01-0A49-E548-9E56-0EACEA75EA38}"/>
+    <hyperlink ref="B170" r:id="rId285" xr:uid="{7F51F9C1-398D-9749-A281-E22D1309A30E}"/>
+    <hyperlink ref="B171" r:id="rId286" xr:uid="{64214232-7C7F-8444-9AAC-0A4BBD3AF2D1}"/>
+    <hyperlink ref="B172" r:id="rId287" xr:uid="{7AF546D0-B342-424F-A68E-944E05062E8A}"/>
+    <hyperlink ref="B173" r:id="rId288" xr:uid="{0050ED55-AE7F-E64C-87FF-712ACBB46C7D}"/>
+    <hyperlink ref="B174" r:id="rId289" xr:uid="{83754876-42D8-E74F-91FA-9CECBBAC6924}"/>
+    <hyperlink ref="B175" r:id="rId290" xr:uid="{337A6E39-03DD-064F-BF1E-FA6674858C0B}"/>
+    <hyperlink ref="B176" r:id="rId291" xr:uid="{8D3B4445-BD15-E441-B13B-E90EAF62DA8E}"/>
+    <hyperlink ref="B177" r:id="rId292" xr:uid="{F8DCC388-ABD3-2544-8E1A-8EAF5A2DAA9C}"/>
+    <hyperlink ref="B178" r:id="rId293" xr:uid="{BC6EE541-680A-884F-958C-C07EA84B94D8}"/>
+    <hyperlink ref="B179" r:id="rId294" xr:uid="{DD1C41B7-F12D-0B4A-807D-2D572F6BC0DA}"/>
+    <hyperlink ref="B180" r:id="rId295" xr:uid="{456B4E6A-BAF0-1C4B-A5A2-33029913A11F}"/>
+    <hyperlink ref="B181" r:id="rId296" xr:uid="{AB596C81-A2E4-D84E-97FF-F4EDC38B3AB7}"/>
+    <hyperlink ref="B182" r:id="rId297" xr:uid="{6925BDA1-8306-C94C-B344-AC929606B70C}"/>
+    <hyperlink ref="B183" r:id="rId298" xr:uid="{F1F6DFAC-7F73-E242-80A6-0A54A6B92CBA}"/>
+    <hyperlink ref="C184" r:id="rId299" xr:uid="{2B979D45-F5FD-A54F-886F-C8E41EB241BE}"/>
+    <hyperlink ref="B185" r:id="rId300" xr:uid="{A4B83D25-A914-374B-AC70-67BC2B213C2A}"/>
+    <hyperlink ref="B186" r:id="rId301" xr:uid="{F533F9B9-2BCF-A847-AC92-C786DBA1CF4B}"/>
+    <hyperlink ref="B187" r:id="rId302" xr:uid="{6C8BEC30-39CE-A548-BBDD-73A01B452059}"/>
+    <hyperlink ref="B188" r:id="rId303" xr:uid="{85FCE497-9E96-6648-867F-752AA283D510}"/>
+    <hyperlink ref="B189" r:id="rId304" xr:uid="{43C3B803-5A07-A642-8293-EBD66D59834D}"/>
+    <hyperlink ref="C190" r:id="rId305" xr:uid="{31EDEE6A-D8E5-8C48-87E9-064EB36F385C}"/>
+    <hyperlink ref="B191" r:id="rId306" xr:uid="{F9240DAF-1152-804D-82D6-CD96D548238C}"/>
+    <hyperlink ref="B192" r:id="rId307" xr:uid="{DD79C80C-1BE5-F149-88DD-8DA5369DFCAD}"/>
+    <hyperlink ref="B193" r:id="rId308" xr:uid="{B0E436A7-E831-8E4C-9EAC-5207B2FC9DA3}"/>
+    <hyperlink ref="B194" r:id="rId309" xr:uid="{945AD53A-A851-EB4A-B3AC-9B72897828BE}"/>
+    <hyperlink ref="B195" r:id="rId310" xr:uid="{FAEF4F3C-0C71-C542-B31C-BDECF30F1ABE}"/>
+    <hyperlink ref="B196" r:id="rId311" xr:uid="{16789C92-8D31-CA42-A3C5-F457DE323071}"/>
+    <hyperlink ref="B197" r:id="rId312" xr:uid="{C9BB414A-D34A-A743-8C91-1506BC729AF1}"/>
+    <hyperlink ref="B198" r:id="rId313" xr:uid="{7E709984-032A-6D43-B8C0-35BB36F33A8B}"/>
+    <hyperlink ref="B199" r:id="rId314" xr:uid="{AF735B37-2761-6B44-8457-C70F018D475D}"/>
+    <hyperlink ref="C200" r:id="rId315" xr:uid="{F3E9CC02-E232-F247-910C-0F8F818F15FD}"/>
+    <hyperlink ref="B201" r:id="rId316" xr:uid="{CF20CF77-6D17-A640-BC1C-06D8AC56128F}"/>
+    <hyperlink ref="B202" r:id="rId317" xr:uid="{05A67C14-E63C-6643-A98B-DE5374A332F7}"/>
+    <hyperlink ref="B203" r:id="rId318" xr:uid="{2E28DB30-178A-5F43-BABB-5699190A802A}"/>
+    <hyperlink ref="C204" r:id="rId319" xr:uid="{D1AA51DE-D608-3D45-AD22-E8B64F1419E7}"/>
+    <hyperlink ref="C205" r:id="rId320" xr:uid="{9BABC60F-FE82-5248-9E79-B718EC0F659A}"/>
+    <hyperlink ref="C206" r:id="rId321" xr:uid="{03289203-0011-5743-AC70-D84C9B97DC6E}"/>
+    <hyperlink ref="C207" r:id="rId322" xr:uid="{1B79D66B-2C73-624F-A90B-DE414F9850D6}"/>
+    <hyperlink ref="C208" r:id="rId323" xr:uid="{43F13A60-CCD1-0C40-AB37-E9F9EE97732E}"/>
+    <hyperlink ref="C209" r:id="rId324" xr:uid="{1C156BC9-5818-4049-8EF2-B540C3E68E81}"/>
+    <hyperlink ref="B210" r:id="rId325" xr:uid="{53D53A00-1672-664D-91C8-7C5331F6CCA5}"/>
+    <hyperlink ref="B211" r:id="rId326" xr:uid="{515855E3-E3E4-F845-9DC8-E34325F7F3DA}"/>
+    <hyperlink ref="B212" r:id="rId327" xr:uid="{BA928391-E722-7746-BED2-1C83F80C0DBC}"/>
+    <hyperlink ref="B213" r:id="rId328" xr:uid="{102F6A53-9ABC-3E45-BD5C-B9BF66066C2A}"/>
+    <hyperlink ref="B214" r:id="rId329" xr:uid="{1285018C-691B-2E4B-A2D4-583D0B414C1F}"/>
+    <hyperlink ref="B215" r:id="rId330" xr:uid="{76AAE9CF-2707-B143-B652-46D8CE36A647}"/>
+    <hyperlink ref="C216" r:id="rId331" xr:uid="{6F160E9C-28C2-9641-9DFC-22F25114A500}"/>
+    <hyperlink ref="B217" r:id="rId332" xr:uid="{73B6A897-CC12-624B-B420-3142BFB3B7E7}"/>
+    <hyperlink ref="C218" r:id="rId333" xr:uid="{97260B38-6E63-8949-A540-58D6E311FC48}"/>
+    <hyperlink ref="B219" r:id="rId334" xr:uid="{63962B13-F41B-C849-BD6B-055FC35A58D4}"/>
+    <hyperlink ref="B220" r:id="rId335" xr:uid="{76C9DF5E-2957-2841-B4F2-ABA46671CCA0}"/>
+    <hyperlink ref="B221" r:id="rId336" xr:uid="{89A49EA1-C764-B740-A236-82525B727186}"/>
+    <hyperlink ref="B222" r:id="rId337" xr:uid="{ECE997AF-CE38-B24F-ADBF-641D516BA06C}"/>
+    <hyperlink ref="C223" r:id="rId338" xr:uid="{E42A850B-432C-BD4F-ADAD-269074FD12D7}"/>
+    <hyperlink ref="B224" r:id="rId339" xr:uid="{C1923A14-8FC3-3048-929B-76B8E6CABE4E}"/>
+    <hyperlink ref="B225" r:id="rId340" xr:uid="{FB93A9DD-F604-164C-8539-EE9D683EAE3F}"/>
+    <hyperlink ref="B226" r:id="rId341" xr:uid="{3ED03127-35DA-8A49-93C9-896BA1D8DC06}"/>
+    <hyperlink ref="B227" r:id="rId342" xr:uid="{6AECACA9-7563-5844-88E8-65163C3C2045}"/>
+    <hyperlink ref="C228" r:id="rId343" xr:uid="{8922321F-CDC7-5A46-838D-8D1A2F011DBC}"/>
+    <hyperlink ref="B229" r:id="rId344" xr:uid="{97E5BE47-CB30-1E45-9F11-15A6DE53936E}"/>
+    <hyperlink ref="B230" r:id="rId345" xr:uid="{B055B99F-8704-CA44-985E-FEE3A9E3B3EB}"/>
+    <hyperlink ref="B231" r:id="rId346" xr:uid="{5FEA98AF-8D00-C041-8FAA-30E8369F763B}"/>
+    <hyperlink ref="C232" r:id="rId347" xr:uid="{6782F7DA-4236-7740-A30E-EFCC23B81659}"/>
+    <hyperlink ref="B233" r:id="rId348" xr:uid="{ECA5F0C7-3864-ED48-B6A1-19E564969867}"/>
+    <hyperlink ref="B149" r:id="rId349" xr:uid="{C9B92141-6E73-914D-864F-BCF52A0441AB}"/>
+    <hyperlink ref="B106" r:id="rId350" xr:uid="{D9B7A9AA-835A-D440-B1F8-5FD8BA13EDDD}"/>
+    <hyperlink ref="B107" r:id="rId351" xr:uid="{7D9A8CFA-B72E-A545-A9FF-EDF4FCCB10D2}"/>
+    <hyperlink ref="B108" r:id="rId352" xr:uid="{1FDFABF3-4AC9-E94F-8F18-8D411A8F2A41}"/>
+    <hyperlink ref="B127" r:id="rId353" xr:uid="{0B90C06A-4AA3-7D4C-9151-0A8E86D33CF7}"/>
+    <hyperlink ref="B130" r:id="rId354" xr:uid="{41F8EA90-1905-5C44-A76E-C2835343544D}"/>
+    <hyperlink ref="B134" r:id="rId355" xr:uid="{FCCEDAA3-5F09-8F4E-A216-B145A130752A}"/>
+    <hyperlink ref="B135" r:id="rId356" xr:uid="{4CFCEB5C-9EA6-444B-B4A2-DFCB393B2F22}"/>
+    <hyperlink ref="B136" r:id="rId357" xr:uid="{9A0771D2-A3EE-1A4B-9800-411D74964533}"/>
+    <hyperlink ref="B138" r:id="rId358" xr:uid="{2185F98B-0A23-8744-A78F-0879B84BE337}"/>
+    <hyperlink ref="B139" r:id="rId359" xr:uid="{C24EAB49-5746-464B-9358-7B4ED4CF07C0}"/>
+    <hyperlink ref="B140" r:id="rId360" xr:uid="{7A760695-4FA5-784E-A939-A62BC029D8EE}"/>
+    <hyperlink ref="B141" r:id="rId361" xr:uid="{FB8F38DD-E9D5-474F-BE8C-E340D4584463}"/>
+    <hyperlink ref="B142" r:id="rId362" xr:uid="{A5739124-C2FB-7D4A-A75F-F924EE1B685A}"/>
+    <hyperlink ref="C143" r:id="rId363" xr:uid="{344639F6-7829-3644-88B4-2E8EADF8B352}"/>
+    <hyperlink ref="C144" r:id="rId364" xr:uid="{B8DA1305-DB70-2A43-8A0A-5086AC200953}"/>
+    <hyperlink ref="C145" r:id="rId365" xr:uid="{A32E6704-71B6-C64F-8C44-8E45ABCB3DD5}"/>
+    <hyperlink ref="C146" r:id="rId366" xr:uid="{75414C14-6E49-8F4F-A100-00774DE6E7B3}"/>
+    <hyperlink ref="C147" r:id="rId367" xr:uid="{CD048E5C-7315-ED41-9DC1-30B18B0F6186}"/>
+    <hyperlink ref="C148" r:id="rId368" xr:uid="{CBD425AF-7CFB-D441-89AA-C4A1EFC7F571}"/>
+    <hyperlink ref="B200" r:id="rId369" xr:uid="{7197ACB3-C33E-734B-BBE9-D327D1DB5402}"/>
+    <hyperlink ref="B204" r:id="rId370" xr:uid="{718283FF-C075-6F45-8844-8AB4A96EDC21}"/>
+    <hyperlink ref="B205" r:id="rId371" xr:uid="{0927B0FA-382D-0B41-B89F-7381B38B9AB6}"/>
+    <hyperlink ref="B206" r:id="rId372" xr:uid="{FD06177F-42A0-854E-9FA5-F28B82F7F4A9}"/>
+    <hyperlink ref="B207" r:id="rId373" xr:uid="{98A13AC8-DF8D-984C-B71C-26F2324FFA33}"/>
+    <hyperlink ref="B208" r:id="rId374" xr:uid="{7D123A10-F21A-5841-8929-AD430797D8B7}"/>
+    <hyperlink ref="B209" r:id="rId375" xr:uid="{B8AD5374-49B4-B747-9070-F3CD48B43977}"/>
+    <hyperlink ref="B216" r:id="rId376" xr:uid="{CB04DAAE-22D3-404A-9B59-41734A925C2C}"/>
+    <hyperlink ref="B218" r:id="rId377" xr:uid="{53EA6710-D57A-7948-8604-F4386503E804}"/>
+    <hyperlink ref="B228" r:id="rId378" xr:uid="{57B4B706-4868-C545-80F2-74B709A3780A}"/>
+    <hyperlink ref="B232" r:id="rId379" xr:uid="{39FE5A64-9EF1-9042-9A70-7B7BEB2DFDBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanh/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914042E0-B3EC-E043-A137-9D19706018B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40156B8-97B1-2841-853B-96637E627C01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="500" windowWidth="23740" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2475" uniqueCount="1100">
   <si>
     <t>name</t>
   </si>
@@ -3689,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187:XFD187"/>
+    <sheetView tabSelected="1" topLeftCell="B235" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G247" sqref="G247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11536,6 +11536,12 @@
       </c>
       <c r="E246" t="s">
         <v>1083</v>
+      </c>
+      <c r="F246" t="s">
+        <v>27</v>
+      </c>
+      <c r="G246" t="s">
+        <v>168</v>
       </c>
       <c r="J246" t="s">
         <v>1084</v>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanh/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBEA55B2-48E1-3D41-B978-206FAE210EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9401E785-ED0D-A648-AED6-59ACBE53E22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="2440" windowWidth="23740" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30960" yWindow="720" windowWidth="28420" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glob" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1992" uniqueCount="1098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1261">
   <si>
     <t>name</t>
   </si>
@@ -851,9 +851,6 @@
     <t>NMR (SS)</t>
   </si>
   <si>
-    <t>Farseer-NMR</t>
-  </si>
-  <si>
     <t>Analysis &amp; plotting of biological NMR peak lists</t>
   </si>
   <si>
@@ -3327,6 +3324,498 @@
   </si>
   <si>
     <t>https://juliapackages.com/p/spectra</t>
+  </si>
+  <si>
+    <t>apogee</t>
+  </si>
+  <si>
+    <t>https://github.com/jobovy/apogee</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1510.06745</t>
+  </si>
+  <si>
+    <t>Tools for working with APOGEE data</t>
+  </si>
+  <si>
+    <t>bovy at astro dot utoronto dot ca</t>
+  </si>
+  <si>
+    <t>bionmr-utils</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/bionmr-utils/</t>
+  </si>
+  <si>
+    <t>https://github.com/sizmailov/bionmr-utils</t>
+  </si>
+  <si>
+    <t>Biological NMR utilities</t>
+  </si>
+  <si>
+    <t>colour-science</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/colour-science/</t>
+  </si>
+  <si>
+    <t>https://github.com/colour-science/colour</t>
+  </si>
+  <si>
+    <t>Colour Science for Python</t>
+  </si>
+  <si>
+    <t>colour-developers@colour-science.org</t>
+  </si>
+  <si>
+    <t>FarSeer-NMR</t>
+  </si>
+  <si>
+    <t>GloPel</t>
+  </si>
+  <si>
+    <t>https://www.radicals.uni-freiburg.de/de/software</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/GloPel/</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S1090780718301927</t>
+  </si>
+  <si>
+    <t>Global Analysis of PELDOR time traces</t>
+  </si>
+  <si>
+    <t>HyperSpy</t>
+  </si>
+  <si>
+    <t>https://hyperspy.org/</t>
+  </si>
+  <si>
+    <t>https://github.com/hyperspy/hyperspy</t>
+  </si>
+  <si>
+    <t>Multidimensional data analysis</t>
+  </si>
+  <si>
+    <t>lspr-library-Piast-Kolodziej</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/lspr-library-Piast-Kolodziej/</t>
+  </si>
+  <si>
+    <t>https://github.com/Arghantyr/LSPR-glass-transmittance</t>
+  </si>
+  <si>
+    <t>LSPR-library is a Python 3 scientific package for modelling UV-Vis spectral behaviour of metallic nanoparticle-dieletric composites.</t>
+  </si>
+  <si>
+    <t>kakoori@gmail.com</t>
+  </si>
+  <si>
+    <t>mrsprint</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mrsprint/</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/dpizetta/mrsprint</t>
+  </si>
+  <si>
+    <t>Magnetic resonance experiment simulator &amp; visualization tool</t>
+  </si>
+  <si>
+    <t>daniel.pizetta@usp.br</t>
+  </si>
+  <si>
+    <t>nightshift</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nightshift/</t>
+  </si>
+  <si>
+    <t>https://github.com/ianfucci/nightshift</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/doi/epdf/10.1002/pro.4181</t>
+  </si>
+  <si>
+    <t>Library &amp; command line program for plotting simulated 2D &amp; 3D NMR spectra from assigned chemical shifts from the BMRB</t>
+  </si>
+  <si>
+    <t>fucci.ian@gmail.com</t>
+  </si>
+  <si>
+    <t>nmrformd</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nmrformd/</t>
+  </si>
+  <si>
+    <t>https://github.com/simongravelle/nmrformd</t>
+  </si>
+  <si>
+    <t>Calculate NMR relaxation time from molecular dynamics trajectory file</t>
+  </si>
+  <si>
+    <t>simon.gravelle@live.fr</t>
+  </si>
+  <si>
+    <t>nPYc</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/nPYc/</t>
+  </si>
+  <si>
+    <t>https://github.com/phenomecentre/npyc-toolbox</t>
+  </si>
+  <si>
+    <t>National Phenome Centre toolbox</t>
+  </si>
+  <si>
+    <t>phenomecentre@imperial.ac.uk</t>
+  </si>
+  <si>
+    <t>PRFFECT</t>
+  </si>
+  <si>
+    <t>https://github.com/zhangfy1993/PRFFECT</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0169743917305257</t>
+  </si>
+  <si>
+    <t>Pre-processing &amp; random forest feature extraction</t>
+  </si>
+  <si>
+    <t>benjamin.r.smith@strath.ac.uk</t>
+  </si>
+  <si>
+    <t>pycroscopy</t>
+  </si>
+  <si>
+    <t>https://pycroscopy.github.io/pycroscopy/about.html</t>
+  </si>
+  <si>
+    <t>https://github.com/pycroscopy/pycroscopy</t>
+  </si>
+  <si>
+    <t>Imaging microscopy</t>
+  </si>
+  <si>
+    <t>sjesse@ornl.gov</t>
+  </si>
+  <si>
+    <t>spectroscopy</t>
+  </si>
+  <si>
+    <t>https://github.com/Cambridge-PAM/spectroscopy</t>
+  </si>
+  <si>
+    <t>Spectroscopic data processing</t>
+  </si>
+  <si>
+    <t>SRPAstro.REM</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.REM/</t>
+  </si>
+  <si>
+    <t>Tools for the REM telescope under SRP</t>
+  </si>
+  <si>
+    <t>stefano.covino@inaf.it</t>
+  </si>
+  <si>
+    <t>SRPAstro.STATS</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.STATS/</t>
+  </si>
+  <si>
+    <t>Statistical tools under SRP</t>
+  </si>
+  <si>
+    <t>SRPAstro.FITS</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.FITS/</t>
+  </si>
+  <si>
+    <t>Tools for handling FITS files under SRP</t>
+  </si>
+  <si>
+    <t>SRPAstro.TNG</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.TNG/</t>
+  </si>
+  <si>
+    <t>Tools for the TNG telescope under SRP</t>
+  </si>
+  <si>
+    <t>SRPAstro.GW</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro.GW/</t>
+  </si>
+  <si>
+    <t>Tools for handling GW EM transient search under SRP</t>
+  </si>
+  <si>
+    <t>SRPAstro</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/SRPAstro/</t>
+  </si>
+  <si>
+    <t>Astronomical Data Analysis Tools</t>
+  </si>
+  <si>
+    <t>wobble</t>
+  </si>
+  <si>
+    <t>https://wobble.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>https://github.com/megbedell/wobble</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/1901.00503</t>
+  </si>
+  <si>
+    <t>Analysis of stellar spectra time series</t>
+  </si>
+  <si>
+    <t>xrf_filetools</t>
+  </si>
+  <si>
+    <t>https://github.com/brianlevay/xrf_filetools</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>XRF file tools</t>
+  </si>
+  <si>
+    <t>catmass</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/catmass/</t>
+  </si>
+  <si>
+    <t>https://github.com/ahoffm02/catmass</t>
+  </si>
+  <si>
+    <t>Py Qt package for calculating the proper loading of samples for XAS measurements</t>
+  </si>
+  <si>
+    <t>ashoff@slac.stanford.edu</t>
+  </si>
+  <si>
+    <t>ChiantiPy</t>
+  </si>
+  <si>
+    <t>https://github.com/chianti-atomic/ChiantiPy</t>
+  </si>
+  <si>
+    <t>Calculate radiative properties of astrophysical plasmas</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>https://c3.lbl.gov/es/</t>
+  </si>
+  <si>
+    <t>https://github.com/rcthomas/es</t>
+  </si>
+  <si>
+    <t>Elementary supernova spectrum synthesis</t>
+  </si>
+  <si>
+    <t>fitpy</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/fitpy/</t>
+  </si>
+  <si>
+    <t>https://github.com/tillbiskup/fitpy</t>
+  </si>
+  <si>
+    <t>Framework for fitting models to (spectroscopic) data</t>
+  </si>
+  <si>
+    <t>hanlab</t>
+  </si>
+  <si>
+    <t>https://thcasey3.github.io/hanlab/</t>
+  </si>
+  <si>
+    <t>https://github.com/thcasey3/hanlab</t>
+  </si>
+  <si>
+    <t>Process, fit, and analyze various types of DNP, NMR, &amp; EPR data</t>
+  </si>
+  <si>
+    <t>EPR, NMR</t>
+  </si>
+  <si>
+    <t>isatex</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/isatex/</t>
+  </si>
+  <si>
+    <t>https://github.com/ryoTd0112/isatex</t>
+  </si>
+  <si>
+    <t>Raman &amp; IR processing</t>
+  </si>
+  <si>
+    <t>ryo.s1042@gmail.com</t>
+  </si>
+  <si>
+    <t>lumispy</t>
+  </si>
+  <si>
+    <t>https://lumispy.readthedocs.io/en/latest/</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/lumispy/</t>
+  </si>
+  <si>
+    <t>Analysis of luminescence spectroscopy data with HyperSpy</t>
+  </si>
+  <si>
+    <t>mud-py</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mud-py/</t>
+  </si>
+  <si>
+    <t>https://github.com/dfujim/mudpy</t>
+  </si>
+  <si>
+    <t>Muon Data file reader</t>
+  </si>
+  <si>
+    <t>mwtab</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/mwtab/</t>
+  </si>
+  <si>
+    <t>https://github.com/MoseleyBioinformaticsLab/mwtab</t>
+  </si>
+  <si>
+    <t>Parser for mwtab files from the Metabolomics Workbench</t>
+  </si>
+  <si>
+    <t>andrey.smelter@gmail.com</t>
+  </si>
+  <si>
+    <t>NistChemPy</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/NistChemPy/</t>
+  </si>
+  <si>
+    <t>https://github.com/EPiCs-group/NistChemPy</t>
+  </si>
+  <si>
+    <t>A simple Python wrapper around the NIST Chemistry WebBook</t>
+  </si>
+  <si>
+    <t>ivan.chernyshoff@gmail.com</t>
+  </si>
+  <si>
+    <t>NMRPyStar</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/NMRPyStar/</t>
+  </si>
+  <si>
+    <t>https://github.com/mattfenwick/NMRPyStar</t>
+  </si>
+  <si>
+    <t>Parser for the NMR-STAR data format</t>
+  </si>
+  <si>
+    <t>pavo</t>
+  </si>
+  <si>
+    <t>https://CRAN.R-project.org/package=pavo</t>
+  </si>
+  <si>
+    <t>https://github.com/rmaia/pavo/</t>
+  </si>
+  <si>
+    <t>Perceptual analysis, visualization &amp; organization of spectral color data (including images)</t>
+  </si>
+  <si>
+    <t>Thomas White &lt;thomas.white026@gmail.com&gt;</t>
+  </si>
+  <si>
+    <t>pybmrb</t>
+  </si>
+  <si>
+    <t>https://github.com/bmrb-io/PyBMRB</t>
+  </si>
+  <si>
+    <t>Tools for visualizing BMRB entries &amp;  NMR-STAR files</t>
+  </si>
+  <si>
+    <t>baskaran@uchc.edu</t>
+  </si>
+  <si>
+    <t>pyPreprocessing</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pyPreprocessing/</t>
+  </si>
+  <si>
+    <t>https://github.com/AlexanderSouthan/pyPreprocessing</t>
+  </si>
+  <si>
+    <t>package preprocessing of datasets, especially from spectroscopy</t>
+  </si>
+  <si>
+    <t>alexander.southan@web.de</t>
+  </si>
+  <si>
+    <t>spectra</t>
+  </si>
+  <si>
+    <t>https://cheminfo-js.github.io/spectra/packages/spectra-data/docs/</t>
+  </si>
+  <si>
+    <t>https://github.com/cheminfo-js/spectra</t>
+  </si>
+  <si>
+    <t>Library for UV, IR, 1D &amp; 2D NMR</t>
+  </si>
+  <si>
+    <t>web_geochemistry</t>
+  </si>
+  <si>
+    <t>https://arfberkeley.shinyapps.io/web_geochemistry/</t>
+  </si>
+  <si>
+    <t>https://github.com/archaeological-research-facility/web_geochemistry</t>
+  </si>
+  <si>
+    <t>Shiny app for visualizing XRF &amp; NAA geochemistry concentrations</t>
+  </si>
+  <si>
+    <t>xmimsim</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/xmimsim/</t>
+  </si>
+  <si>
+    <t>Toolkit for making &amp; processing X-ray fluoresence simulations via XMI-MSIM</t>
   </si>
 </sst>
 </file>
@@ -3690,10 +4179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H250"/>
+  <dimension ref="A1:H288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288:XFD288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3948,7 +4437,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -4052,7 +4541,7 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -4142,7 +4631,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H17" t="s">
         <v>92</v>
@@ -4168,7 +4657,7 @@
         <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H18" t="s">
         <v>92</v>
@@ -4185,7 +4674,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -4194,7 +4683,7 @@
         <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H19" t="s">
         <v>101</v>
@@ -4350,7 +4839,7 @@
         <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -4387,7 +4876,7 @@
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>136</v>
@@ -4751,7 +5240,7 @@
         <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>204</v>
@@ -4766,7 +5255,7 @@
         <v>203</v>
       </c>
       <c r="G41" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H41" t="s">
         <v>205</v>
@@ -4783,7 +5272,7 @@
         <v>208</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -5164,22 +5653,22 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
         <v>272</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="E57" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" t="s">
-        <v>273</v>
       </c>
       <c r="G57" t="s">
         <v>166</v>
@@ -5190,22 +5679,22 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>276</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
         <v>277</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E58" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" t="s">
-        <v>278</v>
       </c>
       <c r="G58" t="s">
         <v>21</v>
@@ -5216,13 +5705,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C59" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -5231,50 +5720,50 @@
         <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G59" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H59" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>284</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
         <v>285</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" t="s">
-        <v>286</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
@@ -5283,24 +5772,24 @@
         <v>25</v>
       </c>
       <c r="F61" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G61" t="s">
+        <v>292</v>
+      </c>
+      <c r="H61" t="s">
         <v>293</v>
-      </c>
-      <c r="H61" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -5309,7 +5798,7 @@
         <v>25</v>
       </c>
       <c r="F62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G62" t="s">
         <v>120</v>
@@ -5320,39 +5809,39 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
         <v>298</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" t="s">
-        <v>299</v>
       </c>
       <c r="G63" t="s">
         <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
@@ -5361,7 +5850,7 @@
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G64" t="s">
         <v>47</v>
@@ -5372,13 +5861,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
@@ -5387,7 +5876,7 @@
         <v>25</v>
       </c>
       <c r="F65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G65" t="s">
         <v>47</v>
@@ -5398,13 +5887,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
@@ -5413,24 +5902,24 @@
         <v>25</v>
       </c>
       <c r="F66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G66" t="s">
         <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
@@ -5439,24 +5928,24 @@
         <v>25</v>
       </c>
       <c r="F67" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G67" t="s">
         <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
@@ -5465,24 +5954,24 @@
         <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G68" t="s">
         <v>120</v>
       </c>
       <c r="H68" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
@@ -5491,24 +5980,24 @@
         <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G69" t="s">
         <v>120</v>
       </c>
       <c r="H69" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -5517,24 +6006,24 @@
         <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G70" t="s">
         <v>120</v>
       </c>
       <c r="H70" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
@@ -5543,24 +6032,24 @@
         <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G71" t="s">
         <v>120</v>
       </c>
       <c r="H71" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
@@ -5569,24 +6058,24 @@
         <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G72" t="s">
         <v>120</v>
       </c>
       <c r="H72" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
@@ -5595,59 +6084,59 @@
         <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G73" t="s">
         <v>120</v>
       </c>
       <c r="H73" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D74" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" t="s">
         <v>337</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" t="s">
-        <v>338</v>
       </c>
       <c r="G74" t="s">
         <v>21</v>
       </c>
       <c r="H74" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>341</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75" t="s">
         <v>342</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>13</v>
-      </c>
-      <c r="F75" t="s">
-        <v>343</v>
       </c>
       <c r="G75" t="s">
         <v>88</v>
@@ -5658,39 +6147,39 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>345</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" t="s">
         <v>346</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E76" t="s">
-        <v>13</v>
-      </c>
-      <c r="F76" t="s">
-        <v>347</v>
       </c>
       <c r="G76" t="s">
         <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
@@ -5699,7 +6188,7 @@
         <v>25</v>
       </c>
       <c r="F77" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G77" t="s">
         <v>45</v>
@@ -5710,10 +6199,10 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
@@ -5725,59 +6214,59 @@
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G78" t="s">
         <v>88</v>
       </c>
       <c r="H78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>358</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D79" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F79" t="s">
         <v>359</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" t="s">
-        <v>360</v>
       </c>
       <c r="G79" t="s">
         <v>21</v>
       </c>
       <c r="H79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>363</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D80" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" t="s">
         <v>364</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
-        <v>13</v>
-      </c>
-      <c r="F80" t="s">
-        <v>365</v>
       </c>
       <c r="G80" t="s">
         <v>120</v>
@@ -5788,22 +6277,22 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>366</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D81" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>369</v>
+      </c>
+      <c r="F81" t="s">
         <v>367</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
-        <v>370</v>
-      </c>
-      <c r="F81" t="s">
-        <v>368</v>
       </c>
       <c r="G81" t="s">
         <v>120</v>
@@ -5814,48 +6303,48 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>371</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E82" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" t="s">
         <v>372</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="E82" t="s">
-        <v>370</v>
-      </c>
-      <c r="F82" t="s">
-        <v>373</v>
       </c>
       <c r="G82" t="s">
         <v>120</v>
       </c>
       <c r="H82" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>376</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D83" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" t="s">
         <v>377</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" t="s">
-        <v>378</v>
       </c>
       <c r="G83" t="s">
         <v>120</v>
@@ -5866,54 +6355,54 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>379</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E84" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" t="s">
         <v>380</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="E84" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" t="s">
-        <v>381</v>
       </c>
       <c r="G84" t="s">
         <v>149</v>
       </c>
       <c r="H84" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>384</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D85" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F85" t="s">
         <v>385</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" t="s">
-        <v>386</v>
       </c>
       <c r="G85" t="s">
         <v>21</v>
       </c>
       <c r="H85" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
@@ -5921,10 +6410,10 @@
         <v>69</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
@@ -5933,7 +6422,7 @@
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G86" t="s">
         <v>69</v>
@@ -5944,22 +6433,22 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>390</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D87" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" t="s">
         <v>391</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" t="s">
-        <v>392</v>
       </c>
       <c r="G87" t="s">
         <v>69</v>
@@ -5970,13 +6459,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
@@ -5985,33 +6474,33 @@
         <v>38</v>
       </c>
       <c r="F88" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G88" t="s">
         <v>171</v>
       </c>
       <c r="H88" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>397</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89" t="s">
         <v>398</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E89" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" t="s">
-        <v>399</v>
       </c>
       <c r="G89" t="s">
         <v>166</v>
@@ -6022,25 +6511,25 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>402</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90" t="s">
         <v>403</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D90" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" t="s">
-        <v>13</v>
-      </c>
-      <c r="F90" t="s">
-        <v>404</v>
-      </c>
       <c r="G90" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H90" t="s">
         <v>205</v>
@@ -6048,74 +6537,74 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>407</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D91" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91" t="s">
         <v>408</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" t="s">
-        <v>409</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
       </c>
       <c r="H91" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>412</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C92" t="s">
+        <v>409</v>
+      </c>
+      <c r="D92" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
         <v>413</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C92" t="s">
-        <v>410</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" t="s">
-        <v>414</v>
       </c>
       <c r="G92" t="s">
         <v>21</v>
       </c>
       <c r="H92" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D93" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E93" t="s">
         <v>25</v>
       </c>
       <c r="F93" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G93" t="s">
         <v>149</v>
@@ -6126,22 +6615,22 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>418</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94" t="s">
         <v>419</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E94" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" t="s">
-        <v>420</v>
       </c>
       <c r="G94" t="s">
         <v>21</v>
@@ -6152,48 +6641,48 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>422</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D95" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" t="s">
+        <v>13</v>
+      </c>
+      <c r="F95" t="s">
         <v>423</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>424</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D96" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s">
+        <v>13</v>
+      </c>
+      <c r="F96" t="s">
         <v>427</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
-        <v>13</v>
-      </c>
-      <c r="F96" t="s">
-        <v>428</v>
       </c>
       <c r="G96" t="s">
         <v>255</v>
@@ -6204,51 +6693,51 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>430</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97" t="s">
         <v>431</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
-        <v>13</v>
-      </c>
-      <c r="F97" t="s">
-        <v>432</v>
       </c>
       <c r="G97" t="s">
         <v>21</v>
       </c>
       <c r="H97" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>434</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D98" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98" t="s">
         <v>435</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="G98" t="s">
         <v>438</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" t="s">
-        <v>436</v>
-      </c>
-      <c r="G98" t="s">
-        <v>439</v>
       </c>
       <c r="H98" t="s">
         <v>205</v>
@@ -6256,100 +6745,100 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>439</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D99" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" t="s">
         <v>440</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="G99" t="s">
+        <v>1035</v>
+      </c>
+      <c r="H99" t="s">
         <v>442</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" t="s">
-        <v>441</v>
-      </c>
-      <c r="G99" t="s">
-        <v>1036</v>
-      </c>
-      <c r="H99" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B100" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="E100" t="s">
         <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G100" t="s">
         <v>21</v>
       </c>
       <c r="H100" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>449</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D101" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
         <v>450</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" t="s">
-        <v>451</v>
       </c>
       <c r="G101" t="s">
         <v>21</v>
       </c>
       <c r="H101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>453</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
         <v>454</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>455</v>
       </c>
       <c r="G102" t="s">
         <v>21</v>
@@ -6360,10 +6849,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -6375,59 +6864,59 @@
         <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G103" t="s">
         <v>88</v>
       </c>
       <c r="H103" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>461</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
         <v>462</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>463</v>
       </c>
       <c r="G104" t="s">
         <v>255</v>
       </c>
       <c r="H104" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>466</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
         <v>467</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>468</v>
       </c>
       <c r="G105" t="s">
         <v>21</v>
@@ -6438,22 +6927,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>469</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
         <v>470</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="E106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
-        <v>471</v>
       </c>
       <c r="G106" t="s">
         <v>255</v>
@@ -6464,39 +6953,39 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>473</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
         <v>474</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>475</v>
       </c>
       <c r="G107" t="s">
         <v>255</v>
       </c>
       <c r="H107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -6505,7 +6994,7 @@
         <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G108" t="s">
         <v>255</v>
@@ -6516,51 +7005,51 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="E109" t="s">
         <v>25</v>
       </c>
       <c r="F109" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G109" t="s">
+        <v>484</v>
+      </c>
+      <c r="H109" t="s">
         <v>485</v>
-      </c>
-      <c r="H109" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>486</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" t="s">
+        <v>370</v>
+      </c>
+      <c r="F110" t="s">
         <v>487</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="G110" t="s">
         <v>490</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" t="s">
-        <v>371</v>
-      </c>
-      <c r="F110" t="s">
-        <v>488</v>
-      </c>
-      <c r="G110" t="s">
-        <v>491</v>
       </c>
       <c r="H110" t="s">
         <v>8</v>
@@ -6568,22 +7057,22 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>491</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
         <v>492</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>493</v>
       </c>
       <c r="G111" t="s">
         <v>21</v>
@@ -6594,25 +7083,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>496</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>499</v>
+      </c>
+      <c r="F112" t="s">
         <v>497</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>500</v>
-      </c>
-      <c r="F112" t="s">
-        <v>498</v>
-      </c>
-      <c r="G112" t="s">
-        <v>501</v>
       </c>
       <c r="H112" t="s">
         <v>8</v>
@@ -6620,48 +7109,48 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>501</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
         <v>502</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>503</v>
       </c>
       <c r="G113" t="s">
         <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>505</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
         <v>506</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>507</v>
       </c>
       <c r="G114" t="s">
         <v>21</v>
@@ -6672,22 +7161,22 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>508</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
         <v>509</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>510</v>
       </c>
       <c r="G115" t="s">
         <v>21</v>
@@ -6698,22 +7187,22 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>512</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
         <v>513</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>514</v>
       </c>
       <c r="G116" t="s">
         <v>21</v>
@@ -6724,22 +7213,22 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>515</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>369</v>
+      </c>
+      <c r="F117" t="s">
         <v>516</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="D117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
-        <v>370</v>
-      </c>
-      <c r="F117" t="s">
-        <v>517</v>
       </c>
       <c r="G117" t="s">
         <v>21</v>
@@ -6750,25 +7239,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>519</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
         <v>520</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="G118" t="s">
         <v>524</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>521</v>
-      </c>
-      <c r="G118" t="s">
-        <v>525</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
@@ -6776,48 +7265,48 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>525</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
         <v>526</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" t="s">
-        <v>527</v>
       </c>
       <c r="G119" t="s">
         <v>21</v>
       </c>
       <c r="H119" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>529</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>533</v>
+      </c>
+      <c r="F120" t="s">
         <v>530</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
-        <v>534</v>
-      </c>
-      <c r="F120" t="s">
-        <v>531</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
@@ -6828,25 +7317,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>534</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E121" t="s">
+        <v>539</v>
+      </c>
+      <c r="F121" t="s">
         <v>535</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="E121" t="s">
-        <v>540</v>
-      </c>
-      <c r="F121" t="s">
-        <v>536</v>
-      </c>
       <c r="G121" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H121" t="s">
         <v>8</v>
@@ -6854,25 +7343,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>540</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
         <v>541</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>542</v>
-      </c>
       <c r="G122" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
@@ -6880,25 +7369,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>544</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" t="s">
         <v>547</v>
       </c>
-      <c r="E123" t="s">
-        <v>548</v>
-      </c>
       <c r="F123" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G123" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H123" t="s">
         <v>8</v>
@@ -6906,48 +7395,48 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>548</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
         <v>549</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" t="s">
-        <v>550</v>
       </c>
       <c r="G124" t="s">
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>555</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
         <v>556</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
-        <v>557</v>
       </c>
       <c r="G125" t="s">
         <v>21</v>
@@ -6958,22 +7447,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G126" t="s">
         <v>88</v>
@@ -6984,126 +7473,126 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>562</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
         <v>563</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>564</v>
       </c>
       <c r="G127" t="s">
         <v>21</v>
       </c>
       <c r="H127" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>567</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
         <v>568</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>569</v>
       </c>
       <c r="G128" t="s">
         <v>21</v>
       </c>
       <c r="H128" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>571</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
         <v>572</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>573</v>
       </c>
       <c r="G129" t="s">
         <v>88</v>
       </c>
       <c r="H129" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>576</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
         <v>577</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>578</v>
       </c>
       <c r="G130" t="s">
         <v>21</v>
       </c>
       <c r="H130" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>580</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
         <v>581</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" t="s">
-        <v>582</v>
-      </c>
       <c r="G131" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H131" t="s">
         <v>8</v>
@@ -7111,48 +7600,48 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>585</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
         <v>586</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" t="s">
-        <v>587</v>
       </c>
       <c r="G132" t="s">
         <v>21</v>
       </c>
       <c r="H132" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>589</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>370</v>
+      </c>
+      <c r="F133" t="s">
         <v>590</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" t="s">
-        <v>371</v>
-      </c>
-      <c r="F133" t="s">
-        <v>591</v>
       </c>
       <c r="G133" t="s">
         <v>21</v>
@@ -7163,25 +7652,25 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>593</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>499</v>
+      </c>
+      <c r="F134" t="s">
         <v>594</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" t="s">
-        <v>500</v>
-      </c>
-      <c r="F134" t="s">
-        <v>595</v>
-      </c>
       <c r="G134" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H134" t="s">
         <v>8</v>
@@ -7189,22 +7678,22 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>596</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
         <v>597</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" t="s">
-        <v>598</v>
       </c>
       <c r="G135" t="s">
         <v>126</v>
@@ -7215,48 +7704,48 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>599</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
         <v>600</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>601</v>
       </c>
       <c r="G136" t="s">
         <v>69</v>
       </c>
       <c r="H136" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>606</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>607</v>
       </c>
       <c r="E137" t="s">
         <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G137" t="s">
         <v>126</v>
@@ -7267,13 +7756,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>607</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>608</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>609</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -7282,7 +7771,7 @@
         <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G138" t="s">
         <v>126</v>
@@ -7293,22 +7782,22 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>609</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>613</v>
+      </c>
+      <c r="F139" t="s">
         <v>610</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" t="s">
-        <v>614</v>
-      </c>
-      <c r="F139" t="s">
-        <v>611</v>
       </c>
       <c r="G139" t="s">
         <v>88</v>
@@ -7319,48 +7808,48 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>615</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
         <v>616</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
-        <v>617</v>
       </c>
       <c r="G140" t="s">
         <v>149</v>
       </c>
       <c r="H140" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>619</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
         <v>620</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="E141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
-        <v>621</v>
       </c>
       <c r="G141" t="s">
         <v>21</v>
@@ -7371,77 +7860,77 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>623</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
         <v>624</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E142" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>625</v>
       </c>
       <c r="G142" t="s">
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>630</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
         <v>631</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D143" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
-        <v>632</v>
-      </c>
       <c r="G143" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H143" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>633</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D144" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" t="s">
+        <v>369</v>
+      </c>
+      <c r="F144" t="s">
         <v>634</v>
       </c>
-      <c r="B144" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" t="s">
-        <v>370</v>
-      </c>
-      <c r="F144" t="s">
-        <v>635</v>
-      </c>
       <c r="G144" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H144" t="s">
         <v>8</v>
@@ -7449,25 +7938,25 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>637</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
         <v>638</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D145" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
-        <v>639</v>
-      </c>
       <c r="G145" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H145" t="s">
         <v>153</v>
@@ -7475,22 +7964,22 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>641</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
         <v>642</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
-        <v>643</v>
       </c>
       <c r="G146" t="s">
         <v>166</v>
@@ -7501,74 +7990,74 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>644</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
         <v>645</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="D147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
-        <v>646</v>
       </c>
       <c r="G147" t="s">
         <v>21</v>
       </c>
       <c r="H147" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>653</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>654</v>
       </c>
       <c r="E148" t="s">
         <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G148" t="s">
         <v>56</v>
       </c>
       <c r="H148" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>659</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>660</v>
       </c>
       <c r="E149" t="s">
         <v>183</v>
       </c>
       <c r="F149" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G149" t="s">
         <v>21</v>
@@ -7579,91 +8068,91 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>664</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>665</v>
       </c>
       <c r="E150" t="s">
         <v>25</v>
       </c>
       <c r="F150" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G150" t="s">
         <v>255</v>
       </c>
       <c r="H150" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>666</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
         <v>667</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" t="s">
-        <v>668</v>
       </c>
       <c r="G151" t="s">
         <v>21</v>
       </c>
       <c r="H151" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>670</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
         <v>671</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="E152" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>672</v>
       </c>
       <c r="G152" t="s">
         <v>149</v>
       </c>
       <c r="H152" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B153" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -7672,7 +8161,7 @@
         <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G153" t="s">
         <v>47</v>
@@ -7683,22 +8172,22 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>679</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
         <v>680</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" t="s">
-        <v>681</v>
       </c>
       <c r="G154" t="s">
         <v>229</v>
@@ -7709,25 +8198,25 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>682</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
         <v>683</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>684</v>
-      </c>
       <c r="G155" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H155" t="s">
         <v>8</v>
@@ -7735,48 +8224,48 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>685</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
         <v>686</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="D156" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" t="s">
-        <v>687</v>
       </c>
       <c r="G156" t="s">
         <v>47</v>
       </c>
       <c r="H156" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>690</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
         <v>691</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="D157" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" t="s">
-        <v>692</v>
       </c>
       <c r="G157" t="s">
         <v>88</v>
@@ -7787,22 +8276,22 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>693</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
         <v>694</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="D158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>695</v>
       </c>
       <c r="G158" t="s">
         <v>151</v>
@@ -7813,22 +8302,22 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>696</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
         <v>697</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="D159" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="s">
-        <v>698</v>
       </c>
       <c r="G159" t="s">
         <v>88</v>
@@ -7839,129 +8328,129 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>699</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
         <v>700</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D160" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
-        <v>701</v>
       </c>
       <c r="G160" t="s">
         <v>88</v>
       </c>
       <c r="H160" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>703</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
         <v>704</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>705</v>
       </c>
       <c r="G161" t="s">
         <v>21</v>
       </c>
       <c r="H161" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>708</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
         <v>709</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D162" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" t="s">
-        <v>710</v>
       </c>
       <c r="G162" t="s">
         <v>255</v>
       </c>
       <c r="H162" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>712</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
         <v>713</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="D163" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>714</v>
       </c>
       <c r="G163" t="s">
         <v>21</v>
       </c>
       <c r="H163" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>717</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
         <v>718</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D164" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
-        <v>719</v>
-      </c>
       <c r="G164" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H164" t="s">
         <v>8</v>
@@ -7969,152 +8458,152 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>721</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
         <v>722</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="D165" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>723</v>
       </c>
       <c r="G165" t="s">
         <v>21</v>
       </c>
       <c r="H165" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>726</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
         <v>727</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="G166" t="s">
+        <v>500</v>
+      </c>
+      <c r="H166" t="s">
         <v>729</v>
-      </c>
-      <c r="D166" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="s">
-        <v>728</v>
-      </c>
-      <c r="G166" t="s">
-        <v>501</v>
-      </c>
-      <c r="H166" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>730</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
         <v>731</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="E167" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" t="s">
-        <v>732</v>
       </c>
       <c r="G167" t="s">
         <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>735</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
         <v>736</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D168" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" t="s">
-        <v>737</v>
       </c>
       <c r="G168" t="s">
         <v>47</v>
       </c>
       <c r="H168" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>739</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
         <v>740</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D169" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" t="s">
-        <v>741</v>
       </c>
       <c r="G169" t="s">
         <v>47</v>
       </c>
       <c r="H169" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>743</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
         <v>744</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D170" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" t="s">
-        <v>745</v>
       </c>
       <c r="G170" t="s">
         <v>255</v>
@@ -8125,25 +8614,25 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>746</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
         <v>747</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="G171" t="s">
         <v>749</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D171" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" t="s">
-        <v>748</v>
-      </c>
-      <c r="G171" t="s">
-        <v>750</v>
       </c>
       <c r="H171" t="s">
         <v>8</v>
@@ -8151,22 +8640,22 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>750</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
         <v>751</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="E172" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" t="s">
-        <v>752</v>
       </c>
       <c r="G172" t="s">
         <v>120</v>
@@ -8177,74 +8666,74 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>755</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
         <v>756</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D173" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
-        <v>757</v>
       </c>
       <c r="G173" t="s">
         <v>56</v>
       </c>
       <c r="H173" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>760</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="C174" t="s">
+        <v>409</v>
+      </c>
+      <c r="D174" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174" t="s">
         <v>761</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C174" t="s">
-        <v>410</v>
-      </c>
-      <c r="D174" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" t="s">
-        <v>13</v>
-      </c>
-      <c r="F174" t="s">
-        <v>762</v>
       </c>
       <c r="G174" t="s">
         <v>21</v>
       </c>
       <c r="H174" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>763</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
         <v>764</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D175" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="s">
-        <v>765</v>
       </c>
       <c r="G175" t="s">
         <v>47</v>
@@ -8255,22 +8744,22 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>766</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
         <v>767</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D176" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" t="s">
-        <v>768</v>
       </c>
       <c r="G176" t="s">
         <v>45</v>
@@ -8281,22 +8770,22 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>770</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
         <v>771</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D177" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>772</v>
       </c>
       <c r="G177" t="s">
         <v>149</v>
@@ -8307,22 +8796,22 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>773</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
         <v>774</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D178" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" t="s">
-        <v>775</v>
       </c>
       <c r="G178" t="s">
         <v>149</v>
@@ -8333,22 +8822,22 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>776</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
         <v>777</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D179" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>778</v>
       </c>
       <c r="G179" t="s">
         <v>149</v>
@@ -8359,22 +8848,22 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>779</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
         <v>780</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D180" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" t="s">
-        <v>781</v>
       </c>
       <c r="G180" t="s">
         <v>149</v>
@@ -8385,100 +8874,100 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>782</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
         <v>783</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D181" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
-        <v>784</v>
       </c>
       <c r="G181" t="s">
         <v>149</v>
       </c>
       <c r="H181" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>787</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
         <v>788</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D182" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" t="s">
-        <v>789</v>
       </c>
       <c r="G182" t="s">
         <v>149</v>
       </c>
       <c r="H182" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>790</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
         <v>791</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D183" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
-        <v>792</v>
       </c>
       <c r="G183" t="s">
         <v>149</v>
       </c>
       <c r="H183" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>794</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
         <v>795</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D184" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" t="s">
-        <v>13</v>
-      </c>
-      <c r="F184" t="s">
-        <v>796</v>
       </c>
       <c r="G184" t="s">
         <v>149</v>
@@ -8489,48 +8978,48 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>797</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
         <v>798</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D185" t="s">
-        <v>8</v>
-      </c>
-      <c r="E185" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" t="s">
-        <v>799</v>
       </c>
       <c r="G185" t="s">
         <v>149</v>
       </c>
       <c r="H185" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>802</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
         <v>803</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D186" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" t="s">
-        <v>804</v>
       </c>
       <c r="G186" t="s">
         <v>149</v>
@@ -8541,39 +9030,39 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>806</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
         <v>807</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D187" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
-        <v>808</v>
       </c>
       <c r="G187" t="s">
         <v>47</v>
       </c>
       <c r="H187" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>809</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
@@ -8588,18 +9077,18 @@
         <v>120</v>
       </c>
       <c r="H188" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
@@ -8608,7 +9097,7 @@
         <v>25</v>
       </c>
       <c r="F189" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G189" t="s">
         <v>149</v>
@@ -8619,13 +9108,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D190" t="s">
         <v>8</v>
@@ -8634,24 +9123,24 @@
         <v>25</v>
       </c>
       <c r="F190" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G190" t="s">
         <v>149</v>
       </c>
       <c r="H190" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
@@ -8660,7 +9149,7 @@
         <v>25</v>
       </c>
       <c r="F191" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G191" t="s">
         <v>88</v>
@@ -8671,13 +9160,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D192" t="s">
         <v>8</v>
@@ -8686,7 +9175,7 @@
         <v>25</v>
       </c>
       <c r="F192" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G192" t="s">
         <v>120</v>
@@ -8697,65 +9186,65 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>827</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
         <v>828</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D193" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
-        <v>829</v>
       </c>
       <c r="G193" t="s">
         <v>21</v>
       </c>
       <c r="H193" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>832</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
         <v>833</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="G194" t="s">
         <v>835</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="D194" t="s">
-        <v>8</v>
-      </c>
-      <c r="E194" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
-        <v>834</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>836</v>
-      </c>
-      <c r="H194" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -8764,36 +9253,36 @@
         <v>25</v>
       </c>
       <c r="F195" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G195" t="s">
+        <v>841</v>
+      </c>
+      <c r="H195" t="s">
         <v>842</v>
-      </c>
-      <c r="H195" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>846</v>
-      </c>
-      <c r="C196" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>847</v>
       </c>
       <c r="E196" t="s">
         <v>25</v>
       </c>
       <c r="F196" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G196" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H196" t="s">
         <v>8</v>
@@ -8801,36 +9290,36 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>561</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>562</v>
       </c>
       <c r="E197" t="s">
         <v>25</v>
       </c>
       <c r="F197" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G197" t="s">
         <v>88</v>
       </c>
       <c r="H197" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
@@ -8842,76 +9331,76 @@
         <v>25</v>
       </c>
       <c r="F198" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G198" t="s">
         <v>149</v>
       </c>
       <c r="H198" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>855</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
         <v>856</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D199" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" t="s">
-        <v>857</v>
       </c>
       <c r="G199" t="s">
         <v>56</v>
       </c>
       <c r="H199" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>863</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>864</v>
       </c>
       <c r="E200" t="s">
         <v>25</v>
       </c>
       <c r="F200" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G200" t="s">
         <v>149</v>
       </c>
       <c r="H200" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D201" t="s">
         <v>8</v>
@@ -8920,10 +9409,10 @@
         <v>25</v>
       </c>
       <c r="F201" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G201" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H201" t="s">
         <v>8</v>
@@ -8931,22 +9420,22 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>870</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s">
         <v>871</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>873</v>
-      </c>
-      <c r="D202" t="s">
-        <v>8</v>
-      </c>
-      <c r="E202" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" t="s">
-        <v>872</v>
       </c>
       <c r="G202" t="s">
         <v>69</v>
@@ -8957,91 +9446,91 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>873</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" t="s">
         <v>874</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D203" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" t="s">
-        <v>875</v>
       </c>
       <c r="G203" t="s">
         <v>45</v>
       </c>
       <c r="H203" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>877</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
         <v>878</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>880</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D204" t="s">
-        <v>8</v>
-      </c>
-      <c r="E204" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
-        <v>879</v>
       </c>
       <c r="G204" t="s">
         <v>56</v>
       </c>
       <c r="H204" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>881</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s">
         <v>882</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" t="s">
-        <v>883</v>
       </c>
       <c r="G205" t="s">
         <v>120</v>
       </c>
       <c r="H205" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
@@ -9050,10 +9539,10 @@
         <v>68</v>
       </c>
       <c r="F206" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="G206" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="H206" t="s">
         <v>8</v>
@@ -9061,48 +9550,48 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>890</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>892</v>
       </c>
       <c r="E207" t="s">
         <v>25</v>
       </c>
       <c r="F207" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G207" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H207" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>893</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" t="s">
         <v>894</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="D208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" t="s">
-        <v>13</v>
-      </c>
-      <c r="F208" t="s">
-        <v>895</v>
       </c>
       <c r="G208" t="s">
         <v>47</v>
@@ -9113,13 +9602,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>897</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>899</v>
-      </c>
       <c r="C209" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D209" t="s">
         <v>8</v>
@@ -9134,27 +9623,27 @@
         <v>47</v>
       </c>
       <c r="H209" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>900</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s">
         <v>901</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>903</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" t="s">
-        <v>902</v>
       </c>
       <c r="G210" t="s">
         <v>171</v>
@@ -9165,13 +9654,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D211" t="s">
         <v>8</v>
@@ -9180,59 +9669,59 @@
         <v>25</v>
       </c>
       <c r="F211" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="G211" t="s">
         <v>47</v>
       </c>
       <c r="H211" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
+        <v>908</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D212" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" t="s">
+        <v>370</v>
+      </c>
+      <c r="F212" t="s">
         <v>909</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D212" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" t="s">
-        <v>371</v>
-      </c>
-      <c r="F212" t="s">
-        <v>910</v>
       </c>
       <c r="G212" t="s">
         <v>47</v>
       </c>
       <c r="H212" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>912</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" t="s">
+        <v>916</v>
+      </c>
+      <c r="F213" t="s">
         <v>913</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="D213" t="s">
-        <v>8</v>
-      </c>
-      <c r="E213" t="s">
-        <v>917</v>
-      </c>
-      <c r="F213" t="s">
-        <v>914</v>
       </c>
       <c r="G213" t="s">
         <v>88</v>
@@ -9243,22 +9732,22 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
+        <v>917</v>
+      </c>
+      <c r="B214" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D214" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" t="s">
+        <v>370</v>
+      </c>
+      <c r="F214" t="s">
         <v>918</v>
-      </c>
-      <c r="B214" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>911</v>
-      </c>
-      <c r="D214" t="s">
-        <v>8</v>
-      </c>
-      <c r="E214" t="s">
-        <v>371</v>
-      </c>
-      <c r="F214" t="s">
-        <v>919</v>
       </c>
       <c r="G214" t="s">
         <v>47</v>
@@ -9269,77 +9758,77 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>919</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" t="s">
         <v>920</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>923</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="D215" t="s">
-        <v>8</v>
-      </c>
-      <c r="E215" t="s">
-        <v>13</v>
-      </c>
-      <c r="F215" t="s">
-        <v>921</v>
       </c>
       <c r="G215" t="s">
         <v>47</v>
       </c>
       <c r="H215" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>924</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
         <v>925</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D216" t="s">
-        <v>8</v>
-      </c>
-      <c r="E216" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" t="s">
-        <v>926</v>
       </c>
       <c r="G216" t="s">
         <v>47</v>
       </c>
       <c r="H216" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>928</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" t="s">
         <v>929</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>931</v>
-      </c>
-      <c r="D217" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" t="s">
-        <v>13</v>
-      </c>
-      <c r="F217" t="s">
-        <v>930</v>
-      </c>
       <c r="G217" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H217" t="s">
         <v>8</v>
@@ -9347,10 +9836,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>931</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>932</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>933</v>
       </c>
       <c r="C218" t="s">
         <v>8</v>
@@ -9368,70 +9857,70 @@
         <v>47</v>
       </c>
       <c r="H218" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>934</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s">
         <v>935</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="D219" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
-        <v>936</v>
       </c>
       <c r="G219" t="s">
         <v>149</v>
       </c>
       <c r="H219" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>939</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s">
         <v>940</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>943</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="D220" t="s">
-        <v>8</v>
-      </c>
-      <c r="E220" t="s">
-        <v>13</v>
-      </c>
-      <c r="F220" t="s">
-        <v>941</v>
       </c>
       <c r="G220" t="s">
         <v>47</v>
       </c>
       <c r="H220" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>945</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>946</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>947</v>
-      </c>
       <c r="C221" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
@@ -9451,22 +9940,22 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>947</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>950</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" t="s">
         <v>948</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>951</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="D222" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" t="s">
-        <v>949</v>
       </c>
       <c r="G222" t="s">
         <v>56</v>
@@ -9477,74 +9966,74 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>951</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" t="s">
         <v>952</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="D223" t="s">
-        <v>8</v>
-      </c>
-      <c r="E223" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223" t="s">
-        <v>953</v>
       </c>
       <c r="G223" t="s">
         <v>56</v>
       </c>
       <c r="H223" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>956</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
         <v>957</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="G224" t="s">
+        <v>835</v>
+      </c>
+      <c r="H224" t="s">
         <v>960</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="D224" t="s">
-        <v>8</v>
-      </c>
-      <c r="E224" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" t="s">
-        <v>958</v>
-      </c>
-      <c r="G224" t="s">
-        <v>836</v>
-      </c>
-      <c r="H224" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>961</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>964</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s">
         <v>962</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>965</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="D225" t="s">
-        <v>8</v>
-      </c>
-      <c r="E225" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" t="s">
-        <v>963</v>
       </c>
       <c r="G225" t="s">
         <v>21</v>
@@ -9555,48 +10044,48 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>965</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
         <v>966</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="G226" t="s">
         <v>968</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="D226" t="s">
-        <v>8</v>
-      </c>
-      <c r="E226" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" t="s">
-        <v>967</v>
-      </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>969</v>
-      </c>
-      <c r="H226" t="s">
-        <v>970</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>970</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
         <v>971</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="E227" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" t="s">
-        <v>972</v>
       </c>
       <c r="G227" t="s">
         <v>271</v>
@@ -9607,13 +10096,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D228" t="s">
         <v>8</v>
@@ -9622,7 +10111,7 @@
         <v>25</v>
       </c>
       <c r="F228" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="G228" t="s">
         <v>88</v>
@@ -9633,74 +10122,74 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>977</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E229" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
         <v>978</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="E229" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" t="s">
-        <v>979</v>
       </c>
       <c r="G229" t="s">
         <v>151</v>
       </c>
       <c r="H229" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>986</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>987</v>
       </c>
       <c r="E230" t="s">
         <v>25</v>
       </c>
       <c r="F230" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="G230" t="s">
+        <v>987</v>
+      </c>
+      <c r="H230" t="s">
         <v>988</v>
-      </c>
-      <c r="H230" t="s">
-        <v>989</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>989</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
         <v>990</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="D231" t="s">
-        <v>8</v>
-      </c>
-      <c r="E231" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" t="s">
-        <v>991</v>
       </c>
       <c r="G231" t="s">
         <v>47</v>
@@ -9711,39 +10200,39 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>993</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
         <v>994</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>996</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D232" t="s">
-        <v>8</v>
-      </c>
-      <c r="E232" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>995</v>
       </c>
       <c r="G232" t="s">
         <v>255</v>
       </c>
       <c r="H232" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D233" t="s">
         <v>8</v>
@@ -9752,33 +10241,33 @@
         <v>25</v>
       </c>
       <c r="F233" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="G233" t="s">
         <v>47</v>
       </c>
       <c r="H233" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s">
         <v>1002</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D234" t="s">
-        <v>8</v>
-      </c>
-      <c r="E234" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1003</v>
       </c>
       <c r="G234" t="s">
         <v>56</v>
@@ -9789,13 +10278,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="D235" t="s">
         <v>8</v>
@@ -9804,33 +10293,33 @@
         <v>25</v>
       </c>
       <c r="F235" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="G235" t="s">
         <v>56</v>
       </c>
       <c r="H235" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>1013</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1014</v>
       </c>
       <c r="E236" t="s">
         <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="G236" t="s">
         <v>149</v>
@@ -9841,13 +10330,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>1016</v>
-      </c>
       <c r="C237" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="D237" t="s">
         <v>8</v>
@@ -9862,27 +10351,27 @@
         <v>47</v>
       </c>
       <c r="H237" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E238" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
         <v>1018</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E238" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1019</v>
       </c>
       <c r="G238" t="s">
         <v>149</v>
@@ -9893,77 +10382,77 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
         <v>1023</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D239" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1024</v>
       </c>
       <c r="G239" t="s">
         <v>151</v>
       </c>
       <c r="H239" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
         <v>1028</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="D240" t="s">
-        <v>8</v>
-      </c>
-      <c r="E240" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1029</v>
       </c>
       <c r="G240" t="s">
         <v>149</v>
       </c>
       <c r="H240" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F241" t="s">
         <v>1031</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E241" t="s">
+      <c r="G241" t="s">
         <v>1035</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1032</v>
-      </c>
-      <c r="G241" t="s">
-        <v>1036</v>
       </c>
       <c r="H241" t="s">
         <v>8</v>
@@ -9971,25 +10460,25 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
         <v>1037</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="G242" t="s">
         <v>1039</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D242" t="s">
-        <v>8</v>
-      </c>
-      <c r="E242" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G242" t="s">
-        <v>1040</v>
       </c>
       <c r="H242" t="s">
         <v>8</v>
@@ -9997,25 +10486,25 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" t="s">
+        <v>613</v>
+      </c>
+      <c r="F243" t="s">
         <v>1041</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D243" t="s">
-        <v>8</v>
-      </c>
-      <c r="E243" t="s">
-        <v>614</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1042</v>
-      </c>
       <c r="G243" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H243" t="s">
         <v>8</v>
@@ -10023,22 +10512,22 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E244" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s">
         <v>1069</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1072</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1072</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1071</v>
-      </c>
-      <c r="E244" t="s">
-        <v>13</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1070</v>
       </c>
       <c r="G244" t="s">
         <v>21</v>
@@ -10046,22 +10535,22 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
         <v>1073</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E245" t="s">
-        <v>13</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1074</v>
       </c>
       <c r="G245" t="s">
         <v>271</v>
@@ -10069,48 +10558,48 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D246" t="s">
         <v>1079</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D246" t="s">
-        <v>1080</v>
       </c>
       <c r="E246" t="s">
         <v>25</v>
       </c>
       <c r="F246" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="G246" t="s">
         <v>166</v>
       </c>
       <c r="H246" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
         <v>1082</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E247" t="s">
-        <v>13</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1083</v>
       </c>
       <c r="G247" t="s">
         <v>47</v>
@@ -10118,22 +10607,22 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E248" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
         <v>1086</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="E248" t="s">
-        <v>13</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1087</v>
       </c>
       <c r="G248" t="s">
         <v>21</v>
@@ -10141,19 +10630,19 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E249" t="s">
+        <v>370</v>
+      </c>
+      <c r="F249" t="s">
         <v>1089</v>
-      </c>
-      <c r="B249" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1092</v>
-      </c>
-      <c r="E249" t="s">
-        <v>371</v>
-      </c>
-      <c r="F249" t="s">
-        <v>1090</v>
       </c>
       <c r="G249" t="s">
         <v>120</v>
@@ -10161,25 +10650,998 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B250" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D250" t="s">
         <v>1095</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1096</v>
       </c>
       <c r="E250" t="s">
         <v>25</v>
       </c>
       <c r="F250" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="G250" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E251" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G251" t="s">
+        <v>45</v>
+      </c>
+      <c r="H251" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G252" t="s">
+        <v>21</v>
+      </c>
+      <c r="H252" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G253" t="s">
+        <v>173</v>
+      </c>
+      <c r="H253" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E254" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G254" t="s">
+        <v>229</v>
+      </c>
+      <c r="H254" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C255" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G255" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D256" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G256" t="s">
+        <v>56</v>
+      </c>
+      <c r="H256" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C257" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D257" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G257" t="s">
+        <v>21</v>
+      </c>
+      <c r="H257" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D258" t="s">
+        <v>1134</v>
+      </c>
+      <c r="E258" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G258" t="s">
+        <v>21</v>
+      </c>
+      <c r="H258" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D259" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G259" t="s">
+        <v>21</v>
+      </c>
+      <c r="H259" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G260" t="s">
+        <v>21</v>
+      </c>
+      <c r="H260" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E261" t="s">
+        <v>25</v>
+      </c>
+      <c r="F261" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G261" t="s">
+        <v>45</v>
+      </c>
+      <c r="H261" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G262" t="s">
+        <v>149</v>
+      </c>
+      <c r="H262" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" t="s">
+        <v>13</v>
+      </c>
+      <c r="F263" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G263" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G264" t="s">
+        <v>255</v>
+      </c>
+      <c r="H264" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" t="s">
+        <v>13</v>
+      </c>
+      <c r="F265" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G265" t="s">
+        <v>255</v>
+      </c>
+      <c r="H265" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G266" t="s">
+        <v>255</v>
+      </c>
+      <c r="H266" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D267" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G267" t="s">
+        <v>255</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" t="s">
+        <v>13</v>
+      </c>
+      <c r="F268" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G268" t="s">
+        <v>255</v>
+      </c>
+      <c r="H268" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G269" t="s">
+        <v>255</v>
+      </c>
+      <c r="H269" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E270" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G270" t="s">
+        <v>987</v>
+      </c>
+      <c r="H270" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F271" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G271" t="s">
+        <v>1039</v>
+      </c>
+      <c r="H271" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C272" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" t="s">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s">
+        <v>1191</v>
+      </c>
+      <c r="G272" t="s">
+        <v>151</v>
+      </c>
+      <c r="H272" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" t="s">
+        <v>1195</v>
+      </c>
+      <c r="G273" t="s">
+        <v>171</v>
+      </c>
+      <c r="H273" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1199</v>
+      </c>
+      <c r="G274" t="s">
+        <v>56</v>
+      </c>
+      <c r="H274" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C275" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1203</v>
+      </c>
+      <c r="G275" t="s">
+        <v>47</v>
+      </c>
+      <c r="H275" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G276" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G277" t="s">
+        <v>126</v>
+      </c>
+      <c r="H277" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G278" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D279" t="s">
+        <v>97</v>
+      </c>
+      <c r="E279" t="s">
+        <v>13</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G279" t="s">
+        <v>456</v>
+      </c>
+      <c r="H279" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G280" t="s">
+        <v>456</v>
+      </c>
+      <c r="H280" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" t="s">
+        <v>13</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G281" t="s">
+        <v>120</v>
+      </c>
+      <c r="H281" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C282" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G282" t="s">
+        <v>456</v>
+      </c>
+      <c r="H282" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" t="s">
+        <v>25</v>
+      </c>
+      <c r="F283" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G283" t="s">
+        <v>56</v>
+      </c>
+      <c r="H283" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C284" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" t="s">
+        <v>13</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G284" t="s">
+        <v>21</v>
+      </c>
+      <c r="H284" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C285" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" t="s">
+        <v>13</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G285" t="s">
+        <v>47</v>
+      </c>
+      <c r="H285" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G286" t="s">
+        <v>47</v>
+      </c>
+      <c r="H286" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D287" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" t="s">
+        <v>25</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G287" t="s">
+        <v>438</v>
+      </c>
+      <c r="H287" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G288" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10696,6 +12158,64 @@
     <hyperlink ref="B206" r:id="rId510" xr:uid="{0527FFC8-3687-BE47-88AC-6A7D1A5458EE}"/>
     <hyperlink ref="B217" r:id="rId511" xr:uid="{E54B12AD-F884-D546-B2E3-3527E799A90A}"/>
     <hyperlink ref="B246" r:id="rId512" xr:uid="{63FF7A0E-1E74-DB4E-9B89-D8A87EAB06EE}"/>
+    <hyperlink ref="B251" r:id="rId513" xr:uid="{A6DE2988-2F72-A740-A6D0-9AF62BAFC60D}"/>
+    <hyperlink ref="C251" r:id="rId514" xr:uid="{F26C1D0F-CA43-4449-B467-16E13DC71099}"/>
+    <hyperlink ref="D251" r:id="rId515" xr:uid="{28CB2456-6461-1A4D-A182-2941228540E2}"/>
+    <hyperlink ref="B252" r:id="rId516" xr:uid="{F5448FCD-9B6A-3946-979D-AD762DF3D4A6}"/>
+    <hyperlink ref="C252" r:id="rId517" xr:uid="{DB653774-1A91-8D49-97BC-2B2B1CBA268F}"/>
+    <hyperlink ref="B253" r:id="rId518" xr:uid="{A4CA1771-ED15-1F46-838D-3A55065F20EB}"/>
+    <hyperlink ref="C254" r:id="rId519" xr:uid="{FD3C7861-BC14-7248-A4D1-3294B9FB21C6}"/>
+    <hyperlink ref="B256" r:id="rId520" xr:uid="{B3134293-C177-1F44-A80B-6397AFBF5D22}"/>
+    <hyperlink ref="B257" r:id="rId521" xr:uid="{DDF87334-D517-5743-AD55-C93B7662D1BE}"/>
+    <hyperlink ref="B258" r:id="rId522" xr:uid="{92193051-9322-C544-BADF-42E431F965A2}"/>
+    <hyperlink ref="B259" r:id="rId523" xr:uid="{0DF0236A-F449-B146-9481-AC485A923A6D}"/>
+    <hyperlink ref="B261" r:id="rId524" xr:uid="{CE173FC0-457B-8749-B497-158CD1AC1343}"/>
+    <hyperlink ref="C261" r:id="rId525" xr:uid="{DA86BA56-9D5A-0E4E-BD4C-93C592F68D7A}"/>
+    <hyperlink ref="D261" r:id="rId526" xr:uid="{448C179A-C605-FA40-9D0F-77DFD5852471}"/>
+    <hyperlink ref="B262" r:id="rId527" xr:uid="{87B3ADAF-31B8-744A-877C-9C11055B008A}"/>
+    <hyperlink ref="C262" r:id="rId528" xr:uid="{55CFC01E-B277-EA4C-868F-695BBDA5F0EA}"/>
+    <hyperlink ref="C263" r:id="rId529" xr:uid="{615A0884-3CE1-F449-B3C9-451F5836F1B1}"/>
+    <hyperlink ref="B263" r:id="rId530" xr:uid="{79E953B8-CA8B-BA4F-94EC-8731DE05AD4B}"/>
+    <hyperlink ref="C264" r:id="rId531" xr:uid="{969893F8-983C-B646-8970-AA61FD9104BE}"/>
+    <hyperlink ref="C265" r:id="rId532" xr:uid="{1D09870F-658E-1B45-8881-081A375E7641}"/>
+    <hyperlink ref="C266" r:id="rId533" xr:uid="{0B0B7EDD-1A0D-8D4C-95CE-A968FBFC17BB}"/>
+    <hyperlink ref="C267" r:id="rId534" xr:uid="{506099EC-B9EB-314B-BDAA-CBBD448D8D27}"/>
+    <hyperlink ref="C268" r:id="rId535" xr:uid="{1202EC08-CF7A-904E-9615-DD32F6588A57}"/>
+    <hyperlink ref="C269" r:id="rId536" xr:uid="{75116700-3784-0143-83E8-2FB875EE079C}"/>
+    <hyperlink ref="B264" r:id="rId537" xr:uid="{976326A4-9458-A24B-85E4-7A6A0B6F1FD7}"/>
+    <hyperlink ref="B265" r:id="rId538" xr:uid="{0F71FAFA-D5FC-914C-BB85-268B5BC62CBB}"/>
+    <hyperlink ref="B266" r:id="rId539" xr:uid="{D26B9B44-C000-FD48-8A3C-4FE40A6084F9}"/>
+    <hyperlink ref="B267" r:id="rId540" xr:uid="{66E389CA-63DC-F744-A4FC-1C3D282E102E}"/>
+    <hyperlink ref="B268" r:id="rId541" xr:uid="{FA369F4E-86C9-7C4B-AE00-DE6778085614}"/>
+    <hyperlink ref="B269" r:id="rId542" xr:uid="{8964B797-6171-414F-8693-DA5486226D39}"/>
+    <hyperlink ref="B270" r:id="rId543" xr:uid="{94F6D6E5-C798-F349-A30C-FA4A95C12B93}"/>
+    <hyperlink ref="C270" r:id="rId544" xr:uid="{E81D3274-741F-FC4E-9677-C4DED88A3CED}"/>
+    <hyperlink ref="D270" r:id="rId545" xr:uid="{E0741B08-6C27-8C40-B8AF-0477FD5125D5}"/>
+    <hyperlink ref="B271" r:id="rId546" xr:uid="{E95731E8-25E9-DC49-9BCA-C303D1F45B27}"/>
+    <hyperlink ref="C271" r:id="rId547" xr:uid="{95A65A7F-3B82-684A-8CC4-E31A95DCF435}"/>
+    <hyperlink ref="B272" r:id="rId548" xr:uid="{EA6D8005-7740-D745-BAB6-A634CC53BF83}"/>
+    <hyperlink ref="B273" r:id="rId549" xr:uid="{111F286E-50BF-E040-B187-178035A9CAFC}"/>
+    <hyperlink ref="C273" r:id="rId550" xr:uid="{40477062-CDFA-6F4F-8D03-D08069C84B48}"/>
+    <hyperlink ref="B274" r:id="rId551" xr:uid="{F81CB637-2740-D340-A40B-36F192A0AD1E}"/>
+    <hyperlink ref="C274" r:id="rId552" xr:uid="{E7B2D881-7D28-7C43-87F3-7F1EC6819560}"/>
+    <hyperlink ref="B275" r:id="rId553" xr:uid="{F66DD00F-F202-1A4A-A55B-BAA282CF161F}"/>
+    <hyperlink ref="C276" r:id="rId554" xr:uid="{A57B80B9-84B3-D643-AF02-7D4745485479}"/>
+    <hyperlink ref="B277" r:id="rId555" xr:uid="{889D0D3A-EDA3-F649-9DF2-8B75B8C89A5C}"/>
+    <hyperlink ref="C278" r:id="rId556" xr:uid="{423AFDFC-DD2F-3042-BE4D-CF0425ECC691}"/>
+    <hyperlink ref="B279" r:id="rId557" xr:uid="{37C5AB17-839D-0243-94A3-FB82B93225D4}"/>
+    <hyperlink ref="B280" r:id="rId558" xr:uid="{91D4CD58-211D-0F4A-9FAD-31F7FF13BB20}"/>
+    <hyperlink ref="B281" r:id="rId559" xr:uid="{04A15D06-C3B0-154F-8CF7-653723E2BFCF}"/>
+    <hyperlink ref="B282" r:id="rId560" xr:uid="{A0CC8827-B2BD-EB4E-B8E0-5CB64762D26E}"/>
+    <hyperlink ref="B283" r:id="rId561" xr:uid="{3AAB0029-1B64-0B42-AA29-B675E58F5AF9}"/>
+    <hyperlink ref="C283" r:id="rId562" xr:uid="{F8E99F2A-E6E0-4040-AB82-D6CC648EEE34}"/>
+    <hyperlink ref="B284" r:id="rId563" xr:uid="{BFD6BFA5-765D-F540-B900-7A1DDD08B13B}"/>
+    <hyperlink ref="B285" r:id="rId564" xr:uid="{E05674DE-528C-6244-AE9C-B8A1A56EEA23}"/>
+    <hyperlink ref="B286" r:id="rId565" xr:uid="{F931C283-8C06-984E-BB15-7D77B6CEC87F}"/>
+    <hyperlink ref="C286" r:id="rId566" xr:uid="{73EC374F-30AD-E349-AA9F-9A15476F07B1}"/>
+    <hyperlink ref="B287" r:id="rId567" xr:uid="{F8F8A1F7-7745-0540-BCA8-169C455A5FCA}"/>
+    <hyperlink ref="C287" r:id="rId568" xr:uid="{10EF6FAB-F41E-AA4B-8416-2629C2EF5C0D}"/>
+    <hyperlink ref="C288" r:id="rId569" xr:uid="{69F7DDB2-51B6-DC48-B7EA-1DACE012B086}"/>
+    <hyperlink ref="B288" r:id="rId570" xr:uid="{E560D3A7-74A5-504B-8B7F-1FC9BCAFDFB5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanh/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9401E785-ED0D-A648-AED6-59ACBE53E22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF11C86-C0F2-844F-8C6E-7440C2D7F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30960" yWindow="720" windowWidth="28420" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glob" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="1261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1276">
   <si>
     <t>name</t>
   </si>
@@ -3816,13 +3816,58 @@
   </si>
   <si>
     <t>Toolkit for making &amp; processing X-ray fluoresence simulations via XMI-MSIM</t>
+  </si>
+  <si>
+    <t>https://github.com/spectral-cockpit/opusreader2</t>
+  </si>
+  <si>
+    <t>Read Bruker OPUS files</t>
+  </si>
+  <si>
+    <t>spectral-cockpit@proton.me</t>
+  </si>
+  <si>
+    <t>https://spectral-cockpit.github.io/opusreader2/A289</t>
+  </si>
+  <si>
+    <t>opusreader2</t>
+  </si>
+  <si>
+    <t>pycaltransfer</t>
+  </si>
+  <si>
+    <t>https://pypi.org/project/pycaltransfer/</t>
+  </si>
+  <si>
+    <t>https://gitlab.com/chemsoftware/python/pycaltransfer</t>
+  </si>
+  <si>
+    <t>Calibration transfer for chemometrics and spectral data applications</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0003267022007255</t>
+  </si>
+  <si>
+    <t>agilent-ir-formats</t>
+  </si>
+  <si>
+    <t>https://github.com/AlexHenderson/agilent-ir-formats</t>
+  </si>
+  <si>
+    <t>Agilent file format handling for infrared spectroscopy</t>
+  </si>
+  <si>
+    <t>alex.henderson@manchester.ac.uk</t>
+  </si>
+  <si>
+    <t>UV-Vis, NIR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3841,6 +3886,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3870,10 +3922,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4179,10 +4232,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H288"/>
+  <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288:XFD288"/>
+    <sheetView tabSelected="1" topLeftCell="B282" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11642,6 +11695,84 @@
       </c>
       <c r="G288" t="s">
         <v>438</v>
+      </c>
+      <c r="H288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D289" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" t="s">
+        <v>25</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G289" t="s">
+        <v>14</v>
+      </c>
+      <c r="H289" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E290" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G290" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1273</v>
+      </c>
+      <c r="G291" t="s">
+        <v>14</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -12216,6 +12347,8 @@
     <hyperlink ref="C287" r:id="rId568" xr:uid="{10EF6FAB-F41E-AA4B-8416-2629C2EF5C0D}"/>
     <hyperlink ref="C288" r:id="rId569" xr:uid="{69F7DDB2-51B6-DC48-B7EA-1DACE012B086}"/>
     <hyperlink ref="B288" r:id="rId570" xr:uid="{E560D3A7-74A5-504B-8B7F-1FC9BCAFDFB5}"/>
+    <hyperlink ref="B289" r:id="rId571" xr:uid="{C078508D-2E61-4643-8A64-BED3846DF843}"/>
+    <hyperlink ref="H291" r:id="rId572" display="https://github.com/AlexHenderson/agilent-ir-formats/blob/main/alex.henderson@manchester.ac.uk" xr:uid="{08954E73-0368-8D4F-9FCF-2CA083469F65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanh/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF11C86-C0F2-844F-8C6E-7440C2D7F8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DC5AAF-89E3-3544-8B5E-791052719A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="3020" windowWidth="28800" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glob" sheetId="1" r:id="rId1"/>
@@ -3827,9 +3827,6 @@
     <t>spectral-cockpit@proton.me</t>
   </si>
   <si>
-    <t>https://spectral-cockpit.github.io/opusreader2/A289</t>
-  </si>
-  <si>
     <t>opusreader2</t>
   </si>
   <si>
@@ -3861,6 +3858,9 @@
   </si>
   <si>
     <t>UV-Vis, NIR</t>
+  </si>
+  <si>
+    <t>https://spectral-cockpit.github.io/opusreader2/index.html</t>
   </si>
 </sst>
 </file>
@@ -4234,8 +4234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H291"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B282" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G291" sqref="G291"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B289" sqref="B289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11702,10 +11702,10 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1264</v>
+        <v>1275</v>
       </c>
       <c r="C289" t="s">
         <v>1261</v>
@@ -11728,51 +11728,51 @@
     </row>
     <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C290" t="s">
         <v>1266</v>
       </c>
-      <c r="B290" t="s">
+      <c r="D290" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E290" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" s="3" t="s">
         <v>1268</v>
       </c>
-      <c r="C290" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D290" t="s">
-        <v>1270</v>
-      </c>
-      <c r="E290" t="s">
-        <v>13</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>1269</v>
-      </c>
       <c r="G290" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B291" t="s">
         <v>1271</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
         <v>1272</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D291" t="s">
-        <v>8</v>
-      </c>
-      <c r="E291" t="s">
-        <v>13</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1273</v>
       </c>
       <c r="G291" t="s">
         <v>14</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
   </sheetData>
@@ -12347,8 +12347,8 @@
     <hyperlink ref="C287" r:id="rId568" xr:uid="{10EF6FAB-F41E-AA4B-8416-2629C2EF5C0D}"/>
     <hyperlink ref="C288" r:id="rId569" xr:uid="{69F7DDB2-51B6-DC48-B7EA-1DACE012B086}"/>
     <hyperlink ref="B288" r:id="rId570" xr:uid="{E560D3A7-74A5-504B-8B7F-1FC9BCAFDFB5}"/>
-    <hyperlink ref="B289" r:id="rId571" xr:uid="{C078508D-2E61-4643-8A64-BED3846DF843}"/>
-    <hyperlink ref="H291" r:id="rId572" display="https://github.com/AlexHenderson/agilent-ir-formats/blob/main/alex.henderson@manchester.ac.uk" xr:uid="{08954E73-0368-8D4F-9FCF-2CA083469F65}"/>
+    <hyperlink ref="H291" r:id="rId571" display="https://github.com/AlexHenderson/agilent-ir-formats/blob/main/alex.henderson@manchester.ac.uk" xr:uid="{08954E73-0368-8D4F-9FCF-2CA083469F65}"/>
+    <hyperlink ref="B289" r:id="rId572" xr:uid="{54BC93D1-24AC-0A44-837F-18CD1831FE85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FOSS4Spec.xlsx
+++ b/FOSS4Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bryanh/Documents/Professional/Research/R_Pkgs/FOSS4Spectroscopy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DC5AAF-89E3-3544-8B5E-791052719A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282091DC-76D3-E44F-9739-CD4C28608816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="3020" windowWidth="28800" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31420" yWindow="540" windowWidth="30640" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="glob" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="1276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1309">
   <si>
     <t>name</t>
   </si>
@@ -1394,9 +1394,6 @@
     <t>deepansh2012@gmail.com</t>
   </si>
   <si>
-    <t>mrsimulator</t>
-  </si>
-  <si>
     <t>A fast solid-state NMR spectrum simulation and analysis library.</t>
   </si>
   <si>
@@ -3861,6 +3858,108 @@
   </si>
   <si>
     <t>https://spectral-cockpit.github.io/opusreader2/index.html</t>
+  </si>
+  <si>
+    <t>whose</t>
+  </si>
+  <si>
+    <t>whoseline</t>
+  </si>
+  <si>
+    <t>https://github.com/bmorris3/whoseline</t>
+  </si>
+  <si>
+    <t>Interactive tool for identifying atomic spectral lines</t>
+  </si>
+  <si>
+    <t>NMR-onion</t>
+  </si>
+  <si>
+    <t>https://github.com/Mabso1/NMR-onion</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2405844024130290</t>
+  </si>
+  <si>
+    <t>1D NMR deconvolution</t>
+  </si>
+  <si>
+    <t>colmarvista</t>
+  </si>
+  <si>
+    <t>https://github.com/lidawei1975/colmarvista</t>
+  </si>
+  <si>
+    <t>Web-based NMR viewer</t>
+  </si>
+  <si>
+    <t>https://github.com/lidawei1975/colmarvista/wiki</t>
+  </si>
+  <si>
+    <t>PyOR</t>
+  </si>
+  <si>
+    <t>https://github.com/VThalakottoor/PyOR-Jeener-Beta</t>
+  </si>
+  <si>
+    <t>Simulate NMR spin physics</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15240841</t>
+  </si>
+  <si>
+    <t>SmoothDeconvolutionNMR</t>
+  </si>
+  <si>
+    <t>https://github.com/Gianfrasso/SmoothDeconvolutionNMR</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/abs/pii/S0003267023010292?via%3Dihub</t>
+  </si>
+  <si>
+    <t>AMES-Fit</t>
+  </si>
+  <si>
+    <t>https://github.com/fperras/AMES-Fit</t>
+  </si>
+  <si>
+    <t>Automatic fitting of multiple-field solid-state NMR spectra</t>
+  </si>
+  <si>
+    <t>magnetstein</t>
+  </si>
+  <si>
+    <t>https://github.com/BDomzal/magnetstein</t>
+  </si>
+  <si>
+    <t>Analysis of NMR spectra using the Wasserstein metric</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.analchem.3c03594</t>
+  </si>
+  <si>
+    <t>https://github.com/AstraZeneca/hsqc_structure_elucidation</t>
+  </si>
+  <si>
+    <t>Neural network for distinguishing molecules based on their HSQC NMR spectra</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/10.1021/acs.jcim.3c01735</t>
+  </si>
+  <si>
+    <t>Rela2x</t>
+  </si>
+  <si>
+    <t>https://github.com/hillaper/Rela2x</t>
+  </si>
+  <si>
+    <t>Analytic and automatic NMR relaxation theory</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S109078072400212X?via%3Dihub</t>
+  </si>
+  <si>
+    <t>hsqc_structure_elucidation</t>
   </si>
 </sst>
 </file>
@@ -4232,10 +4331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H291"/>
+  <dimension ref="A1:H300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B289" sqref="B289"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B304" sqref="B304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4490,7 +4589,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -4594,7 +4693,7 @@
         <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -4684,7 +4783,7 @@
         <v>90</v>
       </c>
       <c r="G17" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H17" t="s">
         <v>92</v>
@@ -4710,7 +4809,7 @@
         <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H18" t="s">
         <v>92</v>
@@ -4727,7 +4826,7 @@
         <v>100</v>
       </c>
       <c r="D19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -4736,7 +4835,7 @@
         <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H19" t="s">
         <v>101</v>
@@ -4892,7 +4991,7 @@
         <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -4929,7 +5028,7 @@
         <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>136</v>
@@ -5293,7 +5392,7 @@
         <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>204</v>
@@ -5308,7 +5407,7 @@
         <v>203</v>
       </c>
       <c r="G41" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H41" t="s">
         <v>205</v>
@@ -5325,7 +5424,7 @@
         <v>208</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="E42" t="s">
         <v>13</v>
@@ -5706,7 +5805,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>274</v>
@@ -5764,7 +5863,7 @@
         <v>282</v>
       </c>
       <c r="C59" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -6570,7 +6669,7 @@
         <v>404</v>
       </c>
       <c r="C90" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -6651,7 +6750,7 @@
         <v>417</v>
       </c>
       <c r="D93" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E93" t="s">
         <v>25</v>
@@ -6816,7 +6915,7 @@
         <v>440</v>
       </c>
       <c r="G99" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H99" t="s">
         <v>442</v>
@@ -6876,22 +6975,22 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
         <v>453</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" t="s">
-        <v>13</v>
-      </c>
-      <c r="F102" t="s">
-        <v>454</v>
       </c>
       <c r="G102" t="s">
         <v>21</v>
@@ -6902,10 +7001,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
@@ -6917,59 +7016,59 @@
         <v>25</v>
       </c>
       <c r="F103" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G103" t="s">
         <v>88</v>
       </c>
       <c r="H103" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>460</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" t="s">
         <v>461</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" t="s">
-        <v>462</v>
       </c>
       <c r="G104" t="s">
         <v>255</v>
       </c>
       <c r="H104" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>465</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
         <v>466</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" t="s">
-        <v>13</v>
-      </c>
-      <c r="F105" t="s">
-        <v>467</v>
       </c>
       <c r="G105" t="s">
         <v>21</v>
@@ -6980,22 +7079,22 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>468</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="E106" t="s">
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
         <v>469</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="E106" t="s">
-        <v>13</v>
-      </c>
-      <c r="F106" t="s">
-        <v>470</v>
       </c>
       <c r="G106" t="s">
         <v>255</v>
@@ -7006,39 +7105,39 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>472</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D107" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
         <v>473</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" t="s">
-        <v>474</v>
       </c>
       <c r="G107" t="s">
         <v>255</v>
       </c>
       <c r="H107" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
@@ -7047,7 +7146,7 @@
         <v>25</v>
       </c>
       <c r="F108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G108" t="s">
         <v>255</v>
@@ -7058,39 +7157,39 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B109" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="E109" t="s">
         <v>25</v>
       </c>
       <c r="F109" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G109" t="s">
+        <v>483</v>
+      </c>
+      <c r="H109" t="s">
         <v>484</v>
-      </c>
-      <c r="H109" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
@@ -7099,10 +7198,10 @@
         <v>370</v>
       </c>
       <c r="F110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G110" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H110" t="s">
         <v>8</v>
@@ -7110,22 +7209,22 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>490</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E111" t="s">
+        <v>13</v>
+      </c>
+      <c r="F111" t="s">
         <v>491</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E111" t="s">
-        <v>13</v>
-      </c>
-      <c r="F111" t="s">
-        <v>492</v>
       </c>
       <c r="G111" t="s">
         <v>21</v>
@@ -7136,25 +7235,25 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>495</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" t="s">
+        <v>498</v>
+      </c>
+      <c r="F112" t="s">
         <v>496</v>
       </c>
-      <c r="B112" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="G112" t="s">
         <v>499</v>
-      </c>
-      <c r="F112" t="s">
-        <v>497</v>
-      </c>
-      <c r="G112" t="s">
-        <v>500</v>
       </c>
       <c r="H112" t="s">
         <v>8</v>
@@ -7162,48 +7261,48 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>500</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D113" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" t="s">
+        <v>13</v>
+      </c>
+      <c r="F113" t="s">
         <v>501</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" t="s">
-        <v>13</v>
-      </c>
-      <c r="F113" t="s">
-        <v>502</v>
       </c>
       <c r="G113" t="s">
         <v>21</v>
       </c>
       <c r="H113" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>504</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E114" t="s">
+        <v>13</v>
+      </c>
+      <c r="F114" t="s">
         <v>505</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="E114" t="s">
-        <v>13</v>
-      </c>
-      <c r="F114" t="s">
-        <v>506</v>
       </c>
       <c r="G114" t="s">
         <v>21</v>
@@ -7214,22 +7313,22 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>507</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E115" t="s">
+        <v>13</v>
+      </c>
+      <c r="F115" t="s">
         <v>508</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="E115" t="s">
-        <v>13</v>
-      </c>
-      <c r="F115" t="s">
-        <v>509</v>
       </c>
       <c r="G115" t="s">
         <v>21</v>
@@ -7240,22 +7339,22 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>511</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D116" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
         <v>512</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
-        <v>13</v>
-      </c>
-      <c r="F116" t="s">
-        <v>513</v>
       </c>
       <c r="G116" t="s">
         <v>21</v>
@@ -7266,13 +7365,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
@@ -7281,7 +7380,7 @@
         <v>369</v>
       </c>
       <c r="F117" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G117" t="s">
         <v>21</v>
@@ -7292,25 +7391,25 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>518</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="E118" t="s">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
         <v>519</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="G118" t="s">
         <v>523</v>
-      </c>
-      <c r="E118" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" t="s">
-        <v>520</v>
-      </c>
-      <c r="G118" t="s">
-        <v>524</v>
       </c>
       <c r="H118" t="s">
         <v>8</v>
@@ -7318,48 +7417,48 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>524</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" t="s">
         <v>525</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" t="s">
-        <v>526</v>
       </c>
       <c r="G119" t="s">
         <v>21</v>
       </c>
       <c r="H119" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
+        <v>528</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D120" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" t="s">
+        <v>532</v>
+      </c>
+      <c r="F120" t="s">
         <v>529</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
-        <v>533</v>
-      </c>
-      <c r="F120" t="s">
-        <v>530</v>
       </c>
       <c r="G120" t="s">
         <v>21</v>
@@ -7370,25 +7469,25 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>533</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="E121" t="s">
+        <v>538</v>
+      </c>
+      <c r="F121" t="s">
         <v>534</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="E121" t="s">
-        <v>539</v>
-      </c>
-      <c r="F121" t="s">
-        <v>535</v>
-      </c>
       <c r="G121" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H121" t="s">
         <v>8</v>
@@ -7396,25 +7495,25 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>539</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" t="s">
+        <v>13</v>
+      </c>
+      <c r="F122" t="s">
         <v>540</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" t="s">
-        <v>541</v>
-      </c>
       <c r="G122" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H122" t="s">
         <v>8</v>
@@ -7422,25 +7521,25 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>543</v>
+      </c>
+      <c r="B123" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" t="s">
         <v>546</v>
       </c>
-      <c r="E123" t="s">
-        <v>547</v>
-      </c>
       <c r="F123" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G123" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H123" t="s">
         <v>8</v>
@@ -7448,48 +7547,48 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>547</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124" t="s">
         <v>548</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E124" t="s">
-        <v>13</v>
-      </c>
-      <c r="F124" t="s">
-        <v>549</v>
       </c>
       <c r="G124" t="s">
         <v>21</v>
       </c>
       <c r="H124" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>554</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D125" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" t="s">
         <v>555</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" t="s">
-        <v>556</v>
       </c>
       <c r="G125" t="s">
         <v>21</v>
@@ -7500,22 +7599,22 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C126" t="s">
-        <v>8</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="E126" t="s">
         <v>25</v>
       </c>
       <c r="F126" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G126" t="s">
         <v>88</v>
@@ -7526,126 +7625,126 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>561</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D127" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>13</v>
+      </c>
+      <c r="F127" t="s">
         <v>562</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" t="s">
-        <v>13</v>
-      </c>
-      <c r="F127" t="s">
-        <v>563</v>
       </c>
       <c r="G127" t="s">
         <v>21</v>
       </c>
       <c r="H127" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>566</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D128" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128" t="s">
         <v>567</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" t="s">
-        <v>13</v>
-      </c>
-      <c r="F128" t="s">
-        <v>568</v>
       </c>
       <c r="G128" t="s">
         <v>21</v>
       </c>
       <c r="H128" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>570</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129" t="s">
         <v>571</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
-        <v>13</v>
-      </c>
-      <c r="F129" t="s">
-        <v>572</v>
       </c>
       <c r="G129" t="s">
         <v>88</v>
       </c>
       <c r="H129" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>575</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="D130" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130" t="s">
         <v>576</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
-        <v>13</v>
-      </c>
-      <c r="F130" t="s">
-        <v>577</v>
       </c>
       <c r="G130" t="s">
         <v>21</v>
       </c>
       <c r="H130" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>579</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="E131" t="s">
+        <v>13</v>
+      </c>
+      <c r="F131" t="s">
         <v>580</v>
       </c>
-      <c r="B131" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="E131" t="s">
-        <v>13</v>
-      </c>
-      <c r="F131" t="s">
-        <v>581</v>
-      </c>
       <c r="G131" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H131" t="s">
         <v>8</v>
@@ -7653,39 +7752,39 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>584</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" t="s">
         <v>585</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" t="s">
-        <v>13</v>
-      </c>
-      <c r="F132" t="s">
-        <v>586</v>
       </c>
       <c r="G132" t="s">
         <v>21</v>
       </c>
       <c r="H132" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -7694,7 +7793,7 @@
         <v>370</v>
       </c>
       <c r="F133" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G133" t="s">
         <v>21</v>
@@ -7705,25 +7804,25 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>592</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>498</v>
+      </c>
+      <c r="F134" t="s">
         <v>593</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" t="s">
-        <v>499</v>
-      </c>
-      <c r="F134" t="s">
-        <v>594</v>
-      </c>
       <c r="G134" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H134" t="s">
         <v>8</v>
@@ -7731,22 +7830,22 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>595</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D135" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" t="s">
+        <v>13</v>
+      </c>
+      <c r="F135" t="s">
         <v>596</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" t="s">
-        <v>13</v>
-      </c>
-      <c r="F135" t="s">
-        <v>597</v>
       </c>
       <c r="G135" t="s">
         <v>126</v>
@@ -7757,48 +7856,48 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>598</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D136" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" t="s">
         <v>599</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" t="s">
-        <v>13</v>
-      </c>
-      <c r="F136" t="s">
-        <v>600</v>
       </c>
       <c r="G136" t="s">
         <v>69</v>
       </c>
       <c r="H136" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D137" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="E137" t="s">
         <v>25</v>
       </c>
       <c r="F137" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G137" t="s">
         <v>126</v>
@@ -7809,13 +7908,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>606</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="C138" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
@@ -7824,7 +7923,7 @@
         <v>13</v>
       </c>
       <c r="F138" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G138" t="s">
         <v>126</v>
@@ -7835,22 +7934,22 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>608</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="D139" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" t="s">
+        <v>612</v>
+      </c>
+      <c r="F139" t="s">
         <v>609</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" t="s">
-        <v>613</v>
-      </c>
-      <c r="F139" t="s">
-        <v>610</v>
       </c>
       <c r="G139" t="s">
         <v>88</v>
@@ -7861,48 +7960,48 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>614</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="D140" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" t="s">
         <v>615</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" t="s">
-        <v>13</v>
-      </c>
-      <c r="F140" t="s">
-        <v>616</v>
       </c>
       <c r="G140" t="s">
         <v>149</v>
       </c>
       <c r="H140" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>618</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E141" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" t="s">
         <v>619</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E141" t="s">
-        <v>13</v>
-      </c>
-      <c r="F141" t="s">
-        <v>620</v>
       </c>
       <c r="G141" t="s">
         <v>21</v>
@@ -7913,65 +8012,65 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
+        <v>622</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142" t="s">
         <v>623</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="E142" t="s">
-        <v>13</v>
-      </c>
-      <c r="F142" t="s">
-        <v>624</v>
       </c>
       <c r="G142" t="s">
         <v>21</v>
       </c>
       <c r="H142" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>629</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="D143" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" t="s">
         <v>630</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="D143" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" t="s">
-        <v>13</v>
-      </c>
-      <c r="F143" t="s">
-        <v>631</v>
       </c>
       <c r="G143" t="s">
         <v>438</v>
       </c>
       <c r="H143" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D144" t="s">
         <v>8</v>
@@ -7980,7 +8079,7 @@
         <v>369</v>
       </c>
       <c r="F144" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G144" t="s">
         <v>438</v>
@@ -7991,25 +8090,25 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>636</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D145" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" t="s">
+        <v>13</v>
+      </c>
+      <c r="F145" t="s">
         <v>637</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D145" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" t="s">
-        <v>13</v>
-      </c>
-      <c r="F145" t="s">
-        <v>638</v>
-      </c>
       <c r="G145" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H145" t="s">
         <v>153</v>
@@ -8017,22 +8116,22 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
+        <v>640</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D146" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
         <v>641</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" t="s">
-        <v>13</v>
-      </c>
-      <c r="F146" t="s">
-        <v>642</v>
       </c>
       <c r="G146" t="s">
         <v>166</v>
@@ -8043,74 +8142,74 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
+        <v>643</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
         <v>644</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" t="s">
-        <v>13</v>
-      </c>
-      <c r="F147" t="s">
-        <v>645</v>
       </c>
       <c r="G147" t="s">
         <v>21</v>
       </c>
       <c r="H147" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="E148" t="s">
         <v>25</v>
       </c>
       <c r="F148" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G148" t="s">
         <v>56</v>
       </c>
       <c r="H148" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B149" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>658</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>659</v>
       </c>
       <c r="E149" t="s">
         <v>183</v>
       </c>
       <c r="F149" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G149" t="s">
         <v>21</v>
@@ -8121,91 +8220,91 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B150" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="D150" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="E150" t="s">
         <v>25</v>
       </c>
       <c r="F150" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G150" t="s">
         <v>255</v>
       </c>
       <c r="H150" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
+        <v>665</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D151" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" t="s">
         <v>666</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" t="s">
-        <v>13</v>
-      </c>
-      <c r="F151" t="s">
-        <v>667</v>
       </c>
       <c r="G151" t="s">
         <v>21</v>
       </c>
       <c r="H151" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
+        <v>669</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" t="s">
         <v>670</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="E152" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" t="s">
-        <v>671</v>
       </c>
       <c r="G152" t="s">
         <v>149</v>
       </c>
       <c r="H152" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B153" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D153" t="s">
         <v>8</v>
@@ -8214,7 +8313,7 @@
         <v>25</v>
       </c>
       <c r="F153" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G153" t="s">
         <v>47</v>
@@ -8225,22 +8324,22 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>678</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="D154" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" t="s">
+        <v>13</v>
+      </c>
+      <c r="F154" t="s">
         <v>679</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="s">
-        <v>13</v>
-      </c>
-      <c r="F154" t="s">
-        <v>680</v>
       </c>
       <c r="G154" t="s">
         <v>229</v>
@@ -8251,25 +8350,25 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>681</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D155" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" t="s">
+        <v>13</v>
+      </c>
+      <c r="F155" t="s">
         <v>682</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" t="s">
-        <v>13</v>
-      </c>
-      <c r="F155" t="s">
-        <v>683</v>
-      </c>
       <c r="G155" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H155" t="s">
         <v>8</v>
@@ -8277,22 +8376,22 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>684</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="D156" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" t="s">
         <v>685</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D156" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" t="s">
-        <v>13</v>
-      </c>
-      <c r="F156" t="s">
-        <v>686</v>
       </c>
       <c r="G156" t="s">
         <v>47</v>
@@ -8303,22 +8402,22 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>689</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157" t="s">
         <v>690</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="D157" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" t="s">
-        <v>13</v>
-      </c>
-      <c r="F157" t="s">
-        <v>691</v>
       </c>
       <c r="G157" t="s">
         <v>88</v>
@@ -8329,22 +8428,22 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
+        <v>692</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" t="s">
+        <v>13</v>
+      </c>
+      <c r="F158" t="s">
         <v>693</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="D158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" t="s">
-        <v>13</v>
-      </c>
-      <c r="F158" t="s">
-        <v>694</v>
       </c>
       <c r="G158" t="s">
         <v>151</v>
@@ -8355,22 +8454,22 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
+        <v>695</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="D159" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
         <v>696</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D159" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" t="s">
-        <v>697</v>
       </c>
       <c r="G159" t="s">
         <v>88</v>
@@ -8381,129 +8480,129 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
+        <v>698</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
         <v>699</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="D160" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" t="s">
-        <v>13</v>
-      </c>
-      <c r="F160" t="s">
-        <v>700</v>
       </c>
       <c r="G160" t="s">
         <v>88</v>
       </c>
       <c r="H160" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>702</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="D161" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" t="s">
         <v>703</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="D161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" t="s">
-        <v>13</v>
-      </c>
-      <c r="F161" t="s">
-        <v>704</v>
       </c>
       <c r="G161" t="s">
         <v>21</v>
       </c>
       <c r="H161" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>707</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="D162" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" t="s">
+        <v>13</v>
+      </c>
+      <c r="F162" t="s">
         <v>708</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D162" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" t="s">
-        <v>13</v>
-      </c>
-      <c r="F162" t="s">
-        <v>709</v>
       </c>
       <c r="G162" t="s">
         <v>255</v>
       </c>
       <c r="H162" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
+        <v>711</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="D163" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
         <v>712</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D163" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" t="s">
-        <v>13</v>
-      </c>
-      <c r="F163" t="s">
-        <v>713</v>
       </c>
       <c r="G163" t="s">
         <v>21</v>
       </c>
       <c r="H163" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>716</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="D164" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" t="s">
         <v>717</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="D164" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" t="s">
-        <v>13</v>
-      </c>
-      <c r="F164" t="s">
-        <v>718</v>
-      </c>
       <c r="G164" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H164" t="s">
         <v>8</v>
@@ -8511,152 +8610,152 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
+        <v>720</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>13</v>
+      </c>
+      <c r="F165" t="s">
         <v>721</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D165" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>722</v>
       </c>
       <c r="G165" t="s">
         <v>21</v>
       </c>
       <c r="H165" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
+        <v>725</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D166" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" t="s">
         <v>726</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C166" s="1" t="s">
+      <c r="G166" t="s">
+        <v>499</v>
+      </c>
+      <c r="H166" t="s">
         <v>728</v>
-      </c>
-      <c r="D166" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" t="s">
-        <v>13</v>
-      </c>
-      <c r="F166" t="s">
-        <v>727</v>
-      </c>
-      <c r="G166" t="s">
-        <v>500</v>
-      </c>
-      <c r="H166" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>729</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="E167" t="s">
+        <v>13</v>
+      </c>
+      <c r="F167" t="s">
         <v>730</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="E167" t="s">
-        <v>13</v>
-      </c>
-      <c r="F167" t="s">
-        <v>731</v>
       </c>
       <c r="G167" t="s">
         <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>734</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="D168" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" t="s">
+        <v>13</v>
+      </c>
+      <c r="F168" t="s">
         <v>735</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="D168" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" t="s">
-        <v>736</v>
       </c>
       <c r="G168" t="s">
         <v>47</v>
       </c>
       <c r="H168" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>738</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D169" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" t="s">
+        <v>13</v>
+      </c>
+      <c r="F169" t="s">
         <v>739</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C169" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D169" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" t="s">
-        <v>13</v>
-      </c>
-      <c r="F169" t="s">
-        <v>740</v>
       </c>
       <c r="G169" t="s">
         <v>47</v>
       </c>
       <c r="H169" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>742</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" t="s">
         <v>743</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D170" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" t="s">
-        <v>13</v>
-      </c>
-      <c r="F170" t="s">
-        <v>744</v>
       </c>
       <c r="G170" t="s">
         <v>255</v>
@@ -8667,25 +8766,25 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
+        <v>745</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="D171" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" t="s">
+        <v>13</v>
+      </c>
+      <c r="F171" t="s">
         <v>746</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="G171" t="s">
         <v>748</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D171" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" t="s">
-        <v>13</v>
-      </c>
-      <c r="F171" t="s">
-        <v>747</v>
-      </c>
-      <c r="G171" t="s">
-        <v>749</v>
       </c>
       <c r="H171" t="s">
         <v>8</v>
@@ -8693,22 +8792,22 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
+        <v>749</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="E172" t="s">
+        <v>13</v>
+      </c>
+      <c r="F172" t="s">
         <v>750</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="E172" t="s">
-        <v>13</v>
-      </c>
-      <c r="F172" t="s">
-        <v>751</v>
       </c>
       <c r="G172" t="s">
         <v>120</v>
@@ -8719,36 +8818,36 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
+        <v>754</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="D173" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" t="s">
+        <v>13</v>
+      </c>
+      <c r="F173" t="s">
         <v>755</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="D173" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" t="s">
-        <v>13</v>
-      </c>
-      <c r="F173" t="s">
-        <v>756</v>
       </c>
       <c r="G173" t="s">
         <v>56</v>
       </c>
       <c r="H173" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C174" t="s">
         <v>409</v>
@@ -8760,7 +8859,7 @@
         <v>13</v>
       </c>
       <c r="F174" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G174" t="s">
         <v>21</v>
@@ -8771,22 +8870,22 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>762</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>13</v>
+      </c>
+      <c r="F175" t="s">
         <v>763</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D175" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
-        <v>13</v>
-      </c>
-      <c r="F175" t="s">
-        <v>764</v>
       </c>
       <c r="G175" t="s">
         <v>47</v>
@@ -8797,22 +8896,22 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>765</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="D176" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" t="s">
+        <v>13</v>
+      </c>
+      <c r="F176" t="s">
         <v>766</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D176" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" t="s">
-        <v>13</v>
-      </c>
-      <c r="F176" t="s">
-        <v>767</v>
       </c>
       <c r="G176" t="s">
         <v>45</v>
@@ -8823,22 +8922,22 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>769</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="D177" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" t="s">
         <v>770</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D177" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" t="s">
-        <v>13</v>
-      </c>
-      <c r="F177" t="s">
-        <v>771</v>
       </c>
       <c r="G177" t="s">
         <v>149</v>
@@ -8849,22 +8948,22 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>772</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" t="s">
+        <v>13</v>
+      </c>
+      <c r="F178" t="s">
         <v>773</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D178" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" t="s">
-        <v>13</v>
-      </c>
-      <c r="F178" t="s">
-        <v>774</v>
       </c>
       <c r="G178" t="s">
         <v>149</v>
@@ -8875,22 +8974,22 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>775</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" t="s">
+        <v>13</v>
+      </c>
+      <c r="F179" t="s">
         <v>776</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D179" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" t="s">
-        <v>13</v>
-      </c>
-      <c r="F179" t="s">
-        <v>777</v>
       </c>
       <c r="G179" t="s">
         <v>149</v>
@@ -8901,22 +9000,22 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>778</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>13</v>
+      </c>
+      <c r="F180" t="s">
         <v>779</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D180" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" t="s">
-        <v>780</v>
       </c>
       <c r="G180" t="s">
         <v>149</v>
@@ -8927,100 +9026,100 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>781</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="D181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
         <v>782</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D181" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" t="s">
-        <v>783</v>
       </c>
       <c r="G181" t="s">
         <v>149</v>
       </c>
       <c r="H181" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>786</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" t="s">
+        <v>13</v>
+      </c>
+      <c r="F182" t="s">
         <v>787</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D182" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" t="s">
-        <v>13</v>
-      </c>
-      <c r="F182" t="s">
-        <v>788</v>
       </c>
       <c r="G182" t="s">
         <v>149</v>
       </c>
       <c r="H182" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>789</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D183" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" t="s">
+        <v>13</v>
+      </c>
+      <c r="F183" t="s">
         <v>790</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C183" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D183" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" t="s">
-        <v>13</v>
-      </c>
-      <c r="F183" t="s">
-        <v>791</v>
       </c>
       <c r="G183" t="s">
         <v>149</v>
       </c>
       <c r="H183" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>793</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D184" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" t="s">
+        <v>13</v>
+      </c>
+      <c r="F184" t="s">
         <v>794</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="C184" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D184" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" t="s">
-        <v>13</v>
-      </c>
-      <c r="F184" t="s">
-        <v>795</v>
       </c>
       <c r="G184" t="s">
         <v>149</v>
@@ -9031,48 +9130,48 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>796</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>13</v>
+      </c>
+      <c r="F185" t="s">
         <v>797</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D185" t="s">
-        <v>8</v>
-      </c>
-      <c r="E185" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" t="s">
-        <v>798</v>
       </c>
       <c r="G185" t="s">
         <v>149</v>
       </c>
       <c r="H185" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>801</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="D186" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" t="s">
+        <v>13</v>
+      </c>
+      <c r="F186" t="s">
         <v>802</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D186" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" t="s">
-        <v>803</v>
       </c>
       <c r="G186" t="s">
         <v>149</v>
@@ -9083,39 +9182,39 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
+        <v>805</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="D187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" t="s">
+        <v>13</v>
+      </c>
+      <c r="F187" t="s">
         <v>806</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D187" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" t="s">
-        <v>13</v>
-      </c>
-      <c r="F187" t="s">
-        <v>807</v>
       </c>
       <c r="G187" t="s">
         <v>47</v>
       </c>
       <c r="H187" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
+        <v>808</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="D188" t="s">
         <v>8</v>
@@ -9130,18 +9229,18 @@
         <v>120</v>
       </c>
       <c r="H188" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D189" t="s">
         <v>8</v>
@@ -9150,7 +9249,7 @@
         <v>25</v>
       </c>
       <c r="F189" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G189" t="s">
         <v>149</v>
@@ -9161,13 +9260,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D190" t="s">
         <v>8</v>
@@ -9176,24 +9275,24 @@
         <v>25</v>
       </c>
       <c r="F190" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G190" t="s">
         <v>149</v>
       </c>
       <c r="H190" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D191" t="s">
         <v>8</v>
@@ -9202,7 +9301,7 @@
         <v>25</v>
       </c>
       <c r="F191" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G191" t="s">
         <v>88</v>
@@ -9213,13 +9312,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D192" t="s">
         <v>8</v>
@@ -9228,7 +9327,7 @@
         <v>25</v>
       </c>
       <c r="F192" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G192" t="s">
         <v>120</v>
@@ -9239,65 +9338,65 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>826</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>13</v>
+      </c>
+      <c r="F193" t="s">
         <v>827</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D193" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193" t="s">
-        <v>13</v>
-      </c>
-      <c r="F193" t="s">
-        <v>828</v>
       </c>
       <c r="G193" t="s">
         <v>21</v>
       </c>
       <c r="H193" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>831</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
+        <v>13</v>
+      </c>
+      <c r="F194" t="s">
         <v>832</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="G194" t="s">
         <v>834</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="D194" t="s">
-        <v>8</v>
-      </c>
-      <c r="E194" t="s">
-        <v>13</v>
-      </c>
-      <c r="F194" t="s">
-        <v>833</v>
-      </c>
-      <c r="G194" t="s">
+      <c r="H194" t="s">
         <v>835</v>
-      </c>
-      <c r="H194" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D195" t="s">
         <v>8</v>
@@ -9306,36 +9405,36 @@
         <v>25</v>
       </c>
       <c r="F195" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G195" t="s">
+        <v>840</v>
+      </c>
+      <c r="H195" t="s">
         <v>841</v>
-      </c>
-      <c r="H195" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B196" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C196" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>845</v>
-      </c>
-      <c r="C196" t="s">
-        <v>8</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>846</v>
       </c>
       <c r="E196" t="s">
         <v>25</v>
       </c>
       <c r="F196" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G196" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H196" t="s">
         <v>8</v>
@@ -9343,36 +9442,36 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B197" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D197" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="E197" t="s">
         <v>25</v>
       </c>
       <c r="F197" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="G197" t="s">
         <v>88</v>
       </c>
       <c r="H197" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C198" t="s">
         <v>8</v>
@@ -9384,76 +9483,76 @@
         <v>25</v>
       </c>
       <c r="F198" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G198" t="s">
         <v>149</v>
       </c>
       <c r="H198" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
+        <v>854</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D199" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" t="s">
         <v>855</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>857</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D199" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" t="s">
-        <v>13</v>
-      </c>
-      <c r="F199" t="s">
-        <v>856</v>
       </c>
       <c r="G199" t="s">
         <v>56</v>
       </c>
       <c r="H199" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D200" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="E200" t="s">
         <v>25</v>
       </c>
       <c r="F200" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G200" t="s">
         <v>149</v>
       </c>
       <c r="H200" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D201" t="s">
         <v>8</v>
@@ -9462,10 +9561,10 @@
         <v>25</v>
       </c>
       <c r="F201" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G201" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H201" t="s">
         <v>8</v>
@@ -9473,22 +9572,22 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
+        <v>869</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="D202" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s">
         <v>870</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="D202" t="s">
-        <v>8</v>
-      </c>
-      <c r="E202" t="s">
-        <v>13</v>
-      </c>
-      <c r="F202" t="s">
-        <v>871</v>
       </c>
       <c r="G202" t="s">
         <v>69</v>
@@ -9499,91 +9598,91 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
+        <v>872</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D203" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203" t="s">
         <v>873</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="C203" t="s">
-        <v>1062</v>
-      </c>
-      <c r="D203" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" t="s">
-        <v>13</v>
-      </c>
-      <c r="F203" t="s">
-        <v>874</v>
       </c>
       <c r="G203" t="s">
         <v>45</v>
       </c>
       <c r="H203" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
+        <v>876</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D204" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204" t="s">
         <v>877</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D204" t="s">
-        <v>8</v>
-      </c>
-      <c r="E204" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
-        <v>878</v>
       </c>
       <c r="G204" t="s">
         <v>56</v>
       </c>
       <c r="H204" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
+        <v>880</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D205" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s">
         <v>881</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="D205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" t="s">
-        <v>13</v>
-      </c>
-      <c r="F205" t="s">
-        <v>882</v>
       </c>
       <c r="G205" t="s">
         <v>120</v>
       </c>
       <c r="H205" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D206" t="s">
         <v>8</v>
@@ -9592,10 +9691,10 @@
         <v>68</v>
       </c>
       <c r="F206" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="G206" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="H206" t="s">
         <v>8</v>
@@ -9603,48 +9702,48 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="D207" s="1" t="s">
         <v>890</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>889</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>891</v>
       </c>
       <c r="E207" t="s">
         <v>25</v>
       </c>
       <c r="F207" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G207" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H207" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
+        <v>892</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" t="s">
         <v>893</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="D208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" t="s">
-        <v>13</v>
-      </c>
-      <c r="F208" t="s">
-        <v>894</v>
       </c>
       <c r="G208" t="s">
         <v>47</v>
@@ -9655,13 +9754,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>896</v>
+      </c>
+      <c r="B209" s="1" t="s">
         <v>897</v>
       </c>
-      <c r="B209" s="1" t="s">
-        <v>898</v>
-      </c>
       <c r="C209" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D209" t="s">
         <v>8</v>
@@ -9676,27 +9775,27 @@
         <v>47</v>
       </c>
       <c r="H209" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
+        <v>899</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="D210" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" t="s">
+        <v>13</v>
+      </c>
+      <c r="F210" t="s">
         <v>900</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>902</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" t="s">
-        <v>901</v>
       </c>
       <c r="G210" t="s">
         <v>171</v>
@@ -9707,13 +9806,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D211" t="s">
         <v>8</v>
@@ -9722,24 +9821,24 @@
         <v>25</v>
       </c>
       <c r="F211" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G211" t="s">
         <v>47</v>
       </c>
       <c r="H211" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D212" t="s">
         <v>8</v>
@@ -9748,33 +9847,33 @@
         <v>370</v>
       </c>
       <c r="F212" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="G212" t="s">
         <v>47</v>
       </c>
       <c r="H212" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
+        <v>911</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="D213" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" t="s">
+        <v>915</v>
+      </c>
+      <c r="F213" t="s">
         <v>912</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="D213" t="s">
-        <v>8</v>
-      </c>
-      <c r="E213" t="s">
-        <v>916</v>
-      </c>
-      <c r="F213" t="s">
-        <v>913</v>
       </c>
       <c r="G213" t="s">
         <v>88</v>
@@ -9785,13 +9884,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B214" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D214" t="s">
         <v>8</v>
@@ -9800,7 +9899,7 @@
         <v>370</v>
       </c>
       <c r="F214" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="G214" t="s">
         <v>47</v>
@@ -9811,74 +9910,74 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
+        <v>918</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>920</v>
+      </c>
+      <c r="D215" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" t="s">
+        <v>13</v>
+      </c>
+      <c r="F215" t="s">
         <v>919</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>922</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>921</v>
-      </c>
-      <c r="D215" t="s">
-        <v>8</v>
-      </c>
-      <c r="E215" t="s">
-        <v>13</v>
-      </c>
-      <c r="F215" t="s">
-        <v>920</v>
       </c>
       <c r="G215" t="s">
         <v>47</v>
       </c>
       <c r="H215" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
+        <v>923</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="C216" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D216" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" t="s">
+        <v>13</v>
+      </c>
+      <c r="F216" t="s">
         <v>924</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>926</v>
-      </c>
-      <c r="C216" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D216" t="s">
-        <v>8</v>
-      </c>
-      <c r="E216" t="s">
-        <v>13</v>
-      </c>
-      <c r="F216" t="s">
-        <v>925</v>
       </c>
       <c r="G216" t="s">
         <v>47</v>
       </c>
       <c r="H216" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>927</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="D217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" t="s">
+        <v>13</v>
+      </c>
+      <c r="F217" t="s">
         <v>928</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>930</v>
-      </c>
-      <c r="D217" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" t="s">
-        <v>13</v>
-      </c>
-      <c r="F217" t="s">
-        <v>929</v>
       </c>
       <c r="G217" t="s">
         <v>438</v>
@@ -9889,10 +9988,10 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
+        <v>930</v>
+      </c>
+      <c r="B218" s="1" t="s">
         <v>931</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>932</v>
       </c>
       <c r="C218" t="s">
         <v>8</v>
@@ -9910,70 +10009,70 @@
         <v>47</v>
       </c>
       <c r="H218" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
+        <v>933</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>936</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" t="s">
+        <v>13</v>
+      </c>
+      <c r="F219" t="s">
         <v>934</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>936</v>
-      </c>
-      <c r="D219" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
-        <v>935</v>
       </c>
       <c r="G219" t="s">
         <v>149</v>
       </c>
       <c r="H219" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
+        <v>938</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="D220" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" t="s">
+        <v>13</v>
+      </c>
+      <c r="F220" t="s">
         <v>939</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>942</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D220" t="s">
-        <v>8</v>
-      </c>
-      <c r="E220" t="s">
-        <v>13</v>
-      </c>
-      <c r="F220" t="s">
-        <v>940</v>
       </c>
       <c r="G220" t="s">
         <v>47</v>
       </c>
       <c r="H220" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
+        <v>944</v>
+      </c>
+      <c r="B221" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="B221" s="1" t="s">
-        <v>946</v>
-      </c>
       <c r="C221" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D221" t="s">
         <v>8</v>
@@ -9993,22 +10092,22 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>946</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" t="s">
+        <v>13</v>
+      </c>
+      <c r="F222" t="s">
         <v>947</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>950</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>949</v>
-      </c>
-      <c r="D222" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" t="s">
-        <v>948</v>
       </c>
       <c r="G222" t="s">
         <v>56</v>
@@ -10019,74 +10118,74 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
+        <v>950</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>13</v>
+      </c>
+      <c r="F223" t="s">
         <v>951</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="D223" t="s">
-        <v>8</v>
-      </c>
-      <c r="E223" t="s">
-        <v>13</v>
-      </c>
-      <c r="F223" t="s">
-        <v>952</v>
       </c>
       <c r="G223" t="s">
         <v>56</v>
       </c>
       <c r="H223" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>955</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D224" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" t="s">
+        <v>13</v>
+      </c>
+      <c r="F224" t="s">
         <v>956</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="G224" t="s">
+        <v>834</v>
+      </c>
+      <c r="H224" t="s">
         <v>959</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="D224" t="s">
-        <v>8</v>
-      </c>
-      <c r="E224" t="s">
-        <v>13</v>
-      </c>
-      <c r="F224" t="s">
-        <v>957</v>
-      </c>
-      <c r="G224" t="s">
-        <v>835</v>
-      </c>
-      <c r="H224" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
+        <v>960</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D225" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" t="s">
+        <v>13</v>
+      </c>
+      <c r="F225" t="s">
         <v>961</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D225" t="s">
-        <v>8</v>
-      </c>
-      <c r="E225" t="s">
-        <v>13</v>
-      </c>
-      <c r="F225" t="s">
-        <v>962</v>
       </c>
       <c r="G225" t="s">
         <v>21</v>
@@ -10097,48 +10196,48 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
+        <v>964</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>966</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D226" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" t="s">
+        <v>13</v>
+      </c>
+      <c r="F226" t="s">
         <v>965</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="G226" t="s">
         <v>967</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="D226" t="s">
-        <v>8</v>
-      </c>
-      <c r="E226" t="s">
-        <v>13</v>
-      </c>
-      <c r="F226" t="s">
-        <v>966</v>
-      </c>
-      <c r="G226" t="s">
+      <c r="H226" t="s">
         <v>968</v>
-      </c>
-      <c r="H226" t="s">
-        <v>969</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
+        <v>969</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E227" t="s">
+        <v>13</v>
+      </c>
+      <c r="F227" t="s">
         <v>970</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>972</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>973</v>
-      </c>
-      <c r="E227" t="s">
-        <v>13</v>
-      </c>
-      <c r="F227" t="s">
-        <v>971</v>
       </c>
       <c r="G227" t="s">
         <v>271</v>
@@ -10149,13 +10248,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D228" t="s">
         <v>8</v>
@@ -10164,7 +10263,7 @@
         <v>25</v>
       </c>
       <c r="F228" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="G228" t="s">
         <v>88</v>
@@ -10175,74 +10274,74 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
+        <v>976</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E229" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
         <v>977</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>979</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="E229" t="s">
-        <v>13</v>
-      </c>
-      <c r="F229" t="s">
-        <v>978</v>
       </c>
       <c r="G229" t="s">
         <v>151</v>
       </c>
       <c r="H229" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="D230" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>984</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>986</v>
       </c>
       <c r="E230" t="s">
         <v>25</v>
       </c>
       <c r="F230" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="G230" t="s">
+        <v>986</v>
+      </c>
+      <c r="H230" t="s">
         <v>987</v>
-      </c>
-      <c r="H230" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
+        <v>988</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D231" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" t="s">
+        <v>13</v>
+      </c>
+      <c r="F231" t="s">
         <v>989</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>991</v>
-      </c>
-      <c r="D231" t="s">
-        <v>8</v>
-      </c>
-      <c r="E231" t="s">
-        <v>13</v>
-      </c>
-      <c r="F231" t="s">
-        <v>990</v>
       </c>
       <c r="G231" t="s">
         <v>47</v>
@@ -10253,39 +10352,39 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>992</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D232" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" t="s">
+        <v>13</v>
+      </c>
+      <c r="F232" t="s">
         <v>993</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>995</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D232" t="s">
-        <v>8</v>
-      </c>
-      <c r="E232" t="s">
-        <v>13</v>
-      </c>
-      <c r="F232" t="s">
-        <v>994</v>
       </c>
       <c r="G232" t="s">
         <v>255</v>
       </c>
       <c r="H232" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D233" t="s">
         <v>8</v>
@@ -10294,33 +10393,33 @@
         <v>25</v>
       </c>
       <c r="F233" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="G233" t="s">
         <v>47</v>
       </c>
       <c r="H233" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D234" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" t="s">
         <v>1001</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D234" t="s">
-        <v>8</v>
-      </c>
-      <c r="E234" t="s">
-        <v>13</v>
-      </c>
-      <c r="F234" t="s">
-        <v>1002</v>
       </c>
       <c r="G234" t="s">
         <v>56</v>
@@ -10331,13 +10430,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D235" t="s">
         <v>8</v>
@@ -10346,33 +10445,33 @@
         <v>25</v>
       </c>
       <c r="F235" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G235" t="s">
         <v>56</v>
       </c>
       <c r="H235" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D236" s="1" t="s">
         <v>1012</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>1013</v>
       </c>
       <c r="E236" t="s">
         <v>38</v>
       </c>
       <c r="F236" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="G236" t="s">
         <v>149</v>
@@ -10383,13 +10482,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B237" s="1" t="s">
         <v>1014</v>
       </c>
-      <c r="B237" s="1" t="s">
-        <v>1015</v>
-      </c>
       <c r="C237" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="D237" t="s">
         <v>8</v>
@@ -10404,27 +10503,27 @@
         <v>47</v>
       </c>
       <c r="H237" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E238" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
         <v>1017</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="E238" t="s">
-        <v>13</v>
-      </c>
-      <c r="F238" t="s">
-        <v>1018</v>
       </c>
       <c r="G238" t="s">
         <v>149</v>
@@ -10435,77 +10534,77 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D239" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" t="s">
+        <v>13</v>
+      </c>
+      <c r="F239" t="s">
         <v>1022</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D239" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
-        <v>1023</v>
       </c>
       <c r="G239" t="s">
         <v>151</v>
       </c>
       <c r="H239" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s">
+        <v>13</v>
+      </c>
+      <c r="F240" t="s">
         <v>1027</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D240" t="s">
-        <v>8</v>
-      </c>
-      <c r="E240" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" t="s">
-        <v>1028</v>
       </c>
       <c r="G240" t="s">
         <v>149</v>
       </c>
       <c r="H240" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F241" t="s">
         <v>1030</v>
       </c>
-      <c r="B241" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>1032</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E241" t="s">
+      <c r="G241" t="s">
         <v>1034</v>
-      </c>
-      <c r="F241" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G241" t="s">
-        <v>1035</v>
       </c>
       <c r="H241" t="s">
         <v>8</v>
@@ -10513,25 +10612,25 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" t="s">
+        <v>13</v>
+      </c>
+      <c r="F242" t="s">
         <v>1036</v>
       </c>
-      <c r="B242" s="1" t="s">
+      <c r="G242" t="s">
         <v>1038</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>1038</v>
-      </c>
-      <c r="D242" t="s">
-        <v>8</v>
-      </c>
-      <c r="E242" t="s">
-        <v>13</v>
-      </c>
-      <c r="F242" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G242" t="s">
-        <v>1039</v>
       </c>
       <c r="H242" t="s">
         <v>8</v>
@@ -10539,25 +10638,25 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D243" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" t="s">
+        <v>612</v>
+      </c>
+      <c r="F243" t="s">
         <v>1040</v>
       </c>
-      <c r="B243" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D243" t="s">
-        <v>8</v>
-      </c>
-      <c r="E243" t="s">
-        <v>613</v>
-      </c>
-      <c r="F243" t="s">
-        <v>1041</v>
-      </c>
       <c r="G243" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H243" t="s">
         <v>8</v>
@@ -10565,22 +10664,22 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C244" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E244" t="s">
+        <v>13</v>
+      </c>
+      <c r="F244" t="s">
         <v>1068</v>
-      </c>
-      <c r="B244" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C244" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1070</v>
-      </c>
-      <c r="E244" t="s">
-        <v>13</v>
-      </c>
-      <c r="F244" t="s">
-        <v>1069</v>
       </c>
       <c r="G244" t="s">
         <v>21</v>
@@ -10588,22 +10687,22 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C245" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
         <v>1072</v>
-      </c>
-      <c r="B245" t="s">
-        <v>1074</v>
-      </c>
-      <c r="C245" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1075</v>
-      </c>
-      <c r="E245" t="s">
-        <v>13</v>
-      </c>
-      <c r="F245" t="s">
-        <v>1073</v>
       </c>
       <c r="G245" t="s">
         <v>271</v>
@@ -10611,48 +10710,48 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D246" t="s">
         <v>1078</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D246" t="s">
-        <v>1079</v>
       </c>
       <c r="E246" t="s">
         <v>25</v>
       </c>
       <c r="F246" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="G246" t="s">
         <v>166</v>
       </c>
       <c r="H246" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C247" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
         <v>1081</v>
-      </c>
-      <c r="B247" t="s">
-        <v>1083</v>
-      </c>
-      <c r="C247" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E247" t="s">
-        <v>13</v>
-      </c>
-      <c r="F247" t="s">
-        <v>1082</v>
       </c>
       <c r="G247" t="s">
         <v>47</v>
@@ -10660,22 +10759,22 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="E248" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
         <v>1085</v>
-      </c>
-      <c r="B248" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C248" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E248" t="s">
-        <v>13</v>
-      </c>
-      <c r="F248" t="s">
-        <v>1086</v>
       </c>
       <c r="G248" t="s">
         <v>21</v>
@@ -10683,19 +10782,19 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B249" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C249" t="s">
         <v>1090</v>
-      </c>
-      <c r="C249" t="s">
-        <v>1091</v>
       </c>
       <c r="E249" t="s">
         <v>370</v>
       </c>
       <c r="F249" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="G249" t="s">
         <v>120</v>
@@ -10703,22 +10802,22 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B250" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D250" t="s">
         <v>1094</v>
-      </c>
-      <c r="C250" t="s">
-        <v>1094</v>
-      </c>
-      <c r="D250" t="s">
-        <v>1095</v>
       </c>
       <c r="E250" t="s">
         <v>25</v>
       </c>
       <c r="F250" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="G250" t="s">
         <v>120</v>
@@ -10726,48 +10825,48 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B251" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B251" s="1" t="s">
+      <c r="C251" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D251" s="1" t="s">
+      <c r="E251" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
         <v>1099</v>
-      </c>
-      <c r="E251" t="s">
-        <v>13</v>
-      </c>
-      <c r="F251" t="s">
-        <v>1100</v>
       </c>
       <c r="G251" t="s">
         <v>45</v>
       </c>
       <c r="H251" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B252" s="1" t="s">
         <v>1102</v>
       </c>
-      <c r="B252" s="1" t="s">
+      <c r="C252" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="C252" s="1" t="s">
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>13</v>
+      </c>
+      <c r="F252" t="s">
         <v>1104</v>
-      </c>
-      <c r="D252" t="s">
-        <v>8</v>
-      </c>
-      <c r="E252" t="s">
-        <v>13</v>
-      </c>
-      <c r="F252" t="s">
-        <v>1105</v>
       </c>
       <c r="G252" t="s">
         <v>21</v>
@@ -10778,48 +10877,48 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B253" s="1" t="s">
         <v>1106</v>
       </c>
-      <c r="B253" s="1" t="s">
+      <c r="C253" t="s">
         <v>1107</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" t="s">
         <v>1108</v>
-      </c>
-      <c r="D253" t="s">
-        <v>8</v>
-      </c>
-      <c r="E253" t="s">
-        <v>13</v>
-      </c>
-      <c r="F253" t="s">
-        <v>1109</v>
       </c>
       <c r="G253" t="s">
         <v>173</v>
       </c>
       <c r="H253" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B254" t="s">
         <v>1112</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="C254" s="1" t="s">
+      <c r="D254" t="s">
         <v>1114</v>
       </c>
-      <c r="D254" t="s">
+      <c r="E254" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
         <v>1115</v>
-      </c>
-      <c r="E254" t="s">
-        <v>13</v>
-      </c>
-      <c r="F254" t="s">
-        <v>1116</v>
       </c>
       <c r="G254" t="s">
         <v>229</v>
@@ -10830,22 +10929,22 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B255" t="s">
         <v>1117</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>1118</v>
       </c>
-      <c r="C255" t="s">
+      <c r="D255" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" t="s">
+        <v>13</v>
+      </c>
+      <c r="F255" t="s">
         <v>1119</v>
-      </c>
-      <c r="D255" t="s">
-        <v>8</v>
-      </c>
-      <c r="E255" t="s">
-        <v>13</v>
-      </c>
-      <c r="F255" t="s">
-        <v>1120</v>
       </c>
       <c r="G255" t="s">
         <v>47</v>
@@ -10853,204 +10952,204 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B256" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B256" s="1" t="s">
+      <c r="C256" t="s">
         <v>1122</v>
       </c>
-      <c r="C256" t="s">
+      <c r="D256" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" t="s">
+        <v>13</v>
+      </c>
+      <c r="F256" t="s">
         <v>1123</v>
-      </c>
-      <c r="D256" t="s">
-        <v>8</v>
-      </c>
-      <c r="E256" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" t="s">
-        <v>1124</v>
       </c>
       <c r="G256" t="s">
         <v>56</v>
       </c>
       <c r="H256" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B257" s="1" t="s">
         <v>1126</v>
       </c>
-      <c r="B257" s="1" t="s">
+      <c r="C257" t="s">
         <v>1127</v>
       </c>
-      <c r="C257" t="s">
+      <c r="D257" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" t="s">
+        <v>13</v>
+      </c>
+      <c r="F257" t="s">
         <v>1128</v>
-      </c>
-      <c r="D257" t="s">
-        <v>8</v>
-      </c>
-      <c r="E257" t="s">
-        <v>13</v>
-      </c>
-      <c r="F257" t="s">
-        <v>1129</v>
       </c>
       <c r="G257" t="s">
         <v>21</v>
       </c>
       <c r="H257" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B258" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="B258" s="1" t="s">
+      <c r="C258" t="s">
         <v>1132</v>
       </c>
-      <c r="C258" t="s">
+      <c r="D258" t="s">
         <v>1133</v>
       </c>
-      <c r="D258" t="s">
+      <c r="E258" t="s">
+        <v>13</v>
+      </c>
+      <c r="F258" t="s">
         <v>1134</v>
-      </c>
-      <c r="E258" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
-        <v>1135</v>
       </c>
       <c r="G258" t="s">
         <v>21</v>
       </c>
       <c r="H258" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B259" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B259" s="1" t="s">
+      <c r="C259" t="s">
         <v>1138</v>
       </c>
-      <c r="C259" t="s">
+      <c r="D259" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" t="s">
+        <v>13</v>
+      </c>
+      <c r="F259" t="s">
         <v>1139</v>
-      </c>
-      <c r="D259" t="s">
-        <v>8</v>
-      </c>
-      <c r="E259" t="s">
-        <v>13</v>
-      </c>
-      <c r="F259" t="s">
-        <v>1140</v>
       </c>
       <c r="G259" t="s">
         <v>21</v>
       </c>
       <c r="H259" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B260" t="s">
         <v>1142</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>1143</v>
       </c>
-      <c r="C260" t="s">
+      <c r="D260" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" t="s">
+        <v>13</v>
+      </c>
+      <c r="F260" t="s">
         <v>1144</v>
-      </c>
-      <c r="D260" t="s">
-        <v>8</v>
-      </c>
-      <c r="E260" t="s">
-        <v>13</v>
-      </c>
-      <c r="F260" t="s">
-        <v>1145</v>
       </c>
       <c r="G260" t="s">
         <v>21</v>
       </c>
       <c r="H260" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B261" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="B261" s="1" t="s">
+      <c r="C261" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D261" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="E261" t="s">
         <v>25</v>
       </c>
       <c r="F261" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G261" t="s">
         <v>45</v>
       </c>
       <c r="H261" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>1152</v>
       </c>
-      <c r="B262" s="1" t="s">
+      <c r="C262" s="1" t="s">
         <v>1153</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" t="s">
+        <v>13</v>
+      </c>
+      <c r="F262" t="s">
         <v>1154</v>
-      </c>
-      <c r="D262" t="s">
-        <v>8</v>
-      </c>
-      <c r="E262" t="s">
-        <v>13</v>
-      </c>
-      <c r="F262" t="s">
-        <v>1155</v>
       </c>
       <c r="G262" t="s">
         <v>149</v>
       </c>
       <c r="H262" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="B263" s="1" t="s">
+      <c r="C263" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D263" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" t="s">
+        <v>13</v>
+      </c>
+      <c r="F263" t="s">
         <v>1158</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>1158</v>
-      </c>
-      <c r="D263" t="s">
-        <v>8</v>
-      </c>
-      <c r="E263" t="s">
-        <v>13</v>
-      </c>
-      <c r="F263" t="s">
-        <v>1159</v>
       </c>
       <c r="G263" t="s">
         <v>126</v>
@@ -11058,181 +11157,181 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B264" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="B264" s="1" t="s">
+      <c r="C264" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D264" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" t="s">
+        <v>13</v>
+      </c>
+      <c r="F264" t="s">
         <v>1161</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D264" t="s">
-        <v>8</v>
-      </c>
-      <c r="E264" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264" t="s">
-        <v>1162</v>
       </c>
       <c r="G264" t="s">
         <v>255</v>
       </c>
       <c r="H264" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B265" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="B265" s="1" t="s">
+      <c r="C265" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D265" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" t="s">
+        <v>13</v>
+      </c>
+      <c r="F265" t="s">
         <v>1165</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D265" t="s">
-        <v>8</v>
-      </c>
-      <c r="E265" t="s">
-        <v>13</v>
-      </c>
-      <c r="F265" t="s">
-        <v>1166</v>
       </c>
       <c r="G265" t="s">
         <v>255</v>
       </c>
       <c r="H265" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B266" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="B266" s="1" t="s">
+      <c r="C266" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" t="s">
+        <v>13</v>
+      </c>
+      <c r="F266" t="s">
         <v>1168</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D266" t="s">
-        <v>8</v>
-      </c>
-      <c r="E266" t="s">
-        <v>13</v>
-      </c>
-      <c r="F266" t="s">
-        <v>1169</v>
       </c>
       <c r="G266" t="s">
         <v>255</v>
       </c>
       <c r="H266" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B267" s="1" t="s">
         <v>1170</v>
       </c>
-      <c r="B267" s="1" t="s">
+      <c r="C267" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D267" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" t="s">
+        <v>13</v>
+      </c>
+      <c r="F267" t="s">
         <v>1171</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D267" t="s">
-        <v>8</v>
-      </c>
-      <c r="E267" t="s">
-        <v>13</v>
-      </c>
-      <c r="F267" t="s">
-        <v>1172</v>
       </c>
       <c r="G267" t="s">
         <v>255</v>
       </c>
       <c r="H267" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>1173</v>
       </c>
-      <c r="B268" s="1" t="s">
+      <c r="C268" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" t="s">
+        <v>13</v>
+      </c>
+      <c r="F268" t="s">
         <v>1174</v>
-      </c>
-      <c r="C268" s="1" t="s">
-        <v>1174</v>
-      </c>
-      <c r="D268" t="s">
-        <v>8</v>
-      </c>
-      <c r="E268" t="s">
-        <v>13</v>
-      </c>
-      <c r="F268" t="s">
-        <v>1175</v>
       </c>
       <c r="G268" t="s">
         <v>255</v>
       </c>
       <c r="H268" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B269" s="1" t="s">
         <v>1176</v>
       </c>
-      <c r="B269" s="1" t="s">
+      <c r="C269" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
         <v>1177</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D269" t="s">
-        <v>8</v>
-      </c>
-      <c r="E269" t="s">
-        <v>13</v>
-      </c>
-      <c r="F269" t="s">
-        <v>1178</v>
       </c>
       <c r="G269" t="s">
         <v>255</v>
       </c>
       <c r="H269" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B270" s="1" t="s">
         <v>1179</v>
       </c>
-      <c r="B270" s="1" t="s">
+      <c r="C270" s="1" t="s">
         <v>1180</v>
       </c>
-      <c r="C270" s="1" t="s">
+      <c r="D270" s="1" t="s">
         <v>1181</v>
       </c>
-      <c r="D270" s="1" t="s">
+      <c r="E270" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
         <v>1182</v>
       </c>
-      <c r="E270" t="s">
-        <v>13</v>
-      </c>
-      <c r="F270" t="s">
-        <v>1183</v>
-      </c>
       <c r="G270" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="H270" t="s">
         <v>8</v>
@@ -11240,25 +11339,25 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B271" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="B271" s="1" t="s">
+      <c r="C271" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D271" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" t="s">
         <v>1185</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>1185</v>
-      </c>
-      <c r="D271" t="s">
-        <v>8</v>
-      </c>
-      <c r="E271" t="s">
+      <c r="F271" t="s">
         <v>1186</v>
       </c>
-      <c r="F271" t="s">
-        <v>1187</v>
-      </c>
       <c r="G271" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H271" t="s">
         <v>8</v>
@@ -11266,48 +11365,48 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B272" s="1" t="s">
         <v>1188</v>
       </c>
-      <c r="B272" s="1" t="s">
+      <c r="C272" t="s">
         <v>1189</v>
       </c>
-      <c r="C272" t="s">
+      <c r="D272" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" t="s">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s">
         <v>1190</v>
-      </c>
-      <c r="D272" t="s">
-        <v>8</v>
-      </c>
-      <c r="E272" t="s">
-        <v>13</v>
-      </c>
-      <c r="F272" t="s">
-        <v>1191</v>
       </c>
       <c r="G272" t="s">
         <v>151</v>
       </c>
       <c r="H272" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B273" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="B273" s="1" t="s">
+      <c r="C273" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" t="s">
+        <v>13</v>
+      </c>
+      <c r="F273" t="s">
         <v>1194</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D273" t="s">
-        <v>8</v>
-      </c>
-      <c r="E273" t="s">
-        <v>13</v>
-      </c>
-      <c r="F273" t="s">
-        <v>1195</v>
       </c>
       <c r="G273" t="s">
         <v>171</v>
@@ -11318,22 +11417,22 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B274" s="1" t="s">
         <v>1196</v>
       </c>
-      <c r="B274" s="1" t="s">
+      <c r="C274" s="1" t="s">
         <v>1197</v>
       </c>
-      <c r="C274" s="1" t="s">
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s">
         <v>1198</v>
-      </c>
-      <c r="D274" t="s">
-        <v>8</v>
-      </c>
-      <c r="E274" t="s">
-        <v>13</v>
-      </c>
-      <c r="F274" t="s">
-        <v>1199</v>
       </c>
       <c r="G274" t="s">
         <v>56</v>
@@ -11344,22 +11443,22 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B275" s="1" t="s">
         <v>1200</v>
       </c>
-      <c r="B275" s="1" t="s">
+      <c r="C275" t="s">
         <v>1201</v>
       </c>
-      <c r="C275" t="s">
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s">
         <v>1202</v>
-      </c>
-      <c r="D275" t="s">
-        <v>8</v>
-      </c>
-      <c r="E275" t="s">
-        <v>13</v>
-      </c>
-      <c r="F275" t="s">
-        <v>1203</v>
       </c>
       <c r="G275" t="s">
         <v>47</v>
@@ -11370,71 +11469,71 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B276" t="s">
         <v>1204</v>
       </c>
-      <c r="B276" t="s">
+      <c r="C276" s="1" t="s">
         <v>1205</v>
       </c>
-      <c r="C276" s="1" t="s">
+      <c r="D276" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" t="s">
+        <v>13</v>
+      </c>
+      <c r="F276" t="s">
         <v>1206</v>
       </c>
-      <c r="D276" t="s">
-        <v>8</v>
-      </c>
-      <c r="E276" t="s">
-        <v>13</v>
-      </c>
-      <c r="F276" t="s">
+      <c r="G276" t="s">
         <v>1207</v>
-      </c>
-      <c r="G276" t="s">
-        <v>1208</v>
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B277" s="1" t="s">
         <v>1209</v>
       </c>
-      <c r="B277" s="1" t="s">
+      <c r="C277" t="s">
         <v>1210</v>
       </c>
-      <c r="C277" t="s">
+      <c r="D277" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" t="s">
+        <v>13</v>
+      </c>
+      <c r="F277" t="s">
         <v>1211</v>
-      </c>
-      <c r="D277" t="s">
-        <v>8</v>
-      </c>
-      <c r="E277" t="s">
-        <v>13</v>
-      </c>
-      <c r="F277" t="s">
-        <v>1212</v>
       </c>
       <c r="G277" t="s">
         <v>126</v>
       </c>
       <c r="H277" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B278" t="s">
         <v>1214</v>
       </c>
-      <c r="B278" t="s">
+      <c r="C278" s="1" t="s">
         <v>1215</v>
       </c>
-      <c r="C278" s="1" t="s">
+      <c r="D278" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" t="s">
+        <v>13</v>
+      </c>
+      <c r="F278" t="s">
         <v>1216</v>
-      </c>
-      <c r="D278" t="s">
-        <v>8</v>
-      </c>
-      <c r="E278" t="s">
-        <v>13</v>
-      </c>
-      <c r="F278" t="s">
-        <v>1217</v>
       </c>
       <c r="G278" t="s">
         <v>149</v>
@@ -11442,13 +11541,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B279" s="1" t="s">
         <v>1218</v>
       </c>
-      <c r="B279" s="1" t="s">
+      <c r="C279" t="s">
         <v>1219</v>
-      </c>
-      <c r="C279" t="s">
-        <v>1220</v>
       </c>
       <c r="D279" t="s">
         <v>97</v>
@@ -11457,10 +11556,10 @@
         <v>13</v>
       </c>
       <c r="F279" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="G279" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H279" t="s">
         <v>92</v>
@@ -11468,91 +11567,91 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B280" s="1" t="s">
         <v>1222</v>
       </c>
-      <c r="B280" s="1" t="s">
+      <c r="C280" t="s">
         <v>1223</v>
       </c>
-      <c r="C280" t="s">
+      <c r="D280" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" t="s">
         <v>1224</v>
       </c>
-      <c r="D280" t="s">
-        <v>8</v>
-      </c>
-      <c r="E280" t="s">
-        <v>13</v>
-      </c>
-      <c r="F280" t="s">
+      <c r="G280" t="s">
+        <v>455</v>
+      </c>
+      <c r="H280" t="s">
         <v>1225</v>
-      </c>
-      <c r="G280" t="s">
-        <v>456</v>
-      </c>
-      <c r="H280" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B281" s="1" t="s">
         <v>1227</v>
       </c>
-      <c r="B281" s="1" t="s">
+      <c r="C281" t="s">
         <v>1228</v>
       </c>
-      <c r="C281" t="s">
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" t="s">
+        <v>13</v>
+      </c>
+      <c r="F281" t="s">
         <v>1229</v>
-      </c>
-      <c r="D281" t="s">
-        <v>8</v>
-      </c>
-      <c r="E281" t="s">
-        <v>13</v>
-      </c>
-      <c r="F281" t="s">
-        <v>1230</v>
       </c>
       <c r="G281" t="s">
         <v>120</v>
       </c>
       <c r="H281" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B282" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="B282" s="1" t="s">
+      <c r="C282" t="s">
         <v>1233</v>
       </c>
-      <c r="C282" t="s">
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" t="s">
+        <v>13</v>
+      </c>
+      <c r="F282" t="s">
         <v>1234</v>
       </c>
-      <c r="D282" t="s">
-        <v>8</v>
-      </c>
-      <c r="E282" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
-        <v>1235</v>
-      </c>
       <c r="G282" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H282" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B283" s="1" t="s">
         <v>1236</v>
       </c>
-      <c r="B283" s="1" t="s">
+      <c r="C283" s="1" t="s">
         <v>1237</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>1238</v>
       </c>
       <c r="D283" t="s">
         <v>8</v>
@@ -11561,85 +11660,85 @@
         <v>25</v>
       </c>
       <c r="F283" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="G283" t="s">
         <v>56</v>
       </c>
       <c r="H283" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C284" t="s">
         <v>1241</v>
       </c>
-      <c r="B284" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C284" t="s">
+      <c r="D284" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" t="s">
+        <v>13</v>
+      </c>
+      <c r="F284" t="s">
         <v>1242</v>
-      </c>
-      <c r="D284" t="s">
-        <v>8</v>
-      </c>
-      <c r="E284" t="s">
-        <v>13</v>
-      </c>
-      <c r="F284" t="s">
-        <v>1243</v>
       </c>
       <c r="G284" t="s">
         <v>21</v>
       </c>
       <c r="H284" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B285" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="B285" s="1" t="s">
+      <c r="C285" t="s">
         <v>1246</v>
       </c>
-      <c r="C285" t="s">
+      <c r="D285" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" t="s">
+        <v>13</v>
+      </c>
+      <c r="F285" t="s">
         <v>1247</v>
-      </c>
-      <c r="D285" t="s">
-        <v>8</v>
-      </c>
-      <c r="E285" t="s">
-        <v>13</v>
-      </c>
-      <c r="F285" t="s">
-        <v>1248</v>
       </c>
       <c r="G285" t="s">
         <v>47</v>
       </c>
       <c r="H285" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B286" s="1" t="s">
         <v>1250</v>
       </c>
-      <c r="B286" s="1" t="s">
+      <c r="C286" s="1" t="s">
         <v>1251</v>
       </c>
-      <c r="C286" s="1" t="s">
+      <c r="D286" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" t="s">
+        <v>13</v>
+      </c>
+      <c r="F286" t="s">
         <v>1252</v>
-      </c>
-      <c r="D286" t="s">
-        <v>8</v>
-      </c>
-      <c r="E286" t="s">
-        <v>13</v>
-      </c>
-      <c r="F286" t="s">
-        <v>1253</v>
       </c>
       <c r="G286" t="s">
         <v>47</v>
@@ -11650,13 +11749,13 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B287" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="B287" s="1" t="s">
+      <c r="C287" s="1" t="s">
         <v>1255</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>1256</v>
       </c>
       <c r="D287" t="s">
         <v>8</v>
@@ -11665,7 +11764,7 @@
         <v>25</v>
       </c>
       <c r="F287" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="G287" t="s">
         <v>438</v>
@@ -11676,22 +11775,22 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B288" s="1" t="s">
         <v>1258</v>
       </c>
-      <c r="B288" s="1" t="s">
+      <c r="C288" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D288" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" t="s">
+        <v>13</v>
+      </c>
+      <c r="F288" t="s">
         <v>1259</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>1259</v>
-      </c>
-      <c r="D288" t="s">
-        <v>8</v>
-      </c>
-      <c r="E288" t="s">
-        <v>13</v>
-      </c>
-      <c r="F288" t="s">
-        <v>1260</v>
       </c>
       <c r="G288" t="s">
         <v>438</v>
@@ -11702,13 +11801,13 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="C289" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="D289" t="s">
         <v>8</v>
@@ -11717,62 +11816,260 @@
         <v>25</v>
       </c>
       <c r="F289" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="G289" t="s">
         <v>14</v>
       </c>
       <c r="H289" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C290" t="s">
         <v>1265</v>
       </c>
-      <c r="B290" t="s">
+      <c r="D290" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E290" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="C290" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D290" t="s">
-        <v>1269</v>
-      </c>
-      <c r="E290" t="s">
-        <v>13</v>
-      </c>
-      <c r="F290" s="3" t="s">
-        <v>1268</v>
-      </c>
       <c r="G290" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B291" t="s">
         <v>1270</v>
       </c>
-      <c r="B291" t="s">
+      <c r="C291" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D291" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
         <v>1271</v>
-      </c>
-      <c r="C291" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D291" t="s">
-        <v>8</v>
-      </c>
-      <c r="E291" t="s">
-        <v>13</v>
-      </c>
-      <c r="F291" t="s">
-        <v>1272</v>
       </c>
       <c r="G291" t="s">
         <v>14</v>
       </c>
       <c r="H291" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D292" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" t="s">
+        <v>13</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G292" t="s">
         <v>1273</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C293" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E293" t="s">
+        <v>13</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G293" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E294" t="s">
+        <v>498</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1285</v>
+      </c>
+      <c r="G294" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D295" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" t="s">
+        <v>13</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1289</v>
+      </c>
+      <c r="G295" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E296" t="s">
+        <v>25</v>
+      </c>
+      <c r="F296" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E297" t="s">
+        <v>38</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1296</v>
+      </c>
+      <c r="G297" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E298" t="s">
+        <v>13</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1299</v>
+      </c>
+      <c r="G298" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D299" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E299" t="s">
+        <v>13</v>
+      </c>
+      <c r="F299" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G299" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C300" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D300" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E300" t="s">
+        <v>13</v>
+      </c>
+      <c r="F300" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G300" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -12349,6 +12646,9 @@
     <hyperlink ref="B288" r:id="rId570" xr:uid="{E560D3A7-74A5-504B-8B7F-1FC9BCAFDFB5}"/>
     <hyperlink ref="H291" r:id="rId571" display="https://github.com/AlexHenderson/agilent-ir-formats/blob/main/alex.henderson@manchester.ac.uk" xr:uid="{08954E73-0368-8D4F-9FCF-2CA083469F65}"/>
     <hyperlink ref="B289" r:id="rId572" xr:uid="{54BC93D1-24AC-0A44-837F-18CD1831FE85}"/>
+    <hyperlink ref="C294" r:id="rId573" xr:uid="{8FBE52AA-C625-AB45-8C63-13174D99FD0B}"/>
+    <hyperlink ref="B299" r:id="rId574" xr:uid="{EE59E314-442E-EC49-B750-C86A49ABD8DE}"/>
+    <hyperlink ref="C299" r:id="rId575" xr:uid="{0D25EA47-0CC7-FF45-A51C-0D8F1BC923AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
